--- a/Dataprep.xlsx
+++ b/Dataprep.xlsx
@@ -1,25 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Romulo\Programação\Python\Scripts\Imobiliaria\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{599AF3A4-E579-422B-A76E-0679D20D6B8A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CAEDADFE-3B89-4B63-8F61-A1F9E51ED80C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Base" sheetId="1" r:id="rId1"/>
-    <sheet name="Planilha2" sheetId="3" r:id="rId2"/>
+    <sheet name="Output" sheetId="3" r:id="rId2"/>
     <sheet name="Configurações" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Base!$B$1:$P$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Planilha2!$A$1:$AA$62</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Output!$A$1:$AA$62</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1159" uniqueCount="477">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1171" uniqueCount="494">
   <si>
     <t>em construção</t>
   </si>
@@ -1490,6 +1490,57 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Index</t>
+  </si>
+  <si>
+    <t>Descrição_1</t>
+  </si>
+  <si>
+    <t>Descrição_2</t>
+  </si>
+  <si>
+    <t>Descrição_3</t>
+  </si>
+  <si>
+    <t>Descrição_4</t>
+  </si>
+  <si>
+    <t>Dataprep_1</t>
+  </si>
+  <si>
+    <t>Dataprep_2</t>
+  </si>
+  <si>
+    <t>Dataprep_3</t>
+  </si>
+  <si>
+    <t>Dataprep_4</t>
+  </si>
+  <si>
+    <t>Dataprep_5</t>
+  </si>
+  <si>
+    <t>Dataprep_6</t>
+  </si>
+  <si>
+    <t>Dataprep_7</t>
+  </si>
+  <si>
+    <t>Dataprep_8</t>
+  </si>
+  <si>
+    <t>Dataprep_9</t>
+  </si>
+  <si>
+    <t>Dataprep_10</t>
+  </si>
+  <si>
+    <t>Dataprep_11</t>
+  </si>
+  <si>
+    <t>Dataprep_12</t>
   </si>
 </sst>
 </file>
@@ -1513,7 +1564,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -1522,13 +1572,12 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1580,7 +1629,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1588,11 +1637,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5678,18 +5724,20 @@
   <dimension ref="A1:AA161"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B121" sqref="B2:Y121"/>
+      <selection sqref="A1:AA1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="3" width="13.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="8.88671875" customWidth="1"/>
-    <col min="10" max="20" width="8.88671875" hidden="1" customWidth="1"/>
-    <col min="21" max="21" width="8.88671875" style="3" hidden="1" customWidth="1"/>
+    <col min="2" max="20" width="12.33203125" customWidth="1"/>
+    <col min="21" max="21" width="12.33203125" style="3" customWidth="1"/>
+    <col min="22" max="27" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>477</v>
+      </c>
       <c r="B1" s="1" t="s">
         <v>129</v>
       </c>
@@ -5703,23 +5751,52 @@
         <v>132</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>133</v>
+        <v>478</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>134</v>
+        <v>479</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>135</v>
+        <v>480</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="U1" s="4" t="s">
-        <v>137</v>
+        <v>481</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>493</v>
       </c>
       <c r="V1" s="1" t="s">
         <v>138</v>
@@ -5760,7 +5837,7 @@
         <f>IF(TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("IPTU",Base!C2)),ISNUMBER(FIND("iptu",Base!C2)))=TRUE,RIGHT(Base!C2,5),0),"R$",""),"$",""))="0",TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("IPTU",Base!D2)),ISNUMBER(FIND("iptu",Base!D2)))=TRUE,RIGHT(Base!D2,5),0),"R$",""),"$","")),TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("iptu",Base!C2)),ISNUMBER(FIND("IPTU",Base!C2)))=TRUE,RIGHT(Base!C2,5),0),"R$",""),"$","")))</f>
         <v>0</v>
       </c>
-      <c r="F2" s="5" t="str" cm="1">
+      <c r="F2" s="4" t="str" cm="1">
         <f t="array" ref="F2">INDEX(Base!2:2,MATCH(MAX(LEN(Base!2:2)),LEN(Base!2:2),0))</f>
         <v>O Central Park é um condomínio fechado com apartamentos de 1 e 2 quartos com varanda, edifício garagem, elevador e área de lazer completa. Apartamentos com acabamento premium gráti...</v>
       </c>
@@ -5813,19 +5890,19 @@
         <v>Rua Savero José Bruno, Moqueta</v>
       </c>
       <c r="V2" t="str" cm="1">
-        <f t="array" ref="V2">IF(LEN(TRIM(SUBSTITUTE(INDEX(Base!2:2,0,MATCH(Planilha2!$U2,Base!2:2,0)+1),"m²",""))&gt;5),LEFT(TRIM(SUBSTITUTE(INDEX(Base!2:2,0,MATCH(Planilha2!$U2,Base!2:2,0)+1),"m²","")),2),TRIM(SUBSTITUTE(INDEX(Base!2:2,0,MATCH(Planilha2!$U2,Base!2:2,0)+1),"m²","")))</f>
+        <f t="array" ref="V2">IF(LEN(TRIM(SUBSTITUTE(INDEX(Base!2:2,0,MATCH(Output!$U2,Base!2:2,0)+1),"m²",""))&gt;5),LEFT(TRIM(SUBSTITUTE(INDEX(Base!2:2,0,MATCH(Output!$U2,Base!2:2,0)+1),"m²","")),2),TRIM(SUBSTITUTE(INDEX(Base!2:2,0,MATCH(Output!$U2,Base!2:2,0)+1),"m²","")))</f>
         <v>31</v>
       </c>
       <c r="W2" t="str" cm="1">
-        <f t="array" ref="W2">IF(LEN(INDEX(Base!2:2,0,MATCH(Planilha2!$U2,Base!2:2,0)+2))&gt;2,LEFT(INDEX(Base!2:2,0,MATCH(Planilha2!$U2,Base!2:2,0)+2),1),INDEX(Base!2:2,0,MATCH(Planilha2!$U2,Base!2:2,0)+2))</f>
+        <f t="array" ref="W2">IF(LEN(INDEX(Base!2:2,0,MATCH(Output!$U2,Base!2:2,0)+2))&gt;2,LEFT(INDEX(Base!2:2,0,MATCH(Output!$U2,Base!2:2,0)+2),1),INDEX(Base!2:2,0,MATCH(Output!$U2,Base!2:2,0)+2))</f>
         <v>1</v>
       </c>
       <c r="X2" t="str" cm="1">
-        <f t="array" ref="X2">IF(LEN(INDEX(Base!2:2,0,MATCH(Planilha2!$U2,Base!2:2,0)+2))&gt;2,LEFT(INDEX(Base!2:2,0,MATCH(Planilha2!$U2,Base!2:2,0)+2),1),INDEX(Base!2:2,0,MATCH(Planilha2!$U2,Base!2:2,0)+2))</f>
+        <f t="array" ref="X2">IF(LEN(INDEX(Base!2:2,0,MATCH(Output!$U2,Base!2:2,0)+2))&gt;2,LEFT(INDEX(Base!2:2,0,MATCH(Output!$U2,Base!2:2,0)+2),1),INDEX(Base!2:2,0,MATCH(Output!$U2,Base!2:2,0)+2))</f>
         <v>1</v>
       </c>
       <c r="Y2" t="str" cm="1">
-        <f t="array" ref="Y2">IF(LEN(INDEX(Base!2:2,0,MATCH(Planilha2!$U2,Base!2:2,0)+2))&gt;2,LEFT(INDEX(Base!2:2,0,MATCH(Planilha2!$U2,Base!2:2,0)+2),1),INDEX(Base!2:2,0,MATCH(Planilha2!$U2,Base!2:2,0)+2))</f>
+        <f t="array" ref="Y2">IF(LEN(INDEX(Base!2:2,0,MATCH(Output!$U2,Base!2:2,0)+2))&gt;2,LEFT(INDEX(Base!2:2,0,MATCH(Output!$U2,Base!2:2,0)+2),1),INDEX(Base!2:2,0,MATCH(Output!$U2,Base!2:2,0)+2))</f>
         <v>1</v>
       </c>
       <c r="Z2" t="str">
@@ -5857,7 +5934,7 @@
         <f>IF(TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("IPTU",Base!C3)),ISNUMBER(FIND("iptu",Base!C3)))=TRUE,RIGHT(Base!C3,5),0),"R$",""),"$",""))="0",TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("IPTU",Base!D3)),ISNUMBER(FIND("iptu",Base!D3)))=TRUE,RIGHT(Base!D3,5),0),"R$",""),"$","")),TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("iptu",Base!C3)),ISNUMBER(FIND("IPTU",Base!C3)))=TRUE,RIGHT(Base!C3,5),0),"R$",""),"$","")))</f>
         <v>0</v>
       </c>
-      <c r="F3" s="5" t="str" cm="1">
+      <c r="F3" s="4" t="str" cm="1">
         <f t="array" ref="F3">INDEX(Base!3:3,MATCH(MAX(LEN(Base!3:3)),LEN(Base!3:3),0))</f>
         <v>Uma proposta moderna para oferecer a você e sua família tudo que o futuro traz de melhor. Conectividade, boa localização, área de lazer completa, complexo aquático, bicicletário, e...</v>
       </c>
@@ -5910,19 +5987,19 @@
         <v>Rua Washington Luís, Ouro Verde</v>
       </c>
       <c r="V3" t="str" cm="1">
-        <f t="array" ref="V3">IF(LEN(TRIM(SUBSTITUTE(INDEX(Base!3:3,0,MATCH(Planilha2!$U3,Base!3:3,0)+1),"m²",""))&gt;5),LEFT(TRIM(SUBSTITUTE(INDEX(Base!3:3,0,MATCH(Planilha2!$U3,Base!3:3,0)+1),"m²","")),2),TRIM(SUBSTITUTE(INDEX(Base!3:3,0,MATCH(Planilha2!$U3,Base!3:3,0)+1),"m²","")))</f>
+        <f t="array" ref="V3">IF(LEN(TRIM(SUBSTITUTE(INDEX(Base!3:3,0,MATCH(Output!$U3,Base!3:3,0)+1),"m²",""))&gt;5),LEFT(TRIM(SUBSTITUTE(INDEX(Base!3:3,0,MATCH(Output!$U3,Base!3:3,0)+1),"m²","")),2),TRIM(SUBSTITUTE(INDEX(Base!3:3,0,MATCH(Output!$U3,Base!3:3,0)+1),"m²","")))</f>
         <v>47</v>
       </c>
       <c r="W3" t="str" cm="1">
-        <f t="array" ref="W3">IF(LEN(INDEX(Base!3:3,0,MATCH(Planilha2!$U3,Base!3:3,0)+2))&gt;2,LEFT(INDEX(Base!3:3,0,MATCH(Planilha2!$U3,Base!3:3,0)+2),1),INDEX(Base!3:3,0,MATCH(Planilha2!$U3,Base!3:3,0)+2))</f>
+        <f t="array" ref="W3">IF(LEN(INDEX(Base!3:3,0,MATCH(Output!$U3,Base!3:3,0)+2))&gt;2,LEFT(INDEX(Base!3:3,0,MATCH(Output!$U3,Base!3:3,0)+2),1),INDEX(Base!3:3,0,MATCH(Output!$U3,Base!3:3,0)+2))</f>
         <v>2</v>
       </c>
       <c r="X3" t="str" cm="1">
-        <f t="array" ref="X3">IF(LEN(INDEX(Base!3:3,0,MATCH(Planilha2!$U3,Base!3:3,0)+2))&gt;2,LEFT(INDEX(Base!3:3,0,MATCH(Planilha2!$U3,Base!3:3,0)+2),1),INDEX(Base!3:3,0,MATCH(Planilha2!$U3,Base!3:3,0)+2))</f>
+        <f t="array" ref="X3">IF(LEN(INDEX(Base!3:3,0,MATCH(Output!$U3,Base!3:3,0)+2))&gt;2,LEFT(INDEX(Base!3:3,0,MATCH(Output!$U3,Base!3:3,0)+2),1),INDEX(Base!3:3,0,MATCH(Output!$U3,Base!3:3,0)+2))</f>
         <v>2</v>
       </c>
       <c r="Y3" t="str" cm="1">
-        <f t="array" ref="Y3">IF(LEN(INDEX(Base!3:3,0,MATCH(Planilha2!$U3,Base!3:3,0)+2))&gt;2,LEFT(INDEX(Base!3:3,0,MATCH(Planilha2!$U3,Base!3:3,0)+2),1),INDEX(Base!3:3,0,MATCH(Planilha2!$U3,Base!3:3,0)+2))</f>
+        <f t="array" ref="Y3">IF(LEN(INDEX(Base!3:3,0,MATCH(Output!$U3,Base!3:3,0)+2))&gt;2,LEFT(INDEX(Base!3:3,0,MATCH(Output!$U3,Base!3:3,0)+2),1),INDEX(Base!3:3,0,MATCH(Output!$U3,Base!3:3,0)+2))</f>
         <v>2</v>
       </c>
     </row>
@@ -5946,7 +6023,7 @@
         <f>IF(TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("IPTU",Base!C4)),ISNUMBER(FIND("iptu",Base!C4)))=TRUE,RIGHT(Base!C4,5),0),"R$",""),"$",""))="0",TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("IPTU",Base!D4)),ISNUMBER(FIND("iptu",Base!D4)))=TRUE,RIGHT(Base!D4,5),0),"R$",""),"$","")),TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("iptu",Base!C4)),ISNUMBER(FIND("IPTU",Base!C4)))=TRUE,RIGHT(Base!C4,5),0),"R$",""),"$","")))</f>
         <v>0</v>
       </c>
-      <c r="F4" s="5" t="str" cm="1">
+      <c r="F4" s="4" t="str" cm="1">
         <f t="array" ref="F4">INDEX(Base!4:4,MATCH(MAX(LEN(Base!4:4)),LEN(Base!4:4),0))</f>
         <v>Em construção e com entrega prevista para Out/2022. Condomínio de aptos de 2 ou 3 quartos, com conforto e segurança para você e sua família. Espaços como piscina adulto com fonte e...</v>
       </c>
@@ -5999,19 +6076,19 @@
         <v>Rua Áurea Fonseca de Jesus, Califórnia</v>
       </c>
       <c r="V4" t="str" cm="1">
-        <f t="array" ref="V4">IF(LEN(TRIM(SUBSTITUTE(INDEX(Base!4:4,0,MATCH(Planilha2!$U4,Base!4:4,0)+1),"m²",""))&gt;5),LEFT(TRIM(SUBSTITUTE(INDEX(Base!4:4,0,MATCH(Planilha2!$U4,Base!4:4,0)+1),"m²","")),2),TRIM(SUBSTITUTE(INDEX(Base!4:4,0,MATCH(Planilha2!$U4,Base!4:4,0)+1),"m²","")))</f>
+        <f t="array" ref="V4">IF(LEN(TRIM(SUBSTITUTE(INDEX(Base!4:4,0,MATCH(Output!$U4,Base!4:4,0)+1),"m²",""))&gt;5),LEFT(TRIM(SUBSTITUTE(INDEX(Base!4:4,0,MATCH(Output!$U4,Base!4:4,0)+1),"m²","")),2),TRIM(SUBSTITUTE(INDEX(Base!4:4,0,MATCH(Output!$U4,Base!4:4,0)+1),"m²","")))</f>
         <v>66</v>
       </c>
       <c r="W4" t="str" cm="1">
-        <f t="array" ref="W4">IF(LEN(INDEX(Base!4:4,0,MATCH(Planilha2!$U4,Base!4:4,0)+2))&gt;2,LEFT(INDEX(Base!4:4,0,MATCH(Planilha2!$U4,Base!4:4,0)+2),1),INDEX(Base!4:4,0,MATCH(Planilha2!$U4,Base!4:4,0)+2))</f>
+        <f t="array" ref="W4">IF(LEN(INDEX(Base!4:4,0,MATCH(Output!$U4,Base!4:4,0)+2))&gt;2,LEFT(INDEX(Base!4:4,0,MATCH(Output!$U4,Base!4:4,0)+2),1),INDEX(Base!4:4,0,MATCH(Output!$U4,Base!4:4,0)+2))</f>
         <v>1</v>
       </c>
       <c r="X4" t="str" cm="1">
-        <f t="array" ref="X4">IF(LEN(INDEX(Base!4:4,0,MATCH(Planilha2!$U4,Base!4:4,0)+2))&gt;2,LEFT(INDEX(Base!4:4,0,MATCH(Planilha2!$U4,Base!4:4,0)+2),1),INDEX(Base!4:4,0,MATCH(Planilha2!$U4,Base!4:4,0)+2))</f>
+        <f t="array" ref="X4">IF(LEN(INDEX(Base!4:4,0,MATCH(Output!$U4,Base!4:4,0)+2))&gt;2,LEFT(INDEX(Base!4:4,0,MATCH(Output!$U4,Base!4:4,0)+2),1),INDEX(Base!4:4,0,MATCH(Output!$U4,Base!4:4,0)+2))</f>
         <v>1</v>
       </c>
       <c r="Y4" t="str" cm="1">
-        <f t="array" ref="Y4">IF(LEN(INDEX(Base!4:4,0,MATCH(Planilha2!$U4,Base!4:4,0)+2))&gt;2,LEFT(INDEX(Base!4:4,0,MATCH(Planilha2!$U4,Base!4:4,0)+2),1),INDEX(Base!4:4,0,MATCH(Planilha2!$U4,Base!4:4,0)+2))</f>
+        <f t="array" ref="Y4">IF(LEN(INDEX(Base!4:4,0,MATCH(Output!$U4,Base!4:4,0)+2))&gt;2,LEFT(INDEX(Base!4:4,0,MATCH(Output!$U4,Base!4:4,0)+2),1),INDEX(Base!4:4,0,MATCH(Output!$U4,Base!4:4,0)+2))</f>
         <v>1</v>
       </c>
     </row>
@@ -6035,7 +6112,7 @@
         <f>IF(TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("IPTU",Base!C5)),ISNUMBER(FIND("iptu",Base!C5)))=TRUE,RIGHT(Base!C5,5),0),"R$",""),"$",""))="0",TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("IPTU",Base!D5)),ISNUMBER(FIND("iptu",Base!D5)))=TRUE,RIGHT(Base!D5,5),0),"R$",""),"$","")),TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("iptu",Base!C5)),ISNUMBER(FIND("IPTU",Base!C5)))=TRUE,RIGHT(Base!C5,5),0),"R$",""),"$","")))</f>
         <v>0</v>
       </c>
-      <c r="F5" s="5" t="str" cm="1">
+      <c r="F5" s="4" t="str" cm="1">
         <f t="array" ref="F5">INDEX(Base!5:5,MATCH(MAX(LEN(Base!5:5)),LEN(Base!5:5),0))</f>
         <v>PROMOÇÃO IMPERDÍVEL!! CENTRO/NOVA IGUAÇU. Apartamento com 2 quartos sendo 1 suíte, sala, varanda gourmet(com churrasqueira), cozinha com despensa, banheiro social e área de serviço...</v>
       </c>
@@ -6088,19 +6165,19 @@
         <v>Rua Paschoal Palladino, Centro</v>
       </c>
       <c r="V5" t="str" cm="1">
-        <f t="array" ref="V5">IF(LEN(TRIM(SUBSTITUTE(INDEX(Base!5:5,0,MATCH(Planilha2!$U5,Base!5:5,0)+1),"m²",""))&gt;5),LEFT(TRIM(SUBSTITUTE(INDEX(Base!5:5,0,MATCH(Planilha2!$U5,Base!5:5,0)+1),"m²","")),2),TRIM(SUBSTITUTE(INDEX(Base!5:5,0,MATCH(Planilha2!$U5,Base!5:5,0)+1),"m²","")))</f>
+        <f t="array" ref="V5">IF(LEN(TRIM(SUBSTITUTE(INDEX(Base!5:5,0,MATCH(Output!$U5,Base!5:5,0)+1),"m²",""))&gt;5),LEFT(TRIM(SUBSTITUTE(INDEX(Base!5:5,0,MATCH(Output!$U5,Base!5:5,0)+1),"m²","")),2),TRIM(SUBSTITUTE(INDEX(Base!5:5,0,MATCH(Output!$U5,Base!5:5,0)+1),"m²","")))</f>
         <v>63</v>
       </c>
       <c r="W5" t="str" cm="1">
-        <f t="array" ref="W5">IF(LEN(INDEX(Base!5:5,0,MATCH(Planilha2!$U5,Base!5:5,0)+2))&gt;2,LEFT(INDEX(Base!5:5,0,MATCH(Planilha2!$U5,Base!5:5,0)+2),1),INDEX(Base!5:5,0,MATCH(Planilha2!$U5,Base!5:5,0)+2))</f>
+        <f t="array" ref="W5">IF(LEN(INDEX(Base!5:5,0,MATCH(Output!$U5,Base!5:5,0)+2))&gt;2,LEFT(INDEX(Base!5:5,0,MATCH(Output!$U5,Base!5:5,0)+2),1),INDEX(Base!5:5,0,MATCH(Output!$U5,Base!5:5,0)+2))</f>
         <v>2</v>
       </c>
       <c r="X5" t="str" cm="1">
-        <f t="array" ref="X5">IF(LEN(INDEX(Base!5:5,0,MATCH(Planilha2!$U5,Base!5:5,0)+2))&gt;2,LEFT(INDEX(Base!5:5,0,MATCH(Planilha2!$U5,Base!5:5,0)+2),1),INDEX(Base!5:5,0,MATCH(Planilha2!$U5,Base!5:5,0)+2))</f>
+        <f t="array" ref="X5">IF(LEN(INDEX(Base!5:5,0,MATCH(Output!$U5,Base!5:5,0)+2))&gt;2,LEFT(INDEX(Base!5:5,0,MATCH(Output!$U5,Base!5:5,0)+2),1),INDEX(Base!5:5,0,MATCH(Output!$U5,Base!5:5,0)+2))</f>
         <v>2</v>
       </c>
       <c r="Y5" t="str" cm="1">
-        <f t="array" ref="Y5">IF(LEN(INDEX(Base!5:5,0,MATCH(Planilha2!$U5,Base!5:5,0)+2))&gt;2,LEFT(INDEX(Base!5:5,0,MATCH(Planilha2!$U5,Base!5:5,0)+2),1),INDEX(Base!5:5,0,MATCH(Planilha2!$U5,Base!5:5,0)+2))</f>
+        <f t="array" ref="Y5">IF(LEN(INDEX(Base!5:5,0,MATCH(Output!$U5,Base!5:5,0)+2))&gt;2,LEFT(INDEX(Base!5:5,0,MATCH(Output!$U5,Base!5:5,0)+2),1),INDEX(Base!5:5,0,MATCH(Output!$U5,Base!5:5,0)+2))</f>
         <v>2</v>
       </c>
     </row>
@@ -6124,7 +6201,7 @@
         <f>IF(TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("IPTU",Base!C6)),ISNUMBER(FIND("iptu",Base!C6)))=TRUE,RIGHT(Base!C6,5),0),"R$",""),"$",""))="0",TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("IPTU",Base!D6)),ISNUMBER(FIND("iptu",Base!D6)))=TRUE,RIGHT(Base!D6,5),0),"R$",""),"$","")),TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("iptu",Base!C6)),ISNUMBER(FIND("IPTU",Base!C6)))=TRUE,RIGHT(Base!C6,5),0),"R$",""),"$","")))</f>
         <v>2.000</v>
       </c>
-      <c r="F6" s="5" t="str" cm="1">
+      <c r="F6" s="4" t="str" cm="1">
         <f t="array" ref="F6">INDEX(Base!6:6,MATCH(MAX(LEN(Base!6:6)),LEN(Base!6:6),0))</f>
         <v>Morar bem é reunir em um único imóvel: boa localização com uma ótima planta. Fazer um bom negócio é ter algo que desejamos por um bom preço. E Quando conseguimos reunir em um único...</v>
       </c>
@@ -6177,19 +6254,19 @@
         <v>Rua Ivan Vigné, Centro</v>
       </c>
       <c r="V6" t="str" cm="1">
-        <f t="array" ref="V6">TRIM(SUBSTITUTE(INDEX(Base!6:6,0,MATCH(Planilha2!$U6,Base!6:6,0)+1),"m²",""))</f>
+        <f t="array" ref="V6">TRIM(SUBSTITUTE(INDEX(Base!6:6,0,MATCH(Output!$U6,Base!6:6,0)+1),"m²",""))</f>
         <v>124</v>
       </c>
       <c r="W6" t="str" cm="1">
-        <f t="array" ref="W6">IF(LEN(INDEX(Base!6:6,0,MATCH(Planilha2!$U6,Base!6:6,0)+2))&gt;2,LEFT(INDEX(Base!6:6,0,MATCH(Planilha2!$U6,Base!6:6,0)+2),1),INDEX(Base!6:6,0,MATCH(Planilha2!$U6,Base!6:6,0)+2))</f>
+        <f t="array" ref="W6">IF(LEN(INDEX(Base!6:6,0,MATCH(Output!$U6,Base!6:6,0)+2))&gt;2,LEFT(INDEX(Base!6:6,0,MATCH(Output!$U6,Base!6:6,0)+2),1),INDEX(Base!6:6,0,MATCH(Output!$U6,Base!6:6,0)+2))</f>
         <v>3</v>
       </c>
       <c r="X6" t="str" cm="1">
-        <f t="array" ref="X6">IF(LEN(INDEX(Base!6:6,0,MATCH(Planilha2!$U6,Base!6:6,0)+2))&gt;2,LEFT(INDEX(Base!6:6,0,MATCH(Planilha2!$U6,Base!6:6,0)+2),1),INDEX(Base!6:6,0,MATCH(Planilha2!$U6,Base!6:6,0)+2))</f>
+        <f t="array" ref="X6">IF(LEN(INDEX(Base!6:6,0,MATCH(Output!$U6,Base!6:6,0)+2))&gt;2,LEFT(INDEX(Base!6:6,0,MATCH(Output!$U6,Base!6:6,0)+2),1),INDEX(Base!6:6,0,MATCH(Output!$U6,Base!6:6,0)+2))</f>
         <v>3</v>
       </c>
       <c r="Y6" t="str" cm="1">
-        <f t="array" ref="Y6">IF(LEN(INDEX(Base!6:6,0,MATCH(Planilha2!$U6,Base!6:6,0)+2))&gt;2,LEFT(INDEX(Base!6:6,0,MATCH(Planilha2!$U6,Base!6:6,0)+2),1),INDEX(Base!6:6,0,MATCH(Planilha2!$U6,Base!6:6,0)+2))</f>
+        <f t="array" ref="Y6">IF(LEN(INDEX(Base!6:6,0,MATCH(Output!$U6,Base!6:6,0)+2))&gt;2,LEFT(INDEX(Base!6:6,0,MATCH(Output!$U6,Base!6:6,0)+2),1),INDEX(Base!6:6,0,MATCH(Output!$U6,Base!6:6,0)+2))</f>
         <v>3</v>
       </c>
     </row>
@@ -6213,7 +6290,7 @@
         <f>IF(TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("IPTU",Base!C7)),ISNUMBER(FIND("iptu",Base!C7)))=TRUE,RIGHT(Base!C7,5),0),"R$",""),"$",""))="0",TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("IPTU",Base!D7)),ISNUMBER(FIND("iptu",Base!D7)))=TRUE,RIGHT(Base!D7,5),0),"R$",""),"$","")),TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("iptu",Base!C7)),ISNUMBER(FIND("IPTU",Base!C7)))=TRUE,RIGHT(Base!C7,5),0),"R$",""),"$","")))</f>
         <v>0</v>
       </c>
-      <c r="F7" s="5" t="str" cm="1">
+      <c r="F7" s="4" t="str" cm="1">
         <f t="array" ref="F7">INDEX(Base!7:7,MATCH(MAX(LEN(Base!7:7)),LEN(Base!7:7),0))</f>
         <v>Lindo apartamento 2 quartos no Residencial Acqua, Nova Iguaçu.</v>
       </c>
@@ -6266,19 +6343,19 @@
         <v>Rua Juiz Alberto Nader, da Luz</v>
       </c>
       <c r="V7" t="str" cm="1">
-        <f t="array" ref="V7">TRIM(SUBSTITUTE(INDEX(Base!7:7,0,MATCH(Planilha2!$U7,Base!7:7,0)+1),"m²",""))</f>
+        <f t="array" ref="V7">TRIM(SUBSTITUTE(INDEX(Base!7:7,0,MATCH(Output!$U7,Base!7:7,0)+1),"m²",""))</f>
         <v>67</v>
       </c>
       <c r="W7" t="str" cm="1">
-        <f t="array" ref="W7">IF(LEN(INDEX(Base!7:7,0,MATCH(Planilha2!$U7,Base!7:7,0)+2))&gt;2,LEFT(INDEX(Base!7:7,0,MATCH(Planilha2!$U7,Base!7:7,0)+2),1),INDEX(Base!7:7,0,MATCH(Planilha2!$U7,Base!7:7,0)+2))</f>
+        <f t="array" ref="W7">IF(LEN(INDEX(Base!7:7,0,MATCH(Output!$U7,Base!7:7,0)+2))&gt;2,LEFT(INDEX(Base!7:7,0,MATCH(Output!$U7,Base!7:7,0)+2),1),INDEX(Base!7:7,0,MATCH(Output!$U7,Base!7:7,0)+2))</f>
         <v>2</v>
       </c>
       <c r="X7" t="str" cm="1">
-        <f t="array" ref="X7">IF(LEN(INDEX(Base!7:7,0,MATCH(Planilha2!$U7,Base!7:7,0)+2))&gt;2,LEFT(INDEX(Base!7:7,0,MATCH(Planilha2!$U7,Base!7:7,0)+2),1),INDEX(Base!7:7,0,MATCH(Planilha2!$U7,Base!7:7,0)+2))</f>
+        <f t="array" ref="X7">IF(LEN(INDEX(Base!7:7,0,MATCH(Output!$U7,Base!7:7,0)+2))&gt;2,LEFT(INDEX(Base!7:7,0,MATCH(Output!$U7,Base!7:7,0)+2),1),INDEX(Base!7:7,0,MATCH(Output!$U7,Base!7:7,0)+2))</f>
         <v>2</v>
       </c>
       <c r="Y7" t="str" cm="1">
-        <f t="array" ref="Y7">IF(LEN(INDEX(Base!7:7,0,MATCH(Planilha2!$U7,Base!7:7,0)+2))&gt;2,LEFT(INDEX(Base!7:7,0,MATCH(Planilha2!$U7,Base!7:7,0)+2),1),INDEX(Base!7:7,0,MATCH(Planilha2!$U7,Base!7:7,0)+2))</f>
+        <f t="array" ref="Y7">IF(LEN(INDEX(Base!7:7,0,MATCH(Output!$U7,Base!7:7,0)+2))&gt;2,LEFT(INDEX(Base!7:7,0,MATCH(Output!$U7,Base!7:7,0)+2),1),INDEX(Base!7:7,0,MATCH(Output!$U7,Base!7:7,0)+2))</f>
         <v>2</v>
       </c>
     </row>
@@ -6302,7 +6379,7 @@
         <f>IF(TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("IPTU",Base!C8)),ISNUMBER(FIND("iptu",Base!C8)))=TRUE,RIGHT(Base!C8,5),0),"R$",""),"$",""))="0",TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("IPTU",Base!D8)),ISNUMBER(FIND("iptu",Base!D8)))=TRUE,RIGHT(Base!D8,5),0),"R$",""),"$","")),TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("iptu",Base!C8)),ISNUMBER(FIND("IPTU",Base!C8)))=TRUE,RIGHT(Base!C8,5),0),"R$",""),"$","")))</f>
         <v>300</v>
       </c>
-      <c r="F8" s="5" t="str" cm="1">
+      <c r="F8" s="4" t="str" cm="1">
         <f t="array" ref="F8">INDEX(Base!8:8,MATCH(MAX(LEN(Base!8:8)),LEN(Base!8:8),0))</f>
         <v>Riviera Residences é o condomínio perfeito para você que deseja dar um upgrade no seu estilo de vida em uma região repleta de inovações. Modernos apartamentos de 2 e 3 quartos. Tod...</v>
       </c>
@@ -6355,19 +6432,19 @@
         <v>Rua Professor Joaquim Cardoso de Matos, da Luz</v>
       </c>
       <c r="V8" t="str" cm="1">
-        <f t="array" ref="V8">TRIM(SUBSTITUTE(INDEX(Base!8:8,0,MATCH(Planilha2!$U8,Base!8:8,0)+1),"m²",""))</f>
+        <f t="array" ref="V8">TRIM(SUBSTITUTE(INDEX(Base!8:8,0,MATCH(Output!$U8,Base!8:8,0)+1),"m²",""))</f>
         <v>56</v>
       </c>
       <c r="W8" t="str" cm="1">
-        <f t="array" ref="W8">IF(LEN(INDEX(Base!8:8,0,MATCH(Planilha2!$U8,Base!8:8,0)+2))&gt;2,LEFT(INDEX(Base!8:8,0,MATCH(Planilha2!$U8,Base!8:8,0)+2),1),INDEX(Base!8:8,0,MATCH(Planilha2!$U8,Base!8:8,0)+2))</f>
+        <f t="array" ref="W8">IF(LEN(INDEX(Base!8:8,0,MATCH(Output!$U8,Base!8:8,0)+2))&gt;2,LEFT(INDEX(Base!8:8,0,MATCH(Output!$U8,Base!8:8,0)+2),1),INDEX(Base!8:8,0,MATCH(Output!$U8,Base!8:8,0)+2))</f>
         <v>2</v>
       </c>
       <c r="X8" t="str" cm="1">
-        <f t="array" ref="X8">IF(LEN(INDEX(Base!8:8,0,MATCH(Planilha2!$U8,Base!8:8,0)+2))&gt;2,LEFT(INDEX(Base!8:8,0,MATCH(Planilha2!$U8,Base!8:8,0)+2),1),INDEX(Base!8:8,0,MATCH(Planilha2!$U8,Base!8:8,0)+2))</f>
+        <f t="array" ref="X8">IF(LEN(INDEX(Base!8:8,0,MATCH(Output!$U8,Base!8:8,0)+2))&gt;2,LEFT(INDEX(Base!8:8,0,MATCH(Output!$U8,Base!8:8,0)+2),1),INDEX(Base!8:8,0,MATCH(Output!$U8,Base!8:8,0)+2))</f>
         <v>2</v>
       </c>
       <c r="Y8" t="str" cm="1">
-        <f t="array" ref="Y8">IF(LEN(INDEX(Base!8:8,0,MATCH(Planilha2!$U8,Base!8:8,0)+2))&gt;2,LEFT(INDEX(Base!8:8,0,MATCH(Planilha2!$U8,Base!8:8,0)+2),1),INDEX(Base!8:8,0,MATCH(Planilha2!$U8,Base!8:8,0)+2))</f>
+        <f t="array" ref="Y8">IF(LEN(INDEX(Base!8:8,0,MATCH(Output!$U8,Base!8:8,0)+2))&gt;2,LEFT(INDEX(Base!8:8,0,MATCH(Output!$U8,Base!8:8,0)+2),1),INDEX(Base!8:8,0,MATCH(Output!$U8,Base!8:8,0)+2))</f>
         <v>2</v>
       </c>
     </row>
@@ -6391,7 +6468,7 @@
         <f>IF(TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("IPTU",Base!C9)),ISNUMBER(FIND("iptu",Base!C9)))=TRUE,RIGHT(Base!C9,5),0),"R$",""),"$",""))="0",TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("IPTU",Base!D9)),ISNUMBER(FIND("iptu",Base!D9)))=TRUE,RIGHT(Base!D9,5),0),"R$",""),"$","")),TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("iptu",Base!C9)),ISNUMBER(FIND("IPTU",Base!C9)))=TRUE,RIGHT(Base!C9,5),0),"R$",""),"$","")))</f>
         <v>802</v>
       </c>
-      <c r="F9" s="5" t="str" cm="1">
+      <c r="F9" s="4" t="str" cm="1">
         <f t="array" ref="F9">INDEX(Base!9:9,MATCH(MAX(LEN(Base!9:9)),LEN(Base!9:9),0))</f>
         <v>A casa de condomínio no bairro California possui 90 metros quadrados com 3 quartos sendo 3 suites e 4 banheiros</v>
       </c>
@@ -6444,19 +6521,19 @@
         <v>Rua Primeiro de Maio, Jardim Sao Joao</v>
       </c>
       <c r="V9" t="str" cm="1">
-        <f t="array" ref="V9">TRIM(SUBSTITUTE(INDEX(Base!9:9,0,MATCH(Planilha2!$U9,Base!9:9,0)+1),"m²",""))</f>
+        <f t="array" ref="V9">TRIM(SUBSTITUTE(INDEX(Base!9:9,0,MATCH(Output!$U9,Base!9:9,0)+1),"m²",""))</f>
         <v>92</v>
       </c>
       <c r="W9" t="str" cm="1">
-        <f t="array" ref="W9">IF(LEN(INDEX(Base!9:9,0,MATCH(Planilha2!$U9,Base!9:9,0)+2))&gt;2,LEFT(INDEX(Base!9:9,0,MATCH(Planilha2!$U9,Base!9:9,0)+2),1),INDEX(Base!9:9,0,MATCH(Planilha2!$U9,Base!9:9,0)+2))</f>
+        <f t="array" ref="W9">IF(LEN(INDEX(Base!9:9,0,MATCH(Output!$U9,Base!9:9,0)+2))&gt;2,LEFT(INDEX(Base!9:9,0,MATCH(Output!$U9,Base!9:9,0)+2),1),INDEX(Base!9:9,0,MATCH(Output!$U9,Base!9:9,0)+2))</f>
         <v>3</v>
       </c>
       <c r="X9" t="str" cm="1">
-        <f t="array" ref="X9">IF(LEN(INDEX(Base!9:9,0,MATCH(Planilha2!$U9,Base!9:9,0)+2))&gt;2,LEFT(INDEX(Base!9:9,0,MATCH(Planilha2!$U9,Base!9:9,0)+2),1),INDEX(Base!9:9,0,MATCH(Planilha2!$U9,Base!9:9,0)+2))</f>
+        <f t="array" ref="X9">IF(LEN(INDEX(Base!9:9,0,MATCH(Output!$U9,Base!9:9,0)+2))&gt;2,LEFT(INDEX(Base!9:9,0,MATCH(Output!$U9,Base!9:9,0)+2),1),INDEX(Base!9:9,0,MATCH(Output!$U9,Base!9:9,0)+2))</f>
         <v>3</v>
       </c>
       <c r="Y9" t="str" cm="1">
-        <f t="array" ref="Y9">IF(LEN(INDEX(Base!9:9,0,MATCH(Planilha2!$U9,Base!9:9,0)+2))&gt;2,LEFT(INDEX(Base!9:9,0,MATCH(Planilha2!$U9,Base!9:9,0)+2),1),INDEX(Base!9:9,0,MATCH(Planilha2!$U9,Base!9:9,0)+2))</f>
+        <f t="array" ref="Y9">IF(LEN(INDEX(Base!9:9,0,MATCH(Output!$U9,Base!9:9,0)+2))&gt;2,LEFT(INDEX(Base!9:9,0,MATCH(Output!$U9,Base!9:9,0)+2),1),INDEX(Base!9:9,0,MATCH(Output!$U9,Base!9:9,0)+2))</f>
         <v>3</v>
       </c>
     </row>
@@ -6480,7 +6557,7 @@
         <f>IF(TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("IPTU",Base!C10)),ISNUMBER(FIND("iptu",Base!C10)))=TRUE,RIGHT(Base!C10,5),0),"R$",""),"$",""))="0",TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("IPTU",Base!D10)),ISNUMBER(FIND("iptu",Base!D10)))=TRUE,RIGHT(Base!D10,5),0),"R$",""),"$","")),TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("iptu",Base!C10)),ISNUMBER(FIND("IPTU",Base!C10)))=TRUE,RIGHT(Base!C10,5),0),"R$",""),"$","")))</f>
         <v>0</v>
       </c>
-      <c r="F10" s="5" t="str" cm="1">
+      <c r="F10" s="4" t="str" cm="1">
         <f t="array" ref="F10">INDEX(Base!10:10,MATCH(MAX(LEN(Base!10:10)),LEN(Base!10:10),0))</f>
         <v>O apartamento está localizado no bairro Ouro Verde com 47 metros quadrados com 2 quartos e 1 banheiro</v>
       </c>
@@ -6533,19 +6610,19 @@
         <v>Avenida Tancredo Neves, Luz</v>
       </c>
       <c r="V10" t="str" cm="1">
-        <f t="array" ref="V10">TRIM(SUBSTITUTE(INDEX(Base!10:10,0,MATCH(Planilha2!$U10,Base!10:10,0)+1),"m²",""))</f>
+        <f t="array" ref="V10">TRIM(SUBSTITUTE(INDEX(Base!10:10,0,MATCH(Output!$U10,Base!10:10,0)+1),"m²",""))</f>
         <v>47</v>
       </c>
       <c r="W10" t="str" cm="1">
-        <f t="array" ref="W10">IF(LEN(INDEX(Base!10:10,0,MATCH(Planilha2!$U10,Base!10:10,0)+2))&gt;2,LEFT(INDEX(Base!10:10,0,MATCH(Planilha2!$U10,Base!10:10,0)+2),1),INDEX(Base!10:10,0,MATCH(Planilha2!$U10,Base!10:10,0)+2))</f>
+        <f t="array" ref="W10">IF(LEN(INDEX(Base!10:10,0,MATCH(Output!$U10,Base!10:10,0)+2))&gt;2,LEFT(INDEX(Base!10:10,0,MATCH(Output!$U10,Base!10:10,0)+2),1),INDEX(Base!10:10,0,MATCH(Output!$U10,Base!10:10,0)+2))</f>
         <v>2</v>
       </c>
       <c r="X10" t="str" cm="1">
-        <f t="array" ref="X10">IF(LEN(INDEX(Base!10:10,0,MATCH(Planilha2!$U10,Base!10:10,0)+2))&gt;2,LEFT(INDEX(Base!10:10,0,MATCH(Planilha2!$U10,Base!10:10,0)+2),1),INDEX(Base!10:10,0,MATCH(Planilha2!$U10,Base!10:10,0)+2))</f>
+        <f t="array" ref="X10">IF(LEN(INDEX(Base!10:10,0,MATCH(Output!$U10,Base!10:10,0)+2))&gt;2,LEFT(INDEX(Base!10:10,0,MATCH(Output!$U10,Base!10:10,0)+2),1),INDEX(Base!10:10,0,MATCH(Output!$U10,Base!10:10,0)+2))</f>
         <v>2</v>
       </c>
       <c r="Y10" t="str" cm="1">
-        <f t="array" ref="Y10">IF(LEN(INDEX(Base!10:10,0,MATCH(Planilha2!$U10,Base!10:10,0)+2))&gt;2,LEFT(INDEX(Base!10:10,0,MATCH(Planilha2!$U10,Base!10:10,0)+2),1),INDEX(Base!10:10,0,MATCH(Planilha2!$U10,Base!10:10,0)+2))</f>
+        <f t="array" ref="Y10">IF(LEN(INDEX(Base!10:10,0,MATCH(Output!$U10,Base!10:10,0)+2))&gt;2,LEFT(INDEX(Base!10:10,0,MATCH(Output!$U10,Base!10:10,0)+2),1),INDEX(Base!10:10,0,MATCH(Output!$U10,Base!10:10,0)+2))</f>
         <v>2</v>
       </c>
     </row>
@@ -6569,7 +6646,7 @@
         <f>IF(TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("IPTU",Base!C11)),ISNUMBER(FIND("iptu",Base!C11)))=TRUE,RIGHT(Base!C11,5),0),"R$",""),"$",""))="0",TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("IPTU",Base!D11)),ISNUMBER(FIND("iptu",Base!D11)))=TRUE,RIGHT(Base!D11,5),0),"R$",""),"$","")),TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("iptu",Base!C11)),ISNUMBER(FIND("IPTU",Base!C11)))=TRUE,RIGHT(Base!C11,5),0),"R$",""),"$","")))</f>
         <v>0</v>
       </c>
-      <c r="F11" s="5" t="str" cm="1">
+      <c r="F11" s="4" t="str" cm="1">
         <f t="array" ref="F11">INDEX(Base!11:11,MATCH(MAX(LEN(Base!11:11)),LEN(Base!11:11),0))</f>
         <v>Linda casa com rol de entrada, 2 quartos, 3 banheiros, 2 cozinhas, salas de jantar e estar, garagem, varandas, corredores na lateral, 2 área de serviço, 2 churrasqueiras colonial c...</v>
       </c>
@@ -6622,19 +6699,19 @@
         <v>Rua Heloísa, Miguel Couto</v>
       </c>
       <c r="V11" t="str" cm="1">
-        <f t="array" ref="V11">TRIM(SUBSTITUTE(INDEX(Base!11:11,0,MATCH(Planilha2!$U11,Base!11:11,0)+1),"m²",""))</f>
+        <f t="array" ref="V11">TRIM(SUBSTITUTE(INDEX(Base!11:11,0,MATCH(Output!$U11,Base!11:11,0)+1),"m²",""))</f>
         <v>220</v>
       </c>
       <c r="W11" t="str" cm="1">
-        <f t="array" ref="W11">IF(LEN(INDEX(Base!11:11,0,MATCH(Planilha2!$U11,Base!11:11,0)+2))&gt;2,LEFT(INDEX(Base!11:11,0,MATCH(Planilha2!$U11,Base!11:11,0)+2),1),INDEX(Base!11:11,0,MATCH(Planilha2!$U11,Base!11:11,0)+2))</f>
+        <f t="array" ref="W11">IF(LEN(INDEX(Base!11:11,0,MATCH(Output!$U11,Base!11:11,0)+2))&gt;2,LEFT(INDEX(Base!11:11,0,MATCH(Output!$U11,Base!11:11,0)+2),1),INDEX(Base!11:11,0,MATCH(Output!$U11,Base!11:11,0)+2))</f>
         <v>2</v>
       </c>
       <c r="X11" t="str" cm="1">
-        <f t="array" ref="X11">IF(LEN(INDEX(Base!11:11,0,MATCH(Planilha2!$U11,Base!11:11,0)+2))&gt;2,LEFT(INDEX(Base!11:11,0,MATCH(Planilha2!$U11,Base!11:11,0)+2),1),INDEX(Base!11:11,0,MATCH(Planilha2!$U11,Base!11:11,0)+2))</f>
+        <f t="array" ref="X11">IF(LEN(INDEX(Base!11:11,0,MATCH(Output!$U11,Base!11:11,0)+2))&gt;2,LEFT(INDEX(Base!11:11,0,MATCH(Output!$U11,Base!11:11,0)+2),1),INDEX(Base!11:11,0,MATCH(Output!$U11,Base!11:11,0)+2))</f>
         <v>2</v>
       </c>
       <c r="Y11" t="str" cm="1">
-        <f t="array" ref="Y11">IF(LEN(INDEX(Base!11:11,0,MATCH(Planilha2!$U11,Base!11:11,0)+2))&gt;2,LEFT(INDEX(Base!11:11,0,MATCH(Planilha2!$U11,Base!11:11,0)+2),1),INDEX(Base!11:11,0,MATCH(Planilha2!$U11,Base!11:11,0)+2))</f>
+        <f t="array" ref="Y11">IF(LEN(INDEX(Base!11:11,0,MATCH(Output!$U11,Base!11:11,0)+2))&gt;2,LEFT(INDEX(Base!11:11,0,MATCH(Output!$U11,Base!11:11,0)+2),1),INDEX(Base!11:11,0,MATCH(Output!$U11,Base!11:11,0)+2))</f>
         <v>2</v>
       </c>
     </row>
@@ -6658,7 +6735,7 @@
         <f>IF(TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("IPTU",Base!C12)),ISNUMBER(FIND("iptu",Base!C12)))=TRUE,RIGHT(Base!C12,5),0),"R$",""),"$",""))="0",TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("IPTU",Base!D12)),ISNUMBER(FIND("iptu",Base!D12)))=TRUE,RIGHT(Base!D12,5),0),"R$",""),"$","")),TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("iptu",Base!C12)),ISNUMBER(FIND("IPTU",Base!C12)))=TRUE,RIGHT(Base!C12,5),0),"R$",""),"$","")))</f>
         <v>20</v>
       </c>
-      <c r="F12" s="5" t="str" cm="1">
+      <c r="F12" s="4" t="str" cm="1">
         <f t="array" ref="F12">INDEX(Base!12:12,MATCH(MAX(LEN(Base!12:12)),LEN(Base!12:12),0))</f>
         <v>Oportunidade de 2 quartos em Nova Iguaçu !!!!! Aprovamos seu financiamento em todos os Bancos!!!!! More num lugar completo, colado com a Via Light e de uma incrível infraestrutura...</v>
       </c>
@@ -6711,19 +6788,19 @@
         <v>Rua José dos Anjos, Jardim Alvorada</v>
       </c>
       <c r="V12" t="str" cm="1">
-        <f t="array" ref="V12">TRIM(SUBSTITUTE(INDEX(Base!12:12,0,MATCH(Planilha2!$U12,Base!12:12,0)+1),"m²",""))</f>
+        <f t="array" ref="V12">TRIM(SUBSTITUTE(INDEX(Base!12:12,0,MATCH(Output!$U12,Base!12:12,0)+1),"m²",""))</f>
         <v>45</v>
       </c>
       <c r="W12" t="str" cm="1">
-        <f t="array" ref="W12">IF(LEN(INDEX(Base!12:12,0,MATCH(Planilha2!$U12,Base!12:12,0)+2))&gt;2,LEFT(INDEX(Base!12:12,0,MATCH(Planilha2!$U12,Base!12:12,0)+2),1),INDEX(Base!12:12,0,MATCH(Planilha2!$U12,Base!12:12,0)+2))</f>
+        <f t="array" ref="W12">IF(LEN(INDEX(Base!12:12,0,MATCH(Output!$U12,Base!12:12,0)+2))&gt;2,LEFT(INDEX(Base!12:12,0,MATCH(Output!$U12,Base!12:12,0)+2),1),INDEX(Base!12:12,0,MATCH(Output!$U12,Base!12:12,0)+2))</f>
         <v>2</v>
       </c>
       <c r="X12" t="str" cm="1">
-        <f t="array" ref="X12">IF(LEN(INDEX(Base!12:12,0,MATCH(Planilha2!$U12,Base!12:12,0)+2))&gt;2,LEFT(INDEX(Base!12:12,0,MATCH(Planilha2!$U12,Base!12:12,0)+2),1),INDEX(Base!12:12,0,MATCH(Planilha2!$U12,Base!12:12,0)+2))</f>
+        <f t="array" ref="X12">IF(LEN(INDEX(Base!12:12,0,MATCH(Output!$U12,Base!12:12,0)+2))&gt;2,LEFT(INDEX(Base!12:12,0,MATCH(Output!$U12,Base!12:12,0)+2),1),INDEX(Base!12:12,0,MATCH(Output!$U12,Base!12:12,0)+2))</f>
         <v>2</v>
       </c>
       <c r="Y12" t="str" cm="1">
-        <f t="array" ref="Y12">IF(LEN(INDEX(Base!12:12,0,MATCH(Planilha2!$U12,Base!12:12,0)+2))&gt;2,LEFT(INDEX(Base!12:12,0,MATCH(Planilha2!$U12,Base!12:12,0)+2),1),INDEX(Base!12:12,0,MATCH(Planilha2!$U12,Base!12:12,0)+2))</f>
+        <f t="array" ref="Y12">IF(LEN(INDEX(Base!12:12,0,MATCH(Output!$U12,Base!12:12,0)+2))&gt;2,LEFT(INDEX(Base!12:12,0,MATCH(Output!$U12,Base!12:12,0)+2),1),INDEX(Base!12:12,0,MATCH(Output!$U12,Base!12:12,0)+2))</f>
         <v>2</v>
       </c>
     </row>
@@ -6747,7 +6824,7 @@
         <f>IF(TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("IPTU",Base!C13)),ISNUMBER(FIND("iptu",Base!C13)))=TRUE,RIGHT(Base!C13,5),0),"R$",""),"$",""))="0",TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("IPTU",Base!D13)),ISNUMBER(FIND("iptu",Base!D13)))=TRUE,RIGHT(Base!D13,5),0),"R$",""),"$","")),TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("iptu",Base!C13)),ISNUMBER(FIND("IPTU",Base!C13)))=TRUE,RIGHT(Base!C13,5),0),"R$",""),"$","")))</f>
         <v>500</v>
       </c>
-      <c r="F13" s="5" t="str" cm="1">
+      <c r="F13" s="4" t="str" cm="1">
         <f t="array" ref="F13">INDEX(Base!13:13,MATCH(MAX(LEN(Base!13:13)),LEN(Base!13:13),0))</f>
         <v>Vendo Apartamento: Bairro Nobre de Nova Iguaçu com 02 quartos sendo 01 suíte, sala com sacada,, banheiro, cozinha, área de serviço, 01 vaga na garagem, bem localizado</v>
       </c>
@@ -6800,19 +6877,19 @@
         <v>Rua Reverendo João Much, Califórnia</v>
       </c>
       <c r="V13" t="str" cm="1">
-        <f t="array" ref="V13">TRIM(SUBSTITUTE(INDEX(Base!13:13,0,MATCH(Planilha2!$U13,Base!13:13,0)+1),"m²",""))</f>
+        <f t="array" ref="V13">TRIM(SUBSTITUTE(INDEX(Base!13:13,0,MATCH(Output!$U13,Base!13:13,0)+1),"m²",""))</f>
         <v>85</v>
       </c>
       <c r="W13" t="str" cm="1">
-        <f t="array" ref="W13">IF(LEN(INDEX(Base!13:13,0,MATCH(Planilha2!$U13,Base!13:13,0)+2))&gt;2,LEFT(INDEX(Base!13:13,0,MATCH(Planilha2!$U13,Base!13:13,0)+2),1),INDEX(Base!13:13,0,MATCH(Planilha2!$U13,Base!13:13,0)+2))</f>
+        <f t="array" ref="W13">IF(LEN(INDEX(Base!13:13,0,MATCH(Output!$U13,Base!13:13,0)+2))&gt;2,LEFT(INDEX(Base!13:13,0,MATCH(Output!$U13,Base!13:13,0)+2),1),INDEX(Base!13:13,0,MATCH(Output!$U13,Base!13:13,0)+2))</f>
         <v>2</v>
       </c>
       <c r="X13" t="str" cm="1">
-        <f t="array" ref="X13">IF(LEN(INDEX(Base!13:13,0,MATCH(Planilha2!$U13,Base!13:13,0)+2))&gt;2,LEFT(INDEX(Base!13:13,0,MATCH(Planilha2!$U13,Base!13:13,0)+2),1),INDEX(Base!13:13,0,MATCH(Planilha2!$U13,Base!13:13,0)+2))</f>
+        <f t="array" ref="X13">IF(LEN(INDEX(Base!13:13,0,MATCH(Output!$U13,Base!13:13,0)+2))&gt;2,LEFT(INDEX(Base!13:13,0,MATCH(Output!$U13,Base!13:13,0)+2),1),INDEX(Base!13:13,0,MATCH(Output!$U13,Base!13:13,0)+2))</f>
         <v>2</v>
       </c>
       <c r="Y13" t="str" cm="1">
-        <f t="array" ref="Y13">IF(LEN(INDEX(Base!13:13,0,MATCH(Planilha2!$U13,Base!13:13,0)+2))&gt;2,LEFT(INDEX(Base!13:13,0,MATCH(Planilha2!$U13,Base!13:13,0)+2),1),INDEX(Base!13:13,0,MATCH(Planilha2!$U13,Base!13:13,0)+2))</f>
+        <f t="array" ref="Y13">IF(LEN(INDEX(Base!13:13,0,MATCH(Output!$U13,Base!13:13,0)+2))&gt;2,LEFT(INDEX(Base!13:13,0,MATCH(Output!$U13,Base!13:13,0)+2),1),INDEX(Base!13:13,0,MATCH(Output!$U13,Base!13:13,0)+2))</f>
         <v>2</v>
       </c>
     </row>
@@ -6836,7 +6913,7 @@
         <f>IF(TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("IPTU",Base!C14)),ISNUMBER(FIND("iptu",Base!C14)))=TRUE,RIGHT(Base!C14,5),0),"R$",""),"$",""))="0",TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("IPTU",Base!D14)),ISNUMBER(FIND("iptu",Base!D14)))=TRUE,RIGHT(Base!D14,5),0),"R$",""),"$","")),TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("iptu",Base!C14)),ISNUMBER(FIND("IPTU",Base!C14)))=TRUE,RIGHT(Base!C14,5),0),"R$",""),"$","")))</f>
         <v>0</v>
       </c>
-      <c r="F14" s="5" t="str" cm="1">
+      <c r="F14" s="4" t="str" cm="1">
         <f t="array" ref="F14">INDEX(Base!14:14,MATCH(MAX(LEN(Base!14:14)),LEN(Base!14:14),0))</f>
         <v>O Residencial Golden Clube nasce no coração de Nova Iguaçu, com toda a comodidade construída ao longo da sua história a poucos minutos do seu apartamento. Uma grande variedade de c...</v>
       </c>
@@ -6889,19 +6966,19 @@
         <v>Rua Doutor Barros Júnior, Moqueta</v>
       </c>
       <c r="V14" t="str" cm="1">
-        <f t="array" ref="V14">TRIM(SUBSTITUTE(INDEX(Base!14:14,0,MATCH(Planilha2!$U14,Base!14:14,0)+1),"m²",""))</f>
+        <f t="array" ref="V14">TRIM(SUBSTITUTE(INDEX(Base!14:14,0,MATCH(Output!$U14,Base!14:14,0)+1),"m²",""))</f>
         <v>54</v>
       </c>
       <c r="W14" t="str" cm="1">
-        <f t="array" ref="W14">IF(LEN(INDEX(Base!14:14,0,MATCH(Planilha2!$U14,Base!14:14,0)+2))&gt;2,LEFT(INDEX(Base!14:14,0,MATCH(Planilha2!$U14,Base!14:14,0)+2),1),INDEX(Base!14:14,0,MATCH(Planilha2!$U14,Base!14:14,0)+2))</f>
+        <f t="array" ref="W14">IF(LEN(INDEX(Base!14:14,0,MATCH(Output!$U14,Base!14:14,0)+2))&gt;2,LEFT(INDEX(Base!14:14,0,MATCH(Output!$U14,Base!14:14,0)+2),1),INDEX(Base!14:14,0,MATCH(Output!$U14,Base!14:14,0)+2))</f>
         <v>2</v>
       </c>
       <c r="X14" t="str" cm="1">
-        <f t="array" ref="X14">IF(LEN(INDEX(Base!14:14,0,MATCH(Planilha2!$U14,Base!14:14,0)+2))&gt;2,LEFT(INDEX(Base!14:14,0,MATCH(Planilha2!$U14,Base!14:14,0)+2),1),INDEX(Base!14:14,0,MATCH(Planilha2!$U14,Base!14:14,0)+2))</f>
+        <f t="array" ref="X14">IF(LEN(INDEX(Base!14:14,0,MATCH(Output!$U14,Base!14:14,0)+2))&gt;2,LEFT(INDEX(Base!14:14,0,MATCH(Output!$U14,Base!14:14,0)+2),1),INDEX(Base!14:14,0,MATCH(Output!$U14,Base!14:14,0)+2))</f>
         <v>2</v>
       </c>
       <c r="Y14" t="str" cm="1">
-        <f t="array" ref="Y14">IF(LEN(INDEX(Base!14:14,0,MATCH(Planilha2!$U14,Base!14:14,0)+2))&gt;2,LEFT(INDEX(Base!14:14,0,MATCH(Planilha2!$U14,Base!14:14,0)+2),1),INDEX(Base!14:14,0,MATCH(Planilha2!$U14,Base!14:14,0)+2))</f>
+        <f t="array" ref="Y14">IF(LEN(INDEX(Base!14:14,0,MATCH(Output!$U14,Base!14:14,0)+2))&gt;2,LEFT(INDEX(Base!14:14,0,MATCH(Output!$U14,Base!14:14,0)+2),1),INDEX(Base!14:14,0,MATCH(Output!$U14,Base!14:14,0)+2))</f>
         <v>2</v>
       </c>
     </row>
@@ -6925,7 +7002,7 @@
         <f>IF(TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("IPTU",Base!C15)),ISNUMBER(FIND("iptu",Base!C15)))=TRUE,RIGHT(Base!C15,5),0),"R$",""),"$",""))="0",TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("IPTU",Base!D15)),ISNUMBER(FIND("iptu",Base!D15)))=TRUE,RIGHT(Base!D15,5),0),"R$",""),"$","")),TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("iptu",Base!C15)),ISNUMBER(FIND("IPTU",Base!C15)))=TRUE,RIGHT(Base!C15,5),0),"R$",""),"$","")))</f>
         <v>0</v>
       </c>
-      <c r="F15" s="5" t="str" cm="1">
+      <c r="F15" s="4" t="str" cm="1">
         <f t="array" ref="F15">INDEX(Base!15:15,MATCH(MAX(LEN(Base!15:15)),LEN(Base!15:15),0))</f>
         <v>com quintal, com arvores frutíferas, ideal pra quem gosta de fazer churrasco e conf...</v>
       </c>
@@ -6978,19 +7055,19 @@
         <v>Rua Semiramis, Jardim Alvorada</v>
       </c>
       <c r="V15" t="str" cm="1">
-        <f t="array" ref="V15">TRIM(SUBSTITUTE(INDEX(Base!15:15,0,MATCH(Planilha2!$U15,Base!15:15,0)+1),"m²",""))</f>
+        <f t="array" ref="V15">TRIM(SUBSTITUTE(INDEX(Base!15:15,0,MATCH(Output!$U15,Base!15:15,0)+1),"m²",""))</f>
         <v>121</v>
       </c>
       <c r="W15" t="str" cm="1">
-        <f t="array" ref="W15">IF(LEN(INDEX(Base!15:15,0,MATCH(Planilha2!$U15,Base!15:15,0)+2))&gt;2,LEFT(INDEX(Base!15:15,0,MATCH(Planilha2!$U15,Base!15:15,0)+2),1),INDEX(Base!15:15,0,MATCH(Planilha2!$U15,Base!15:15,0)+2))</f>
+        <f t="array" ref="W15">IF(LEN(INDEX(Base!15:15,0,MATCH(Output!$U15,Base!15:15,0)+2))&gt;2,LEFT(INDEX(Base!15:15,0,MATCH(Output!$U15,Base!15:15,0)+2),1),INDEX(Base!15:15,0,MATCH(Output!$U15,Base!15:15,0)+2))</f>
         <v>3</v>
       </c>
       <c r="X15" t="str" cm="1">
-        <f t="array" ref="X15">IF(LEN(INDEX(Base!15:15,0,MATCH(Planilha2!$U15,Base!15:15,0)+2))&gt;2,LEFT(INDEX(Base!15:15,0,MATCH(Planilha2!$U15,Base!15:15,0)+2),1),INDEX(Base!15:15,0,MATCH(Planilha2!$U15,Base!15:15,0)+2))</f>
+        <f t="array" ref="X15">IF(LEN(INDEX(Base!15:15,0,MATCH(Output!$U15,Base!15:15,0)+2))&gt;2,LEFT(INDEX(Base!15:15,0,MATCH(Output!$U15,Base!15:15,0)+2),1),INDEX(Base!15:15,0,MATCH(Output!$U15,Base!15:15,0)+2))</f>
         <v>3</v>
       </c>
       <c r="Y15" t="str" cm="1">
-        <f t="array" ref="Y15">IF(LEN(INDEX(Base!15:15,0,MATCH(Planilha2!$U15,Base!15:15,0)+2))&gt;2,LEFT(INDEX(Base!15:15,0,MATCH(Planilha2!$U15,Base!15:15,0)+2),1),INDEX(Base!15:15,0,MATCH(Planilha2!$U15,Base!15:15,0)+2))</f>
+        <f t="array" ref="Y15">IF(LEN(INDEX(Base!15:15,0,MATCH(Output!$U15,Base!15:15,0)+2))&gt;2,LEFT(INDEX(Base!15:15,0,MATCH(Output!$U15,Base!15:15,0)+2),1),INDEX(Base!15:15,0,MATCH(Output!$U15,Base!15:15,0)+2))</f>
         <v>3</v>
       </c>
     </row>
@@ -7014,7 +7091,7 @@
         <f>IF(TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("IPTU",Base!C16)),ISNUMBER(FIND("iptu",Base!C16)))=TRUE,RIGHT(Base!C16,5),0),"R$",""),"$",""))="0",TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("IPTU",Base!D16)),ISNUMBER(FIND("iptu",Base!D16)))=TRUE,RIGHT(Base!D16,5),0),"R$",""),"$","")),TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("iptu",Base!C16)),ISNUMBER(FIND("IPTU",Base!C16)))=TRUE,RIGHT(Base!C16,5),0),"R$",""),"$","")))</f>
         <v>1.400</v>
       </c>
-      <c r="F16" s="5" t="str" cm="1">
+      <c r="F16" s="4" t="str" cm="1">
         <f t="array" ref="F16">INDEX(Base!16:16,MATCH(MAX(LEN(Base!16:16)),LEN(Base!16:16),0))</f>
         <v>Casa triplex com 210 m² de área construída com 4 qtos com sacada (sendo 3 suítes) closset , hidromassagem e sapateira, Sala para 2 ambientes ,cozinha com armários , 5 banheiros sen...</v>
       </c>
@@ -7067,19 +7144,19 @@
         <v>Rua Maria Helena, Monte Libano</v>
       </c>
       <c r="V16" t="str" cm="1">
-        <f t="array" ref="V16">TRIM(SUBSTITUTE(INDEX(Base!16:16,0,MATCH(Planilha2!$U16,Base!16:16,0)+1),"m²",""))</f>
+        <f t="array" ref="V16">TRIM(SUBSTITUTE(INDEX(Base!16:16,0,MATCH(Output!$U16,Base!16:16,0)+1),"m²",""))</f>
         <v>343</v>
       </c>
       <c r="W16" t="str" cm="1">
-        <f t="array" ref="W16">IF(LEN(INDEX(Base!16:16,0,MATCH(Planilha2!$U16,Base!16:16,0)+2))&gt;2,LEFT(INDEX(Base!16:16,0,MATCH(Planilha2!$U16,Base!16:16,0)+2),1),INDEX(Base!16:16,0,MATCH(Planilha2!$U16,Base!16:16,0)+2))</f>
+        <f t="array" ref="W16">IF(LEN(INDEX(Base!16:16,0,MATCH(Output!$U16,Base!16:16,0)+2))&gt;2,LEFT(INDEX(Base!16:16,0,MATCH(Output!$U16,Base!16:16,0)+2),1),INDEX(Base!16:16,0,MATCH(Output!$U16,Base!16:16,0)+2))</f>
         <v>4</v>
       </c>
       <c r="X16" t="str" cm="1">
-        <f t="array" ref="X16">IF(LEN(INDEX(Base!16:16,0,MATCH(Planilha2!$U16,Base!16:16,0)+2))&gt;2,LEFT(INDEX(Base!16:16,0,MATCH(Planilha2!$U16,Base!16:16,0)+2),1),INDEX(Base!16:16,0,MATCH(Planilha2!$U16,Base!16:16,0)+2))</f>
+        <f t="array" ref="X16">IF(LEN(INDEX(Base!16:16,0,MATCH(Output!$U16,Base!16:16,0)+2))&gt;2,LEFT(INDEX(Base!16:16,0,MATCH(Output!$U16,Base!16:16,0)+2),1),INDEX(Base!16:16,0,MATCH(Output!$U16,Base!16:16,0)+2))</f>
         <v>4</v>
       </c>
       <c r="Y16" t="str" cm="1">
-        <f t="array" ref="Y16">IF(LEN(INDEX(Base!16:16,0,MATCH(Planilha2!$U16,Base!16:16,0)+2))&gt;2,LEFT(INDEX(Base!16:16,0,MATCH(Planilha2!$U16,Base!16:16,0)+2),1),INDEX(Base!16:16,0,MATCH(Planilha2!$U16,Base!16:16,0)+2))</f>
+        <f t="array" ref="Y16">IF(LEN(INDEX(Base!16:16,0,MATCH(Output!$U16,Base!16:16,0)+2))&gt;2,LEFT(INDEX(Base!16:16,0,MATCH(Output!$U16,Base!16:16,0)+2),1),INDEX(Base!16:16,0,MATCH(Output!$U16,Base!16:16,0)+2))</f>
         <v>4</v>
       </c>
     </row>
@@ -7103,7 +7180,7 @@
         <f>IF(TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("IPTU",Base!C17)),ISNUMBER(FIND("iptu",Base!C17)))=TRUE,RIGHT(Base!C17,5),0),"R$",""),"$",""))="0",TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("IPTU",Base!D17)),ISNUMBER(FIND("iptu",Base!D17)))=TRUE,RIGHT(Base!D17,5),0),"R$",""),"$","")),TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("iptu",Base!C17)),ISNUMBER(FIND("IPTU",Base!C17)))=TRUE,RIGHT(Base!C17,5),0),"R$",""),"$","")))</f>
         <v>1.500</v>
       </c>
-      <c r="F17" s="5" t="str" cm="1">
+      <c r="F17" s="4" t="str" cm="1">
         <f t="array" ref="F17">INDEX(Base!17:17,MATCH(MAX(LEN(Base!17:17)),LEN(Base!17:17),0))</f>
         <v>Apartamento em prédio bem localizado, próximo a supermercados, ArtPão, bancos, farmárcias, academias, restaurantes, shopping etc.... Condomínio super tranquilo.</v>
       </c>
@@ -7156,19 +7233,19 @@
         <v>Avenida Doutor Mário Guimarães, Centro</v>
       </c>
       <c r="V17" t="str" cm="1">
-        <f t="array" ref="V17">TRIM(SUBSTITUTE(INDEX(Base!17:17,0,MATCH(Planilha2!$U17,Base!17:17,0)+1),"m²",""))</f>
+        <f t="array" ref="V17">TRIM(SUBSTITUTE(INDEX(Base!17:17,0,MATCH(Output!$U17,Base!17:17,0)+1),"m²",""))</f>
         <v>125</v>
       </c>
       <c r="W17" t="str" cm="1">
-        <f t="array" ref="W17">IF(LEN(INDEX(Base!17:17,0,MATCH(Planilha2!$U17,Base!17:17,0)+2))&gt;2,LEFT(INDEX(Base!17:17,0,MATCH(Planilha2!$U17,Base!17:17,0)+2),1),INDEX(Base!17:17,0,MATCH(Planilha2!$U17,Base!17:17,0)+2))</f>
+        <f t="array" ref="W17">IF(LEN(INDEX(Base!17:17,0,MATCH(Output!$U17,Base!17:17,0)+2))&gt;2,LEFT(INDEX(Base!17:17,0,MATCH(Output!$U17,Base!17:17,0)+2),1),INDEX(Base!17:17,0,MATCH(Output!$U17,Base!17:17,0)+2))</f>
         <v>2</v>
       </c>
       <c r="X17" t="str" cm="1">
-        <f t="array" ref="X17">IF(LEN(INDEX(Base!17:17,0,MATCH(Planilha2!$U17,Base!17:17,0)+2))&gt;2,LEFT(INDEX(Base!17:17,0,MATCH(Planilha2!$U17,Base!17:17,0)+2),1),INDEX(Base!17:17,0,MATCH(Planilha2!$U17,Base!17:17,0)+2))</f>
+        <f t="array" ref="X17">IF(LEN(INDEX(Base!17:17,0,MATCH(Output!$U17,Base!17:17,0)+2))&gt;2,LEFT(INDEX(Base!17:17,0,MATCH(Output!$U17,Base!17:17,0)+2),1),INDEX(Base!17:17,0,MATCH(Output!$U17,Base!17:17,0)+2))</f>
         <v>2</v>
       </c>
       <c r="Y17" t="str" cm="1">
-        <f t="array" ref="Y17">IF(LEN(INDEX(Base!17:17,0,MATCH(Planilha2!$U17,Base!17:17,0)+2))&gt;2,LEFT(INDEX(Base!17:17,0,MATCH(Planilha2!$U17,Base!17:17,0)+2),1),INDEX(Base!17:17,0,MATCH(Planilha2!$U17,Base!17:17,0)+2))</f>
+        <f t="array" ref="Y17">IF(LEN(INDEX(Base!17:17,0,MATCH(Output!$U17,Base!17:17,0)+2))&gt;2,LEFT(INDEX(Base!17:17,0,MATCH(Output!$U17,Base!17:17,0)+2),1),INDEX(Base!17:17,0,MATCH(Output!$U17,Base!17:17,0)+2))</f>
         <v>2</v>
       </c>
     </row>
@@ -7192,7 +7269,7 @@
         <f>IF(TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("IPTU",Base!C18)),ISNUMBER(FIND("iptu",Base!C18)))=TRUE,RIGHT(Base!C18,5),0),"R$",""),"$",""))="0",TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("IPTU",Base!D18)),ISNUMBER(FIND("iptu",Base!D18)))=TRUE,RIGHT(Base!D18,5),0),"R$",""),"$","")),TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("iptu",Base!C18)),ISNUMBER(FIND("IPTU",Base!C18)))=TRUE,RIGHT(Base!C18,5),0),"R$",""),"$","")))</f>
         <v>200</v>
       </c>
-      <c r="F18" s="5" t="str" cm="1">
+      <c r="F18" s="4" t="str" cm="1">
         <f t="array" ref="F18">INDEX(Base!18:18,MATCH(MAX(LEN(Base!18:18)),LEN(Base!18:18),0))</f>
         <v>Apartamentos de 2 e 3 quartos todos com suíte, cozinha americana, varanda e vaga de garagem. Além de uma área de lazer incrível com opções Para você se div...</v>
       </c>
@@ -7245,19 +7322,19 @@
         <v>Rua Áurea Fonseca de Jesus, Califórnia</v>
       </c>
       <c r="V18" t="str" cm="1">
-        <f t="array" ref="V18">TRIM(SUBSTITUTE(INDEX(Base!18:18,0,MATCH(Planilha2!$U18,Base!18:18,0)+1),"m²",""))</f>
+        <f t="array" ref="V18">TRIM(SUBSTITUTE(INDEX(Base!18:18,0,MATCH(Output!$U18,Base!18:18,0)+1),"m²",""))</f>
         <v>53</v>
       </c>
       <c r="W18" t="str" cm="1">
-        <f t="array" ref="W18">IF(LEN(INDEX(Base!18:18,0,MATCH(Planilha2!$U18,Base!18:18,0)+2))&gt;2,LEFT(INDEX(Base!18:18,0,MATCH(Planilha2!$U18,Base!18:18,0)+2),1),INDEX(Base!18:18,0,MATCH(Planilha2!$U18,Base!18:18,0)+2))</f>
+        <f t="array" ref="W18">IF(LEN(INDEX(Base!18:18,0,MATCH(Output!$U18,Base!18:18,0)+2))&gt;2,LEFT(INDEX(Base!18:18,0,MATCH(Output!$U18,Base!18:18,0)+2),1),INDEX(Base!18:18,0,MATCH(Output!$U18,Base!18:18,0)+2))</f>
         <v>2</v>
       </c>
       <c r="X18" t="str" cm="1">
-        <f t="array" ref="X18">IF(LEN(INDEX(Base!18:18,0,MATCH(Planilha2!$U18,Base!18:18,0)+2))&gt;2,LEFT(INDEX(Base!18:18,0,MATCH(Planilha2!$U18,Base!18:18,0)+2),1),INDEX(Base!18:18,0,MATCH(Planilha2!$U18,Base!18:18,0)+2))</f>
+        <f t="array" ref="X18">IF(LEN(INDEX(Base!18:18,0,MATCH(Output!$U18,Base!18:18,0)+2))&gt;2,LEFT(INDEX(Base!18:18,0,MATCH(Output!$U18,Base!18:18,0)+2),1),INDEX(Base!18:18,0,MATCH(Output!$U18,Base!18:18,0)+2))</f>
         <v>2</v>
       </c>
       <c r="Y18" t="str" cm="1">
-        <f t="array" ref="Y18">IF(LEN(INDEX(Base!18:18,0,MATCH(Planilha2!$U18,Base!18:18,0)+2))&gt;2,LEFT(INDEX(Base!18:18,0,MATCH(Planilha2!$U18,Base!18:18,0)+2),1),INDEX(Base!18:18,0,MATCH(Planilha2!$U18,Base!18:18,0)+2))</f>
+        <f t="array" ref="Y18">IF(LEN(INDEX(Base!18:18,0,MATCH(Output!$U18,Base!18:18,0)+2))&gt;2,LEFT(INDEX(Base!18:18,0,MATCH(Output!$U18,Base!18:18,0)+2),1),INDEX(Base!18:18,0,MATCH(Output!$U18,Base!18:18,0)+2))</f>
         <v>2</v>
       </c>
     </row>
@@ -7281,7 +7358,7 @@
         <f>IF(TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("IPTU",Base!C19)),ISNUMBER(FIND("iptu",Base!C19)))=TRUE,RIGHT(Base!C19,5),0),"R$",""),"$",""))="0",TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("IPTU",Base!D19)),ISNUMBER(FIND("iptu",Base!D19)))=TRUE,RIGHT(Base!D19,5),0),"R$",""),"$","")),TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("iptu",Base!C19)),ISNUMBER(FIND("IPTU",Base!C19)))=TRUE,RIGHT(Base!C19,5),0),"R$",""),"$","")))</f>
         <v>0</v>
       </c>
-      <c r="F19" s="5" t="str" cm="1">
+      <c r="F19" s="4" t="str" cm="1">
         <f t="array" ref="F19">INDEX(Base!19:19,MATCH(MAX(LEN(Base!19:19)),LEN(Base!19:19),0))</f>
         <v>O apartamento no bairro Jardim Tropical possui 48 metros quadrados com 2 quartos e 1 banheiro</v>
       </c>
@@ -7334,19 +7411,19 @@
         <v>Rua Damas Batista, Jardim Tropical</v>
       </c>
       <c r="V19" t="str" cm="1">
-        <f t="array" ref="V19">TRIM(SUBSTITUTE(INDEX(Base!19:19,0,MATCH(Planilha2!$U19,Base!19:19,0)+1),"m²",""))</f>
+        <f t="array" ref="V19">TRIM(SUBSTITUTE(INDEX(Base!19:19,0,MATCH(Output!$U19,Base!19:19,0)+1),"m²",""))</f>
         <v>48</v>
       </c>
       <c r="W19" t="str" cm="1">
-        <f t="array" ref="W19">IF(LEN(INDEX(Base!19:19,0,MATCH(Planilha2!$U19,Base!19:19,0)+2))&gt;2,LEFT(INDEX(Base!19:19,0,MATCH(Planilha2!$U19,Base!19:19,0)+2),1),INDEX(Base!19:19,0,MATCH(Planilha2!$U19,Base!19:19,0)+2))</f>
+        <f t="array" ref="W19">IF(LEN(INDEX(Base!19:19,0,MATCH(Output!$U19,Base!19:19,0)+2))&gt;2,LEFT(INDEX(Base!19:19,0,MATCH(Output!$U19,Base!19:19,0)+2),1),INDEX(Base!19:19,0,MATCH(Output!$U19,Base!19:19,0)+2))</f>
         <v>2</v>
       </c>
       <c r="X19" t="str" cm="1">
-        <f t="array" ref="X19">IF(LEN(INDEX(Base!19:19,0,MATCH(Planilha2!$U19,Base!19:19,0)+2))&gt;2,LEFT(INDEX(Base!19:19,0,MATCH(Planilha2!$U19,Base!19:19,0)+2),1),INDEX(Base!19:19,0,MATCH(Planilha2!$U19,Base!19:19,0)+2))</f>
+        <f t="array" ref="X19">IF(LEN(INDEX(Base!19:19,0,MATCH(Output!$U19,Base!19:19,0)+2))&gt;2,LEFT(INDEX(Base!19:19,0,MATCH(Output!$U19,Base!19:19,0)+2),1),INDEX(Base!19:19,0,MATCH(Output!$U19,Base!19:19,0)+2))</f>
         <v>2</v>
       </c>
       <c r="Y19" t="str" cm="1">
-        <f t="array" ref="Y19">IF(LEN(INDEX(Base!19:19,0,MATCH(Planilha2!$U19,Base!19:19,0)+2))&gt;2,LEFT(INDEX(Base!19:19,0,MATCH(Planilha2!$U19,Base!19:19,0)+2),1),INDEX(Base!19:19,0,MATCH(Planilha2!$U19,Base!19:19,0)+2))</f>
+        <f t="array" ref="Y19">IF(LEN(INDEX(Base!19:19,0,MATCH(Output!$U19,Base!19:19,0)+2))&gt;2,LEFT(INDEX(Base!19:19,0,MATCH(Output!$U19,Base!19:19,0)+2),1),INDEX(Base!19:19,0,MATCH(Output!$U19,Base!19:19,0)+2))</f>
         <v>2</v>
       </c>
     </row>
@@ -7370,7 +7447,7 @@
         <f>IF(TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("IPTU",Base!C20)),ISNUMBER(FIND("iptu",Base!C20)))=TRUE,RIGHT(Base!C20,5),0),"R$",""),"$",""))="0",TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("IPTU",Base!D20)),ISNUMBER(FIND("iptu",Base!D20)))=TRUE,RIGHT(Base!D20,5),0),"R$",""),"$","")),TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("iptu",Base!C20)),ISNUMBER(FIND("IPTU",Base!C20)))=TRUE,RIGHT(Base!C20,5),0),"R$",""),"$","")))</f>
         <v>0</v>
       </c>
-      <c r="F20" s="5" t="str" cm="1">
+      <c r="F20" s="4" t="str" cm="1">
         <f t="array" ref="F20">INDEX(Base!20:20,MATCH(MAX(LEN(Base!20:20)),LEN(Base!20:20),0))</f>
         <v>Com 2 dormitórios, sendo 2 suítes, possui 3 banheiros, 2 vagas de garagem, 1 sala, construído...</v>
       </c>
@@ -7423,19 +7500,19 @@
         <v>Caonze, Nova Iguaçu</v>
       </c>
       <c r="V20" t="str" cm="1">
-        <f t="array" ref="V20">TRIM(SUBSTITUTE(INDEX(Base!20:20,0,MATCH(Planilha2!$U20,Base!20:20,0)+1),"m²",""))</f>
+        <f t="array" ref="V20">TRIM(SUBSTITUTE(INDEX(Base!20:20,0,MATCH(Output!$U20,Base!20:20,0)+1),"m²",""))</f>
         <v>10</v>
       </c>
       <c r="W20" t="str" cm="1">
-        <f t="array" ref="W20">IF(LEN(INDEX(Base!20:20,0,MATCH(Planilha2!$U20,Base!20:20,0)+2))&gt;2,LEFT(INDEX(Base!20:20,0,MATCH(Planilha2!$U20,Base!20:20,0)+2),1),INDEX(Base!20:20,0,MATCH(Planilha2!$U20,Base!20:20,0)+2))</f>
+        <f t="array" ref="W20">IF(LEN(INDEX(Base!20:20,0,MATCH(Output!$U20,Base!20:20,0)+2))&gt;2,LEFT(INDEX(Base!20:20,0,MATCH(Output!$U20,Base!20:20,0)+2),1),INDEX(Base!20:20,0,MATCH(Output!$U20,Base!20:20,0)+2))</f>
         <v>2</v>
       </c>
       <c r="X20" t="str" cm="1">
-        <f t="array" ref="X20">IF(LEN(INDEX(Base!20:20,0,MATCH(Planilha2!$U20,Base!20:20,0)+2))&gt;2,LEFT(INDEX(Base!20:20,0,MATCH(Planilha2!$U20,Base!20:20,0)+2),1),INDEX(Base!20:20,0,MATCH(Planilha2!$U20,Base!20:20,0)+2))</f>
+        <f t="array" ref="X20">IF(LEN(INDEX(Base!20:20,0,MATCH(Output!$U20,Base!20:20,0)+2))&gt;2,LEFT(INDEX(Base!20:20,0,MATCH(Output!$U20,Base!20:20,0)+2),1),INDEX(Base!20:20,0,MATCH(Output!$U20,Base!20:20,0)+2))</f>
         <v>2</v>
       </c>
       <c r="Y20" t="str" cm="1">
-        <f t="array" ref="Y20">IF(LEN(INDEX(Base!20:20,0,MATCH(Planilha2!$U20,Base!20:20,0)+2))&gt;2,LEFT(INDEX(Base!20:20,0,MATCH(Planilha2!$U20,Base!20:20,0)+2),1),INDEX(Base!20:20,0,MATCH(Planilha2!$U20,Base!20:20,0)+2))</f>
+        <f t="array" ref="Y20">IF(LEN(INDEX(Base!20:20,0,MATCH(Output!$U20,Base!20:20,0)+2))&gt;2,LEFT(INDEX(Base!20:20,0,MATCH(Output!$U20,Base!20:20,0)+2),1),INDEX(Base!20:20,0,MATCH(Output!$U20,Base!20:20,0)+2))</f>
         <v>2</v>
       </c>
     </row>
@@ -7459,7 +7536,7 @@
         <f>IF(TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("IPTU",Base!C21)),ISNUMBER(FIND("iptu",Base!C21)))=TRUE,RIGHT(Base!C21,5),0),"R$",""),"$",""))="0",TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("IPTU",Base!D21)),ISNUMBER(FIND("iptu",Base!D21)))=TRUE,RIGHT(Base!D21,5),0),"R$",""),"$","")),TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("iptu",Base!C21)),ISNUMBER(FIND("IPTU",Base!C21)))=TRUE,RIGHT(Base!C21,5),0),"R$",""),"$","")))</f>
         <v>600</v>
       </c>
-      <c r="F21" s="5" t="str" cm="1">
+      <c r="F21" s="4" t="str" cm="1">
         <f t="array" ref="F21">INDEX(Base!21:21,MATCH(MAX(LEN(Base!21:21)),LEN(Base!21:21),0))</f>
         <v>Sala rebaixado em gesso com lâmpadas embutidas, piso porcelanato, Ampla cozinha planejada com armários, todos os quartos com suíte...</v>
       </c>
@@ -7512,19 +7589,19 @@
         <v>Rua Melquíades, Jardim Tropical</v>
       </c>
       <c r="V21" t="str" cm="1">
-        <f t="array" ref="V21">TRIM(SUBSTITUTE(INDEX(Base!21:21,0,MATCH(Planilha2!$U21,Base!21:21,0)+1),"m²",""))</f>
+        <f t="array" ref="V21">TRIM(SUBSTITUTE(INDEX(Base!21:21,0,MATCH(Output!$U21,Base!21:21,0)+1),"m²",""))</f>
         <v>76</v>
       </c>
       <c r="W21" t="str" cm="1">
-        <f t="array" ref="W21">IF(LEN(INDEX(Base!21:21,0,MATCH(Planilha2!$U21,Base!21:21,0)+2))&gt;2,LEFT(INDEX(Base!21:21,0,MATCH(Planilha2!$U21,Base!21:21,0)+2),1),INDEX(Base!21:21,0,MATCH(Planilha2!$U21,Base!21:21,0)+2))</f>
+        <f t="array" ref="W21">IF(LEN(INDEX(Base!21:21,0,MATCH(Output!$U21,Base!21:21,0)+2))&gt;2,LEFT(INDEX(Base!21:21,0,MATCH(Output!$U21,Base!21:21,0)+2),1),INDEX(Base!21:21,0,MATCH(Output!$U21,Base!21:21,0)+2))</f>
         <v>2</v>
       </c>
       <c r="X21" t="str" cm="1">
-        <f t="array" ref="X21">IF(LEN(INDEX(Base!21:21,0,MATCH(Planilha2!$U21,Base!21:21,0)+2))&gt;2,LEFT(INDEX(Base!21:21,0,MATCH(Planilha2!$U21,Base!21:21,0)+2),1),INDEX(Base!21:21,0,MATCH(Planilha2!$U21,Base!21:21,0)+2))</f>
+        <f t="array" ref="X21">IF(LEN(INDEX(Base!21:21,0,MATCH(Output!$U21,Base!21:21,0)+2))&gt;2,LEFT(INDEX(Base!21:21,0,MATCH(Output!$U21,Base!21:21,0)+2),1),INDEX(Base!21:21,0,MATCH(Output!$U21,Base!21:21,0)+2))</f>
         <v>2</v>
       </c>
       <c r="Y21" t="str" cm="1">
-        <f t="array" ref="Y21">IF(LEN(INDEX(Base!21:21,0,MATCH(Planilha2!$U21,Base!21:21,0)+2))&gt;2,LEFT(INDEX(Base!21:21,0,MATCH(Planilha2!$U21,Base!21:21,0)+2),1),INDEX(Base!21:21,0,MATCH(Planilha2!$U21,Base!21:21,0)+2))</f>
+        <f t="array" ref="Y21">IF(LEN(INDEX(Base!21:21,0,MATCH(Output!$U21,Base!21:21,0)+2))&gt;2,LEFT(INDEX(Base!21:21,0,MATCH(Output!$U21,Base!21:21,0)+2),1),INDEX(Base!21:21,0,MATCH(Output!$U21,Base!21:21,0)+2))</f>
         <v>2</v>
       </c>
     </row>
@@ -7548,7 +7625,7 @@
         <f>IF(TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("IPTU",Base!C22)),ISNUMBER(FIND("iptu",Base!C22)))=TRUE,RIGHT(Base!C22,5),0),"R$",""),"$",""))="0",TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("IPTU",Base!D22)),ISNUMBER(FIND("iptu",Base!D22)))=TRUE,RIGHT(Base!D22,5),0),"R$",""),"$","")),TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("iptu",Base!C22)),ISNUMBER(FIND("IPTU",Base!C22)))=TRUE,RIGHT(Base!C22,5),0),"R$",""),"$","")))</f>
         <v>85</v>
       </c>
-      <c r="F22" s="5" t="str" cm="1">
+      <c r="F22" s="4" t="str" cm="1">
         <f t="array" ref="F22">INDEX(Base!22:22,MATCH(MAX(LEN(Base!22:22)),LEN(Base!22:22),0))</f>
         <v>Rua Paschoal Palladino, Chacrinha</v>
       </c>
@@ -7601,19 +7678,19 @@
         <v>Rua Paschoal Palladino, Chacrinha</v>
       </c>
       <c r="V22" t="str" cm="1">
-        <f t="array" ref="V22">TRIM(SUBSTITUTE(INDEX(Base!22:22,0,MATCH(Planilha2!$U22,Base!22:22,0)+1),"m²",""))</f>
+        <f t="array" ref="V22">TRIM(SUBSTITUTE(INDEX(Base!22:22,0,MATCH(Output!$U22,Base!22:22,0)+1),"m²",""))</f>
         <v>68</v>
       </c>
       <c r="W22" t="str" cm="1">
-        <f t="array" ref="W22">IF(LEN(INDEX(Base!22:22,0,MATCH(Planilha2!$U22,Base!22:22,0)+2))&gt;2,LEFT(INDEX(Base!22:22,0,MATCH(Planilha2!$U22,Base!22:22,0)+2),1),INDEX(Base!22:22,0,MATCH(Planilha2!$U22,Base!22:22,0)+2))</f>
+        <f t="array" ref="W22">IF(LEN(INDEX(Base!22:22,0,MATCH(Output!$U22,Base!22:22,0)+2))&gt;2,LEFT(INDEX(Base!22:22,0,MATCH(Output!$U22,Base!22:22,0)+2),1),INDEX(Base!22:22,0,MATCH(Output!$U22,Base!22:22,0)+2))</f>
         <v>2</v>
       </c>
       <c r="X22" t="str" cm="1">
-        <f t="array" ref="X22">IF(LEN(INDEX(Base!22:22,0,MATCH(Planilha2!$U22,Base!22:22,0)+2))&gt;2,LEFT(INDEX(Base!22:22,0,MATCH(Planilha2!$U22,Base!22:22,0)+2),1),INDEX(Base!22:22,0,MATCH(Planilha2!$U22,Base!22:22,0)+2))</f>
+        <f t="array" ref="X22">IF(LEN(INDEX(Base!22:22,0,MATCH(Output!$U22,Base!22:22,0)+2))&gt;2,LEFT(INDEX(Base!22:22,0,MATCH(Output!$U22,Base!22:22,0)+2),1),INDEX(Base!22:22,0,MATCH(Output!$U22,Base!22:22,0)+2))</f>
         <v>2</v>
       </c>
       <c r="Y22" t="str" cm="1">
-        <f t="array" ref="Y22">IF(LEN(INDEX(Base!22:22,0,MATCH(Planilha2!$U22,Base!22:22,0)+2))&gt;2,LEFT(INDEX(Base!22:22,0,MATCH(Planilha2!$U22,Base!22:22,0)+2),1),INDEX(Base!22:22,0,MATCH(Planilha2!$U22,Base!22:22,0)+2))</f>
+        <f t="array" ref="Y22">IF(LEN(INDEX(Base!22:22,0,MATCH(Output!$U22,Base!22:22,0)+2))&gt;2,LEFT(INDEX(Base!22:22,0,MATCH(Output!$U22,Base!22:22,0)+2),1),INDEX(Base!22:22,0,MATCH(Output!$U22,Base!22:22,0)+2))</f>
         <v>2</v>
       </c>
     </row>
@@ -7637,7 +7714,7 @@
         <f>IF(TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("IPTU",Base!C23)),ISNUMBER(FIND("iptu",Base!C23)))=TRUE,RIGHT(Base!C23,5),0),"R$",""),"$",""))="0",TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("IPTU",Base!D23)),ISNUMBER(FIND("iptu",Base!D23)))=TRUE,RIGHT(Base!D23,5),0),"R$",""),"$","")),TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("iptu",Base!C23)),ISNUMBER(FIND("IPTU",Base!C23)))=TRUE,RIGHT(Base!C23,5),0),"R$",""),"$","")))</f>
         <v>0</v>
       </c>
-      <c r="F23" s="5" t="str" cm="1">
+      <c r="F23" s="4" t="str" cm="1">
         <f t="array" ref="F23">INDEX(Base!23:23,MATCH(MAX(LEN(Base!23:23)),LEN(Base!23:23),0))</f>
         <v>Vendo belo apartamento no bairro da Luz. O imóvel está localizado em ótima vizinhança, próximo à UNIG e a 5 minutos de carro ou ônibus do novo shopping Nova Iguaçu. Ampla gama de c...</v>
       </c>
@@ -7690,19 +7767,19 @@
         <v>Rua Ministro Lafaiete de Andrade, Morro Agudo</v>
       </c>
       <c r="V23" t="str" cm="1">
-        <f t="array" ref="V23">TRIM(SUBSTITUTE(INDEX(Base!23:23,0,MATCH(Planilha2!$U23,Base!23:23,0)+1),"m²",""))</f>
+        <f t="array" ref="V23">TRIM(SUBSTITUTE(INDEX(Base!23:23,0,MATCH(Output!$U23,Base!23:23,0)+1),"m²",""))</f>
         <v>65</v>
       </c>
       <c r="W23" t="str" cm="1">
-        <f t="array" ref="W23">IF(LEN(INDEX(Base!23:23,0,MATCH(Planilha2!$U23,Base!23:23,0)+2))&gt;2,LEFT(INDEX(Base!23:23,0,MATCH(Planilha2!$U23,Base!23:23,0)+2),1),INDEX(Base!23:23,0,MATCH(Planilha2!$U23,Base!23:23,0)+2))</f>
+        <f t="array" ref="W23">IF(LEN(INDEX(Base!23:23,0,MATCH(Output!$U23,Base!23:23,0)+2))&gt;2,LEFT(INDEX(Base!23:23,0,MATCH(Output!$U23,Base!23:23,0)+2),1),INDEX(Base!23:23,0,MATCH(Output!$U23,Base!23:23,0)+2))</f>
         <v>2</v>
       </c>
       <c r="X23" t="str" cm="1">
-        <f t="array" ref="X23">IF(LEN(INDEX(Base!23:23,0,MATCH(Planilha2!$U23,Base!23:23,0)+2))&gt;2,LEFT(INDEX(Base!23:23,0,MATCH(Planilha2!$U23,Base!23:23,0)+2),1),INDEX(Base!23:23,0,MATCH(Planilha2!$U23,Base!23:23,0)+2))</f>
+        <f t="array" ref="X23">IF(LEN(INDEX(Base!23:23,0,MATCH(Output!$U23,Base!23:23,0)+2))&gt;2,LEFT(INDEX(Base!23:23,0,MATCH(Output!$U23,Base!23:23,0)+2),1),INDEX(Base!23:23,0,MATCH(Output!$U23,Base!23:23,0)+2))</f>
         <v>2</v>
       </c>
       <c r="Y23" t="str" cm="1">
-        <f t="array" ref="Y23">IF(LEN(INDEX(Base!23:23,0,MATCH(Planilha2!$U23,Base!23:23,0)+2))&gt;2,LEFT(INDEX(Base!23:23,0,MATCH(Planilha2!$U23,Base!23:23,0)+2),1),INDEX(Base!23:23,0,MATCH(Planilha2!$U23,Base!23:23,0)+2))</f>
+        <f t="array" ref="Y23">IF(LEN(INDEX(Base!23:23,0,MATCH(Output!$U23,Base!23:23,0)+2))&gt;2,LEFT(INDEX(Base!23:23,0,MATCH(Output!$U23,Base!23:23,0)+2),1),INDEX(Base!23:23,0,MATCH(Output!$U23,Base!23:23,0)+2))</f>
         <v>2</v>
       </c>
     </row>
@@ -7726,7 +7803,7 @@
         <f>IF(TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("IPTU",Base!C24)),ISNUMBER(FIND("iptu",Base!C24)))=TRUE,RIGHT(Base!C24,5),0),"R$",""),"$",""))="0",TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("IPTU",Base!D24)),ISNUMBER(FIND("iptu",Base!D24)))=TRUE,RIGHT(Base!D24,5),0),"R$",""),"$","")),TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("iptu",Base!C24)),ISNUMBER(FIND("IPTU",Base!C24)))=TRUE,RIGHT(Base!C24,5),0),"R$",""),"$","")))</f>
         <v>546</v>
       </c>
-      <c r="F24" s="5" t="str" cm="1">
+      <c r="F24" s="4" t="str" cm="1">
         <f t="array" ref="F24">INDEX(Base!24:24,MATCH(MAX(LEN(Base!24:24)),LEN(Base!24:24),0))</f>
         <v>Grande oportunidade!!! Excelente casa de condomínio totalmente independente no bairro Engenho Pequeno tem 140 metros quadrados com 3 quartos (sendo 1 suite com armário) sala, cozin...</v>
       </c>
@@ -7779,19 +7856,19 @@
         <v>Rua Sumaré, Engenho Pequeno</v>
       </c>
       <c r="V24" t="str" cm="1">
-        <f t="array" ref="V24">TRIM(SUBSTITUTE(INDEX(Base!24:24,0,MATCH(Planilha2!$U24,Base!24:24,0)+1),"m²",""))</f>
+        <f t="array" ref="V24">TRIM(SUBSTITUTE(INDEX(Base!24:24,0,MATCH(Output!$U24,Base!24:24,0)+1),"m²",""))</f>
         <v>140</v>
       </c>
       <c r="W24" t="str" cm="1">
-        <f t="array" ref="W24">IF(LEN(INDEX(Base!24:24,0,MATCH(Planilha2!$U24,Base!24:24,0)+2))&gt;2,LEFT(INDEX(Base!24:24,0,MATCH(Planilha2!$U24,Base!24:24,0)+2),1),INDEX(Base!24:24,0,MATCH(Planilha2!$U24,Base!24:24,0)+2))</f>
+        <f t="array" ref="W24">IF(LEN(INDEX(Base!24:24,0,MATCH(Output!$U24,Base!24:24,0)+2))&gt;2,LEFT(INDEX(Base!24:24,0,MATCH(Output!$U24,Base!24:24,0)+2),1),INDEX(Base!24:24,0,MATCH(Output!$U24,Base!24:24,0)+2))</f>
         <v>3</v>
       </c>
       <c r="X24" t="str" cm="1">
-        <f t="array" ref="X24">IF(LEN(INDEX(Base!24:24,0,MATCH(Planilha2!$U24,Base!24:24,0)+2))&gt;2,LEFT(INDEX(Base!24:24,0,MATCH(Planilha2!$U24,Base!24:24,0)+2),1),INDEX(Base!24:24,0,MATCH(Planilha2!$U24,Base!24:24,0)+2))</f>
+        <f t="array" ref="X24">IF(LEN(INDEX(Base!24:24,0,MATCH(Output!$U24,Base!24:24,0)+2))&gt;2,LEFT(INDEX(Base!24:24,0,MATCH(Output!$U24,Base!24:24,0)+2),1),INDEX(Base!24:24,0,MATCH(Output!$U24,Base!24:24,0)+2))</f>
         <v>3</v>
       </c>
       <c r="Y24" t="str" cm="1">
-        <f t="array" ref="Y24">IF(LEN(INDEX(Base!24:24,0,MATCH(Planilha2!$U24,Base!24:24,0)+2))&gt;2,LEFT(INDEX(Base!24:24,0,MATCH(Planilha2!$U24,Base!24:24,0)+2),1),INDEX(Base!24:24,0,MATCH(Planilha2!$U24,Base!24:24,0)+2))</f>
+        <f t="array" ref="Y24">IF(LEN(INDEX(Base!24:24,0,MATCH(Output!$U24,Base!24:24,0)+2))&gt;2,LEFT(INDEX(Base!24:24,0,MATCH(Output!$U24,Base!24:24,0)+2),1),INDEX(Base!24:24,0,MATCH(Output!$U24,Base!24:24,0)+2))</f>
         <v>3</v>
       </c>
     </row>
@@ -7815,7 +7892,7 @@
         <f>IF(TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("IPTU",Base!C25)),ISNUMBER(FIND("iptu",Base!C25)))=TRUE,RIGHT(Base!C25,5),0),"R$",""),"$",""))="0",TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("IPTU",Base!D25)),ISNUMBER(FIND("iptu",Base!D25)))=TRUE,RIGHT(Base!D25,5),0),"R$",""),"$","")),TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("iptu",Base!C25)),ISNUMBER(FIND("IPTU",Base!C25)))=TRUE,RIGHT(Base!C25,5),0),"R$",""),"$","")))</f>
         <v>69</v>
       </c>
-      <c r="F25" s="5" t="str" cm="1">
+      <c r="F25" s="4" t="str" cm="1">
         <f t="array" ref="F25">INDEX(Base!25:25,MATCH(MAX(LEN(Base!25:25)),LEN(Base!25:25),0))</f>
         <v>Avenida Abílio Augusto Távora, Luz</v>
       </c>
@@ -7868,23 +7945,27 @@
         <v>Avenida Abílio Augusto Távora, Luz</v>
       </c>
       <c r="V25" t="str" cm="1">
-        <f t="array" ref="V25">TRIM(SUBSTITUTE(INDEX(Base!25:25,0,MATCH(Planilha2!$U25,Base!25:25,0)+1),"m²",""))</f>
+        <f t="array" ref="V25">TRIM(SUBSTITUTE(INDEX(Base!25:25,0,MATCH(Output!$U25,Base!25:25,0)+1),"m²",""))</f>
         <v>80</v>
       </c>
       <c r="W25" t="str" cm="1">
-        <f t="array" ref="W25">IF(LEN(INDEX(Base!25:25,0,MATCH(Planilha2!$U25,Base!25:25,0)+2))&gt;2,LEFT(INDEX(Base!25:25,0,MATCH(Planilha2!$U25,Base!25:25,0)+2),1),INDEX(Base!25:25,0,MATCH(Planilha2!$U25,Base!25:25,0)+2))</f>
+        <f t="array" ref="W25">IF(LEN(INDEX(Base!25:25,0,MATCH(Output!$U25,Base!25:25,0)+2))&gt;2,LEFT(INDEX(Base!25:25,0,MATCH(Output!$U25,Base!25:25,0)+2),1),INDEX(Base!25:25,0,MATCH(Output!$U25,Base!25:25,0)+2))</f>
         <v>2</v>
       </c>
       <c r="X25" t="str" cm="1">
-        <f t="array" ref="X25">IF(LEN(INDEX(Base!25:25,0,MATCH(Planilha2!$U25,Base!25:25,0)+2))&gt;2,LEFT(INDEX(Base!25:25,0,MATCH(Planilha2!$U25,Base!25:25,0)+2),1),INDEX(Base!25:25,0,MATCH(Planilha2!$U25,Base!25:25,0)+2))</f>
+        <f t="array" ref="X25">IF(LEN(INDEX(Base!25:25,0,MATCH(Output!$U25,Base!25:25,0)+2))&gt;2,LEFT(INDEX(Base!25:25,0,MATCH(Output!$U25,Base!25:25,0)+2),1),INDEX(Base!25:25,0,MATCH(Output!$U25,Base!25:25,0)+2))</f>
         <v>2</v>
       </c>
       <c r="Y25" t="str" cm="1">
-        <f t="array" ref="Y25">IF(LEN(INDEX(Base!25:25,0,MATCH(Planilha2!$U25,Base!25:25,0)+2))&gt;2,LEFT(INDEX(Base!25:25,0,MATCH(Planilha2!$U25,Base!25:25,0)+2),1),INDEX(Base!25:25,0,MATCH(Planilha2!$U25,Base!25:25,0)+2))</f>
+        <f t="array" ref="Y25">IF(LEN(INDEX(Base!25:25,0,MATCH(Output!$U25,Base!25:25,0)+2))&gt;2,LEFT(INDEX(Base!25:25,0,MATCH(Output!$U25,Base!25:25,0)+2),1),INDEX(Base!25:25,0,MATCH(Output!$U25,Base!25:25,0)+2))</f>
         <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <f>A25+1</f>
+        <v>24</v>
+      </c>
       <c r="B26" t="str">
         <f>IF(OR(ISNUMBER(FIND(Configurações!$B$4,Base!B26)),ISNUMBER(FIND(Configurações!$B$5,Base!B26)),ISNUMBER(FIND(Configurações!$B$6,Base!B26)),ISNUMBER(FIND(Configurações!$B$7,Base!B26)))=TRUE,Base!B26,0)</f>
         <v>na planta</v>
@@ -7901,7 +7982,7 @@
         <f>IF(TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("IPTU",Base!C26)),ISNUMBER(FIND("iptu",Base!C26)))=TRUE,RIGHT(Base!C26,5),0),"R$",""),"$",""))="0",TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("IPTU",Base!D26)),ISNUMBER(FIND("iptu",Base!D26)))=TRUE,RIGHT(Base!D26,5),0),"R$",""),"$","")),TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("iptu",Base!C26)),ISNUMBER(FIND("IPTU",Base!C26)))=TRUE,RIGHT(Base!C26,5),0),"R$",""),"$","")))</f>
         <v>0</v>
       </c>
-      <c r="F26" s="5" t="str" cm="1">
+      <c r="F26" s="4" t="str" cm="1">
         <f t="array" ref="F26">INDEX(Base!26:26,MATCH(MAX(LEN(Base!26:26)),LEN(Base!26:26),0))</f>
         <v>Condomínio fechado com apartamentos de 2 quartos na Região Jardim Alvorada, com opção de vaga de garagem. Tudo o que você sempre quis em um só lugar: conforto, tranquilidade, segur...</v>
       </c>
@@ -7954,23 +8035,27 @@
         <v>Avenida Abílio Augusto Távora, Jardim Alvorada</v>
       </c>
       <c r="V26" t="str" cm="1">
-        <f t="array" ref="V26">TRIM(SUBSTITUTE(INDEX(Base!26:26,0,MATCH(Planilha2!$U26,Base!26:26,0)+1),"m²",""))</f>
+        <f t="array" ref="V26">TRIM(SUBSTITUTE(INDEX(Base!26:26,0,MATCH(Output!$U26,Base!26:26,0)+1),"m²",""))</f>
         <v>40 - 43</v>
       </c>
       <c r="W26" t="str" cm="1">
-        <f t="array" ref="W26">IF(LEN(INDEX(Base!26:26,0,MATCH(Planilha2!$U26,Base!26:26,0)+2))&gt;2,LEFT(INDEX(Base!26:26,0,MATCH(Planilha2!$U26,Base!26:26,0)+2),1),INDEX(Base!26:26,0,MATCH(Planilha2!$U26,Base!26:26,0)+2))</f>
+        <f t="array" ref="W26">IF(LEN(INDEX(Base!26:26,0,MATCH(Output!$U26,Base!26:26,0)+2))&gt;2,LEFT(INDEX(Base!26:26,0,MATCH(Output!$U26,Base!26:26,0)+2),1),INDEX(Base!26:26,0,MATCH(Output!$U26,Base!26:26,0)+2))</f>
         <v>2</v>
       </c>
       <c r="X26" t="str" cm="1">
-        <f t="array" ref="X26">IF(LEN(INDEX(Base!26:26,0,MATCH(Planilha2!$U26,Base!26:26,0)+2))&gt;2,LEFT(INDEX(Base!26:26,0,MATCH(Planilha2!$U26,Base!26:26,0)+2),1),INDEX(Base!26:26,0,MATCH(Planilha2!$U26,Base!26:26,0)+2))</f>
+        <f t="array" ref="X26">IF(LEN(INDEX(Base!26:26,0,MATCH(Output!$U26,Base!26:26,0)+2))&gt;2,LEFT(INDEX(Base!26:26,0,MATCH(Output!$U26,Base!26:26,0)+2),1),INDEX(Base!26:26,0,MATCH(Output!$U26,Base!26:26,0)+2))</f>
         <v>2</v>
       </c>
       <c r="Y26" t="str" cm="1">
-        <f t="array" ref="Y26">IF(LEN(INDEX(Base!26:26,0,MATCH(Planilha2!$U26,Base!26:26,0)+2))&gt;2,LEFT(INDEX(Base!26:26,0,MATCH(Planilha2!$U26,Base!26:26,0)+2),1),INDEX(Base!26:26,0,MATCH(Planilha2!$U26,Base!26:26,0)+2))</f>
+        <f t="array" ref="Y26">IF(LEN(INDEX(Base!26:26,0,MATCH(Output!$U26,Base!26:26,0)+2))&gt;2,LEFT(INDEX(Base!26:26,0,MATCH(Output!$U26,Base!26:26,0)+2),1),INDEX(Base!26:26,0,MATCH(Output!$U26,Base!26:26,0)+2))</f>
         <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <f t="shared" ref="A27:A90" si="0">A26+1</f>
+        <v>25</v>
+      </c>
       <c r="B27" t="str">
         <f>IF(OR(ISNUMBER(FIND(Configurações!$B$4,Base!B27)),ISNUMBER(FIND(Configurações!$B$5,Base!B27)),ISNUMBER(FIND(Configurações!$B$6,Base!B27)),ISNUMBER(FIND(Configurações!$B$7,Base!B27)),ISNUMBER(FIND(Configurações!$B$8,Base!B27)))=TRUE,Base!B27,0)</f>
         <v>pronto para morar</v>
@@ -7987,7 +8072,7 @@
         <f>IF(TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("IPTU",Base!C27)),ISNUMBER(FIND("iptu",Base!C27)))=TRUE,RIGHT(Base!C27,5),0),"R$",""),"$",""))="0",TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("IPTU",Base!D27)),ISNUMBER(FIND("iptu",Base!D27)))=TRUE,RIGHT(Base!D27,5),0),"R$",""),"$","")),TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("iptu",Base!C27)),ISNUMBER(FIND("IPTU",Base!C27)))=TRUE,RIGHT(Base!C27,5),0),"R$",""),"$","")))</f>
         <v>0</v>
       </c>
-      <c r="F27" s="5" t="str" cm="1">
+      <c r="F27" s="4" t="str" cm="1">
         <f t="array" ref="F27">INDEX(Base!27:27,MATCH(MAX(LEN(Base!27:27)),LEN(Base!27:27),0))</f>
         <v>Venha conhecer os diferenciais incríveis desse empreendimento. Fale com nossa equipe de corretores</v>
       </c>
@@ -8040,23 +8125,27 @@
         <v>Rua Damas Batista, Jardim Tropical</v>
       </c>
       <c r="V27" t="str" cm="1">
-        <f t="array" ref="V27">TRIM(SUBSTITUTE(INDEX(Base!27:27,0,MATCH(Planilha2!$U27,Base!27:27,0)+1),"m²",""))</f>
+        <f t="array" ref="V27">TRIM(SUBSTITUTE(INDEX(Base!27:27,0,MATCH(Output!$U27,Base!27:27,0)+1),"m²",""))</f>
         <v>49</v>
       </c>
       <c r="W27" t="str" cm="1">
-        <f t="array" ref="W27">IF(LEN(INDEX(Base!27:27,0,MATCH(Planilha2!$U27,Base!27:27,0)+2))&gt;2,LEFT(INDEX(Base!27:27,0,MATCH(Planilha2!$U27,Base!27:27,0)+2),1),INDEX(Base!27:27,0,MATCH(Planilha2!$U27,Base!27:27,0)+2))</f>
+        <f t="array" ref="W27">IF(LEN(INDEX(Base!27:27,0,MATCH(Output!$U27,Base!27:27,0)+2))&gt;2,LEFT(INDEX(Base!27:27,0,MATCH(Output!$U27,Base!27:27,0)+2),1),INDEX(Base!27:27,0,MATCH(Output!$U27,Base!27:27,0)+2))</f>
         <v>1</v>
       </c>
       <c r="X27" t="str" cm="1">
-        <f t="array" ref="X27">IF(LEN(INDEX(Base!27:27,0,MATCH(Planilha2!$U27,Base!27:27,0)+2))&gt;2,LEFT(INDEX(Base!27:27,0,MATCH(Planilha2!$U27,Base!27:27,0)+2),1),INDEX(Base!27:27,0,MATCH(Planilha2!$U27,Base!27:27,0)+2))</f>
+        <f t="array" ref="X27">IF(LEN(INDEX(Base!27:27,0,MATCH(Output!$U27,Base!27:27,0)+2))&gt;2,LEFT(INDEX(Base!27:27,0,MATCH(Output!$U27,Base!27:27,0)+2),1),INDEX(Base!27:27,0,MATCH(Output!$U27,Base!27:27,0)+2))</f>
         <v>1</v>
       </c>
       <c r="Y27" t="str" cm="1">
-        <f t="array" ref="Y27">IF(LEN(INDEX(Base!27:27,0,MATCH(Planilha2!$U27,Base!27:27,0)+2))&gt;2,LEFT(INDEX(Base!27:27,0,MATCH(Planilha2!$U27,Base!27:27,0)+2),1),INDEX(Base!27:27,0,MATCH(Planilha2!$U27,Base!27:27,0)+2))</f>
+        <f t="array" ref="Y27">IF(LEN(INDEX(Base!27:27,0,MATCH(Output!$U27,Base!27:27,0)+2))&gt;2,LEFT(INDEX(Base!27:27,0,MATCH(Output!$U27,Base!27:27,0)+2),1),INDEX(Base!27:27,0,MATCH(Output!$U27,Base!27:27,0)+2))</f>
         <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
       <c r="B28" t="str">
         <f>IF(OR(ISNUMBER(FIND(Configurações!$B$4,Base!B28)),ISNUMBER(FIND(Configurações!$B$5,Base!B28)),ISNUMBER(FIND(Configurações!$B$6,Base!B28)),ISNUMBER(FIND(Configurações!$B$7,Base!B28)),ISNUMBER(FIND(Configurações!$B$8,Base!B28)))=TRUE,Base!B28,0)</f>
         <v>pronto para morar</v>
@@ -8073,7 +8162,7 @@
         <f>IF(TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("IPTU",Base!C28)),ISNUMBER(FIND("iptu",Base!C28)))=TRUE,RIGHT(Base!C28,5),0),"R$",""),"$",""))="0",TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("IPTU",Base!D28)),ISNUMBER(FIND("iptu",Base!D28)))=TRUE,RIGHT(Base!D28,5),0),"R$",""),"$","")),TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("iptu",Base!C28)),ISNUMBER(FIND("IPTU",Base!C28)))=TRUE,RIGHT(Base!C28,5),0),"R$",""),"$","")))</f>
         <v>0</v>
       </c>
-      <c r="F28" s="5" t="str" cm="1">
+      <c r="F28" s="4" t="str" cm="1">
         <f t="array" ref="F28">INDEX(Base!28:28,MATCH(MAX(LEN(Base!28:28)),LEN(Base!28:28),0))</f>
         <v>Venha conhecer os diferenciais incríveis desse empreendimento. Fale com nossa equipe de corretores</v>
       </c>
@@ -8126,23 +8215,27 @@
         <v>Rua Nascente, Jardim Nova Era</v>
       </c>
       <c r="V28" t="str" cm="1">
-        <f t="array" ref="V28">TRIM(SUBSTITUTE(INDEX(Base!28:28,0,MATCH(Planilha2!$U28,Base!28:28,0)+1),"m²",""))</f>
+        <f t="array" ref="V28">TRIM(SUBSTITUTE(INDEX(Base!28:28,0,MATCH(Output!$U28,Base!28:28,0)+1),"m²",""))</f>
         <v>55 - 60</v>
       </c>
       <c r="W28" t="str" cm="1">
-        <f t="array" ref="W28">IF(LEN(INDEX(Base!28:28,0,MATCH(Planilha2!$U28,Base!28:28,0)+2))&gt;2,LEFT(INDEX(Base!28:28,0,MATCH(Planilha2!$U28,Base!28:28,0)+2),1),INDEX(Base!28:28,0,MATCH(Planilha2!$U28,Base!28:28,0)+2))</f>
+        <f t="array" ref="W28">IF(LEN(INDEX(Base!28:28,0,MATCH(Output!$U28,Base!28:28,0)+2))&gt;2,LEFT(INDEX(Base!28:28,0,MATCH(Output!$U28,Base!28:28,0)+2),1),INDEX(Base!28:28,0,MATCH(Output!$U28,Base!28:28,0)+2))</f>
         <v>1</v>
       </c>
       <c r="X28" t="str" cm="1">
-        <f t="array" ref="X28">IF(LEN(INDEX(Base!28:28,0,MATCH(Planilha2!$U28,Base!28:28,0)+2))&gt;2,LEFT(INDEX(Base!28:28,0,MATCH(Planilha2!$U28,Base!28:28,0)+2),1),INDEX(Base!28:28,0,MATCH(Planilha2!$U28,Base!28:28,0)+2))</f>
+        <f t="array" ref="X28">IF(LEN(INDEX(Base!28:28,0,MATCH(Output!$U28,Base!28:28,0)+2))&gt;2,LEFT(INDEX(Base!28:28,0,MATCH(Output!$U28,Base!28:28,0)+2),1),INDEX(Base!28:28,0,MATCH(Output!$U28,Base!28:28,0)+2))</f>
         <v>1</v>
       </c>
       <c r="Y28" t="str" cm="1">
-        <f t="array" ref="Y28">IF(LEN(INDEX(Base!28:28,0,MATCH(Planilha2!$U28,Base!28:28,0)+2))&gt;2,LEFT(INDEX(Base!28:28,0,MATCH(Planilha2!$U28,Base!28:28,0)+2),1),INDEX(Base!28:28,0,MATCH(Planilha2!$U28,Base!28:28,0)+2))</f>
+        <f t="array" ref="Y28">IF(LEN(INDEX(Base!28:28,0,MATCH(Output!$U28,Base!28:28,0)+2))&gt;2,LEFT(INDEX(Base!28:28,0,MATCH(Output!$U28,Base!28:28,0)+2),1),INDEX(Base!28:28,0,MATCH(Output!$U28,Base!28:28,0)+2))</f>
         <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
       <c r="B29" t="str">
         <f>IF(OR(ISNUMBER(FIND(Configurações!$B$4,Base!B29)),ISNUMBER(FIND(Configurações!$B$5,Base!B29)),ISNUMBER(FIND(Configurações!$B$6,Base!B29)),ISNUMBER(FIND(Configurações!$B$7,Base!B29)),ISNUMBER(FIND(Configurações!$B$8,Base!B29)))=TRUE,Base!B29,0)</f>
         <v>super destaque</v>
@@ -8159,7 +8252,7 @@
         <f>IF(TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("IPTU",Base!C29)),ISNUMBER(FIND("iptu",Base!C29)))=TRUE,RIGHT(Base!C29,5),0),"R$",""),"$",""))="0",TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("IPTU",Base!D29)),ISNUMBER(FIND("iptu",Base!D29)))=TRUE,RIGHT(Base!D29,5),0),"R$",""),"$","")),TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("iptu",Base!C29)),ISNUMBER(FIND("IPTU",Base!C29)))=TRUE,RIGHT(Base!C29,5),0),"R$",""),"$","")))</f>
         <v>150</v>
       </c>
-      <c r="F29" s="5" t="str" cm="1">
+      <c r="F29" s="4" t="str" cm="1">
         <f t="array" ref="F29">INDEX(Base!29:29,MATCH(MAX(LEN(Base!29:29)),LEN(Base!29:29),0))</f>
         <v>aproveite para montar o seu negócio no centro de nova iguaçu, sala pronta e com acesso para deficientes,4 Elevadores,entrada lateral,portaria 24 horas,internet sem fio (sistema Wi-...</v>
       </c>
@@ -8212,23 +8305,27 @@
         <v>Rua Coronel Bernardino de Melo, Centro</v>
       </c>
       <c r="V29" t="str" cm="1">
-        <f t="array" ref="V29">TRIM(SUBSTITUTE(INDEX(Base!29:29,0,MATCH(Planilha2!$U29,Base!29:29,0)+1),"m²",""))</f>
+        <f t="array" ref="V29">TRIM(SUBSTITUTE(INDEX(Base!29:29,0,MATCH(Output!$U29,Base!29:29,0)+1),"m²",""))</f>
         <v>50</v>
       </c>
       <c r="W29" cm="1">
-        <f t="array" ref="W29">IF(LEN(INDEX(Base!29:29,0,MATCH(Planilha2!$U29,Base!29:29,0)+2))&gt;2,LEFT(INDEX(Base!29:29,0,MATCH(Planilha2!$U29,Base!29:29,0)+2),1),INDEX(Base!29:29,0,MATCH(Planilha2!$U29,Base!29:29,0)+2))</f>
+        <f t="array" ref="W29">IF(LEN(INDEX(Base!29:29,0,MATCH(Output!$U29,Base!29:29,0)+2))&gt;2,LEFT(INDEX(Base!29:29,0,MATCH(Output!$U29,Base!29:29,0)+2),1),INDEX(Base!29:29,0,MATCH(Output!$U29,Base!29:29,0)+2))</f>
         <v>0</v>
       </c>
       <c r="X29" cm="1">
-        <f t="array" ref="X29">IF(LEN(INDEX(Base!29:29,0,MATCH(Planilha2!$U29,Base!29:29,0)+2))&gt;2,LEFT(INDEX(Base!29:29,0,MATCH(Planilha2!$U29,Base!29:29,0)+2),1),INDEX(Base!29:29,0,MATCH(Planilha2!$U29,Base!29:29,0)+2))</f>
+        <f t="array" ref="X29">IF(LEN(INDEX(Base!29:29,0,MATCH(Output!$U29,Base!29:29,0)+2))&gt;2,LEFT(INDEX(Base!29:29,0,MATCH(Output!$U29,Base!29:29,0)+2),1),INDEX(Base!29:29,0,MATCH(Output!$U29,Base!29:29,0)+2))</f>
         <v>0</v>
       </c>
       <c r="Y29" cm="1">
-        <f t="array" ref="Y29">IF(LEN(INDEX(Base!29:29,0,MATCH(Planilha2!$U29,Base!29:29,0)+2))&gt;2,LEFT(INDEX(Base!29:29,0,MATCH(Planilha2!$U29,Base!29:29,0)+2),1),INDEX(Base!29:29,0,MATCH(Planilha2!$U29,Base!29:29,0)+2))</f>
+        <f t="array" ref="Y29">IF(LEN(INDEX(Base!29:29,0,MATCH(Output!$U29,Base!29:29,0)+2))&gt;2,LEFT(INDEX(Base!29:29,0,MATCH(Output!$U29,Base!29:29,0)+2),1),INDEX(Base!29:29,0,MATCH(Output!$U29,Base!29:29,0)+2))</f>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
       <c r="B30" t="str">
         <f>IF(OR(ISNUMBER(FIND(Configurações!$B$4,Base!B30)),ISNUMBER(FIND(Configurações!$B$5,Base!B30)),ISNUMBER(FIND(Configurações!$B$6,Base!B30)),ISNUMBER(FIND(Configurações!$B$7,Base!B30)),ISNUMBER(FIND(Configurações!$B$8,Base!B30)))=TRUE,Base!B30,0)</f>
         <v>super destaque</v>
@@ -8245,7 +8342,7 @@
         <f>IF(TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("IPTU",Base!C30)),ISNUMBER(FIND("iptu",Base!C30)))=TRUE,RIGHT(Base!C30,5),0),"R$",""),"$",""))="0",TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("IPTU",Base!D30)),ISNUMBER(FIND("iptu",Base!D30)))=TRUE,RIGHT(Base!D30,5),0),"R$",""),"$","")),TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("iptu",Base!C30)),ISNUMBER(FIND("IPTU",Base!C30)))=TRUE,RIGHT(Base!C30,5),0),"R$",""),"$","")))</f>
         <v>130</v>
       </c>
-      <c r="F30" s="5" t="str" cm="1">
+      <c r="F30" s="4" t="str" cm="1">
         <f t="array" ref="F30">INDEX(Base!30:30,MATCH(MAX(LEN(Base!30:30)),LEN(Base!30:30),0))</f>
         <v>sala linda para entrar e montar o seu negócio no centro de nova iguaçu. Junto à estação de trem de Nova Iguaçu. Prédio moderno, com infraestrutura, sala treinamento, vagas rotativa...</v>
       </c>
@@ -8298,23 +8395,27 @@
         <v>Rua Coronel Bernardino de Melo, Centro</v>
       </c>
       <c r="V30" t="str" cm="1">
-        <f t="array" ref="V30">TRIM(SUBSTITUTE(INDEX(Base!30:30,0,MATCH(Planilha2!$U30,Base!30:30,0)+1),"m²",""))</f>
+        <f t="array" ref="V30">TRIM(SUBSTITUTE(INDEX(Base!30:30,0,MATCH(Output!$U30,Base!30:30,0)+1),"m²",""))</f>
         <v>60</v>
       </c>
       <c r="W30" t="str" cm="1">
-        <f t="array" ref="W30">IF(LEN(INDEX(Base!30:30,0,MATCH(Planilha2!$U30,Base!30:30,0)+2))&gt;2,LEFT(INDEX(Base!30:30,0,MATCH(Planilha2!$U30,Base!30:30,0)+2),1),INDEX(Base!30:30,0,MATCH(Planilha2!$U30,Base!30:30,0)+2))</f>
+        <f t="array" ref="W30">IF(LEN(INDEX(Base!30:30,0,MATCH(Output!$U30,Base!30:30,0)+2))&gt;2,LEFT(INDEX(Base!30:30,0,MATCH(Output!$U30,Base!30:30,0)+2),1),INDEX(Base!30:30,0,MATCH(Output!$U30,Base!30:30,0)+2))</f>
         <v>1</v>
       </c>
       <c r="X30" t="str" cm="1">
-        <f t="array" ref="X30">IF(LEN(INDEX(Base!30:30,0,MATCH(Planilha2!$U30,Base!30:30,0)+2))&gt;2,LEFT(INDEX(Base!30:30,0,MATCH(Planilha2!$U30,Base!30:30,0)+2),1),INDEX(Base!30:30,0,MATCH(Planilha2!$U30,Base!30:30,0)+2))</f>
+        <f t="array" ref="X30">IF(LEN(INDEX(Base!30:30,0,MATCH(Output!$U30,Base!30:30,0)+2))&gt;2,LEFT(INDEX(Base!30:30,0,MATCH(Output!$U30,Base!30:30,0)+2),1),INDEX(Base!30:30,0,MATCH(Output!$U30,Base!30:30,0)+2))</f>
         <v>1</v>
       </c>
       <c r="Y30" t="str" cm="1">
-        <f t="array" ref="Y30">IF(LEN(INDEX(Base!30:30,0,MATCH(Planilha2!$U30,Base!30:30,0)+2))&gt;2,LEFT(INDEX(Base!30:30,0,MATCH(Planilha2!$U30,Base!30:30,0)+2),1),INDEX(Base!30:30,0,MATCH(Planilha2!$U30,Base!30:30,0)+2))</f>
+        <f t="array" ref="Y30">IF(LEN(INDEX(Base!30:30,0,MATCH(Output!$U30,Base!30:30,0)+2))&gt;2,LEFT(INDEX(Base!30:30,0,MATCH(Output!$U30,Base!30:30,0)+2),1),INDEX(Base!30:30,0,MATCH(Output!$U30,Base!30:30,0)+2))</f>
         <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
       <c r="B31" t="str">
         <f>IF(OR(ISNUMBER(FIND(Configurações!$B$4,Base!B31)),ISNUMBER(FIND(Configurações!$B$5,Base!B31)),ISNUMBER(FIND(Configurações!$B$6,Base!B31)),ISNUMBER(FIND(Configurações!$B$7,Base!B31)),ISNUMBER(FIND(Configurações!$B$8,Base!B31)))=TRUE,Base!B31,0)</f>
         <v>super destaque</v>
@@ -8331,7 +8432,7 @@
         <f>IF(TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("IPTU",Base!C31)),ISNUMBER(FIND("iptu",Base!C31)))=TRUE,RIGHT(Base!C31,5),0),"R$",""),"$",""))="0",TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("IPTU",Base!D31)),ISNUMBER(FIND("iptu",Base!D31)))=TRUE,RIGHT(Base!D31,5),0),"R$",""),"$","")),TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("iptu",Base!C31)),ISNUMBER(FIND("IPTU",Base!C31)))=TRUE,RIGHT(Base!C31,5),0),"R$",""),"$","")))</f>
         <v>846</v>
       </c>
-      <c r="F31" s="5" t="str" cm="1">
+      <c r="F31" s="4" t="str" cm="1">
         <f t="array" ref="F31">INDEX(Base!31:31,MATCH(MAX(LEN(Base!31:31)),LEN(Base!31:31),0))</f>
         <v>Sabe aquela casa agradável para receber os amigos e seus familiares? Ela existe. É uma casa independente em bairro residencial com ruas asfaltadas, bons imóveis, próximo a Dutra, a...</v>
       </c>
@@ -8384,23 +8485,27 @@
         <v>Rua Newton Gonçalves Barros, Jardim Esplanada</v>
       </c>
       <c r="V31" t="str" cm="1">
-        <f t="array" ref="V31">TRIM(SUBSTITUTE(INDEX(Base!31:31,0,MATCH(Planilha2!$U31,Base!31:31,0)+1),"m²",""))</f>
+        <f t="array" ref="V31">TRIM(SUBSTITUTE(INDEX(Base!31:31,0,MATCH(Output!$U31,Base!31:31,0)+1),"m²",""))</f>
         <v>100</v>
       </c>
       <c r="W31" t="str" cm="1">
-        <f t="array" ref="W31">IF(LEN(INDEX(Base!31:31,0,MATCH(Planilha2!$U31,Base!31:31,0)+2))&gt;2,LEFT(INDEX(Base!31:31,0,MATCH(Planilha2!$U31,Base!31:31,0)+2),1),INDEX(Base!31:31,0,MATCH(Planilha2!$U31,Base!31:31,0)+2))</f>
+        <f t="array" ref="W31">IF(LEN(INDEX(Base!31:31,0,MATCH(Output!$U31,Base!31:31,0)+2))&gt;2,LEFT(INDEX(Base!31:31,0,MATCH(Output!$U31,Base!31:31,0)+2),1),INDEX(Base!31:31,0,MATCH(Output!$U31,Base!31:31,0)+2))</f>
         <v>3</v>
       </c>
       <c r="X31" t="str" cm="1">
-        <f t="array" ref="X31">IF(LEN(INDEX(Base!31:31,0,MATCH(Planilha2!$U31,Base!31:31,0)+2))&gt;2,LEFT(INDEX(Base!31:31,0,MATCH(Planilha2!$U31,Base!31:31,0)+2),1),INDEX(Base!31:31,0,MATCH(Planilha2!$U31,Base!31:31,0)+2))</f>
+        <f t="array" ref="X31">IF(LEN(INDEX(Base!31:31,0,MATCH(Output!$U31,Base!31:31,0)+2))&gt;2,LEFT(INDEX(Base!31:31,0,MATCH(Output!$U31,Base!31:31,0)+2),1),INDEX(Base!31:31,0,MATCH(Output!$U31,Base!31:31,0)+2))</f>
         <v>3</v>
       </c>
       <c r="Y31" t="str" cm="1">
-        <f t="array" ref="Y31">IF(LEN(INDEX(Base!31:31,0,MATCH(Planilha2!$U31,Base!31:31,0)+2))&gt;2,LEFT(INDEX(Base!31:31,0,MATCH(Planilha2!$U31,Base!31:31,0)+2),1),INDEX(Base!31:31,0,MATCH(Planilha2!$U31,Base!31:31,0)+2))</f>
+        <f t="array" ref="Y31">IF(LEN(INDEX(Base!31:31,0,MATCH(Output!$U31,Base!31:31,0)+2))&gt;2,LEFT(INDEX(Base!31:31,0,MATCH(Output!$U31,Base!31:31,0)+2),1),INDEX(Base!31:31,0,MATCH(Output!$U31,Base!31:31,0)+2))</f>
         <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
       <c r="B32" t="str">
         <f>IF(OR(ISNUMBER(FIND(Configurações!$B$4,Base!B32)),ISNUMBER(FIND(Configurações!$B$5,Base!B32)),ISNUMBER(FIND(Configurações!$B$6,Base!B32)),ISNUMBER(FIND(Configurações!$B$7,Base!B32)),ISNUMBER(FIND(Configurações!$B$8,Base!B32)))=TRUE,Base!B32,0)</f>
         <v>destaque</v>
@@ -8417,7 +8522,7 @@
         <f>IF(TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("IPTU",Base!C32)),ISNUMBER(FIND("iptu",Base!C32)))=TRUE,RIGHT(Base!C32,5),0),"R$",""),"$",""))="0",TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("IPTU",Base!D32)),ISNUMBER(FIND("iptu",Base!D32)))=TRUE,RIGHT(Base!D32,5),0),"R$",""),"$","")),TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("iptu",Base!C32)),ISNUMBER(FIND("IPTU",Base!C32)))=TRUE,RIGHT(Base!C32,5),0),"R$",""),"$","")))</f>
         <v>0</v>
       </c>
-      <c r="F32" s="5" t="str" cm="1">
+      <c r="F32" s="4" t="str" cm="1">
         <f t="array" ref="F32">INDEX(Base!32:32,MATCH(MAX(LEN(Base!32:32)),LEN(Base!32:32),0))</f>
         <v>R E S I D E N C I A L -N O V A - A M É R I C A - C A S A S - D U P L E X</v>
       </c>
@@ -8470,23 +8575,27 @@
         <v>Rua Dom Sebastião Leme, Nova América</v>
       </c>
       <c r="V32" t="str" cm="1">
-        <f t="array" ref="V32">TRIM(SUBSTITUTE(INDEX(Base!32:32,0,MATCH(Planilha2!$U32,Base!32:32,0)+1),"m²",""))</f>
+        <f t="array" ref="V32">TRIM(SUBSTITUTE(INDEX(Base!32:32,0,MATCH(Output!$U32,Base!32:32,0)+1),"m²",""))</f>
         <v>600</v>
       </c>
       <c r="W32" t="str" cm="1">
-        <f t="array" ref="W32">IF(LEN(INDEX(Base!32:32,0,MATCH(Planilha2!$U32,Base!32:32,0)+2))&gt;2,LEFT(INDEX(Base!32:32,0,MATCH(Planilha2!$U32,Base!32:32,0)+2),1),INDEX(Base!32:32,0,MATCH(Planilha2!$U32,Base!32:32,0)+2))</f>
+        <f t="array" ref="W32">IF(LEN(INDEX(Base!32:32,0,MATCH(Output!$U32,Base!32:32,0)+2))&gt;2,LEFT(INDEX(Base!32:32,0,MATCH(Output!$U32,Base!32:32,0)+2),1),INDEX(Base!32:32,0,MATCH(Output!$U32,Base!32:32,0)+2))</f>
         <v>2</v>
       </c>
       <c r="X32" t="str" cm="1">
-        <f t="array" ref="X32">IF(LEN(INDEX(Base!32:32,0,MATCH(Planilha2!$U32,Base!32:32,0)+2))&gt;2,LEFT(INDEX(Base!32:32,0,MATCH(Planilha2!$U32,Base!32:32,0)+2),1),INDEX(Base!32:32,0,MATCH(Planilha2!$U32,Base!32:32,0)+2))</f>
+        <f t="array" ref="X32">IF(LEN(INDEX(Base!32:32,0,MATCH(Output!$U32,Base!32:32,0)+2))&gt;2,LEFT(INDEX(Base!32:32,0,MATCH(Output!$U32,Base!32:32,0)+2),1),INDEX(Base!32:32,0,MATCH(Output!$U32,Base!32:32,0)+2))</f>
         <v>2</v>
       </c>
       <c r="Y32" t="str" cm="1">
-        <f t="array" ref="Y32">IF(LEN(INDEX(Base!32:32,0,MATCH(Planilha2!$U32,Base!32:32,0)+2))&gt;2,LEFT(INDEX(Base!32:32,0,MATCH(Planilha2!$U32,Base!32:32,0)+2),1),INDEX(Base!32:32,0,MATCH(Planilha2!$U32,Base!32:32,0)+2))</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.3">
+        <f t="array" ref="Y32">IF(LEN(INDEX(Base!32:32,0,MATCH(Output!$U32,Base!32:32,0)+2))&gt;2,LEFT(INDEX(Base!32:32,0,MATCH(Output!$U32,Base!32:32,0)+2),1),INDEX(Base!32:32,0,MATCH(Output!$U32,Base!32:32,0)+2))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
       <c r="B33">
         <f>IF(OR(ISNUMBER(FIND(Configurações!$B$4,Base!B33)),ISNUMBER(FIND(Configurações!$B$5,Base!B33)),ISNUMBER(FIND(Configurações!$B$6,Base!B33)),ISNUMBER(FIND(Configurações!$B$7,Base!B33)),ISNUMBER(FIND(Configurações!$B$8,Base!B33)))=TRUE,Base!B33,0)</f>
         <v>0</v>
@@ -8503,7 +8612,7 @@
         <f>IF(TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("IPTU",Base!C33)),ISNUMBER(FIND("iptu",Base!C33)))=TRUE,RIGHT(Base!C33,5),0),"R$",""),"$",""))="0",TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("IPTU",Base!D33)),ISNUMBER(FIND("iptu",Base!D33)))=TRUE,RIGHT(Base!D33,5),0),"R$",""),"$","")),TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("iptu",Base!C33)),ISNUMBER(FIND("IPTU",Base!C33)))=TRUE,RIGHT(Base!C33,5),0),"R$",""),"$","")))</f>
         <v>0</v>
       </c>
-      <c r="F33" s="5" t="str" cm="1">
+      <c r="F33" s="4" t="str" cm="1">
         <f t="array" ref="F33">INDEX(Base!33:33,MATCH(MAX(LEN(Base!33:33)),LEN(Base!33:33),0))</f>
         <v>A casa no bairro Jardim Esplanada, com 180 metros quadrados com 3 quartos e 2 banheiros, sala, area de serviço, casa precisando de reforma e só pode ser vendida á vista, fica local...</v>
       </c>
@@ -8556,23 +8665,27 @@
         <v>Rua Newton Gonçalves Barros, Rancho Novo</v>
       </c>
       <c r="V33" t="str" cm="1">
-        <f t="array" ref="V33">TRIM(SUBSTITUTE(INDEX(Base!33:33,0,MATCH(Planilha2!$U33,Base!33:33,0)+1),"m²",""))</f>
+        <f t="array" ref="V33">TRIM(SUBSTITUTE(INDEX(Base!33:33,0,MATCH(Output!$U33,Base!33:33,0)+1),"m²",""))</f>
         <v>180</v>
       </c>
       <c r="W33" t="str" cm="1">
-        <f t="array" ref="W33">IF(LEN(INDEX(Base!33:33,0,MATCH(Planilha2!$U33,Base!33:33,0)+2))&gt;2,LEFT(INDEX(Base!33:33,0,MATCH(Planilha2!$U33,Base!33:33,0)+2),1),INDEX(Base!33:33,0,MATCH(Planilha2!$U33,Base!33:33,0)+2))</f>
+        <f t="array" ref="W33">IF(LEN(INDEX(Base!33:33,0,MATCH(Output!$U33,Base!33:33,0)+2))&gt;2,LEFT(INDEX(Base!33:33,0,MATCH(Output!$U33,Base!33:33,0)+2),1),INDEX(Base!33:33,0,MATCH(Output!$U33,Base!33:33,0)+2))</f>
         <v>3</v>
       </c>
       <c r="X33" t="str" cm="1">
-        <f t="array" ref="X33">IF(LEN(INDEX(Base!33:33,0,MATCH(Planilha2!$U33,Base!33:33,0)+2))&gt;2,LEFT(INDEX(Base!33:33,0,MATCH(Planilha2!$U33,Base!33:33,0)+2),1),INDEX(Base!33:33,0,MATCH(Planilha2!$U33,Base!33:33,0)+2))</f>
+        <f t="array" ref="X33">IF(LEN(INDEX(Base!33:33,0,MATCH(Output!$U33,Base!33:33,0)+2))&gt;2,LEFT(INDEX(Base!33:33,0,MATCH(Output!$U33,Base!33:33,0)+2),1),INDEX(Base!33:33,0,MATCH(Output!$U33,Base!33:33,0)+2))</f>
         <v>3</v>
       </c>
       <c r="Y33" t="str" cm="1">
-        <f t="array" ref="Y33">IF(LEN(INDEX(Base!33:33,0,MATCH(Planilha2!$U33,Base!33:33,0)+2))&gt;2,LEFT(INDEX(Base!33:33,0,MATCH(Planilha2!$U33,Base!33:33,0)+2),1),INDEX(Base!33:33,0,MATCH(Planilha2!$U33,Base!33:33,0)+2))</f>
+        <f t="array" ref="Y33">IF(LEN(INDEX(Base!33:33,0,MATCH(Output!$U33,Base!33:33,0)+2))&gt;2,LEFT(INDEX(Base!33:33,0,MATCH(Output!$U33,Base!33:33,0)+2),1),INDEX(Base!33:33,0,MATCH(Output!$U33,Base!33:33,0)+2))</f>
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
       <c r="B34" t="str">
         <f>IF(OR(ISNUMBER(FIND(Configurações!$B$4,Base!B34)),ISNUMBER(FIND(Configurações!$B$5,Base!B34)),ISNUMBER(FIND(Configurações!$B$6,Base!B34)),ISNUMBER(FIND(Configurações!$B$7,Base!B34)),ISNUMBER(FIND(Configurações!$B$8,Base!B34)))=TRUE,Base!B34,0)</f>
         <v>destaque</v>
@@ -8589,7 +8702,7 @@
         <f>IF(TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("IPTU",Base!C34)),ISNUMBER(FIND("iptu",Base!C34)))=TRUE,RIGHT(Base!C34,5),0),"R$",""),"$",""))="0",TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("IPTU",Base!D34)),ISNUMBER(FIND("iptu",Base!D34)))=TRUE,RIGHT(Base!D34,5),0),"R$",""),"$","")),TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("iptu",Base!C34)),ISNUMBER(FIND("IPTU",Base!C34)))=TRUE,RIGHT(Base!C34,5),0),"R$",""),"$","")))</f>
         <v>0</v>
       </c>
-      <c r="F34" s="5" t="str" cm="1">
+      <c r="F34" s="4" t="str" cm="1">
         <f t="array" ref="F34">INDEX(Base!34:34,MATCH(MAX(LEN(Base!34:34)),LEN(Base!34:34),0))</f>
         <v>Casa duplex no Programa Minha Casa Verde Amarela! Facilidade nunca vista antes é casa com 2 quartos...</v>
       </c>
@@ -8642,23 +8755,27 @@
         <v>Austin, Nova Iguaçu</v>
       </c>
       <c r="V34" t="str" cm="1">
-        <f t="array" ref="V34">TRIM(SUBSTITUTE(INDEX(Base!34:34,0,MATCH(Planilha2!$U34,Base!34:34,0)+1),"m²",""))</f>
+        <f t="array" ref="V34">TRIM(SUBSTITUTE(INDEX(Base!34:34,0,MATCH(Output!$U34,Base!34:34,0)+1),"m²",""))</f>
         <v>80</v>
       </c>
       <c r="W34" t="str" cm="1">
-        <f t="array" ref="W34">IF(LEN(INDEX(Base!34:34,0,MATCH(Planilha2!$U34,Base!34:34,0)+2))&gt;2,LEFT(INDEX(Base!34:34,0,MATCH(Planilha2!$U34,Base!34:34,0)+2),1),INDEX(Base!34:34,0,MATCH(Planilha2!$U34,Base!34:34,0)+2))</f>
+        <f t="array" ref="W34">IF(LEN(INDEX(Base!34:34,0,MATCH(Output!$U34,Base!34:34,0)+2))&gt;2,LEFT(INDEX(Base!34:34,0,MATCH(Output!$U34,Base!34:34,0)+2),1),INDEX(Base!34:34,0,MATCH(Output!$U34,Base!34:34,0)+2))</f>
         <v>2</v>
       </c>
       <c r="X34" t="str" cm="1">
-        <f t="array" ref="X34">IF(LEN(INDEX(Base!34:34,0,MATCH(Planilha2!$U34,Base!34:34,0)+2))&gt;2,LEFT(INDEX(Base!34:34,0,MATCH(Planilha2!$U34,Base!34:34,0)+2),1),INDEX(Base!34:34,0,MATCH(Planilha2!$U34,Base!34:34,0)+2))</f>
+        <f t="array" ref="X34">IF(LEN(INDEX(Base!34:34,0,MATCH(Output!$U34,Base!34:34,0)+2))&gt;2,LEFT(INDEX(Base!34:34,0,MATCH(Output!$U34,Base!34:34,0)+2),1),INDEX(Base!34:34,0,MATCH(Output!$U34,Base!34:34,0)+2))</f>
         <v>2</v>
       </c>
       <c r="Y34" t="str" cm="1">
-        <f t="array" ref="Y34">IF(LEN(INDEX(Base!34:34,0,MATCH(Planilha2!$U34,Base!34:34,0)+2))&gt;2,LEFT(INDEX(Base!34:34,0,MATCH(Planilha2!$U34,Base!34:34,0)+2),1),INDEX(Base!34:34,0,MATCH(Planilha2!$U34,Base!34:34,0)+2))</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.3">
+        <f t="array" ref="Y34">IF(LEN(INDEX(Base!34:34,0,MATCH(Output!$U34,Base!34:34,0)+2))&gt;2,LEFT(INDEX(Base!34:34,0,MATCH(Output!$U34,Base!34:34,0)+2),1),INDEX(Base!34:34,0,MATCH(Output!$U34,Base!34:34,0)+2))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
       <c r="B35">
         <f>IF(OR(ISNUMBER(FIND(Configurações!$B$4,Base!B35)),ISNUMBER(FIND(Configurações!$B$5,Base!B35)),ISNUMBER(FIND(Configurações!$B$6,Base!B35)),ISNUMBER(FIND(Configurações!$B$7,Base!B35)),ISNUMBER(FIND(Configurações!$B$8,Base!B35)))=TRUE,Base!B35,0)</f>
         <v>0</v>
@@ -8675,7 +8792,7 @@
         <f>IF(TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("IPTU",Base!C35)),ISNUMBER(FIND("iptu",Base!C35)))=TRUE,RIGHT(Base!C35,5),0),"R$",""),"$",""))="0",TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("IPTU",Base!D35)),ISNUMBER(FIND("iptu",Base!D35)))=TRUE,RIGHT(Base!D35,5),0),"R$",""),"$","")),TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("iptu",Base!C35)),ISNUMBER(FIND("IPTU",Base!C35)))=TRUE,RIGHT(Base!C35,5),0),"R$",""),"$","")))</f>
         <v>630</v>
       </c>
-      <c r="F35" s="5" t="str" cm="1">
+      <c r="F35" s="4" t="str" cm="1">
         <f t="array" ref="F35">INDEX(Base!35:35,MATCH(MAX(LEN(Base!35:35)),LEN(Base!35:35),0))</f>
         <v>A casa com 2 andares, está localizado no bairro Jardim Alvorada, com 140 metros quadrados, primeiro andar com salão em ambientes, banheiro social, copa cozinha toda com armários, á...</v>
       </c>
@@ -8728,23 +8845,27 @@
         <v>Rua das Violetas, Jardim Alvorada</v>
       </c>
       <c r="V35" t="str" cm="1">
-        <f t="array" ref="V35">TRIM(SUBSTITUTE(INDEX(Base!35:35,0,MATCH(Planilha2!$U35,Base!35:35,0)+1),"m²",""))</f>
+        <f t="array" ref="V35">TRIM(SUBSTITUTE(INDEX(Base!35:35,0,MATCH(Output!$U35,Base!35:35,0)+1),"m²",""))</f>
         <v>140</v>
       </c>
       <c r="W35" t="str" cm="1">
-        <f t="array" ref="W35">IF(LEN(INDEX(Base!35:35,0,MATCH(Planilha2!$U35,Base!35:35,0)+2))&gt;2,LEFT(INDEX(Base!35:35,0,MATCH(Planilha2!$U35,Base!35:35,0)+2),1),INDEX(Base!35:35,0,MATCH(Planilha2!$U35,Base!35:35,0)+2))</f>
+        <f t="array" ref="W35">IF(LEN(INDEX(Base!35:35,0,MATCH(Output!$U35,Base!35:35,0)+2))&gt;2,LEFT(INDEX(Base!35:35,0,MATCH(Output!$U35,Base!35:35,0)+2),1),INDEX(Base!35:35,0,MATCH(Output!$U35,Base!35:35,0)+2))</f>
         <v>3</v>
       </c>
       <c r="X35" t="str" cm="1">
-        <f t="array" ref="X35">IF(LEN(INDEX(Base!35:35,0,MATCH(Planilha2!$U35,Base!35:35,0)+2))&gt;2,LEFT(INDEX(Base!35:35,0,MATCH(Planilha2!$U35,Base!35:35,0)+2),1),INDEX(Base!35:35,0,MATCH(Planilha2!$U35,Base!35:35,0)+2))</f>
+        <f t="array" ref="X35">IF(LEN(INDEX(Base!35:35,0,MATCH(Output!$U35,Base!35:35,0)+2))&gt;2,LEFT(INDEX(Base!35:35,0,MATCH(Output!$U35,Base!35:35,0)+2),1),INDEX(Base!35:35,0,MATCH(Output!$U35,Base!35:35,0)+2))</f>
         <v>3</v>
       </c>
       <c r="Y35" t="str" cm="1">
-        <f t="array" ref="Y35">IF(LEN(INDEX(Base!35:35,0,MATCH(Planilha2!$U35,Base!35:35,0)+2))&gt;2,LEFT(INDEX(Base!35:35,0,MATCH(Planilha2!$U35,Base!35:35,0)+2),1),INDEX(Base!35:35,0,MATCH(Planilha2!$U35,Base!35:35,0)+2))</f>
+        <f t="array" ref="Y35">IF(LEN(INDEX(Base!35:35,0,MATCH(Output!$U35,Base!35:35,0)+2))&gt;2,LEFT(INDEX(Base!35:35,0,MATCH(Output!$U35,Base!35:35,0)+2),1),INDEX(Base!35:35,0,MATCH(Output!$U35,Base!35:35,0)+2))</f>
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
       <c r="B36">
         <f>IF(OR(ISNUMBER(FIND(Configurações!$B$4,Base!B36)),ISNUMBER(FIND(Configurações!$B$5,Base!B36)),ISNUMBER(FIND(Configurações!$B$6,Base!B36)),ISNUMBER(FIND(Configurações!$B$7,Base!B36)),ISNUMBER(FIND(Configurações!$B$8,Base!B36)))=TRUE,Base!B36,0)</f>
         <v>0</v>
@@ -8761,7 +8882,7 @@
         <f>IF(TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("IPTU",Base!C36)),ISNUMBER(FIND("iptu",Base!C36)))=TRUE,RIGHT(Base!C36,5),0),"R$",""),"$",""))="0",TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("IPTU",Base!D36)),ISNUMBER(FIND("iptu",Base!D36)))=TRUE,RIGHT(Base!D36,5),0),"R$",""),"$","")),TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("iptu",Base!C36)),ISNUMBER(FIND("IPTU",Base!C36)))=TRUE,RIGHT(Base!C36,5),0),"R$",""),"$","")))</f>
         <v>0</v>
       </c>
-      <c r="F36" s="5" t="str" cm="1">
+      <c r="F36" s="4" t="str" cm="1">
         <f t="array" ref="F36">INDEX(Base!36:36,MATCH(MAX(LEN(Base!36:36)),LEN(Base!36:36),0))</f>
         <v>Apto 2 quartos nova Iguaçu - Colado ao Top Shopping. Localização privilegiada. Planta confortável de 2 quartos com suíte, NOVO, varanda gourmet com churrasqueira, cozinha com área...</v>
       </c>
@@ -8814,23 +8935,27 @@
         <v>Rua Paschoal Palladino, Chacrinha</v>
       </c>
       <c r="V36" t="str" cm="1">
-        <f t="array" ref="V36">TRIM(SUBSTITUTE(INDEX(Base!36:36,0,MATCH(Planilha2!$U36,Base!36:36,0)+1),"m²",""))</f>
+        <f t="array" ref="V36">TRIM(SUBSTITUTE(INDEX(Base!36:36,0,MATCH(Output!$U36,Base!36:36,0)+1),"m²",""))</f>
         <v>65</v>
       </c>
       <c r="W36" t="str" cm="1">
-        <f t="array" ref="W36">IF(LEN(INDEX(Base!36:36,0,MATCH(Planilha2!$U36,Base!36:36,0)+2))&gt;2,LEFT(INDEX(Base!36:36,0,MATCH(Planilha2!$U36,Base!36:36,0)+2),1),INDEX(Base!36:36,0,MATCH(Planilha2!$U36,Base!36:36,0)+2))</f>
+        <f t="array" ref="W36">IF(LEN(INDEX(Base!36:36,0,MATCH(Output!$U36,Base!36:36,0)+2))&gt;2,LEFT(INDEX(Base!36:36,0,MATCH(Output!$U36,Base!36:36,0)+2),1),INDEX(Base!36:36,0,MATCH(Output!$U36,Base!36:36,0)+2))</f>
         <v>2</v>
       </c>
       <c r="X36" t="str" cm="1">
-        <f t="array" ref="X36">IF(LEN(INDEX(Base!36:36,0,MATCH(Planilha2!$U36,Base!36:36,0)+2))&gt;2,LEFT(INDEX(Base!36:36,0,MATCH(Planilha2!$U36,Base!36:36,0)+2),1),INDEX(Base!36:36,0,MATCH(Planilha2!$U36,Base!36:36,0)+2))</f>
+        <f t="array" ref="X36">IF(LEN(INDEX(Base!36:36,0,MATCH(Output!$U36,Base!36:36,0)+2))&gt;2,LEFT(INDEX(Base!36:36,0,MATCH(Output!$U36,Base!36:36,0)+2),1),INDEX(Base!36:36,0,MATCH(Output!$U36,Base!36:36,0)+2))</f>
         <v>2</v>
       </c>
       <c r="Y36" t="str" cm="1">
-        <f t="array" ref="Y36">IF(LEN(INDEX(Base!36:36,0,MATCH(Planilha2!$U36,Base!36:36,0)+2))&gt;2,LEFT(INDEX(Base!36:36,0,MATCH(Planilha2!$U36,Base!36:36,0)+2),1),INDEX(Base!36:36,0,MATCH(Planilha2!$U36,Base!36:36,0)+2))</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.3">
+        <f t="array" ref="Y36">IF(LEN(INDEX(Base!36:36,0,MATCH(Output!$U36,Base!36:36,0)+2))&gt;2,LEFT(INDEX(Base!36:36,0,MATCH(Output!$U36,Base!36:36,0)+2),1),INDEX(Base!36:36,0,MATCH(Output!$U36,Base!36:36,0)+2))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
       <c r="B37">
         <f>IF(OR(ISNUMBER(FIND(Configurações!$B$4,Base!B37)),ISNUMBER(FIND(Configurações!$B$5,Base!B37)),ISNUMBER(FIND(Configurações!$B$6,Base!B37)),ISNUMBER(FIND(Configurações!$B$7,Base!B37)),ISNUMBER(FIND(Configurações!$B$8,Base!B37)))=TRUE,Base!B37,0)</f>
         <v>0</v>
@@ -8847,7 +8972,7 @@
         <f>IF(TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("IPTU",Base!C37)),ISNUMBER(FIND("iptu",Base!C37)))=TRUE,RIGHT(Base!C37,5),0),"R$",""),"$",""))="0",TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("IPTU",Base!D37)),ISNUMBER(FIND("iptu",Base!D37)))=TRUE,RIGHT(Base!D37,5),0),"R$",""),"$","")),TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("iptu",Base!C37)),ISNUMBER(FIND("IPTU",Base!C37)))=TRUE,RIGHT(Base!C37,5),0),"R$",""),"$","")))</f>
         <v>65</v>
       </c>
-      <c r="F37" s="5" t="str" cm="1">
+      <c r="F37" s="4" t="str" cm="1">
         <f t="array" ref="F37">INDEX(Base!37:37,MATCH(MAX(LEN(Base!37:37)),LEN(Base!37:37),0))</f>
         <v>Rua Newton Gonçalves Barros, Jardim Esplanada</v>
       </c>
@@ -8900,23 +9025,27 @@
         <v>Rua Newton Gonçalves Barros, Jardim Esplanada</v>
       </c>
       <c r="V37" t="str" cm="1">
-        <f t="array" ref="V37">TRIM(SUBSTITUTE(INDEX(Base!37:37,0,MATCH(Planilha2!$U37,Base!37:37,0)+1),"m²",""))</f>
+        <f t="array" ref="V37">TRIM(SUBSTITUTE(INDEX(Base!37:37,0,MATCH(Output!$U37,Base!37:37,0)+1),"m²",""))</f>
         <v>110</v>
       </c>
       <c r="W37" t="str" cm="1">
-        <f t="array" ref="W37">IF(LEN(INDEX(Base!37:37,0,MATCH(Planilha2!$U37,Base!37:37,0)+2))&gt;2,LEFT(INDEX(Base!37:37,0,MATCH(Planilha2!$U37,Base!37:37,0)+2),1),INDEX(Base!37:37,0,MATCH(Planilha2!$U37,Base!37:37,0)+2))</f>
+        <f t="array" ref="W37">IF(LEN(INDEX(Base!37:37,0,MATCH(Output!$U37,Base!37:37,0)+2))&gt;2,LEFT(INDEX(Base!37:37,0,MATCH(Output!$U37,Base!37:37,0)+2),1),INDEX(Base!37:37,0,MATCH(Output!$U37,Base!37:37,0)+2))</f>
         <v>2</v>
       </c>
       <c r="X37" t="str" cm="1">
-        <f t="array" ref="X37">IF(LEN(INDEX(Base!37:37,0,MATCH(Planilha2!$U37,Base!37:37,0)+2))&gt;2,LEFT(INDEX(Base!37:37,0,MATCH(Planilha2!$U37,Base!37:37,0)+2),1),INDEX(Base!37:37,0,MATCH(Planilha2!$U37,Base!37:37,0)+2))</f>
+        <f t="array" ref="X37">IF(LEN(INDEX(Base!37:37,0,MATCH(Output!$U37,Base!37:37,0)+2))&gt;2,LEFT(INDEX(Base!37:37,0,MATCH(Output!$U37,Base!37:37,0)+2),1),INDEX(Base!37:37,0,MATCH(Output!$U37,Base!37:37,0)+2))</f>
         <v>2</v>
       </c>
       <c r="Y37" t="str" cm="1">
-        <f t="array" ref="Y37">IF(LEN(INDEX(Base!37:37,0,MATCH(Planilha2!$U37,Base!37:37,0)+2))&gt;2,LEFT(INDEX(Base!37:37,0,MATCH(Planilha2!$U37,Base!37:37,0)+2),1),INDEX(Base!37:37,0,MATCH(Planilha2!$U37,Base!37:37,0)+2))</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.3">
+        <f t="array" ref="Y37">IF(LEN(INDEX(Base!37:37,0,MATCH(Output!$U37,Base!37:37,0)+2))&gt;2,LEFT(INDEX(Base!37:37,0,MATCH(Output!$U37,Base!37:37,0)+2),1),INDEX(Base!37:37,0,MATCH(Output!$U37,Base!37:37,0)+2))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
       <c r="B38">
         <f>IF(OR(ISNUMBER(FIND(Configurações!$B$4,Base!B38)),ISNUMBER(FIND(Configurações!$B$5,Base!B38)),ISNUMBER(FIND(Configurações!$B$6,Base!B38)),ISNUMBER(FIND(Configurações!$B$7,Base!B38)),ISNUMBER(FIND(Configurações!$B$8,Base!B38)))=TRUE,Base!B38,0)</f>
         <v>0</v>
@@ -8933,7 +9062,7 @@
         <f>IF(TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("IPTU",Base!C38)),ISNUMBER(FIND("iptu",Base!C38)))=TRUE,RIGHT(Base!C38,5),0),"R$",""),"$",""))="0",TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("IPTU",Base!D38)),ISNUMBER(FIND("iptu",Base!D38)))=TRUE,RIGHT(Base!D38,5),0),"R$",""),"$","")),TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("iptu",Base!C38)),ISNUMBER(FIND("IPTU",Base!C38)))=TRUE,RIGHT(Base!C38,5),0),"R$",""),"$","")))</f>
         <v>0</v>
       </c>
-      <c r="F38" s="5" t="str" cm="1">
+      <c r="F38" s="4" t="str" cm="1">
         <f t="array" ref="F38">INDEX(Base!38:38,MATCH(MAX(LEN(Base!38:38)),LEN(Base!38:38),0))</f>
         <v>A casa está localizado no bairro Parque Residencial Guadalajara possui 120 metros quadrados com 3 quartos sendo 1 suite e 3 banheiros</v>
       </c>
@@ -8986,23 +9115,27 @@
         <v>Rua Barão do Cerro Azul, Parque Residencial Guadalajara</v>
       </c>
       <c r="V38" t="str" cm="1">
-        <f t="array" ref="V38">TRIM(SUBSTITUTE(INDEX(Base!38:38,0,MATCH(Planilha2!$U38,Base!38:38,0)+1),"m²",""))</f>
+        <f t="array" ref="V38">TRIM(SUBSTITUTE(INDEX(Base!38:38,0,MATCH(Output!$U38,Base!38:38,0)+1),"m²",""))</f>
         <v>120</v>
       </c>
       <c r="W38" t="str" cm="1">
-        <f t="array" ref="W38">IF(LEN(INDEX(Base!38:38,0,MATCH(Planilha2!$U38,Base!38:38,0)+2))&gt;2,LEFT(INDEX(Base!38:38,0,MATCH(Planilha2!$U38,Base!38:38,0)+2),1),INDEX(Base!38:38,0,MATCH(Planilha2!$U38,Base!38:38,0)+2))</f>
+        <f t="array" ref="W38">IF(LEN(INDEX(Base!38:38,0,MATCH(Output!$U38,Base!38:38,0)+2))&gt;2,LEFT(INDEX(Base!38:38,0,MATCH(Output!$U38,Base!38:38,0)+2),1),INDEX(Base!38:38,0,MATCH(Output!$U38,Base!38:38,0)+2))</f>
         <v>3</v>
       </c>
       <c r="X38" t="str" cm="1">
-        <f t="array" ref="X38">IF(LEN(INDEX(Base!38:38,0,MATCH(Planilha2!$U38,Base!38:38,0)+2))&gt;2,LEFT(INDEX(Base!38:38,0,MATCH(Planilha2!$U38,Base!38:38,0)+2),1),INDEX(Base!38:38,0,MATCH(Planilha2!$U38,Base!38:38,0)+2))</f>
+        <f t="array" ref="X38">IF(LEN(INDEX(Base!38:38,0,MATCH(Output!$U38,Base!38:38,0)+2))&gt;2,LEFT(INDEX(Base!38:38,0,MATCH(Output!$U38,Base!38:38,0)+2),1),INDEX(Base!38:38,0,MATCH(Output!$U38,Base!38:38,0)+2))</f>
         <v>3</v>
       </c>
       <c r="Y38" t="str" cm="1">
-        <f t="array" ref="Y38">IF(LEN(INDEX(Base!38:38,0,MATCH(Planilha2!$U38,Base!38:38,0)+2))&gt;2,LEFT(INDEX(Base!38:38,0,MATCH(Planilha2!$U38,Base!38:38,0)+2),1),INDEX(Base!38:38,0,MATCH(Planilha2!$U38,Base!38:38,0)+2))</f>
+        <f t="array" ref="Y38">IF(LEN(INDEX(Base!38:38,0,MATCH(Output!$U38,Base!38:38,0)+2))&gt;2,LEFT(INDEX(Base!38:38,0,MATCH(Output!$U38,Base!38:38,0)+2),1),INDEX(Base!38:38,0,MATCH(Output!$U38,Base!38:38,0)+2))</f>
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
       <c r="B39">
         <f>IF(OR(ISNUMBER(FIND(Configurações!$B$4,Base!B39)),ISNUMBER(FIND(Configurações!$B$5,Base!B39)),ISNUMBER(FIND(Configurações!$B$6,Base!B39)),ISNUMBER(FIND(Configurações!$B$7,Base!B39)),ISNUMBER(FIND(Configurações!$B$8,Base!B39)))=TRUE,Base!B39,0)</f>
         <v>0</v>
@@ -9019,7 +9152,7 @@
         <f>IF(TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("IPTU",Base!C39)),ISNUMBER(FIND("iptu",Base!C39)))=TRUE,RIGHT(Base!C39,5),0),"R$",""),"$",""))="0",TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("IPTU",Base!D39)),ISNUMBER(FIND("iptu",Base!D39)))=TRUE,RIGHT(Base!D39,5),0),"R$",""),"$","")),TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("iptu",Base!C39)),ISNUMBER(FIND("IPTU",Base!C39)))=TRUE,RIGHT(Base!C39,5),0),"R$",""),"$","")))</f>
         <v>0</v>
       </c>
-      <c r="F39" s="5" t="str" cm="1">
+      <c r="F39" s="4" t="str" cm="1">
         <f t="array" ref="F39">INDEX(Base!39:39,MATCH(MAX(LEN(Base!39:39)),LEN(Base!39:39),0))</f>
         <v>APARTAMENTO VAZIO, PRIMEIRA LOCAÇÃO, CENTRO DE NOVA IGUAÇU 03 QUARTOS, VARANDA, SUÍTE E VAGA, INFRAESTRUTURA COMPLETA. MORE NO MELHOR PONTO DE NOVA IGUAÇU PRÓXIMO DO FÓRUM, SHOPPIN...</v>
       </c>
@@ -9072,23 +9205,27 @@
         <v>Rua Luís de Camões, Centro</v>
       </c>
       <c r="V39" t="str" cm="1">
-        <f t="array" ref="V39">TRIM(SUBSTITUTE(INDEX(Base!39:39,0,MATCH(Planilha2!$U39,Base!39:39,0)+1),"m²",""))</f>
+        <f t="array" ref="V39">TRIM(SUBSTITUTE(INDEX(Base!39:39,0,MATCH(Output!$U39,Base!39:39,0)+1),"m²",""))</f>
         <v>77</v>
       </c>
       <c r="W39" t="str" cm="1">
-        <f t="array" ref="W39">IF(LEN(INDEX(Base!39:39,0,MATCH(Planilha2!$U39,Base!39:39,0)+2))&gt;2,LEFT(INDEX(Base!39:39,0,MATCH(Planilha2!$U39,Base!39:39,0)+2),1),INDEX(Base!39:39,0,MATCH(Planilha2!$U39,Base!39:39,0)+2))</f>
+        <f t="array" ref="W39">IF(LEN(INDEX(Base!39:39,0,MATCH(Output!$U39,Base!39:39,0)+2))&gt;2,LEFT(INDEX(Base!39:39,0,MATCH(Output!$U39,Base!39:39,0)+2),1),INDEX(Base!39:39,0,MATCH(Output!$U39,Base!39:39,0)+2))</f>
         <v>3</v>
       </c>
       <c r="X39" t="str" cm="1">
-        <f t="array" ref="X39">IF(LEN(INDEX(Base!39:39,0,MATCH(Planilha2!$U39,Base!39:39,0)+2))&gt;2,LEFT(INDEX(Base!39:39,0,MATCH(Planilha2!$U39,Base!39:39,0)+2),1),INDEX(Base!39:39,0,MATCH(Planilha2!$U39,Base!39:39,0)+2))</f>
+        <f t="array" ref="X39">IF(LEN(INDEX(Base!39:39,0,MATCH(Output!$U39,Base!39:39,0)+2))&gt;2,LEFT(INDEX(Base!39:39,0,MATCH(Output!$U39,Base!39:39,0)+2),1),INDEX(Base!39:39,0,MATCH(Output!$U39,Base!39:39,0)+2))</f>
         <v>3</v>
       </c>
       <c r="Y39" t="str" cm="1">
-        <f t="array" ref="Y39">IF(LEN(INDEX(Base!39:39,0,MATCH(Planilha2!$U39,Base!39:39,0)+2))&gt;2,LEFT(INDEX(Base!39:39,0,MATCH(Planilha2!$U39,Base!39:39,0)+2),1),INDEX(Base!39:39,0,MATCH(Planilha2!$U39,Base!39:39,0)+2))</f>
+        <f t="array" ref="Y39">IF(LEN(INDEX(Base!39:39,0,MATCH(Output!$U39,Base!39:39,0)+2))&gt;2,LEFT(INDEX(Base!39:39,0,MATCH(Output!$U39,Base!39:39,0)+2),1),INDEX(Base!39:39,0,MATCH(Output!$U39,Base!39:39,0)+2))</f>
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
       <c r="B40">
         <f>IF(OR(ISNUMBER(FIND(Configurações!$B$4,Base!B40)),ISNUMBER(FIND(Configurações!$B$5,Base!B40)),ISNUMBER(FIND(Configurações!$B$6,Base!B40)),ISNUMBER(FIND(Configurações!$B$7,Base!B40)),ISNUMBER(FIND(Configurações!$B$8,Base!B40)))=TRUE,Base!B40,0)</f>
         <v>0</v>
@@ -9105,7 +9242,7 @@
         <f>IF(TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("IPTU",Base!C40)),ISNUMBER(FIND("iptu",Base!C40)))=TRUE,RIGHT(Base!C40,5),0),"R$",""),"$",""))="0",TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("IPTU",Base!D40)),ISNUMBER(FIND("iptu",Base!D40)))=TRUE,RIGHT(Base!D40,5),0),"R$",""),"$","")),TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("iptu",Base!C40)),ISNUMBER(FIND("IPTU",Base!C40)))=TRUE,RIGHT(Base!C40,5),0),"R$",""),"$","")))</f>
         <v>250</v>
       </c>
-      <c r="F40" s="5" t="str" cm="1">
+      <c r="F40" s="4" t="str" cm="1">
         <f t="array" ref="F40">INDEX(Base!40:40,MATCH(MAX(LEN(Base!40:40)),LEN(Base!40:40),0))</f>
         <v>O apartamento está localizado no bairro Jardim Alvorada com 48 metros quadrados com 2 quartos e 1 banheiro</v>
       </c>
@@ -9158,23 +9295,27 @@
         <v>Avenida Abílio Augusto Távora, Jardim Alvorada</v>
       </c>
       <c r="V40" t="str" cm="1">
-        <f t="array" ref="V40">TRIM(SUBSTITUTE(INDEX(Base!40:40,0,MATCH(Planilha2!$U40,Base!40:40,0)+1),"m²",""))</f>
+        <f t="array" ref="V40">TRIM(SUBSTITUTE(INDEX(Base!40:40,0,MATCH(Output!$U40,Base!40:40,0)+1),"m²",""))</f>
         <v>48</v>
       </c>
       <c r="W40" t="str" cm="1">
-        <f t="array" ref="W40">IF(LEN(INDEX(Base!40:40,0,MATCH(Planilha2!$U40,Base!40:40,0)+2))&gt;2,LEFT(INDEX(Base!40:40,0,MATCH(Planilha2!$U40,Base!40:40,0)+2),1),INDEX(Base!40:40,0,MATCH(Planilha2!$U40,Base!40:40,0)+2))</f>
+        <f t="array" ref="W40">IF(LEN(INDEX(Base!40:40,0,MATCH(Output!$U40,Base!40:40,0)+2))&gt;2,LEFT(INDEX(Base!40:40,0,MATCH(Output!$U40,Base!40:40,0)+2),1),INDEX(Base!40:40,0,MATCH(Output!$U40,Base!40:40,0)+2))</f>
         <v>2</v>
       </c>
       <c r="X40" t="str" cm="1">
-        <f t="array" ref="X40">IF(LEN(INDEX(Base!40:40,0,MATCH(Planilha2!$U40,Base!40:40,0)+2))&gt;2,LEFT(INDEX(Base!40:40,0,MATCH(Planilha2!$U40,Base!40:40,0)+2),1),INDEX(Base!40:40,0,MATCH(Planilha2!$U40,Base!40:40,0)+2))</f>
+        <f t="array" ref="X40">IF(LEN(INDEX(Base!40:40,0,MATCH(Output!$U40,Base!40:40,0)+2))&gt;2,LEFT(INDEX(Base!40:40,0,MATCH(Output!$U40,Base!40:40,0)+2),1),INDEX(Base!40:40,0,MATCH(Output!$U40,Base!40:40,0)+2))</f>
         <v>2</v>
       </c>
       <c r="Y40" t="str" cm="1">
-        <f t="array" ref="Y40">IF(LEN(INDEX(Base!40:40,0,MATCH(Planilha2!$U40,Base!40:40,0)+2))&gt;2,LEFT(INDEX(Base!40:40,0,MATCH(Planilha2!$U40,Base!40:40,0)+2),1),INDEX(Base!40:40,0,MATCH(Planilha2!$U40,Base!40:40,0)+2))</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.3">
+        <f t="array" ref="Y40">IF(LEN(INDEX(Base!40:40,0,MATCH(Output!$U40,Base!40:40,0)+2))&gt;2,LEFT(INDEX(Base!40:40,0,MATCH(Output!$U40,Base!40:40,0)+2),1),INDEX(Base!40:40,0,MATCH(Output!$U40,Base!40:40,0)+2))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
       <c r="B41" t="str">
         <f>IF(OR(ISNUMBER(FIND(Configurações!$B$4,Base!B41)),ISNUMBER(FIND(Configurações!$B$5,Base!B41)),ISNUMBER(FIND(Configurações!$B$6,Base!B41)),ISNUMBER(FIND(Configurações!$B$7,Base!B41)),ISNUMBER(FIND(Configurações!$B$8,Base!B41)))=TRUE,Base!B41,0)</f>
         <v>destaque</v>
@@ -9191,7 +9332,7 @@
         <f>IF(TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("IPTU",Base!C41)),ISNUMBER(FIND("iptu",Base!C41)))=TRUE,RIGHT(Base!C41,5),0),"R$",""),"$",""))="0",TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("IPTU",Base!D41)),ISNUMBER(FIND("iptu",Base!D41)))=TRUE,RIGHT(Base!D41,5),0),"R$",""),"$","")),TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("iptu",Base!C41)),ISNUMBER(FIND("IPTU",Base!C41)))=TRUE,RIGHT(Base!C41,5),0),"R$",""),"$","")))</f>
         <v>0</v>
       </c>
-      <c r="F41" s="5" t="str" cm="1">
+      <c r="F41" s="4" t="str" cm="1">
         <f t="array" ref="F41">INDEX(Base!41:41,MATCH(MAX(LEN(Base!41:41)),LEN(Base!41:41),0))</f>
         <v>Prédio com loja e salas pronto pra habitar em rua movimentada, no centro de Comendador Soares onde você encontra 4 bancos e 3 supermercados, entre a via Dutra e a supervia, área ex...</v>
       </c>
@@ -9244,23 +9385,27 @@
         <v>Rua Ângelo Gregório, Comendador Soares</v>
       </c>
       <c r="V41" t="str" cm="1">
-        <f t="array" ref="V41">TRIM(SUBSTITUTE(INDEX(Base!41:41,0,MATCH(Planilha2!$U41,Base!41:41,0)+1),"m²",""))</f>
+        <f t="array" ref="V41">TRIM(SUBSTITUTE(INDEX(Base!41:41,0,MATCH(Output!$U41,Base!41:41,0)+1),"m²",""))</f>
         <v>380</v>
       </c>
       <c r="W41" cm="1">
-        <f t="array" ref="W41">IF(LEN(INDEX(Base!41:41,0,MATCH(Planilha2!$U41,Base!41:41,0)+2))&gt;2,LEFT(INDEX(Base!41:41,0,MATCH(Planilha2!$U41,Base!41:41,0)+2),1),INDEX(Base!41:41,0,MATCH(Planilha2!$U41,Base!41:41,0)+2))</f>
+        <f t="array" ref="W41">IF(LEN(INDEX(Base!41:41,0,MATCH(Output!$U41,Base!41:41,0)+2))&gt;2,LEFT(INDEX(Base!41:41,0,MATCH(Output!$U41,Base!41:41,0)+2),1),INDEX(Base!41:41,0,MATCH(Output!$U41,Base!41:41,0)+2))</f>
         <v>0</v>
       </c>
       <c r="X41" cm="1">
-        <f t="array" ref="X41">IF(LEN(INDEX(Base!41:41,0,MATCH(Planilha2!$U41,Base!41:41,0)+2))&gt;2,LEFT(INDEX(Base!41:41,0,MATCH(Planilha2!$U41,Base!41:41,0)+2),1),INDEX(Base!41:41,0,MATCH(Planilha2!$U41,Base!41:41,0)+2))</f>
+        <f t="array" ref="X41">IF(LEN(INDEX(Base!41:41,0,MATCH(Output!$U41,Base!41:41,0)+2))&gt;2,LEFT(INDEX(Base!41:41,0,MATCH(Output!$U41,Base!41:41,0)+2),1),INDEX(Base!41:41,0,MATCH(Output!$U41,Base!41:41,0)+2))</f>
         <v>0</v>
       </c>
       <c r="Y41" cm="1">
-        <f t="array" ref="Y41">IF(LEN(INDEX(Base!41:41,0,MATCH(Planilha2!$U41,Base!41:41,0)+2))&gt;2,LEFT(INDEX(Base!41:41,0,MATCH(Planilha2!$U41,Base!41:41,0)+2),1),INDEX(Base!41:41,0,MATCH(Planilha2!$U41,Base!41:41,0)+2))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.3">
+        <f t="array" ref="Y41">IF(LEN(INDEX(Base!41:41,0,MATCH(Output!$U41,Base!41:41,0)+2))&gt;2,LEFT(INDEX(Base!41:41,0,MATCH(Output!$U41,Base!41:41,0)+2),1),INDEX(Base!41:41,0,MATCH(Output!$U41,Base!41:41,0)+2))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
       <c r="B42">
         <f>IF(OR(ISNUMBER(FIND(Configurações!$B$4,Base!B42)),ISNUMBER(FIND(Configurações!$B$5,Base!B42)),ISNUMBER(FIND(Configurações!$B$6,Base!B42)),ISNUMBER(FIND(Configurações!$B$7,Base!B42)),ISNUMBER(FIND(Configurações!$B$8,Base!B42)))=TRUE,Base!B42,0)</f>
         <v>0</v>
@@ -9277,7 +9422,7 @@
         <f>IF(TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("IPTU",Base!C42)),ISNUMBER(FIND("iptu",Base!C42)))=TRUE,RIGHT(Base!C42,5),0),"R$",""),"$",""))="0",TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("IPTU",Base!D42)),ISNUMBER(FIND("iptu",Base!D42)))=TRUE,RIGHT(Base!D42,5),0),"R$",""),"$","")),TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("iptu",Base!C42)),ISNUMBER(FIND("IPTU",Base!C42)))=TRUE,RIGHT(Base!C42,5),0),"R$",""),"$","")))</f>
         <v>1.300</v>
       </c>
-      <c r="F42" s="5" t="str" cm="1">
+      <c r="F42" s="4" t="str" cm="1">
         <f t="array" ref="F42">INDEX(Base!42:42,MATCH(MAX(LEN(Base!42:42)),LEN(Base!42:42),0))</f>
         <v>O apartamento no bairro da Luz possui 65 metros quadrados com 2 quartos e 1 banheiro</v>
       </c>
@@ -9330,23 +9475,27 @@
         <v>Rua Ministro Lafaiete de Andrade, da Luz</v>
       </c>
       <c r="V42" t="str" cm="1">
-        <f t="array" ref="V42">TRIM(SUBSTITUTE(INDEX(Base!42:42,0,MATCH(Planilha2!$U42,Base!42:42,0)+1),"m²",""))</f>
+        <f t="array" ref="V42">TRIM(SUBSTITUTE(INDEX(Base!42:42,0,MATCH(Output!$U42,Base!42:42,0)+1),"m²",""))</f>
         <v>65</v>
       </c>
       <c r="W42" t="str" cm="1">
-        <f t="array" ref="W42">IF(LEN(INDEX(Base!42:42,0,MATCH(Planilha2!$U42,Base!42:42,0)+2))&gt;2,LEFT(INDEX(Base!42:42,0,MATCH(Planilha2!$U42,Base!42:42,0)+2),1),INDEX(Base!42:42,0,MATCH(Planilha2!$U42,Base!42:42,0)+2))</f>
+        <f t="array" ref="W42">IF(LEN(INDEX(Base!42:42,0,MATCH(Output!$U42,Base!42:42,0)+2))&gt;2,LEFT(INDEX(Base!42:42,0,MATCH(Output!$U42,Base!42:42,0)+2),1),INDEX(Base!42:42,0,MATCH(Output!$U42,Base!42:42,0)+2))</f>
         <v>2</v>
       </c>
       <c r="X42" t="str" cm="1">
-        <f t="array" ref="X42">IF(LEN(INDEX(Base!42:42,0,MATCH(Planilha2!$U42,Base!42:42,0)+2))&gt;2,LEFT(INDEX(Base!42:42,0,MATCH(Planilha2!$U42,Base!42:42,0)+2),1),INDEX(Base!42:42,0,MATCH(Planilha2!$U42,Base!42:42,0)+2))</f>
+        <f t="array" ref="X42">IF(LEN(INDEX(Base!42:42,0,MATCH(Output!$U42,Base!42:42,0)+2))&gt;2,LEFT(INDEX(Base!42:42,0,MATCH(Output!$U42,Base!42:42,0)+2),1),INDEX(Base!42:42,0,MATCH(Output!$U42,Base!42:42,0)+2))</f>
         <v>2</v>
       </c>
       <c r="Y42" t="str" cm="1">
-        <f t="array" ref="Y42">IF(LEN(INDEX(Base!42:42,0,MATCH(Planilha2!$U42,Base!42:42,0)+2))&gt;2,LEFT(INDEX(Base!42:42,0,MATCH(Planilha2!$U42,Base!42:42,0)+2),1),INDEX(Base!42:42,0,MATCH(Planilha2!$U42,Base!42:42,0)+2))</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.3">
+        <f t="array" ref="Y42">IF(LEN(INDEX(Base!42:42,0,MATCH(Output!$U42,Base!42:42,0)+2))&gt;2,LEFT(INDEX(Base!42:42,0,MATCH(Output!$U42,Base!42:42,0)+2),1),INDEX(Base!42:42,0,MATCH(Output!$U42,Base!42:42,0)+2))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
       <c r="B43" t="str">
         <f>IF(OR(ISNUMBER(FIND(Configurações!$B$4,Base!B43)),ISNUMBER(FIND(Configurações!$B$5,Base!B43)),ISNUMBER(FIND(Configurações!$B$6,Base!B43)),ISNUMBER(FIND(Configurações!$B$7,Base!B43)),ISNUMBER(FIND(Configurações!$B$8,Base!B43)))=TRUE,Base!B43,0)</f>
         <v>destaque</v>
@@ -9363,7 +9512,7 @@
         <f>IF(TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("IPTU",Base!C43)),ISNUMBER(FIND("iptu",Base!C43)))=TRUE,RIGHT(Base!C43,5),0),"R$",""),"$",""))="0",TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("IPTU",Base!D43)),ISNUMBER(FIND("iptu",Base!D43)))=TRUE,RIGHT(Base!D43,5),0),"R$",""),"$","")),TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("iptu",Base!C43)),ISNUMBER(FIND("IPTU",Base!C43)))=TRUE,RIGHT(Base!C43,5),0),"R$",""),"$","")))</f>
         <v>161</v>
       </c>
-      <c r="F43" s="5" t="str" cm="1">
+      <c r="F43" s="4" t="str" cm="1">
         <f t="array" ref="F43">INDEX(Base!43:43,MATCH(MAX(LEN(Base!43:43)),LEN(Base!43:43),0))</f>
         <v>Excelente apartamento para venda (Condomínio Golden Gate) com 92 m²; 3 suítes; 2 vagas de garagem; preparação para colocar ar condicionado split; piscina com deck de madeira; churr...</v>
       </c>
@@ -9416,23 +9565,27 @@
         <v>Rua Afrânio Peixoto, Centro</v>
       </c>
       <c r="V43" t="str" cm="1">
-        <f t="array" ref="V43">TRIM(SUBSTITUTE(INDEX(Base!43:43,0,MATCH(Planilha2!$U43,Base!43:43,0)+1),"m²",""))</f>
+        <f t="array" ref="V43">TRIM(SUBSTITUTE(INDEX(Base!43:43,0,MATCH(Output!$U43,Base!43:43,0)+1),"m²",""))</f>
         <v>92</v>
       </c>
       <c r="W43" t="str" cm="1">
-        <f t="array" ref="W43">IF(LEN(INDEX(Base!43:43,0,MATCH(Planilha2!$U43,Base!43:43,0)+2))&gt;2,LEFT(INDEX(Base!43:43,0,MATCH(Planilha2!$U43,Base!43:43,0)+2),1),INDEX(Base!43:43,0,MATCH(Planilha2!$U43,Base!43:43,0)+2))</f>
+        <f t="array" ref="W43">IF(LEN(INDEX(Base!43:43,0,MATCH(Output!$U43,Base!43:43,0)+2))&gt;2,LEFT(INDEX(Base!43:43,0,MATCH(Output!$U43,Base!43:43,0)+2),1),INDEX(Base!43:43,0,MATCH(Output!$U43,Base!43:43,0)+2))</f>
         <v>3</v>
       </c>
       <c r="X43" t="str" cm="1">
-        <f t="array" ref="X43">IF(LEN(INDEX(Base!43:43,0,MATCH(Planilha2!$U43,Base!43:43,0)+2))&gt;2,LEFT(INDEX(Base!43:43,0,MATCH(Planilha2!$U43,Base!43:43,0)+2),1),INDEX(Base!43:43,0,MATCH(Planilha2!$U43,Base!43:43,0)+2))</f>
+        <f t="array" ref="X43">IF(LEN(INDEX(Base!43:43,0,MATCH(Output!$U43,Base!43:43,0)+2))&gt;2,LEFT(INDEX(Base!43:43,0,MATCH(Output!$U43,Base!43:43,0)+2),1),INDEX(Base!43:43,0,MATCH(Output!$U43,Base!43:43,0)+2))</f>
         <v>3</v>
       </c>
       <c r="Y43" t="str" cm="1">
-        <f t="array" ref="Y43">IF(LEN(INDEX(Base!43:43,0,MATCH(Planilha2!$U43,Base!43:43,0)+2))&gt;2,LEFT(INDEX(Base!43:43,0,MATCH(Planilha2!$U43,Base!43:43,0)+2),1),INDEX(Base!43:43,0,MATCH(Planilha2!$U43,Base!43:43,0)+2))</f>
+        <f t="array" ref="Y43">IF(LEN(INDEX(Base!43:43,0,MATCH(Output!$U43,Base!43:43,0)+2))&gt;2,LEFT(INDEX(Base!43:43,0,MATCH(Output!$U43,Base!43:43,0)+2),1),INDEX(Base!43:43,0,MATCH(Output!$U43,Base!43:43,0)+2))</f>
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
       <c r="B44" t="str">
         <f>IF(OR(ISNUMBER(FIND(Configurações!$B$4,Base!B44)),ISNUMBER(FIND(Configurações!$B$5,Base!B44)),ISNUMBER(FIND(Configurações!$B$6,Base!B44)),ISNUMBER(FIND(Configurações!$B$7,Base!B44)),ISNUMBER(FIND(Configurações!$B$8,Base!B44)))=TRUE,Base!B44,0)</f>
         <v>destaque</v>
@@ -9449,7 +9602,7 @@
         <f>IF(TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("IPTU",Base!C44)),ISNUMBER(FIND("iptu",Base!C44)))=TRUE,RIGHT(Base!C44,5),0),"R$",""),"$",""))="0",TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("IPTU",Base!D44)),ISNUMBER(FIND("iptu",Base!D44)))=TRUE,RIGHT(Base!D44,5),0),"R$",""),"$","")),TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("iptu",Base!C44)),ISNUMBER(FIND("IPTU",Base!C44)))=TRUE,RIGHT(Base!C44,5),0),"R$",""),"$","")))</f>
         <v>0</v>
       </c>
-      <c r="F44" s="5" t="str" cm="1">
+      <c r="F44" s="4" t="str" cm="1">
         <f t="array" ref="F44">INDEX(Base!44:44,MATCH(MAX(LEN(Base!44:44)),LEN(Base!44:44),0))</f>
         <v>1 e 2 quartos com lazer completo na Estr. Dr. Plínio Casado, próximo à Via Dutra e ao Posto 13 e com fácil acesso ao shop...</v>
       </c>
@@ -9502,23 +9655,27 @@
         <v>Estrada Doutor Plínio Casado, Parque Rosario</v>
       </c>
       <c r="V44" t="str" cm="1">
-        <f t="array" ref="V44">TRIM(SUBSTITUTE(INDEX(Base!44:44,0,MATCH(Planilha2!$U44,Base!44:44,0)+1),"m²",""))</f>
+        <f t="array" ref="V44">TRIM(SUBSTITUTE(INDEX(Base!44:44,0,MATCH(Output!$U44,Base!44:44,0)+1),"m²",""))</f>
         <v>43</v>
       </c>
       <c r="W44" t="str" cm="1">
-        <f t="array" ref="W44">IF(LEN(INDEX(Base!44:44,0,MATCH(Planilha2!$U44,Base!44:44,0)+2))&gt;2,LEFT(INDEX(Base!44:44,0,MATCH(Planilha2!$U44,Base!44:44,0)+2),1),INDEX(Base!44:44,0,MATCH(Planilha2!$U44,Base!44:44,0)+2))</f>
+        <f t="array" ref="W44">IF(LEN(INDEX(Base!44:44,0,MATCH(Output!$U44,Base!44:44,0)+2))&gt;2,LEFT(INDEX(Base!44:44,0,MATCH(Output!$U44,Base!44:44,0)+2),1),INDEX(Base!44:44,0,MATCH(Output!$U44,Base!44:44,0)+2))</f>
         <v>2</v>
       </c>
       <c r="X44" t="str" cm="1">
-        <f t="array" ref="X44">IF(LEN(INDEX(Base!44:44,0,MATCH(Planilha2!$U44,Base!44:44,0)+2))&gt;2,LEFT(INDEX(Base!44:44,0,MATCH(Planilha2!$U44,Base!44:44,0)+2),1),INDEX(Base!44:44,0,MATCH(Planilha2!$U44,Base!44:44,0)+2))</f>
+        <f t="array" ref="X44">IF(LEN(INDEX(Base!44:44,0,MATCH(Output!$U44,Base!44:44,0)+2))&gt;2,LEFT(INDEX(Base!44:44,0,MATCH(Output!$U44,Base!44:44,0)+2),1),INDEX(Base!44:44,0,MATCH(Output!$U44,Base!44:44,0)+2))</f>
         <v>2</v>
       </c>
       <c r="Y44" t="str" cm="1">
-        <f t="array" ref="Y44">IF(LEN(INDEX(Base!44:44,0,MATCH(Planilha2!$U44,Base!44:44,0)+2))&gt;2,LEFT(INDEX(Base!44:44,0,MATCH(Planilha2!$U44,Base!44:44,0)+2),1),INDEX(Base!44:44,0,MATCH(Planilha2!$U44,Base!44:44,0)+2))</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.3">
+        <f t="array" ref="Y44">IF(LEN(INDEX(Base!44:44,0,MATCH(Output!$U44,Base!44:44,0)+2))&gt;2,LEFT(INDEX(Base!44:44,0,MATCH(Output!$U44,Base!44:44,0)+2),1),INDEX(Base!44:44,0,MATCH(Output!$U44,Base!44:44,0)+2))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
       <c r="B45" t="str">
         <f>IF(OR(ISNUMBER(FIND(Configurações!$B$4,Base!B45)),ISNUMBER(FIND(Configurações!$B$5,Base!B45)),ISNUMBER(FIND(Configurações!$B$6,Base!B45)),ISNUMBER(FIND(Configurações!$B$7,Base!B45)),ISNUMBER(FIND(Configurações!$B$8,Base!B45)))=TRUE,Base!B45,0)</f>
         <v>destaque</v>
@@ -9535,7 +9692,7 @@
         <f>IF(TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("IPTU",Base!C45)),ISNUMBER(FIND("iptu",Base!C45)))=TRUE,RIGHT(Base!C45,5),0),"R$",""),"$",""))="0",TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("IPTU",Base!D45)),ISNUMBER(FIND("iptu",Base!D45)))=TRUE,RIGHT(Base!D45,5),0),"R$",""),"$","")),TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("iptu",Base!C45)),ISNUMBER(FIND("IPTU",Base!C45)))=TRUE,RIGHT(Base!C45,5),0),"R$",""),"$","")))</f>
         <v>822</v>
       </c>
-      <c r="F45" s="5" t="str" cm="1">
+      <c r="F45" s="4" t="str" cm="1">
         <f t="array" ref="F45">INDEX(Base!45:45,MATCH(MAX(LEN(Base!45:45)),LEN(Base!45:45),0))</f>
         <v>Composto por: Sala em dois ambientes, varanda, 2 quartos sendo 1 suíte, cozinha ampla, banheiro social e área de serviç...</v>
       </c>
@@ -9588,23 +9745,27 @@
         <v>Estrada Doutor Plínio Casado, Prata</v>
       </c>
       <c r="V45" t="str" cm="1">
-        <f t="array" ref="V45">TRIM(SUBSTITUTE(INDEX(Base!45:45,0,MATCH(Planilha2!$U45,Base!45:45,0)+1),"m²",""))</f>
+        <f t="array" ref="V45">TRIM(SUBSTITUTE(INDEX(Base!45:45,0,MATCH(Output!$U45,Base!45:45,0)+1),"m²",""))</f>
         <v>75</v>
       </c>
       <c r="W45" t="str" cm="1">
-        <f t="array" ref="W45">IF(LEN(INDEX(Base!45:45,0,MATCH(Planilha2!$U45,Base!45:45,0)+2))&gt;2,LEFT(INDEX(Base!45:45,0,MATCH(Planilha2!$U45,Base!45:45,0)+2),1),INDEX(Base!45:45,0,MATCH(Planilha2!$U45,Base!45:45,0)+2))</f>
+        <f t="array" ref="W45">IF(LEN(INDEX(Base!45:45,0,MATCH(Output!$U45,Base!45:45,0)+2))&gt;2,LEFT(INDEX(Base!45:45,0,MATCH(Output!$U45,Base!45:45,0)+2),1),INDEX(Base!45:45,0,MATCH(Output!$U45,Base!45:45,0)+2))</f>
         <v>2</v>
       </c>
       <c r="X45" t="str" cm="1">
-        <f t="array" ref="X45">IF(LEN(INDEX(Base!45:45,0,MATCH(Planilha2!$U45,Base!45:45,0)+2))&gt;2,LEFT(INDEX(Base!45:45,0,MATCH(Planilha2!$U45,Base!45:45,0)+2),1),INDEX(Base!45:45,0,MATCH(Planilha2!$U45,Base!45:45,0)+2))</f>
+        <f t="array" ref="X45">IF(LEN(INDEX(Base!45:45,0,MATCH(Output!$U45,Base!45:45,0)+2))&gt;2,LEFT(INDEX(Base!45:45,0,MATCH(Output!$U45,Base!45:45,0)+2),1),INDEX(Base!45:45,0,MATCH(Output!$U45,Base!45:45,0)+2))</f>
         <v>2</v>
       </c>
       <c r="Y45" t="str" cm="1">
-        <f t="array" ref="Y45">IF(LEN(INDEX(Base!45:45,0,MATCH(Planilha2!$U45,Base!45:45,0)+2))&gt;2,LEFT(INDEX(Base!45:45,0,MATCH(Planilha2!$U45,Base!45:45,0)+2),1),INDEX(Base!45:45,0,MATCH(Planilha2!$U45,Base!45:45,0)+2))</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.3">
+        <f t="array" ref="Y45">IF(LEN(INDEX(Base!45:45,0,MATCH(Output!$U45,Base!45:45,0)+2))&gt;2,LEFT(INDEX(Base!45:45,0,MATCH(Output!$U45,Base!45:45,0)+2),1),INDEX(Base!45:45,0,MATCH(Output!$U45,Base!45:45,0)+2))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
       <c r="B46" t="str">
         <f>IF(OR(ISNUMBER(FIND(Configurações!$B$4,Base!B46)),ISNUMBER(FIND(Configurações!$B$5,Base!B46)),ISNUMBER(FIND(Configurações!$B$6,Base!B46)),ISNUMBER(FIND(Configurações!$B$7,Base!B46)),ISNUMBER(FIND(Configurações!$B$8,Base!B46)))=TRUE,Base!B46,0)</f>
         <v>destaque</v>
@@ -9621,7 +9782,7 @@
         <f>IF(TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("IPTU",Base!C46)),ISNUMBER(FIND("iptu",Base!C46)))=TRUE,RIGHT(Base!C46,5),0),"R$",""),"$",""))="0",TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("IPTU",Base!D46)),ISNUMBER(FIND("iptu",Base!D46)))=TRUE,RIGHT(Base!D46,5),0),"R$",""),"$","")),TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("iptu",Base!C46)),ISNUMBER(FIND("IPTU",Base!C46)))=TRUE,RIGHT(Base!C46,5),0),"R$",""),"$","")))</f>
         <v>0</v>
       </c>
-      <c r="F46" s="5" t="str" cm="1">
+      <c r="F46" s="4" t="str" cm="1">
         <f t="array" ref="F46">INDEX(Base!46:46,MATCH(MAX(LEN(Base!46:46)),LEN(Base!46:46),0))</f>
         <v>O apartamento está localizado no bairro Jardim Guandu tem 49 metros quadrados com 2 quartos e 1 banheiro</v>
       </c>
@@ -9674,23 +9835,27 @@
         <v>Estrada Humaitá, Jardim Guandu</v>
       </c>
       <c r="V46" t="str" cm="1">
-        <f t="array" ref="V46">TRIM(SUBSTITUTE(INDEX(Base!46:46,0,MATCH(Planilha2!$U46,Base!46:46,0)+1),"m²",""))</f>
+        <f t="array" ref="V46">TRIM(SUBSTITUTE(INDEX(Base!46:46,0,MATCH(Output!$U46,Base!46:46,0)+1),"m²",""))</f>
         <v>49</v>
       </c>
       <c r="W46" t="str" cm="1">
-        <f t="array" ref="W46">IF(LEN(INDEX(Base!46:46,0,MATCH(Planilha2!$U46,Base!46:46,0)+2))&gt;2,LEFT(INDEX(Base!46:46,0,MATCH(Planilha2!$U46,Base!46:46,0)+2),1),INDEX(Base!46:46,0,MATCH(Planilha2!$U46,Base!46:46,0)+2))</f>
+        <f t="array" ref="W46">IF(LEN(INDEX(Base!46:46,0,MATCH(Output!$U46,Base!46:46,0)+2))&gt;2,LEFT(INDEX(Base!46:46,0,MATCH(Output!$U46,Base!46:46,0)+2),1),INDEX(Base!46:46,0,MATCH(Output!$U46,Base!46:46,0)+2))</f>
         <v>2</v>
       </c>
       <c r="X46" t="str" cm="1">
-        <f t="array" ref="X46">IF(LEN(INDEX(Base!46:46,0,MATCH(Planilha2!$U46,Base!46:46,0)+2))&gt;2,LEFT(INDEX(Base!46:46,0,MATCH(Planilha2!$U46,Base!46:46,0)+2),1),INDEX(Base!46:46,0,MATCH(Planilha2!$U46,Base!46:46,0)+2))</f>
+        <f t="array" ref="X46">IF(LEN(INDEX(Base!46:46,0,MATCH(Output!$U46,Base!46:46,0)+2))&gt;2,LEFT(INDEX(Base!46:46,0,MATCH(Output!$U46,Base!46:46,0)+2),1),INDEX(Base!46:46,0,MATCH(Output!$U46,Base!46:46,0)+2))</f>
         <v>2</v>
       </c>
       <c r="Y46" t="str" cm="1">
-        <f t="array" ref="Y46">IF(LEN(INDEX(Base!46:46,0,MATCH(Planilha2!$U46,Base!46:46,0)+2))&gt;2,LEFT(INDEX(Base!46:46,0,MATCH(Planilha2!$U46,Base!46:46,0)+2),1),INDEX(Base!46:46,0,MATCH(Planilha2!$U46,Base!46:46,0)+2))</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.3">
+        <f t="array" ref="Y46">IF(LEN(INDEX(Base!46:46,0,MATCH(Output!$U46,Base!46:46,0)+2))&gt;2,LEFT(INDEX(Base!46:46,0,MATCH(Output!$U46,Base!46:46,0)+2),1),INDEX(Base!46:46,0,MATCH(Output!$U46,Base!46:46,0)+2))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
       <c r="B47">
         <f>IF(OR(ISNUMBER(FIND(Configurações!$B$4,Base!B47)),ISNUMBER(FIND(Configurações!$B$5,Base!B47)),ISNUMBER(FIND(Configurações!$B$6,Base!B47)),ISNUMBER(FIND(Configurações!$B$7,Base!B47)),ISNUMBER(FIND(Configurações!$B$8,Base!B47)))=TRUE,Base!B47,0)</f>
         <v>0</v>
@@ -9707,7 +9872,7 @@
         <f>IF(TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("IPTU",Base!C47)),ISNUMBER(FIND("iptu",Base!C47)))=TRUE,RIGHT(Base!C47,5),0),"R$",""),"$",""))="0",TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("IPTU",Base!D47)),ISNUMBER(FIND("iptu",Base!D47)))=TRUE,RIGHT(Base!D47,5),0),"R$",""),"$","")),TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("iptu",Base!C47)),ISNUMBER(FIND("IPTU",Base!C47)))=TRUE,RIGHT(Base!C47,5),0),"R$",""),"$","")))</f>
         <v>0</v>
       </c>
-      <c r="F47" s="5" t="str" cm="1">
+      <c r="F47" s="4" t="str" cm="1">
         <f t="array" ref="F47">INDEX(Base!47:47,MATCH(MAX(LEN(Base!47:47)),LEN(Base!47:47),0))</f>
         <v>O apartamento no bairro Califórnia possui 53 metros quadrados com 2 quartos sendo 1 suite e 2 banheiros</v>
       </c>
@@ -9760,23 +9925,27 @@
         <v>Rua Áurea Fonseca de Jesus, Califórnia</v>
       </c>
       <c r="V47" t="str" cm="1">
-        <f t="array" ref="V47">TRIM(SUBSTITUTE(INDEX(Base!47:47,0,MATCH(Planilha2!$U47,Base!47:47,0)+1),"m²",""))</f>
+        <f t="array" ref="V47">TRIM(SUBSTITUTE(INDEX(Base!47:47,0,MATCH(Output!$U47,Base!47:47,0)+1),"m²",""))</f>
         <v>53</v>
       </c>
       <c r="W47" t="str" cm="1">
-        <f t="array" ref="W47">IF(LEN(INDEX(Base!47:47,0,MATCH(Planilha2!$U47,Base!47:47,0)+2))&gt;2,LEFT(INDEX(Base!47:47,0,MATCH(Planilha2!$U47,Base!47:47,0)+2),1),INDEX(Base!47:47,0,MATCH(Planilha2!$U47,Base!47:47,0)+2))</f>
+        <f t="array" ref="W47">IF(LEN(INDEX(Base!47:47,0,MATCH(Output!$U47,Base!47:47,0)+2))&gt;2,LEFT(INDEX(Base!47:47,0,MATCH(Output!$U47,Base!47:47,0)+2),1),INDEX(Base!47:47,0,MATCH(Output!$U47,Base!47:47,0)+2))</f>
         <v>2</v>
       </c>
       <c r="X47" t="str" cm="1">
-        <f t="array" ref="X47">IF(LEN(INDEX(Base!47:47,0,MATCH(Planilha2!$U47,Base!47:47,0)+2))&gt;2,LEFT(INDEX(Base!47:47,0,MATCH(Planilha2!$U47,Base!47:47,0)+2),1),INDEX(Base!47:47,0,MATCH(Planilha2!$U47,Base!47:47,0)+2))</f>
+        <f t="array" ref="X47">IF(LEN(INDEX(Base!47:47,0,MATCH(Output!$U47,Base!47:47,0)+2))&gt;2,LEFT(INDEX(Base!47:47,0,MATCH(Output!$U47,Base!47:47,0)+2),1),INDEX(Base!47:47,0,MATCH(Output!$U47,Base!47:47,0)+2))</f>
         <v>2</v>
       </c>
       <c r="Y47" t="str" cm="1">
-        <f t="array" ref="Y47">IF(LEN(INDEX(Base!47:47,0,MATCH(Planilha2!$U47,Base!47:47,0)+2))&gt;2,LEFT(INDEX(Base!47:47,0,MATCH(Planilha2!$U47,Base!47:47,0)+2),1),INDEX(Base!47:47,0,MATCH(Planilha2!$U47,Base!47:47,0)+2))</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.3">
+        <f t="array" ref="Y47">IF(LEN(INDEX(Base!47:47,0,MATCH(Output!$U47,Base!47:47,0)+2))&gt;2,LEFT(INDEX(Base!47:47,0,MATCH(Output!$U47,Base!47:47,0)+2),1),INDEX(Base!47:47,0,MATCH(Output!$U47,Base!47:47,0)+2))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
       <c r="B48">
         <f>IF(OR(ISNUMBER(FIND(Configurações!$B$4,Base!B48)),ISNUMBER(FIND(Configurações!$B$5,Base!B48)),ISNUMBER(FIND(Configurações!$B$6,Base!B48)),ISNUMBER(FIND(Configurações!$B$7,Base!B48)),ISNUMBER(FIND(Configurações!$B$8,Base!B48)))=TRUE,Base!B48,0)</f>
         <v>0</v>
@@ -9793,7 +9962,7 @@
         <f>IF(TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("IPTU",Base!C48)),ISNUMBER(FIND("iptu",Base!C48)))=TRUE,RIGHT(Base!C48,5),0),"R$",""),"$",""))="0",TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("IPTU",Base!D48)),ISNUMBER(FIND("iptu",Base!D48)))=TRUE,RIGHT(Base!D48,5),0),"R$",""),"$","")),TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("iptu",Base!C48)),ISNUMBER(FIND("IPTU",Base!C48)))=TRUE,RIGHT(Base!C48,5),0),"R$",""),"$","")))</f>
         <v>400</v>
       </c>
-      <c r="F48" s="5" t="str" cm="1">
+      <c r="F48" s="4" t="str" cm="1">
         <f t="array" ref="F48">INDEX(Base!48:48,MATCH(MAX(LEN(Base!48:48)),LEN(Base!48:48),0))</f>
         <v>Possui área de recreação infantil, área de fitness, espaço para festas, área verde de jardim, es...</v>
       </c>
@@ -9846,23 +10015,27 @@
         <v>Estrada Deputado Darcílio Ayres Raunheitti, Rancho Novo</v>
       </c>
       <c r="V48" t="str" cm="1">
-        <f t="array" ref="V48">TRIM(SUBSTITUTE(INDEX(Base!48:48,0,MATCH(Planilha2!$U48,Base!48:48,0)+1),"m²",""))</f>
+        <f t="array" ref="V48">TRIM(SUBSTITUTE(INDEX(Base!48:48,0,MATCH(Output!$U48,Base!48:48,0)+1),"m²",""))</f>
         <v>53</v>
       </c>
       <c r="W48" t="str" cm="1">
-        <f t="array" ref="W48">IF(LEN(INDEX(Base!48:48,0,MATCH(Planilha2!$U48,Base!48:48,0)+2))&gt;2,LEFT(INDEX(Base!48:48,0,MATCH(Planilha2!$U48,Base!48:48,0)+2),1),INDEX(Base!48:48,0,MATCH(Planilha2!$U48,Base!48:48,0)+2))</f>
+        <f t="array" ref="W48">IF(LEN(INDEX(Base!48:48,0,MATCH(Output!$U48,Base!48:48,0)+2))&gt;2,LEFT(INDEX(Base!48:48,0,MATCH(Output!$U48,Base!48:48,0)+2),1),INDEX(Base!48:48,0,MATCH(Output!$U48,Base!48:48,0)+2))</f>
         <v>2</v>
       </c>
       <c r="X48" t="str" cm="1">
-        <f t="array" ref="X48">IF(LEN(INDEX(Base!48:48,0,MATCH(Planilha2!$U48,Base!48:48,0)+2))&gt;2,LEFT(INDEX(Base!48:48,0,MATCH(Planilha2!$U48,Base!48:48,0)+2),1),INDEX(Base!48:48,0,MATCH(Planilha2!$U48,Base!48:48,0)+2))</f>
+        <f t="array" ref="X48">IF(LEN(INDEX(Base!48:48,0,MATCH(Output!$U48,Base!48:48,0)+2))&gt;2,LEFT(INDEX(Base!48:48,0,MATCH(Output!$U48,Base!48:48,0)+2),1),INDEX(Base!48:48,0,MATCH(Output!$U48,Base!48:48,0)+2))</f>
         <v>2</v>
       </c>
       <c r="Y48" t="str" cm="1">
-        <f t="array" ref="Y48">IF(LEN(INDEX(Base!48:48,0,MATCH(Planilha2!$U48,Base!48:48,0)+2))&gt;2,LEFT(INDEX(Base!48:48,0,MATCH(Planilha2!$U48,Base!48:48,0)+2),1),INDEX(Base!48:48,0,MATCH(Planilha2!$U48,Base!48:48,0)+2))</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="49" spans="2:25" x14ac:dyDescent="0.3">
+        <f t="array" ref="Y48">IF(LEN(INDEX(Base!48:48,0,MATCH(Output!$U48,Base!48:48,0)+2))&gt;2,LEFT(INDEX(Base!48:48,0,MATCH(Output!$U48,Base!48:48,0)+2),1),INDEX(Base!48:48,0,MATCH(Output!$U48,Base!48:48,0)+2))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
       <c r="B49">
         <f>IF(OR(ISNUMBER(FIND(Configurações!$B$4,Base!B49)),ISNUMBER(FIND(Configurações!$B$5,Base!B49)),ISNUMBER(FIND(Configurações!$B$6,Base!B49)),ISNUMBER(FIND(Configurações!$B$7,Base!B49)),ISNUMBER(FIND(Configurações!$B$8,Base!B49)))=TRUE,Base!B49,0)</f>
         <v>0</v>
@@ -9879,7 +10052,7 @@
         <f>IF(TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("IPTU",Base!C49)),ISNUMBER(FIND("iptu",Base!C49)))=TRUE,RIGHT(Base!C49,5),0),"R$",""),"$",""))="0",TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("IPTU",Base!D49)),ISNUMBER(FIND("iptu",Base!D49)))=TRUE,RIGHT(Base!D49,5),0),"R$",""),"$","")),TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("iptu",Base!C49)),ISNUMBER(FIND("IPTU",Base!C49)))=TRUE,RIGHT(Base!C49,5),0),"R$",""),"$","")))</f>
         <v>0</v>
       </c>
-      <c r="F49" s="5" t="str" cm="1">
+      <c r="F49" s="4" t="str" cm="1">
         <f t="array" ref="F49">INDEX(Base!49:49,MATCH(MAX(LEN(Base!49:49)),LEN(Base!49:49),0))</f>
         <v>Venha morar na melhor localização do Bairro e Rua Desembargador Acácio Aragão Próximo a fazenda</v>
       </c>
@@ -9932,23 +10105,27 @@
         <v>Valverde, Nova Iguaçu</v>
       </c>
       <c r="V49" t="str" cm="1">
-        <f t="array" ref="V49">TRIM(SUBSTITUTE(INDEX(Base!49:49,0,MATCH(Planilha2!$U49,Base!49:49,0)+1),"m²",""))</f>
+        <f t="array" ref="V49">TRIM(SUBSTITUTE(INDEX(Base!49:49,0,MATCH(Output!$U49,Base!49:49,0)+1),"m²",""))</f>
         <v>120</v>
       </c>
       <c r="W49" t="str" cm="1">
-        <f t="array" ref="W49">IF(LEN(INDEX(Base!49:49,0,MATCH(Planilha2!$U49,Base!49:49,0)+2))&gt;2,LEFT(INDEX(Base!49:49,0,MATCH(Planilha2!$U49,Base!49:49,0)+2),1),INDEX(Base!49:49,0,MATCH(Planilha2!$U49,Base!49:49,0)+2))</f>
+        <f t="array" ref="W49">IF(LEN(INDEX(Base!49:49,0,MATCH(Output!$U49,Base!49:49,0)+2))&gt;2,LEFT(INDEX(Base!49:49,0,MATCH(Output!$U49,Base!49:49,0)+2),1),INDEX(Base!49:49,0,MATCH(Output!$U49,Base!49:49,0)+2))</f>
         <v>2</v>
       </c>
       <c r="X49" t="str" cm="1">
-        <f t="array" ref="X49">IF(LEN(INDEX(Base!49:49,0,MATCH(Planilha2!$U49,Base!49:49,0)+2))&gt;2,LEFT(INDEX(Base!49:49,0,MATCH(Planilha2!$U49,Base!49:49,0)+2),1),INDEX(Base!49:49,0,MATCH(Planilha2!$U49,Base!49:49,0)+2))</f>
+        <f t="array" ref="X49">IF(LEN(INDEX(Base!49:49,0,MATCH(Output!$U49,Base!49:49,0)+2))&gt;2,LEFT(INDEX(Base!49:49,0,MATCH(Output!$U49,Base!49:49,0)+2),1),INDEX(Base!49:49,0,MATCH(Output!$U49,Base!49:49,0)+2))</f>
         <v>2</v>
       </c>
       <c r="Y49" t="str" cm="1">
-        <f t="array" ref="Y49">IF(LEN(INDEX(Base!49:49,0,MATCH(Planilha2!$U49,Base!49:49,0)+2))&gt;2,LEFT(INDEX(Base!49:49,0,MATCH(Planilha2!$U49,Base!49:49,0)+2),1),INDEX(Base!49:49,0,MATCH(Planilha2!$U49,Base!49:49,0)+2))</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="50" spans="2:25" x14ac:dyDescent="0.3">
+        <f t="array" ref="Y49">IF(LEN(INDEX(Base!49:49,0,MATCH(Output!$U49,Base!49:49,0)+2))&gt;2,LEFT(INDEX(Base!49:49,0,MATCH(Output!$U49,Base!49:49,0)+2),1),INDEX(Base!49:49,0,MATCH(Output!$U49,Base!49:49,0)+2))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
       <c r="B50" t="str">
         <f>IF(OR(ISNUMBER(FIND(Configurações!$B$4,Base!B50)),ISNUMBER(FIND(Configurações!$B$5,Base!B50)),ISNUMBER(FIND(Configurações!$B$6,Base!B50)),ISNUMBER(FIND(Configurações!$B$7,Base!B50)),ISNUMBER(FIND(Configurações!$B$8,Base!B50)))=TRUE,Base!B50,0)</f>
         <v>em construção</v>
@@ -9965,7 +10142,7 @@
         <f>IF(TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("IPTU",Base!C50)),ISNUMBER(FIND("iptu",Base!C50)))=TRUE,RIGHT(Base!C50,5),0),"R$",""),"$",""))="0",TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("IPTU",Base!D50)),ISNUMBER(FIND("iptu",Base!D50)))=TRUE,RIGHT(Base!D50,5),0),"R$",""),"$","")),TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("iptu",Base!C50)),ISNUMBER(FIND("IPTU",Base!C50)))=TRUE,RIGHT(Base!C50,5),0),"R$",""),"$","")))</f>
         <v>0</v>
       </c>
-      <c r="F50" s="5" t="str" cm="1">
+      <c r="F50" s="4" t="str" cm="1">
         <f t="array" ref="F50">INDEX(Base!50:50,MATCH(MAX(LEN(Base!50:50)),LEN(Base!50:50),0))</f>
         <v>A CAC Engenharia acaba de lançar um novo empreendimento em Nova Iguaçu. Viva com segurança e lazer em um bairro planejado. Apaixone-se pelo Residencial Morada dos Pássaros.</v>
       </c>
@@ -10018,23 +10195,27 @@
         <v>Estrada de Adrianópolis, Adrianópolis</v>
       </c>
       <c r="V50" t="str" cm="1">
-        <f t="array" ref="V50">TRIM(SUBSTITUTE(INDEX(Base!50:50,0,MATCH(Planilha2!$U50,Base!50:50,0)+1),"m²",""))</f>
+        <f t="array" ref="V50">TRIM(SUBSTITUTE(INDEX(Base!50:50,0,MATCH(Output!$U50,Base!50:50,0)+1),"m²",""))</f>
         <v>116</v>
       </c>
       <c r="W50" t="str" cm="1">
-        <f t="array" ref="W50">IF(LEN(INDEX(Base!50:50,0,MATCH(Planilha2!$U50,Base!50:50,0)+2))&gt;2,LEFT(INDEX(Base!50:50,0,MATCH(Planilha2!$U50,Base!50:50,0)+2),1),INDEX(Base!50:50,0,MATCH(Planilha2!$U50,Base!50:50,0)+2))</f>
+        <f t="array" ref="W50">IF(LEN(INDEX(Base!50:50,0,MATCH(Output!$U50,Base!50:50,0)+2))&gt;2,LEFT(INDEX(Base!50:50,0,MATCH(Output!$U50,Base!50:50,0)+2),1),INDEX(Base!50:50,0,MATCH(Output!$U50,Base!50:50,0)+2))</f>
         <v>2</v>
       </c>
       <c r="X50" t="str" cm="1">
-        <f t="array" ref="X50">IF(LEN(INDEX(Base!50:50,0,MATCH(Planilha2!$U50,Base!50:50,0)+2))&gt;2,LEFT(INDEX(Base!50:50,0,MATCH(Planilha2!$U50,Base!50:50,0)+2),1),INDEX(Base!50:50,0,MATCH(Planilha2!$U50,Base!50:50,0)+2))</f>
+        <f t="array" ref="X50">IF(LEN(INDEX(Base!50:50,0,MATCH(Output!$U50,Base!50:50,0)+2))&gt;2,LEFT(INDEX(Base!50:50,0,MATCH(Output!$U50,Base!50:50,0)+2),1),INDEX(Base!50:50,0,MATCH(Output!$U50,Base!50:50,0)+2))</f>
         <v>2</v>
       </c>
       <c r="Y50" t="str" cm="1">
-        <f t="array" ref="Y50">IF(LEN(INDEX(Base!50:50,0,MATCH(Planilha2!$U50,Base!50:50,0)+2))&gt;2,LEFT(INDEX(Base!50:50,0,MATCH(Planilha2!$U50,Base!50:50,0)+2),1),INDEX(Base!50:50,0,MATCH(Planilha2!$U50,Base!50:50,0)+2))</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="51" spans="2:25" x14ac:dyDescent="0.3">
+        <f t="array" ref="Y50">IF(LEN(INDEX(Base!50:50,0,MATCH(Output!$U50,Base!50:50,0)+2))&gt;2,LEFT(INDEX(Base!50:50,0,MATCH(Output!$U50,Base!50:50,0)+2),1),INDEX(Base!50:50,0,MATCH(Output!$U50,Base!50:50,0)+2))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
       <c r="B51" t="str">
         <f>IF(OR(ISNUMBER(FIND(Configurações!$B$4,Base!B51)),ISNUMBER(FIND(Configurações!$B$5,Base!B51)),ISNUMBER(FIND(Configurações!$B$6,Base!B51)),ISNUMBER(FIND(Configurações!$B$7,Base!B51)),ISNUMBER(FIND(Configurações!$B$8,Base!B51)))=TRUE,Base!B51,0)</f>
         <v>pronto para morar</v>
@@ -10051,7 +10232,7 @@
         <f>IF(TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("IPTU",Base!C51)),ISNUMBER(FIND("iptu",Base!C51)))=TRUE,RIGHT(Base!C51,5),0),"R$",""),"$",""))="0",TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("IPTU",Base!D51)),ISNUMBER(FIND("iptu",Base!D51)))=TRUE,RIGHT(Base!D51,5),0),"R$",""),"$","")),TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("iptu",Base!C51)),ISNUMBER(FIND("IPTU",Base!C51)))=TRUE,RIGHT(Base!C51,5),0),"R$",""),"$","")))</f>
         <v>0</v>
       </c>
-      <c r="F51" s="5" t="str" cm="1">
+      <c r="F51" s="4" t="str" cm="1">
         <f t="array" ref="F51">INDEX(Base!51:51,MATCH(MAX(LEN(Base!51:51)),LEN(Base!51:51),0))</f>
         <v>Venha conhecer os diferenciais incríveis desse empreendimento. Fale com nossa equipe de corretores</v>
       </c>
@@ -10104,23 +10285,27 @@
         <v>Avenida Vereador Albertino Guedes, Bairro das Graças</v>
       </c>
       <c r="V51" t="str" cm="1">
-        <f t="array" ref="V51">TRIM(SUBSTITUTE(INDEX(Base!51:51,0,MATCH(Planilha2!$U51,Base!51:51,0)+1),"m²",""))</f>
+        <f t="array" ref="V51">TRIM(SUBSTITUTE(INDEX(Base!51:51,0,MATCH(Output!$U51,Base!51:51,0)+1),"m²",""))</f>
         <v>85</v>
       </c>
       <c r="W51" t="str" cm="1">
-        <f t="array" ref="W51">IF(LEN(INDEX(Base!51:51,0,MATCH(Planilha2!$U51,Base!51:51,0)+2))&gt;2,LEFT(INDEX(Base!51:51,0,MATCH(Planilha2!$U51,Base!51:51,0)+2),1),INDEX(Base!51:51,0,MATCH(Planilha2!$U51,Base!51:51,0)+2))</f>
+        <f t="array" ref="W51">IF(LEN(INDEX(Base!51:51,0,MATCH(Output!$U51,Base!51:51,0)+2))&gt;2,LEFT(INDEX(Base!51:51,0,MATCH(Output!$U51,Base!51:51,0)+2),1),INDEX(Base!51:51,0,MATCH(Output!$U51,Base!51:51,0)+2))</f>
         <v>2</v>
       </c>
       <c r="X51" t="str" cm="1">
-        <f t="array" ref="X51">IF(LEN(INDEX(Base!51:51,0,MATCH(Planilha2!$U51,Base!51:51,0)+2))&gt;2,LEFT(INDEX(Base!51:51,0,MATCH(Planilha2!$U51,Base!51:51,0)+2),1),INDEX(Base!51:51,0,MATCH(Planilha2!$U51,Base!51:51,0)+2))</f>
+        <f t="array" ref="X51">IF(LEN(INDEX(Base!51:51,0,MATCH(Output!$U51,Base!51:51,0)+2))&gt;2,LEFT(INDEX(Base!51:51,0,MATCH(Output!$U51,Base!51:51,0)+2),1),INDEX(Base!51:51,0,MATCH(Output!$U51,Base!51:51,0)+2))</f>
         <v>2</v>
       </c>
       <c r="Y51" t="str" cm="1">
-        <f t="array" ref="Y51">IF(LEN(INDEX(Base!51:51,0,MATCH(Planilha2!$U51,Base!51:51,0)+2))&gt;2,LEFT(INDEX(Base!51:51,0,MATCH(Planilha2!$U51,Base!51:51,0)+2),1),INDEX(Base!51:51,0,MATCH(Planilha2!$U51,Base!51:51,0)+2))</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="52" spans="2:25" x14ac:dyDescent="0.3">
+        <f t="array" ref="Y51">IF(LEN(INDEX(Base!51:51,0,MATCH(Output!$U51,Base!51:51,0)+2))&gt;2,LEFT(INDEX(Base!51:51,0,MATCH(Output!$U51,Base!51:51,0)+2),1),INDEX(Base!51:51,0,MATCH(Output!$U51,Base!51:51,0)+2))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
       <c r="B52" t="str">
         <f>IF(OR(ISNUMBER(FIND(Configurações!$B$4,Base!B52)),ISNUMBER(FIND(Configurações!$B$5,Base!B52)),ISNUMBER(FIND(Configurações!$B$6,Base!B52)),ISNUMBER(FIND(Configurações!$B$7,Base!B52)),ISNUMBER(FIND(Configurações!$B$8,Base!B52)))=TRUE,Base!B52,0)</f>
         <v>pronto para morar</v>
@@ -10137,7 +10322,7 @@
         <f>IF(TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("IPTU",Base!C52)),ISNUMBER(FIND("iptu",Base!C52)))=TRUE,RIGHT(Base!C52,5),0),"R$",""),"$",""))="0",TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("IPTU",Base!D52)),ISNUMBER(FIND("iptu",Base!D52)))=TRUE,RIGHT(Base!D52,5),0),"R$",""),"$","")),TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("iptu",Base!C52)),ISNUMBER(FIND("IPTU",Base!C52)))=TRUE,RIGHT(Base!C52,5),0),"R$",""),"$","")))</f>
         <v>0</v>
       </c>
-      <c r="F52" s="5" t="str" cm="1">
+      <c r="F52" s="4" t="str" cm="1">
         <f t="array" ref="F52">INDEX(Base!52:52,MATCH(MAX(LEN(Base!52:52)),LEN(Base!52:52),0))</f>
         <v>O Vivendas do Imperador é a melhor opção de moradia para quem busca segurança, conforto e proximidade com todas as conveniências do empreendimento mais bem localizado de Nilópolis....</v>
       </c>
@@ -10190,23 +10375,27 @@
         <v>Estrada Mirandela, Centro</v>
       </c>
       <c r="V52" t="str" cm="1">
-        <f t="array" ref="V52">TRIM(SUBSTITUTE(INDEX(Base!52:52,0,MATCH(Planilha2!$U52,Base!52:52,0)+1),"m²",""))</f>
+        <f t="array" ref="V52">TRIM(SUBSTITUTE(INDEX(Base!52:52,0,MATCH(Output!$U52,Base!52:52,0)+1),"m²",""))</f>
         <v>80 - 160</v>
       </c>
       <c r="W52" t="str" cm="1">
-        <f t="array" ref="W52">IF(LEN(INDEX(Base!52:52,0,MATCH(Planilha2!$U52,Base!52:52,0)+2))&gt;2,LEFT(INDEX(Base!52:52,0,MATCH(Planilha2!$U52,Base!52:52,0)+2),1),INDEX(Base!52:52,0,MATCH(Planilha2!$U52,Base!52:52,0)+2))</f>
+        <f t="array" ref="W52">IF(LEN(INDEX(Base!52:52,0,MATCH(Output!$U52,Base!52:52,0)+2))&gt;2,LEFT(INDEX(Base!52:52,0,MATCH(Output!$U52,Base!52:52,0)+2),1),INDEX(Base!52:52,0,MATCH(Output!$U52,Base!52:52,0)+2))</f>
         <v>2</v>
       </c>
       <c r="X52" t="str" cm="1">
-        <f t="array" ref="X52">IF(LEN(INDEX(Base!52:52,0,MATCH(Planilha2!$U52,Base!52:52,0)+2))&gt;2,LEFT(INDEX(Base!52:52,0,MATCH(Planilha2!$U52,Base!52:52,0)+2),1),INDEX(Base!52:52,0,MATCH(Planilha2!$U52,Base!52:52,0)+2))</f>
+        <f t="array" ref="X52">IF(LEN(INDEX(Base!52:52,0,MATCH(Output!$U52,Base!52:52,0)+2))&gt;2,LEFT(INDEX(Base!52:52,0,MATCH(Output!$U52,Base!52:52,0)+2),1),INDEX(Base!52:52,0,MATCH(Output!$U52,Base!52:52,0)+2))</f>
         <v>2</v>
       </c>
       <c r="Y52" t="str" cm="1">
-        <f t="array" ref="Y52">IF(LEN(INDEX(Base!52:52,0,MATCH(Planilha2!$U52,Base!52:52,0)+2))&gt;2,LEFT(INDEX(Base!52:52,0,MATCH(Planilha2!$U52,Base!52:52,0)+2),1),INDEX(Base!52:52,0,MATCH(Planilha2!$U52,Base!52:52,0)+2))</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="53" spans="2:25" x14ac:dyDescent="0.3">
+        <f t="array" ref="Y52">IF(LEN(INDEX(Base!52:52,0,MATCH(Output!$U52,Base!52:52,0)+2))&gt;2,LEFT(INDEX(Base!52:52,0,MATCH(Output!$U52,Base!52:52,0)+2),1),INDEX(Base!52:52,0,MATCH(Output!$U52,Base!52:52,0)+2))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
       <c r="B53" t="str">
         <f>IF(OR(ISNUMBER(FIND(Configurações!$B$4,Base!B53)),ISNUMBER(FIND(Configurações!$B$5,Base!B53)),ISNUMBER(FIND(Configurações!$B$6,Base!B53)),ISNUMBER(FIND(Configurações!$B$7,Base!B53)),ISNUMBER(FIND(Configurações!$B$8,Base!B53)))=TRUE,Base!B53,0)</f>
         <v>super destaque</v>
@@ -10223,7 +10412,7 @@
         <f>IF(TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("IPTU",Base!C53)),ISNUMBER(FIND("iptu",Base!C53)))=TRUE,RIGHT(Base!C53,5),0),"R$",""),"$",""))="0",TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("IPTU",Base!D53)),ISNUMBER(FIND("iptu",Base!D53)))=TRUE,RIGHT(Base!D53,5),0),"R$",""),"$","")),TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("iptu",Base!C53)),ISNUMBER(FIND("IPTU",Base!C53)))=TRUE,RIGHT(Base!C53,5),0),"R$",""),"$","")))</f>
         <v>748</v>
       </c>
-      <c r="F53" s="5" t="str" cm="1">
+      <c r="F53" s="4" t="str" cm="1">
         <f t="array" ref="F53">INDEX(Base!53:53,MATCH(MAX(LEN(Base!53:53)),LEN(Base!53:53),0))</f>
         <v>Casa linear com 100m2 em terreno de 250m2, centro de terreno, garagem para 2 carros, lindo jardim decorado com carramanchão, varanda, sala ampla, 02 quartos amplos sendo 01 suite e...</v>
       </c>
@@ -10276,23 +10465,27 @@
         <v>Rua Princesa Isabel, Vila Nova</v>
       </c>
       <c r="V53" t="str" cm="1">
-        <f t="array" ref="V53">TRIM(SUBSTITUTE(INDEX(Base!53:53,0,MATCH(Planilha2!$U53,Base!53:53,0)+1),"m²",""))</f>
+        <f t="array" ref="V53">TRIM(SUBSTITUTE(INDEX(Base!53:53,0,MATCH(Output!$U53,Base!53:53,0)+1),"m²",""))</f>
         <v>150</v>
       </c>
       <c r="W53" t="str" cm="1">
-        <f t="array" ref="W53">IF(LEN(INDEX(Base!53:53,0,MATCH(Planilha2!$U53,Base!53:53,0)+2))&gt;2,LEFT(INDEX(Base!53:53,0,MATCH(Planilha2!$U53,Base!53:53,0)+2),1),INDEX(Base!53:53,0,MATCH(Planilha2!$U53,Base!53:53,0)+2))</f>
+        <f t="array" ref="W53">IF(LEN(INDEX(Base!53:53,0,MATCH(Output!$U53,Base!53:53,0)+2))&gt;2,LEFT(INDEX(Base!53:53,0,MATCH(Output!$U53,Base!53:53,0)+2),1),INDEX(Base!53:53,0,MATCH(Output!$U53,Base!53:53,0)+2))</f>
         <v>2</v>
       </c>
       <c r="X53" t="str" cm="1">
-        <f t="array" ref="X53">IF(LEN(INDEX(Base!53:53,0,MATCH(Planilha2!$U53,Base!53:53,0)+2))&gt;2,LEFT(INDEX(Base!53:53,0,MATCH(Planilha2!$U53,Base!53:53,0)+2),1),INDEX(Base!53:53,0,MATCH(Planilha2!$U53,Base!53:53,0)+2))</f>
+        <f t="array" ref="X53">IF(LEN(INDEX(Base!53:53,0,MATCH(Output!$U53,Base!53:53,0)+2))&gt;2,LEFT(INDEX(Base!53:53,0,MATCH(Output!$U53,Base!53:53,0)+2),1),INDEX(Base!53:53,0,MATCH(Output!$U53,Base!53:53,0)+2))</f>
         <v>2</v>
       </c>
       <c r="Y53" t="str" cm="1">
-        <f t="array" ref="Y53">IF(LEN(INDEX(Base!53:53,0,MATCH(Planilha2!$U53,Base!53:53,0)+2))&gt;2,LEFT(INDEX(Base!53:53,0,MATCH(Planilha2!$U53,Base!53:53,0)+2),1),INDEX(Base!53:53,0,MATCH(Planilha2!$U53,Base!53:53,0)+2))</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="54" spans="2:25" x14ac:dyDescent="0.3">
+        <f t="array" ref="Y53">IF(LEN(INDEX(Base!53:53,0,MATCH(Output!$U53,Base!53:53,0)+2))&gt;2,LEFT(INDEX(Base!53:53,0,MATCH(Output!$U53,Base!53:53,0)+2),1),INDEX(Base!53:53,0,MATCH(Output!$U53,Base!53:53,0)+2))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
       <c r="B54" t="str">
         <f>IF(OR(ISNUMBER(FIND(Configurações!$B$4,Base!B54)),ISNUMBER(FIND(Configurações!$B$5,Base!B54)),ISNUMBER(FIND(Configurações!$B$6,Base!B54)),ISNUMBER(FIND(Configurações!$B$7,Base!B54)),ISNUMBER(FIND(Configurações!$B$8,Base!B54)))=TRUE,Base!B54,0)</f>
         <v>super destaque</v>
@@ -10309,7 +10502,7 @@
         <f>IF(TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("IPTU",Base!C54)),ISNUMBER(FIND("iptu",Base!C54)))=TRUE,RIGHT(Base!C54,5),0),"R$",""),"$",""))="0",TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("IPTU",Base!D54)),ISNUMBER(FIND("iptu",Base!D54)))=TRUE,RIGHT(Base!D54,5),0),"R$",""),"$","")),TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("iptu",Base!C54)),ISNUMBER(FIND("IPTU",Base!C54)))=TRUE,RIGHT(Base!C54,5),0),"R$",""),"$","")))</f>
         <v>120</v>
       </c>
-      <c r="F54" s="5" t="str" cm="1">
+      <c r="F54" s="4" t="str" cm="1">
         <f t="array" ref="F54">INDEX(Base!54:54,MATCH(MAX(LEN(Base!54:54)),LEN(Base!54:54),0))</f>
         <v>Excelente apartamento à venda no Centro de Nova Iguaçu (Condomínio Florae) com 65 m²; 2 quartos (sendo 1 suíte); semi mobiliado; varanda; 1 vaga de garagem; armários planejados na...</v>
       </c>
@@ -10362,23 +10555,27 @@
         <v>Avenida Doutor Mário Guimarães, Centro</v>
       </c>
       <c r="V54" t="str" cm="1">
-        <f t="array" ref="V54">TRIM(SUBSTITUTE(INDEX(Base!54:54,0,MATCH(Planilha2!$U54,Base!54:54,0)+1),"m²",""))</f>
+        <f t="array" ref="V54">TRIM(SUBSTITUTE(INDEX(Base!54:54,0,MATCH(Output!$U54,Base!54:54,0)+1),"m²",""))</f>
         <v>65</v>
       </c>
       <c r="W54" t="str" cm="1">
-        <f t="array" ref="W54">IF(LEN(INDEX(Base!54:54,0,MATCH(Planilha2!$U54,Base!54:54,0)+2))&gt;2,LEFT(INDEX(Base!54:54,0,MATCH(Planilha2!$U54,Base!54:54,0)+2),1),INDEX(Base!54:54,0,MATCH(Planilha2!$U54,Base!54:54,0)+2))</f>
+        <f t="array" ref="W54">IF(LEN(INDEX(Base!54:54,0,MATCH(Output!$U54,Base!54:54,0)+2))&gt;2,LEFT(INDEX(Base!54:54,0,MATCH(Output!$U54,Base!54:54,0)+2),1),INDEX(Base!54:54,0,MATCH(Output!$U54,Base!54:54,0)+2))</f>
         <v>2</v>
       </c>
       <c r="X54" t="str" cm="1">
-        <f t="array" ref="X54">IF(LEN(INDEX(Base!54:54,0,MATCH(Planilha2!$U54,Base!54:54,0)+2))&gt;2,LEFT(INDEX(Base!54:54,0,MATCH(Planilha2!$U54,Base!54:54,0)+2),1),INDEX(Base!54:54,0,MATCH(Planilha2!$U54,Base!54:54,0)+2))</f>
+        <f t="array" ref="X54">IF(LEN(INDEX(Base!54:54,0,MATCH(Output!$U54,Base!54:54,0)+2))&gt;2,LEFT(INDEX(Base!54:54,0,MATCH(Output!$U54,Base!54:54,0)+2),1),INDEX(Base!54:54,0,MATCH(Output!$U54,Base!54:54,0)+2))</f>
         <v>2</v>
       </c>
       <c r="Y54" t="str" cm="1">
-        <f t="array" ref="Y54">IF(LEN(INDEX(Base!54:54,0,MATCH(Planilha2!$U54,Base!54:54,0)+2))&gt;2,LEFT(INDEX(Base!54:54,0,MATCH(Planilha2!$U54,Base!54:54,0)+2),1),INDEX(Base!54:54,0,MATCH(Planilha2!$U54,Base!54:54,0)+2))</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="55" spans="2:25" x14ac:dyDescent="0.3">
+        <f t="array" ref="Y54">IF(LEN(INDEX(Base!54:54,0,MATCH(Output!$U54,Base!54:54,0)+2))&gt;2,LEFT(INDEX(Base!54:54,0,MATCH(Output!$U54,Base!54:54,0)+2),1),INDEX(Base!54:54,0,MATCH(Output!$U54,Base!54:54,0)+2))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
       <c r="B55" t="str">
         <f>IF(OR(ISNUMBER(FIND(Configurações!$B$4,Base!B55)),ISNUMBER(FIND(Configurações!$B$5,Base!B55)),ISNUMBER(FIND(Configurações!$B$6,Base!B55)),ISNUMBER(FIND(Configurações!$B$7,Base!B55)),ISNUMBER(FIND(Configurações!$B$8,Base!B55)))=TRUE,Base!B55,0)</f>
         <v>super destaque</v>
@@ -10395,7 +10592,7 @@
         <f>IF(TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("IPTU",Base!C55)),ISNUMBER(FIND("iptu",Base!C55)))=TRUE,RIGHT(Base!C55,5),0),"R$",""),"$",""))="0",TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("IPTU",Base!D55)),ISNUMBER(FIND("iptu",Base!D55)))=TRUE,RIGHT(Base!D55,5),0),"R$",""),"$","")),TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("iptu",Base!C55)),ISNUMBER(FIND("IPTU",Base!C55)))=TRUE,RIGHT(Base!C55,5),0),"R$",""),"$","")))</f>
         <v>0</v>
       </c>
-      <c r="F55" s="5" t="str" cm="1">
+      <c r="F55" s="4" t="str" cm="1">
         <f t="array" ref="F55">INDEX(Base!55:55,MATCH(MAX(LEN(Base!55:55)),LEN(Base!55:55),0))</f>
         <v>Lindo apartamento 2 quartos no Residencial Acqua, Nova Iguaçu.</v>
       </c>
@@ -10448,23 +10645,27 @@
         <v>Rua Juiz Alberto Nader, da Luz</v>
       </c>
       <c r="V55" t="str" cm="1">
-        <f t="array" ref="V55">TRIM(SUBSTITUTE(INDEX(Base!55:55,0,MATCH(Planilha2!$U55,Base!55:55,0)+1),"m²",""))</f>
+        <f t="array" ref="V55">TRIM(SUBSTITUTE(INDEX(Base!55:55,0,MATCH(Output!$U55,Base!55:55,0)+1),"m²",""))</f>
         <v>67</v>
       </c>
       <c r="W55" t="str" cm="1">
-        <f t="array" ref="W55">IF(LEN(INDEX(Base!55:55,0,MATCH(Planilha2!$U55,Base!55:55,0)+2))&gt;2,LEFT(INDEX(Base!55:55,0,MATCH(Planilha2!$U55,Base!55:55,0)+2),1),INDEX(Base!55:55,0,MATCH(Planilha2!$U55,Base!55:55,0)+2))</f>
+        <f t="array" ref="W55">IF(LEN(INDEX(Base!55:55,0,MATCH(Output!$U55,Base!55:55,0)+2))&gt;2,LEFT(INDEX(Base!55:55,0,MATCH(Output!$U55,Base!55:55,0)+2),1),INDEX(Base!55:55,0,MATCH(Output!$U55,Base!55:55,0)+2))</f>
         <v>2</v>
       </c>
       <c r="X55" t="str" cm="1">
-        <f t="array" ref="X55">IF(LEN(INDEX(Base!55:55,0,MATCH(Planilha2!$U55,Base!55:55,0)+2))&gt;2,LEFT(INDEX(Base!55:55,0,MATCH(Planilha2!$U55,Base!55:55,0)+2),1),INDEX(Base!55:55,0,MATCH(Planilha2!$U55,Base!55:55,0)+2))</f>
+        <f t="array" ref="X55">IF(LEN(INDEX(Base!55:55,0,MATCH(Output!$U55,Base!55:55,0)+2))&gt;2,LEFT(INDEX(Base!55:55,0,MATCH(Output!$U55,Base!55:55,0)+2),1),INDEX(Base!55:55,0,MATCH(Output!$U55,Base!55:55,0)+2))</f>
         <v>2</v>
       </c>
       <c r="Y55" t="str" cm="1">
-        <f t="array" ref="Y55">IF(LEN(INDEX(Base!55:55,0,MATCH(Planilha2!$U55,Base!55:55,0)+2))&gt;2,LEFT(INDEX(Base!55:55,0,MATCH(Planilha2!$U55,Base!55:55,0)+2),1),INDEX(Base!55:55,0,MATCH(Planilha2!$U55,Base!55:55,0)+2))</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="56" spans="2:25" x14ac:dyDescent="0.3">
+        <f t="array" ref="Y55">IF(LEN(INDEX(Base!55:55,0,MATCH(Output!$U55,Base!55:55,0)+2))&gt;2,LEFT(INDEX(Base!55:55,0,MATCH(Output!$U55,Base!55:55,0)+2),1),INDEX(Base!55:55,0,MATCH(Output!$U55,Base!55:55,0)+2))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
       <c r="B56">
         <f>IF(OR(ISNUMBER(FIND(Configurações!$B$4,Base!B56)),ISNUMBER(FIND(Configurações!$B$5,Base!B56)),ISNUMBER(FIND(Configurações!$B$6,Base!B56)),ISNUMBER(FIND(Configurações!$B$7,Base!B56)),ISNUMBER(FIND(Configurações!$B$8,Base!B56)))=TRUE,Base!B56,0)</f>
         <v>0</v>
@@ -10481,7 +10682,7 @@
         <f>IF(TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("IPTU",Base!C56)),ISNUMBER(FIND("iptu",Base!C56)))=TRUE,RIGHT(Base!C56,5),0),"R$",""),"$",""))="0",TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("IPTU",Base!D56)),ISNUMBER(FIND("iptu",Base!D56)))=TRUE,RIGHT(Base!D56,5),0),"R$",""),"$","")),TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("iptu",Base!C56)),ISNUMBER(FIND("IPTU",Base!C56)))=TRUE,RIGHT(Base!C56,5),0),"R$",""),"$","")))</f>
         <v>120</v>
       </c>
-      <c r="F56" s="5" t="str" cm="1">
+      <c r="F56" s="4" t="str" cm="1">
         <f t="array" ref="F56">INDEX(Base!56:56,MATCH(MAX(LEN(Base!56:56)),LEN(Base!56:56),0))</f>
         <v>Apartamento semi mobiliado e com varanda.</v>
       </c>
@@ -10534,23 +10735,27 @@
         <v>Rua Afrânio Peixoto, Centro</v>
       </c>
       <c r="V56" t="str" cm="1">
-        <f t="array" ref="V56">TRIM(SUBSTITUTE(INDEX(Base!56:56,0,MATCH(Planilha2!$U56,Base!56:56,0)+1),"m²",""))</f>
+        <f t="array" ref="V56">TRIM(SUBSTITUTE(INDEX(Base!56:56,0,MATCH(Output!$U56,Base!56:56,0)+1),"m²",""))</f>
         <v>92</v>
       </c>
       <c r="W56" t="str" cm="1">
-        <f t="array" ref="W56">IF(LEN(INDEX(Base!56:56,0,MATCH(Planilha2!$U56,Base!56:56,0)+2))&gt;2,LEFT(INDEX(Base!56:56,0,MATCH(Planilha2!$U56,Base!56:56,0)+2),1),INDEX(Base!56:56,0,MATCH(Planilha2!$U56,Base!56:56,0)+2))</f>
+        <f t="array" ref="W56">IF(LEN(INDEX(Base!56:56,0,MATCH(Output!$U56,Base!56:56,0)+2))&gt;2,LEFT(INDEX(Base!56:56,0,MATCH(Output!$U56,Base!56:56,0)+2),1),INDEX(Base!56:56,0,MATCH(Output!$U56,Base!56:56,0)+2))</f>
         <v>3</v>
       </c>
       <c r="X56" t="str" cm="1">
-        <f t="array" ref="X56">IF(LEN(INDEX(Base!56:56,0,MATCH(Planilha2!$U56,Base!56:56,0)+2))&gt;2,LEFT(INDEX(Base!56:56,0,MATCH(Planilha2!$U56,Base!56:56,0)+2),1),INDEX(Base!56:56,0,MATCH(Planilha2!$U56,Base!56:56,0)+2))</f>
+        <f t="array" ref="X56">IF(LEN(INDEX(Base!56:56,0,MATCH(Output!$U56,Base!56:56,0)+2))&gt;2,LEFT(INDEX(Base!56:56,0,MATCH(Output!$U56,Base!56:56,0)+2),1),INDEX(Base!56:56,0,MATCH(Output!$U56,Base!56:56,0)+2))</f>
         <v>3</v>
       </c>
       <c r="Y56" t="str" cm="1">
-        <f t="array" ref="Y56">IF(LEN(INDEX(Base!56:56,0,MATCH(Planilha2!$U56,Base!56:56,0)+2))&gt;2,LEFT(INDEX(Base!56:56,0,MATCH(Planilha2!$U56,Base!56:56,0)+2),1),INDEX(Base!56:56,0,MATCH(Planilha2!$U56,Base!56:56,0)+2))</f>
+        <f t="array" ref="Y56">IF(LEN(INDEX(Base!56:56,0,MATCH(Output!$U56,Base!56:56,0)+2))&gt;2,LEFT(INDEX(Base!56:56,0,MATCH(Output!$U56,Base!56:56,0)+2),1),INDEX(Base!56:56,0,MATCH(Output!$U56,Base!56:56,0)+2))</f>
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
       <c r="B57">
         <f>IF(OR(ISNUMBER(FIND(Configurações!$B$4,Base!B57)),ISNUMBER(FIND(Configurações!$B$5,Base!B57)),ISNUMBER(FIND(Configurações!$B$6,Base!B57)),ISNUMBER(FIND(Configurações!$B$7,Base!B57)),ISNUMBER(FIND(Configurações!$B$8,Base!B57)))=TRUE,Base!B57,0)</f>
         <v>0</v>
@@ -10567,7 +10772,7 @@
         <f>IF(TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("IPTU",Base!C57)),ISNUMBER(FIND("iptu",Base!C57)))=TRUE,RIGHT(Base!C57,5),0),"R$",""),"$",""))="0",TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("IPTU",Base!D57)),ISNUMBER(FIND("iptu",Base!D57)))=TRUE,RIGHT(Base!D57,5),0),"R$",""),"$","")),TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("iptu",Base!C57)),ISNUMBER(FIND("IPTU",Base!C57)))=TRUE,RIGHT(Base!C57,5),0),"R$",""),"$","")))</f>
         <v>1</v>
       </c>
-      <c r="F57" s="5" t="str" cm="1">
+      <c r="F57" s="4" t="str" cm="1">
         <f t="array" ref="F57">INDEX(Base!57:57,MATCH(MAX(LEN(Base!57:57)),LEN(Base!57:57),0))</f>
         <v>Mais Rossi Parque Iguaçu - Ricardo Lindo apartamento, de 2 quartos com 1 suíte, piso em porcelanato, 1 vaga e totalmente modificado, nunca foi habitado. Tem armários de quarto, coz...</v>
       </c>
@@ -10620,23 +10825,27 @@
         <v>Rua Doutor Barros Júnior, Jardim da Viga</v>
       </c>
       <c r="V57" t="str" cm="1">
-        <f t="array" ref="V57">TRIM(SUBSTITUTE(INDEX(Base!57:57,0,MATCH(Planilha2!$U57,Base!57:57,0)+1),"m²",""))</f>
+        <f t="array" ref="V57">TRIM(SUBSTITUTE(INDEX(Base!57:57,0,MATCH(Output!$U57,Base!57:57,0)+1),"m²",""))</f>
         <v>59</v>
       </c>
       <c r="W57" t="str" cm="1">
-        <f t="array" ref="W57">IF(LEN(INDEX(Base!57:57,0,MATCH(Planilha2!$U57,Base!57:57,0)+2))&gt;2,LEFT(INDEX(Base!57:57,0,MATCH(Planilha2!$U57,Base!57:57,0)+2),1),INDEX(Base!57:57,0,MATCH(Planilha2!$U57,Base!57:57,0)+2))</f>
+        <f t="array" ref="W57">IF(LEN(INDEX(Base!57:57,0,MATCH(Output!$U57,Base!57:57,0)+2))&gt;2,LEFT(INDEX(Base!57:57,0,MATCH(Output!$U57,Base!57:57,0)+2),1),INDEX(Base!57:57,0,MATCH(Output!$U57,Base!57:57,0)+2))</f>
         <v>2</v>
       </c>
       <c r="X57" t="str" cm="1">
-        <f t="array" ref="X57">IF(LEN(INDEX(Base!57:57,0,MATCH(Planilha2!$U57,Base!57:57,0)+2))&gt;2,LEFT(INDEX(Base!57:57,0,MATCH(Planilha2!$U57,Base!57:57,0)+2),1),INDEX(Base!57:57,0,MATCH(Planilha2!$U57,Base!57:57,0)+2))</f>
+        <f t="array" ref="X57">IF(LEN(INDEX(Base!57:57,0,MATCH(Output!$U57,Base!57:57,0)+2))&gt;2,LEFT(INDEX(Base!57:57,0,MATCH(Output!$U57,Base!57:57,0)+2),1),INDEX(Base!57:57,0,MATCH(Output!$U57,Base!57:57,0)+2))</f>
         <v>2</v>
       </c>
       <c r="Y57" t="str" cm="1">
-        <f t="array" ref="Y57">IF(LEN(INDEX(Base!57:57,0,MATCH(Planilha2!$U57,Base!57:57,0)+2))&gt;2,LEFT(INDEX(Base!57:57,0,MATCH(Planilha2!$U57,Base!57:57,0)+2),1),INDEX(Base!57:57,0,MATCH(Planilha2!$U57,Base!57:57,0)+2))</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="58" spans="2:25" x14ac:dyDescent="0.3">
+        <f t="array" ref="Y57">IF(LEN(INDEX(Base!57:57,0,MATCH(Output!$U57,Base!57:57,0)+2))&gt;2,LEFT(INDEX(Base!57:57,0,MATCH(Output!$U57,Base!57:57,0)+2),1),INDEX(Base!57:57,0,MATCH(Output!$U57,Base!57:57,0)+2))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
       <c r="B58" t="str">
         <f>IF(OR(ISNUMBER(FIND(Configurações!$B$4,Base!B58)),ISNUMBER(FIND(Configurações!$B$5,Base!B58)),ISNUMBER(FIND(Configurações!$B$6,Base!B58)),ISNUMBER(FIND(Configurações!$B$7,Base!B58)),ISNUMBER(FIND(Configurações!$B$8,Base!B58)))=TRUE,Base!B58,0)</f>
         <v>destaque</v>
@@ -10653,7 +10862,7 @@
         <f>IF(TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("IPTU",Base!C58)),ISNUMBER(FIND("iptu",Base!C58)))=TRUE,RIGHT(Base!C58,5),0),"R$",""),"$",""))="0",TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("IPTU",Base!D58)),ISNUMBER(FIND("iptu",Base!D58)))=TRUE,RIGHT(Base!D58,5),0),"R$",""),"$","")),TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("iptu",Base!C58)),ISNUMBER(FIND("IPTU",Base!C58)))=TRUE,RIGHT(Base!C58,5),0),"R$",""),"$","")))</f>
         <v>110</v>
       </c>
-      <c r="F58" s="5" t="str" cm="1">
+      <c r="F58" s="4" t="str" cm="1">
         <f t="array" ref="F58">INDEX(Base!58:58,MATCH(MAX(LEN(Base!58:58)),LEN(Base!58:58),0))</f>
         <v>Venda apartamento 2 quartos Bairro Califórnia Nova Iguaçu, sala ampla 2 ambientes, quartos espaçosos e arejados, cozinha grande, área de serviço, quarto pequeno</v>
       </c>
@@ -10706,23 +10915,27 @@
         <v>Rua Lima Barreto, Califórnia</v>
       </c>
       <c r="V58" t="str" cm="1">
-        <f t="array" ref="V58">TRIM(SUBSTITUTE(INDEX(Base!58:58,0,MATCH(Planilha2!$U58,Base!58:58,0)+1),"m²",""))</f>
+        <f t="array" ref="V58">TRIM(SUBSTITUTE(INDEX(Base!58:58,0,MATCH(Output!$U58,Base!58:58,0)+1),"m²",""))</f>
         <v>90</v>
       </c>
       <c r="W58" t="str" cm="1">
-        <f t="array" ref="W58">IF(LEN(INDEX(Base!58:58,0,MATCH(Planilha2!$U58,Base!58:58,0)+2))&gt;2,LEFT(INDEX(Base!58:58,0,MATCH(Planilha2!$U58,Base!58:58,0)+2),1),INDEX(Base!58:58,0,MATCH(Planilha2!$U58,Base!58:58,0)+2))</f>
+        <f t="array" ref="W58">IF(LEN(INDEX(Base!58:58,0,MATCH(Output!$U58,Base!58:58,0)+2))&gt;2,LEFT(INDEX(Base!58:58,0,MATCH(Output!$U58,Base!58:58,0)+2),1),INDEX(Base!58:58,0,MATCH(Output!$U58,Base!58:58,0)+2))</f>
         <v>2</v>
       </c>
       <c r="X58" t="str" cm="1">
-        <f t="array" ref="X58">IF(LEN(INDEX(Base!58:58,0,MATCH(Planilha2!$U58,Base!58:58,0)+2))&gt;2,LEFT(INDEX(Base!58:58,0,MATCH(Planilha2!$U58,Base!58:58,0)+2),1),INDEX(Base!58:58,0,MATCH(Planilha2!$U58,Base!58:58,0)+2))</f>
+        <f t="array" ref="X58">IF(LEN(INDEX(Base!58:58,0,MATCH(Output!$U58,Base!58:58,0)+2))&gt;2,LEFT(INDEX(Base!58:58,0,MATCH(Output!$U58,Base!58:58,0)+2),1),INDEX(Base!58:58,0,MATCH(Output!$U58,Base!58:58,0)+2))</f>
         <v>2</v>
       </c>
       <c r="Y58" t="str" cm="1">
-        <f t="array" ref="Y58">IF(LEN(INDEX(Base!58:58,0,MATCH(Planilha2!$U58,Base!58:58,0)+2))&gt;2,LEFT(INDEX(Base!58:58,0,MATCH(Planilha2!$U58,Base!58:58,0)+2),1),INDEX(Base!58:58,0,MATCH(Planilha2!$U58,Base!58:58,0)+2))</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="59" spans="2:25" x14ac:dyDescent="0.3">
+        <f t="array" ref="Y58">IF(LEN(INDEX(Base!58:58,0,MATCH(Output!$U58,Base!58:58,0)+2))&gt;2,LEFT(INDEX(Base!58:58,0,MATCH(Output!$U58,Base!58:58,0)+2),1),INDEX(Base!58:58,0,MATCH(Output!$U58,Base!58:58,0)+2))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
       <c r="B59">
         <f>IF(OR(ISNUMBER(FIND(Configurações!$B$4,Base!B59)),ISNUMBER(FIND(Configurações!$B$5,Base!B59)),ISNUMBER(FIND(Configurações!$B$6,Base!B59)),ISNUMBER(FIND(Configurações!$B$7,Base!B59)),ISNUMBER(FIND(Configurações!$B$8,Base!B59)))=TRUE,Base!B59,0)</f>
         <v>0</v>
@@ -10739,7 +10952,7 @@
         <f>IF(TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("IPTU",Base!C59)),ISNUMBER(FIND("iptu",Base!C59)))=TRUE,RIGHT(Base!C59,5),0),"R$",""),"$",""))="0",TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("IPTU",Base!D59)),ISNUMBER(FIND("iptu",Base!D59)))=TRUE,RIGHT(Base!D59,5),0),"R$",""),"$","")),TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("iptu",Base!C59)),ISNUMBER(FIND("IPTU",Base!C59)))=TRUE,RIGHT(Base!C59,5),0),"R$",""),"$","")))</f>
         <v>0</v>
       </c>
-      <c r="F59" s="5" t="str" cm="1">
+      <c r="F59" s="4" t="str" cm="1">
         <f t="array" ref="F59">INDEX(Base!59:59,MATCH(MAX(LEN(Base!59:59)),LEN(Base!59:59),0))</f>
         <v>A casa no bairro Jardim Esplanada, com 180 metros quadrados com 3 quartos e 2 banheiros, sala, area de serviço, casa precisando de reforma e só pode ser vendida á vista, fica local...</v>
       </c>
@@ -10792,23 +11005,27 @@
         <v>Rua Newton Gonçalves Barros, Rancho Novo</v>
       </c>
       <c r="V59" t="str" cm="1">
-        <f t="array" ref="V59">TRIM(SUBSTITUTE(INDEX(Base!59:59,0,MATCH(Planilha2!$U59,Base!59:59,0)+1),"m²",""))</f>
+        <f t="array" ref="V59">TRIM(SUBSTITUTE(INDEX(Base!59:59,0,MATCH(Output!$U59,Base!59:59,0)+1),"m²",""))</f>
         <v>180</v>
       </c>
       <c r="W59" t="str" cm="1">
-        <f t="array" ref="W59">IF(LEN(INDEX(Base!59:59,0,MATCH(Planilha2!$U59,Base!59:59,0)+2))&gt;2,LEFT(INDEX(Base!59:59,0,MATCH(Planilha2!$U59,Base!59:59,0)+2),1),INDEX(Base!59:59,0,MATCH(Planilha2!$U59,Base!59:59,0)+2))</f>
+        <f t="array" ref="W59">IF(LEN(INDEX(Base!59:59,0,MATCH(Output!$U59,Base!59:59,0)+2))&gt;2,LEFT(INDEX(Base!59:59,0,MATCH(Output!$U59,Base!59:59,0)+2),1),INDEX(Base!59:59,0,MATCH(Output!$U59,Base!59:59,0)+2))</f>
         <v>3</v>
       </c>
       <c r="X59" t="str" cm="1">
-        <f t="array" ref="X59">IF(LEN(INDEX(Base!59:59,0,MATCH(Planilha2!$U59,Base!59:59,0)+2))&gt;2,LEFT(INDEX(Base!59:59,0,MATCH(Planilha2!$U59,Base!59:59,0)+2),1),INDEX(Base!59:59,0,MATCH(Planilha2!$U59,Base!59:59,0)+2))</f>
+        <f t="array" ref="X59">IF(LEN(INDEX(Base!59:59,0,MATCH(Output!$U59,Base!59:59,0)+2))&gt;2,LEFT(INDEX(Base!59:59,0,MATCH(Output!$U59,Base!59:59,0)+2),1),INDEX(Base!59:59,0,MATCH(Output!$U59,Base!59:59,0)+2))</f>
         <v>3</v>
       </c>
       <c r="Y59" t="str" cm="1">
-        <f t="array" ref="Y59">IF(LEN(INDEX(Base!59:59,0,MATCH(Planilha2!$U59,Base!59:59,0)+2))&gt;2,LEFT(INDEX(Base!59:59,0,MATCH(Planilha2!$U59,Base!59:59,0)+2),1),INDEX(Base!59:59,0,MATCH(Planilha2!$U59,Base!59:59,0)+2))</f>
+        <f t="array" ref="Y59">IF(LEN(INDEX(Base!59:59,0,MATCH(Output!$U59,Base!59:59,0)+2))&gt;2,LEFT(INDEX(Base!59:59,0,MATCH(Output!$U59,Base!59:59,0)+2),1),INDEX(Base!59:59,0,MATCH(Output!$U59,Base!59:59,0)+2))</f>
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
       <c r="B60">
         <f>IF(OR(ISNUMBER(FIND(Configurações!$B$4,Base!B60)),ISNUMBER(FIND(Configurações!$B$5,Base!B60)),ISNUMBER(FIND(Configurações!$B$6,Base!B60)),ISNUMBER(FIND(Configurações!$B$7,Base!B60)),ISNUMBER(FIND(Configurações!$B$8,Base!B60)))=TRUE,Base!B60,0)</f>
         <v>0</v>
@@ -10825,7 +11042,7 @@
         <f>IF(TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("IPTU",Base!C60)),ISNUMBER(FIND("iptu",Base!C60)))=TRUE,RIGHT(Base!C60,5),0),"R$",""),"$",""))="0",TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("IPTU",Base!D60)),ISNUMBER(FIND("iptu",Base!D60)))=TRUE,RIGHT(Base!D60,5),0),"R$",""),"$","")),TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("iptu",Base!C60)),ISNUMBER(FIND("IPTU",Base!C60)))=TRUE,RIGHT(Base!C60,5),0),"R$",""),"$","")))</f>
         <v>0</v>
       </c>
-      <c r="F60" s="5" t="str" cm="1">
+      <c r="F60" s="4" t="str" cm="1">
         <f t="array" ref="F60">INDEX(Base!60:60,MATCH(MAX(LEN(Base!60:60)),LEN(Base!60:60),0))</f>
         <v>Rua Subtenente-Polícia Militar Eloi Alves dos Santos, Miguel Couto</v>
       </c>
@@ -10878,23 +11095,27 @@
         <v>Rua Subtenente-Polícia Militar Eloi Alves dos Santos, Miguel Couto</v>
       </c>
       <c r="V60" t="str" cm="1">
-        <f t="array" ref="V60">TRIM(SUBSTITUTE(INDEX(Base!60:60,0,MATCH(Planilha2!$U60,Base!60:60,0)+1),"m²",""))</f>
+        <f t="array" ref="V60">TRIM(SUBSTITUTE(INDEX(Base!60:60,0,MATCH(Output!$U60,Base!60:60,0)+1),"m²",""))</f>
         <v>115</v>
       </c>
       <c r="W60" t="str" cm="1">
-        <f t="array" ref="W60">IF(LEN(INDEX(Base!60:60,0,MATCH(Planilha2!$U60,Base!60:60,0)+2))&gt;2,LEFT(INDEX(Base!60:60,0,MATCH(Planilha2!$U60,Base!60:60,0)+2),1),INDEX(Base!60:60,0,MATCH(Planilha2!$U60,Base!60:60,0)+2))</f>
+        <f t="array" ref="W60">IF(LEN(INDEX(Base!60:60,0,MATCH(Output!$U60,Base!60:60,0)+2))&gt;2,LEFT(INDEX(Base!60:60,0,MATCH(Output!$U60,Base!60:60,0)+2),1),INDEX(Base!60:60,0,MATCH(Output!$U60,Base!60:60,0)+2))</f>
         <v>4</v>
       </c>
       <c r="X60" t="str" cm="1">
-        <f t="array" ref="X60">IF(LEN(INDEX(Base!60:60,0,MATCH(Planilha2!$U60,Base!60:60,0)+2))&gt;2,LEFT(INDEX(Base!60:60,0,MATCH(Planilha2!$U60,Base!60:60,0)+2),1),INDEX(Base!60:60,0,MATCH(Planilha2!$U60,Base!60:60,0)+2))</f>
+        <f t="array" ref="X60">IF(LEN(INDEX(Base!60:60,0,MATCH(Output!$U60,Base!60:60,0)+2))&gt;2,LEFT(INDEX(Base!60:60,0,MATCH(Output!$U60,Base!60:60,0)+2),1),INDEX(Base!60:60,0,MATCH(Output!$U60,Base!60:60,0)+2))</f>
         <v>4</v>
       </c>
       <c r="Y60" t="str" cm="1">
-        <f t="array" ref="Y60">IF(LEN(INDEX(Base!60:60,0,MATCH(Planilha2!$U60,Base!60:60,0)+2))&gt;2,LEFT(INDEX(Base!60:60,0,MATCH(Planilha2!$U60,Base!60:60,0)+2),1),INDEX(Base!60:60,0,MATCH(Planilha2!$U60,Base!60:60,0)+2))</f>
+        <f t="array" ref="Y60">IF(LEN(INDEX(Base!60:60,0,MATCH(Output!$U60,Base!60:60,0)+2))&gt;2,LEFT(INDEX(Base!60:60,0,MATCH(Output!$U60,Base!60:60,0)+2),1),INDEX(Base!60:60,0,MATCH(Output!$U60,Base!60:60,0)+2))</f>
         <v>4</v>
       </c>
     </row>
-    <row r="61" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
       <c r="B61" t="str">
         <f>IF(OR(ISNUMBER(FIND(Configurações!$B$4,Base!B61)),ISNUMBER(FIND(Configurações!$B$5,Base!B61)),ISNUMBER(FIND(Configurações!$B$6,Base!B61)),ISNUMBER(FIND(Configurações!$B$7,Base!B61)),ISNUMBER(FIND(Configurações!$B$8,Base!B61)))=TRUE,Base!B61,0)</f>
         <v>destaque</v>
@@ -10911,7 +11132,7 @@
         <f>IF(TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("IPTU",Base!C61)),ISNUMBER(FIND("iptu",Base!C61)))=TRUE,RIGHT(Base!C61,5),0),"R$",""),"$",""))="0",TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("IPTU",Base!D61)),ISNUMBER(FIND("iptu",Base!D61)))=TRUE,RIGHT(Base!D61,5),0),"R$",""),"$","")),TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("iptu",Base!C61)),ISNUMBER(FIND("IPTU",Base!C61)))=TRUE,RIGHT(Base!C61,5),0),"R$",""),"$","")))</f>
         <v>0</v>
       </c>
-      <c r="F61" s="5" t="str" cm="1">
+      <c r="F61" s="4" t="str" cm="1">
         <f t="array" ref="F61">INDEX(Base!61:61,MATCH(MAX(LEN(Base!61:61)),LEN(Base!61:61),0))</f>
         <v>O apartamento no bairro Centro com 165 metros quadrados com 4 quartos sendo 2 suites e 3 banheiros</v>
       </c>
@@ -10964,23 +11185,27 @@
         <v>Avenida Doutor Mário Guimarães, Centro</v>
       </c>
       <c r="V61" t="str" cm="1">
-        <f t="array" ref="V61">TRIM(SUBSTITUTE(INDEX(Base!61:61,0,MATCH(Planilha2!$U61,Base!61:61,0)+1),"m²",""))</f>
+        <f t="array" ref="V61">TRIM(SUBSTITUTE(INDEX(Base!61:61,0,MATCH(Output!$U61,Base!61:61,0)+1),"m²",""))</f>
         <v>165</v>
       </c>
       <c r="W61" t="str" cm="1">
-        <f t="array" ref="W61">IF(LEN(INDEX(Base!61:61,0,MATCH(Planilha2!$U61,Base!61:61,0)+2))&gt;2,LEFT(INDEX(Base!61:61,0,MATCH(Planilha2!$U61,Base!61:61,0)+2),1),INDEX(Base!61:61,0,MATCH(Planilha2!$U61,Base!61:61,0)+2))</f>
+        <f t="array" ref="W61">IF(LEN(INDEX(Base!61:61,0,MATCH(Output!$U61,Base!61:61,0)+2))&gt;2,LEFT(INDEX(Base!61:61,0,MATCH(Output!$U61,Base!61:61,0)+2),1),INDEX(Base!61:61,0,MATCH(Output!$U61,Base!61:61,0)+2))</f>
         <v>4</v>
       </c>
       <c r="X61" t="str" cm="1">
-        <f t="array" ref="X61">IF(LEN(INDEX(Base!61:61,0,MATCH(Planilha2!$U61,Base!61:61,0)+2))&gt;2,LEFT(INDEX(Base!61:61,0,MATCH(Planilha2!$U61,Base!61:61,0)+2),1),INDEX(Base!61:61,0,MATCH(Planilha2!$U61,Base!61:61,0)+2))</f>
+        <f t="array" ref="X61">IF(LEN(INDEX(Base!61:61,0,MATCH(Output!$U61,Base!61:61,0)+2))&gt;2,LEFT(INDEX(Base!61:61,0,MATCH(Output!$U61,Base!61:61,0)+2),1),INDEX(Base!61:61,0,MATCH(Output!$U61,Base!61:61,0)+2))</f>
         <v>4</v>
       </c>
       <c r="Y61" t="str" cm="1">
-        <f t="array" ref="Y61">IF(LEN(INDEX(Base!61:61,0,MATCH(Planilha2!$U61,Base!61:61,0)+2))&gt;2,LEFT(INDEX(Base!61:61,0,MATCH(Planilha2!$U61,Base!61:61,0)+2),1),INDEX(Base!61:61,0,MATCH(Planilha2!$U61,Base!61:61,0)+2))</f>
+        <f t="array" ref="Y61">IF(LEN(INDEX(Base!61:61,0,MATCH(Output!$U61,Base!61:61,0)+2))&gt;2,LEFT(INDEX(Base!61:61,0,MATCH(Output!$U61,Base!61:61,0)+2),1),INDEX(Base!61:61,0,MATCH(Output!$U61,Base!61:61,0)+2))</f>
         <v>4</v>
       </c>
     </row>
-    <row r="62" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
       <c r="B62">
         <f>IF(OR(ISNUMBER(FIND(Configurações!$B$4,Base!B62)),ISNUMBER(FIND(Configurações!$B$5,Base!B62)),ISNUMBER(FIND(Configurações!$B$6,Base!B62)),ISNUMBER(FIND(Configurações!$B$7,Base!B62)),ISNUMBER(FIND(Configurações!$B$8,Base!B62)))=TRUE,Base!B62,0)</f>
         <v>0</v>
@@ -10997,7 +11222,7 @@
         <f>IF(TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("IPTU",Base!C62)),ISNUMBER(FIND("iptu",Base!C62)))=TRUE,RIGHT(Base!C62,5),0),"R$",""),"$",""))="0",TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("IPTU",Base!D62)),ISNUMBER(FIND("iptu",Base!D62)))=TRUE,RIGHT(Base!D62,5),0),"R$",""),"$","")),TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("iptu",Base!C62)),ISNUMBER(FIND("IPTU",Base!C62)))=TRUE,RIGHT(Base!C62,5),0),"R$",""),"$","")))</f>
         <v>0</v>
       </c>
-      <c r="F62" s="5" t="str" cm="1">
+      <c r="F62" s="4" t="str" cm="1">
         <f t="array" ref="F62">INDEX(Base!62:62,MATCH(MAX(LEN(Base!62:62)),LEN(Base!62:62),0))</f>
         <v>Unidades com 3 ou 4 dormitórios, uma suíte; salas de estar e jantar, lavabo, banheiro, quintal e duas vagas de garagem! Na planta ou pronto! Financia!</v>
       </c>
@@ -11050,23 +11275,27 @@
         <v>Rua Minas Gerais, Campo Alegre</v>
       </c>
       <c r="V62" t="str" cm="1">
-        <f t="array" ref="V62">TRIM(SUBSTITUTE(INDEX(Base!62:62,0,MATCH(Planilha2!$U62,Base!62:62,0)+1),"m²",""))</f>
+        <f t="array" ref="V62">TRIM(SUBSTITUTE(INDEX(Base!62:62,0,MATCH(Output!$U62,Base!62:62,0)+1),"m²",""))</f>
         <v>107</v>
       </c>
       <c r="W62" t="str" cm="1">
-        <f t="array" ref="W62">IF(LEN(INDEX(Base!62:62,0,MATCH(Planilha2!$U62,Base!62:62,0)+2))&gt;2,LEFT(INDEX(Base!62:62,0,MATCH(Planilha2!$U62,Base!62:62,0)+2),1),INDEX(Base!62:62,0,MATCH(Planilha2!$U62,Base!62:62,0)+2))</f>
+        <f t="array" ref="W62">IF(LEN(INDEX(Base!62:62,0,MATCH(Output!$U62,Base!62:62,0)+2))&gt;2,LEFT(INDEX(Base!62:62,0,MATCH(Output!$U62,Base!62:62,0)+2),1),INDEX(Base!62:62,0,MATCH(Output!$U62,Base!62:62,0)+2))</f>
         <v>3</v>
       </c>
       <c r="X62" t="str" cm="1">
-        <f t="array" ref="X62">IF(LEN(INDEX(Base!62:62,0,MATCH(Planilha2!$U62,Base!62:62,0)+2))&gt;2,LEFT(INDEX(Base!62:62,0,MATCH(Planilha2!$U62,Base!62:62,0)+2),1),INDEX(Base!62:62,0,MATCH(Planilha2!$U62,Base!62:62,0)+2))</f>
+        <f t="array" ref="X62">IF(LEN(INDEX(Base!62:62,0,MATCH(Output!$U62,Base!62:62,0)+2))&gt;2,LEFT(INDEX(Base!62:62,0,MATCH(Output!$U62,Base!62:62,0)+2),1),INDEX(Base!62:62,0,MATCH(Output!$U62,Base!62:62,0)+2))</f>
         <v>3</v>
       </c>
       <c r="Y62" t="str" cm="1">
-        <f t="array" ref="Y62">IF(LEN(INDEX(Base!62:62,0,MATCH(Planilha2!$U62,Base!62:62,0)+2))&gt;2,LEFT(INDEX(Base!62:62,0,MATCH(Planilha2!$U62,Base!62:62,0)+2),1),INDEX(Base!62:62,0,MATCH(Planilha2!$U62,Base!62:62,0)+2))</f>
+        <f t="array" ref="Y62">IF(LEN(INDEX(Base!62:62,0,MATCH(Output!$U62,Base!62:62,0)+2))&gt;2,LEFT(INDEX(Base!62:62,0,MATCH(Output!$U62,Base!62:62,0)+2),1),INDEX(Base!62:62,0,MATCH(Output!$U62,Base!62:62,0)+2))</f>
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
       <c r="B63">
         <f>IF(OR(ISNUMBER(FIND(Configurações!$B$4,Base!B63)),ISNUMBER(FIND(Configurações!$B$5,Base!B63)),ISNUMBER(FIND(Configurações!$B$6,Base!B63)),ISNUMBER(FIND(Configurações!$B$7,Base!B63)),ISNUMBER(FIND(Configurações!$B$8,Base!B63)))=TRUE,Base!B63,0)</f>
         <v>0</v>
@@ -11083,7 +11312,7 @@
         <f>IF(TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("IPTU",Base!C63)),ISNUMBER(FIND("iptu",Base!C63)))=TRUE,RIGHT(Base!C63,5),0),"R$",""),"$",""))="0",TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("IPTU",Base!D63)),ISNUMBER(FIND("iptu",Base!D63)))=TRUE,RIGHT(Base!D63,5),0),"R$",""),"$","")),TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("iptu",Base!C63)),ISNUMBER(FIND("IPTU",Base!C63)))=TRUE,RIGHT(Base!C63,5),0),"R$",""),"$","")))</f>
         <v>1</v>
       </c>
-      <c r="F63" s="5" t="str" cm="1">
+      <c r="F63" s="4" t="str" cm="1">
         <f t="array" ref="F63">INDEX(Base!63:63,MATCH(MAX(LEN(Base!63:63)),LEN(Base!63:63),0))</f>
         <v>Excelente apartamento de 2 quartos, com banheiro social, cozinha com área de serviço e vaga de garagem.</v>
       </c>
@@ -11136,23 +11365,27 @@
         <v>Rua José dos Anjos, Vila Avelina</v>
       </c>
       <c r="V63" t="str" cm="1">
-        <f t="array" ref="V63">TRIM(SUBSTITUTE(INDEX(Base!63:63,0,MATCH(Planilha2!$U63,Base!63:63,0)+1),"m²",""))</f>
+        <f t="array" ref="V63">TRIM(SUBSTITUTE(INDEX(Base!63:63,0,MATCH(Output!$U63,Base!63:63,0)+1),"m²",""))</f>
         <v>55</v>
       </c>
       <c r="W63" t="str" cm="1">
-        <f t="array" ref="W63">IF(LEN(INDEX(Base!63:63,0,MATCH(Planilha2!$U63,Base!63:63,0)+2))&gt;2,LEFT(INDEX(Base!63:63,0,MATCH(Planilha2!$U63,Base!63:63,0)+2),1),INDEX(Base!63:63,0,MATCH(Planilha2!$U63,Base!63:63,0)+2))</f>
+        <f t="array" ref="W63">IF(LEN(INDEX(Base!63:63,0,MATCH(Output!$U63,Base!63:63,0)+2))&gt;2,LEFT(INDEX(Base!63:63,0,MATCH(Output!$U63,Base!63:63,0)+2),1),INDEX(Base!63:63,0,MATCH(Output!$U63,Base!63:63,0)+2))</f>
         <v>2</v>
       </c>
       <c r="X63" t="str" cm="1">
-        <f t="array" ref="X63">IF(LEN(INDEX(Base!63:63,0,MATCH(Planilha2!$U63,Base!63:63,0)+2))&gt;2,LEFT(INDEX(Base!63:63,0,MATCH(Planilha2!$U63,Base!63:63,0)+2),1),INDEX(Base!63:63,0,MATCH(Planilha2!$U63,Base!63:63,0)+2))</f>
+        <f t="array" ref="X63">IF(LEN(INDEX(Base!63:63,0,MATCH(Output!$U63,Base!63:63,0)+2))&gt;2,LEFT(INDEX(Base!63:63,0,MATCH(Output!$U63,Base!63:63,0)+2),1),INDEX(Base!63:63,0,MATCH(Output!$U63,Base!63:63,0)+2))</f>
         <v>2</v>
       </c>
       <c r="Y63" t="str" cm="1">
-        <f t="array" ref="Y63">IF(LEN(INDEX(Base!63:63,0,MATCH(Planilha2!$U63,Base!63:63,0)+2))&gt;2,LEFT(INDEX(Base!63:63,0,MATCH(Planilha2!$U63,Base!63:63,0)+2),1),INDEX(Base!63:63,0,MATCH(Planilha2!$U63,Base!63:63,0)+2))</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="64" spans="2:25" x14ac:dyDescent="0.3">
+        <f t="array" ref="Y63">IF(LEN(INDEX(Base!63:63,0,MATCH(Output!$U63,Base!63:63,0)+2))&gt;2,LEFT(INDEX(Base!63:63,0,MATCH(Output!$U63,Base!63:63,0)+2),1),INDEX(Base!63:63,0,MATCH(Output!$U63,Base!63:63,0)+2))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <f t="shared" si="0"/>
+        <v>62</v>
+      </c>
       <c r="B64">
         <f>IF(OR(ISNUMBER(FIND(Configurações!$B$4,Base!B64)),ISNUMBER(FIND(Configurações!$B$5,Base!B64)),ISNUMBER(FIND(Configurações!$B$6,Base!B64)),ISNUMBER(FIND(Configurações!$B$7,Base!B64)),ISNUMBER(FIND(Configurações!$B$8,Base!B64)))=TRUE,Base!B64,0)</f>
         <v>0</v>
@@ -11169,7 +11402,7 @@
         <f>IF(TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("IPTU",Base!C64)),ISNUMBER(FIND("iptu",Base!C64)))=TRUE,RIGHT(Base!C64,5),0),"R$",""),"$",""))="0",TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("IPTU",Base!D64)),ISNUMBER(FIND("iptu",Base!D64)))=TRUE,RIGHT(Base!D64,5),0),"R$",""),"$","")),TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("iptu",Base!C64)),ISNUMBER(FIND("IPTU",Base!C64)))=TRUE,RIGHT(Base!C64,5),0),"R$",""),"$","")))</f>
         <v>0</v>
       </c>
-      <c r="F64" s="5" t="str" cm="1">
+      <c r="F64" s="4" t="str" cm="1">
         <f t="array" ref="F64">INDEX(Base!64:64,MATCH(MAX(LEN(Base!64:64)),LEN(Base!64:64),0))</f>
         <v>A casa está localizado no bairro Parque Residencial Guadalajara possui 120 metros quadrados com 3 quartos sendo 1 suite e 3 banheiros</v>
       </c>
@@ -11222,23 +11455,27 @@
         <v>Rua Barão do Cerro Azul, Parque Residencial Guadalajara</v>
       </c>
       <c r="V64" t="str" cm="1">
-        <f t="array" ref="V64">TRIM(SUBSTITUTE(INDEX(Base!64:64,0,MATCH(Planilha2!$U64,Base!64:64,0)+1),"m²",""))</f>
+        <f t="array" ref="V64">TRIM(SUBSTITUTE(INDEX(Base!64:64,0,MATCH(Output!$U64,Base!64:64,0)+1),"m²",""))</f>
         <v>120</v>
       </c>
       <c r="W64" t="str" cm="1">
-        <f t="array" ref="W64">IF(LEN(INDEX(Base!64:64,0,MATCH(Planilha2!$U64,Base!64:64,0)+2))&gt;2,LEFT(INDEX(Base!64:64,0,MATCH(Planilha2!$U64,Base!64:64,0)+2),1),INDEX(Base!64:64,0,MATCH(Planilha2!$U64,Base!64:64,0)+2))</f>
+        <f t="array" ref="W64">IF(LEN(INDEX(Base!64:64,0,MATCH(Output!$U64,Base!64:64,0)+2))&gt;2,LEFT(INDEX(Base!64:64,0,MATCH(Output!$U64,Base!64:64,0)+2),1),INDEX(Base!64:64,0,MATCH(Output!$U64,Base!64:64,0)+2))</f>
         <v>3</v>
       </c>
       <c r="X64" t="str" cm="1">
-        <f t="array" ref="X64">IF(LEN(INDEX(Base!64:64,0,MATCH(Planilha2!$U64,Base!64:64,0)+2))&gt;2,LEFT(INDEX(Base!64:64,0,MATCH(Planilha2!$U64,Base!64:64,0)+2),1),INDEX(Base!64:64,0,MATCH(Planilha2!$U64,Base!64:64,0)+2))</f>
+        <f t="array" ref="X64">IF(LEN(INDEX(Base!64:64,0,MATCH(Output!$U64,Base!64:64,0)+2))&gt;2,LEFT(INDEX(Base!64:64,0,MATCH(Output!$U64,Base!64:64,0)+2),1),INDEX(Base!64:64,0,MATCH(Output!$U64,Base!64:64,0)+2))</f>
         <v>3</v>
       </c>
       <c r="Y64" t="str" cm="1">
-        <f t="array" ref="Y64">IF(LEN(INDEX(Base!64:64,0,MATCH(Planilha2!$U64,Base!64:64,0)+2))&gt;2,LEFT(INDEX(Base!64:64,0,MATCH(Planilha2!$U64,Base!64:64,0)+2),1),INDEX(Base!64:64,0,MATCH(Planilha2!$U64,Base!64:64,0)+2))</f>
+        <f t="array" ref="Y64">IF(LEN(INDEX(Base!64:64,0,MATCH(Output!$U64,Base!64:64,0)+2))&gt;2,LEFT(INDEX(Base!64:64,0,MATCH(Output!$U64,Base!64:64,0)+2),1),INDEX(Base!64:64,0,MATCH(Output!$U64,Base!64:64,0)+2))</f>
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <f t="shared" si="0"/>
+        <v>63</v>
+      </c>
       <c r="B65">
         <f>IF(OR(ISNUMBER(FIND(Configurações!$B$4,Base!B65)),ISNUMBER(FIND(Configurações!$B$5,Base!B65)),ISNUMBER(FIND(Configurações!$B$6,Base!B65)),ISNUMBER(FIND(Configurações!$B$7,Base!B65)),ISNUMBER(FIND(Configurações!$B$8,Base!B65)))=TRUE,Base!B65,0)</f>
         <v>0</v>
@@ -11255,7 +11492,7 @@
         <f>IF(TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("IPTU",Base!C65)),ISNUMBER(FIND("iptu",Base!C65)))=TRUE,RIGHT(Base!C65,5),0),"R$",""),"$",""))="0",TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("IPTU",Base!D65)),ISNUMBER(FIND("iptu",Base!D65)))=TRUE,RIGHT(Base!D65,5),0),"R$",""),"$","")),TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("iptu",Base!C65)),ISNUMBER(FIND("IPTU",Base!C65)))=TRUE,RIGHT(Base!C65,5),0),"R$",""),"$","")))</f>
         <v>90</v>
       </c>
-      <c r="F65" s="5" t="str" cm="1">
+      <c r="F65" s="4" t="str" cm="1">
         <f t="array" ref="F65">INDEX(Base!65:65,MATCH(MAX(LEN(Base!65:65)),LEN(Base!65:65),0))</f>
         <v>Excelente casa de 2 quartos com amplo comercio na proximidade, a casa dispoe de varanda, área de serviço, garagem e terraço. Rua totalemnte residencial. - - Móveis Planejados - Áre...</v>
       </c>
@@ -11308,23 +11545,27 @@
         <v>Rua Escorpião, Engenho Pequeno</v>
       </c>
       <c r="V65" t="str" cm="1">
-        <f t="array" ref="V65">TRIM(SUBSTITUTE(INDEX(Base!65:65,0,MATCH(Planilha2!$U65,Base!65:65,0)+1),"m²",""))</f>
+        <f t="array" ref="V65">TRIM(SUBSTITUTE(INDEX(Base!65:65,0,MATCH(Output!$U65,Base!65:65,0)+1),"m²",""))</f>
         <v>83</v>
       </c>
       <c r="W65" t="str" cm="1">
-        <f t="array" ref="W65">IF(LEN(INDEX(Base!65:65,0,MATCH(Planilha2!$U65,Base!65:65,0)+2))&gt;2,LEFT(INDEX(Base!65:65,0,MATCH(Planilha2!$U65,Base!65:65,0)+2),1),INDEX(Base!65:65,0,MATCH(Planilha2!$U65,Base!65:65,0)+2))</f>
+        <f t="array" ref="W65">IF(LEN(INDEX(Base!65:65,0,MATCH(Output!$U65,Base!65:65,0)+2))&gt;2,LEFT(INDEX(Base!65:65,0,MATCH(Output!$U65,Base!65:65,0)+2),1),INDEX(Base!65:65,0,MATCH(Output!$U65,Base!65:65,0)+2))</f>
         <v>2</v>
       </c>
       <c r="X65" t="str" cm="1">
-        <f t="array" ref="X65">IF(LEN(INDEX(Base!65:65,0,MATCH(Planilha2!$U65,Base!65:65,0)+2))&gt;2,LEFT(INDEX(Base!65:65,0,MATCH(Planilha2!$U65,Base!65:65,0)+2),1),INDEX(Base!65:65,0,MATCH(Planilha2!$U65,Base!65:65,0)+2))</f>
+        <f t="array" ref="X65">IF(LEN(INDEX(Base!65:65,0,MATCH(Output!$U65,Base!65:65,0)+2))&gt;2,LEFT(INDEX(Base!65:65,0,MATCH(Output!$U65,Base!65:65,0)+2),1),INDEX(Base!65:65,0,MATCH(Output!$U65,Base!65:65,0)+2))</f>
         <v>2</v>
       </c>
       <c r="Y65" t="str" cm="1">
-        <f t="array" ref="Y65">IF(LEN(INDEX(Base!65:65,0,MATCH(Planilha2!$U65,Base!65:65,0)+2))&gt;2,LEFT(INDEX(Base!65:65,0,MATCH(Planilha2!$U65,Base!65:65,0)+2),1),INDEX(Base!65:65,0,MATCH(Planilha2!$U65,Base!65:65,0)+2))</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.3">
+        <f t="array" ref="Y65">IF(LEN(INDEX(Base!65:65,0,MATCH(Output!$U65,Base!65:65,0)+2))&gt;2,LEFT(INDEX(Base!65:65,0,MATCH(Output!$U65,Base!65:65,0)+2),1),INDEX(Base!65:65,0,MATCH(Output!$U65,Base!65:65,0)+2))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
       <c r="B66">
         <f>IF(OR(ISNUMBER(FIND(Configurações!$B$4,Base!B66)),ISNUMBER(FIND(Configurações!$B$5,Base!B66)),ISNUMBER(FIND(Configurações!$B$6,Base!B66)),ISNUMBER(FIND(Configurações!$B$7,Base!B66)),ISNUMBER(FIND(Configurações!$B$8,Base!B66)))=TRUE,Base!B66,0)</f>
         <v>0</v>
@@ -11341,7 +11582,7 @@
         <f>IF(TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("IPTU",Base!C66)),ISNUMBER(FIND("iptu",Base!C66)))=TRUE,RIGHT(Base!C66,5),0),"R$",""),"$",""))="0",TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("IPTU",Base!D66)),ISNUMBER(FIND("iptu",Base!D66)))=TRUE,RIGHT(Base!D66,5),0),"R$",""),"$","")),TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("iptu",Base!C66)),ISNUMBER(FIND("IPTU",Base!C66)))=TRUE,RIGHT(Base!C66,5),0),"R$",""),"$","")))</f>
         <v>0</v>
       </c>
-      <c r="F66" s="5" t="str" cm="1">
+      <c r="F66" s="4" t="str" cm="1">
         <f t="array" ref="F66">INDEX(Base!66:66,MATCH(MAX(LEN(Base!66:66)),LEN(Base!66:66),0))</f>
         <v>Valverde - Nova Iguaçu casa com 120 metros, sendo 61 metros construidos, 2 vagas de garagem, 2 quartos 1 suite, primeiro andar acabado com alvenaria pronta, segundo andar local dos...</v>
       </c>
@@ -11394,23 +11635,27 @@
         <v>Rua Colorado, Valverde</v>
       </c>
       <c r="V66" t="str" cm="1">
-        <f t="array" ref="V66">TRIM(SUBSTITUTE(INDEX(Base!66:66,0,MATCH(Planilha2!$U66,Base!66:66,0)+1),"m²",""))</f>
+        <f t="array" ref="V66">TRIM(SUBSTITUTE(INDEX(Base!66:66,0,MATCH(Output!$U66,Base!66:66,0)+1),"m²",""))</f>
         <v>120</v>
       </c>
       <c r="W66" t="str" cm="1">
-        <f t="array" ref="W66">IF(LEN(INDEX(Base!66:66,0,MATCH(Planilha2!$U66,Base!66:66,0)+2))&gt;2,LEFT(INDEX(Base!66:66,0,MATCH(Planilha2!$U66,Base!66:66,0)+2),1),INDEX(Base!66:66,0,MATCH(Planilha2!$U66,Base!66:66,0)+2))</f>
+        <f t="array" ref="W66">IF(LEN(INDEX(Base!66:66,0,MATCH(Output!$U66,Base!66:66,0)+2))&gt;2,LEFT(INDEX(Base!66:66,0,MATCH(Output!$U66,Base!66:66,0)+2),1),INDEX(Base!66:66,0,MATCH(Output!$U66,Base!66:66,0)+2))</f>
         <v>2</v>
       </c>
       <c r="X66" t="str" cm="1">
-        <f t="array" ref="X66">IF(LEN(INDEX(Base!66:66,0,MATCH(Planilha2!$U66,Base!66:66,0)+2))&gt;2,LEFT(INDEX(Base!66:66,0,MATCH(Planilha2!$U66,Base!66:66,0)+2),1),INDEX(Base!66:66,0,MATCH(Planilha2!$U66,Base!66:66,0)+2))</f>
+        <f t="array" ref="X66">IF(LEN(INDEX(Base!66:66,0,MATCH(Output!$U66,Base!66:66,0)+2))&gt;2,LEFT(INDEX(Base!66:66,0,MATCH(Output!$U66,Base!66:66,0)+2),1),INDEX(Base!66:66,0,MATCH(Output!$U66,Base!66:66,0)+2))</f>
         <v>2</v>
       </c>
       <c r="Y66" t="str" cm="1">
-        <f t="array" ref="Y66">IF(LEN(INDEX(Base!66:66,0,MATCH(Planilha2!$U66,Base!66:66,0)+2))&gt;2,LEFT(INDEX(Base!66:66,0,MATCH(Planilha2!$U66,Base!66:66,0)+2),1),INDEX(Base!66:66,0,MATCH(Planilha2!$U66,Base!66:66,0)+2))</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.3">
+        <f t="array" ref="Y66">IF(LEN(INDEX(Base!66:66,0,MATCH(Output!$U66,Base!66:66,0)+2))&gt;2,LEFT(INDEX(Base!66:66,0,MATCH(Output!$U66,Base!66:66,0)+2),1),INDEX(Base!66:66,0,MATCH(Output!$U66,Base!66:66,0)+2))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
       <c r="B67">
         <f>IF(OR(ISNUMBER(FIND(Configurações!$B$4,Base!B67)),ISNUMBER(FIND(Configurações!$B$5,Base!B67)),ISNUMBER(FIND(Configurações!$B$6,Base!B67)),ISNUMBER(FIND(Configurações!$B$7,Base!B67)),ISNUMBER(FIND(Configurações!$B$8,Base!B67)))=TRUE,Base!B67,0)</f>
         <v>0</v>
@@ -11427,7 +11672,7 @@
         <f>IF(TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("IPTU",Base!C67)),ISNUMBER(FIND("iptu",Base!C67)))=TRUE,RIGHT(Base!C67,5),0),"R$",""),"$",""))="0",TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("IPTU",Base!D67)),ISNUMBER(FIND("iptu",Base!D67)))=TRUE,RIGHT(Base!D67,5),0),"R$",""),"$","")),TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("iptu",Base!C67)),ISNUMBER(FIND("IPTU",Base!C67)))=TRUE,RIGHT(Base!C67,5),0),"R$",""),"$","")))</f>
         <v>0</v>
       </c>
-      <c r="F67" s="5" t="str" cm="1">
+      <c r="F67" s="4" t="str" cm="1">
         <f t="array" ref="F67">INDEX(Base!67:67,MATCH(MAX(LEN(Base!67:67)),LEN(Base!67:67),0))</f>
         <v>Linda casa duplex independente, 2 quartos suítes, lavabo, cozinha , sala, área de serviço, 2 vagas de garagem coberta, portão eletrônico e churrasqueira</v>
       </c>
@@ -11480,23 +11725,27 @@
         <v>Rua Freitas Braga, Engenho Pequeno</v>
       </c>
       <c r="V67" t="str" cm="1">
-        <f t="array" ref="V67">TRIM(SUBSTITUTE(INDEX(Base!67:67,0,MATCH(Planilha2!$U67,Base!67:67,0)+1),"m²",""))</f>
+        <f t="array" ref="V67">TRIM(SUBSTITUTE(INDEX(Base!67:67,0,MATCH(Output!$U67,Base!67:67,0)+1),"m²",""))</f>
         <v>70</v>
       </c>
       <c r="W67" t="str" cm="1">
-        <f t="array" ref="W67">IF(LEN(INDEX(Base!67:67,0,MATCH(Planilha2!$U67,Base!67:67,0)+2))&gt;2,LEFT(INDEX(Base!67:67,0,MATCH(Planilha2!$U67,Base!67:67,0)+2),1),INDEX(Base!67:67,0,MATCH(Planilha2!$U67,Base!67:67,0)+2))</f>
+        <f t="array" ref="W67">IF(LEN(INDEX(Base!67:67,0,MATCH(Output!$U67,Base!67:67,0)+2))&gt;2,LEFT(INDEX(Base!67:67,0,MATCH(Output!$U67,Base!67:67,0)+2),1),INDEX(Base!67:67,0,MATCH(Output!$U67,Base!67:67,0)+2))</f>
         <v>2</v>
       </c>
       <c r="X67" t="str" cm="1">
-        <f t="array" ref="X67">IF(LEN(INDEX(Base!67:67,0,MATCH(Planilha2!$U67,Base!67:67,0)+2))&gt;2,LEFT(INDEX(Base!67:67,0,MATCH(Planilha2!$U67,Base!67:67,0)+2),1),INDEX(Base!67:67,0,MATCH(Planilha2!$U67,Base!67:67,0)+2))</f>
+        <f t="array" ref="X67">IF(LEN(INDEX(Base!67:67,0,MATCH(Output!$U67,Base!67:67,0)+2))&gt;2,LEFT(INDEX(Base!67:67,0,MATCH(Output!$U67,Base!67:67,0)+2),1),INDEX(Base!67:67,0,MATCH(Output!$U67,Base!67:67,0)+2))</f>
         <v>2</v>
       </c>
       <c r="Y67" t="str" cm="1">
-        <f t="array" ref="Y67">IF(LEN(INDEX(Base!67:67,0,MATCH(Planilha2!$U67,Base!67:67,0)+2))&gt;2,LEFT(INDEX(Base!67:67,0,MATCH(Planilha2!$U67,Base!67:67,0)+2),1),INDEX(Base!67:67,0,MATCH(Planilha2!$U67,Base!67:67,0)+2))</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.3">
+        <f t="array" ref="Y67">IF(LEN(INDEX(Base!67:67,0,MATCH(Output!$U67,Base!67:67,0)+2))&gt;2,LEFT(INDEX(Base!67:67,0,MATCH(Output!$U67,Base!67:67,0)+2),1),INDEX(Base!67:67,0,MATCH(Output!$U67,Base!67:67,0)+2))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <f t="shared" si="0"/>
+        <v>66</v>
+      </c>
       <c r="B68">
         <f>IF(OR(ISNUMBER(FIND(Configurações!$B$4,Base!B68)),ISNUMBER(FIND(Configurações!$B$5,Base!B68)),ISNUMBER(FIND(Configurações!$B$6,Base!B68)),ISNUMBER(FIND(Configurações!$B$7,Base!B68)),ISNUMBER(FIND(Configurações!$B$8,Base!B68)))=TRUE,Base!B68,0)</f>
         <v>0</v>
@@ -11513,7 +11762,7 @@
         <f>IF(TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("IPTU",Base!C68)),ISNUMBER(FIND("iptu",Base!C68)))=TRUE,RIGHT(Base!C68,5),0),"R$",""),"$",""))="0",TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("IPTU",Base!D68)),ISNUMBER(FIND("iptu",Base!D68)))=TRUE,RIGHT(Base!D68,5),0),"R$",""),"$","")),TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("iptu",Base!C68)),ISNUMBER(FIND("IPTU",Base!C68)))=TRUE,RIGHT(Base!C68,5),0),"R$",""),"$","")))</f>
         <v>0</v>
       </c>
-      <c r="F68" s="5" t="str" cm="1">
+      <c r="F68" s="4" t="str" cm="1">
         <f t="array" ref="F68">INDEX(Base!68:68,MATCH(MAX(LEN(Base!68:68)),LEN(Base!68:68),0))</f>
         <v>Com um acabamento único essa casa ganha destaque por suas duas suítes que tornam o imóvel ainda mais confortável. Sua área de garagem oferece espaço amplo para até 3 carros, dando...</v>
       </c>
@@ -11566,23 +11815,27 @@
         <v>Rua Irmãos Maurício, Caonze</v>
       </c>
       <c r="V68" t="str" cm="1">
-        <f t="array" ref="V68">TRIM(SUBSTITUTE(INDEX(Base!68:68,0,MATCH(Planilha2!$U68,Base!68:68,0)+1),"m²",""))</f>
+        <f t="array" ref="V68">TRIM(SUBSTITUTE(INDEX(Base!68:68,0,MATCH(Output!$U68,Base!68:68,0)+1),"m²",""))</f>
         <v>121</v>
       </c>
       <c r="W68" t="str" cm="1">
-        <f t="array" ref="W68">IF(LEN(INDEX(Base!68:68,0,MATCH(Planilha2!$U68,Base!68:68,0)+2))&gt;2,LEFT(INDEX(Base!68:68,0,MATCH(Planilha2!$U68,Base!68:68,0)+2),1),INDEX(Base!68:68,0,MATCH(Planilha2!$U68,Base!68:68,0)+2))</f>
+        <f t="array" ref="W68">IF(LEN(INDEX(Base!68:68,0,MATCH(Output!$U68,Base!68:68,0)+2))&gt;2,LEFT(INDEX(Base!68:68,0,MATCH(Output!$U68,Base!68:68,0)+2),1),INDEX(Base!68:68,0,MATCH(Output!$U68,Base!68:68,0)+2))</f>
         <v>2</v>
       </c>
       <c r="X68" t="str" cm="1">
-        <f t="array" ref="X68">IF(LEN(INDEX(Base!68:68,0,MATCH(Planilha2!$U68,Base!68:68,0)+2))&gt;2,LEFT(INDEX(Base!68:68,0,MATCH(Planilha2!$U68,Base!68:68,0)+2),1),INDEX(Base!68:68,0,MATCH(Planilha2!$U68,Base!68:68,0)+2))</f>
+        <f t="array" ref="X68">IF(LEN(INDEX(Base!68:68,0,MATCH(Output!$U68,Base!68:68,0)+2))&gt;2,LEFT(INDEX(Base!68:68,0,MATCH(Output!$U68,Base!68:68,0)+2),1),INDEX(Base!68:68,0,MATCH(Output!$U68,Base!68:68,0)+2))</f>
         <v>2</v>
       </c>
       <c r="Y68" t="str" cm="1">
-        <f t="array" ref="Y68">IF(LEN(INDEX(Base!68:68,0,MATCH(Planilha2!$U68,Base!68:68,0)+2))&gt;2,LEFT(INDEX(Base!68:68,0,MATCH(Planilha2!$U68,Base!68:68,0)+2),1),INDEX(Base!68:68,0,MATCH(Planilha2!$U68,Base!68:68,0)+2))</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.3">
+        <f t="array" ref="Y68">IF(LEN(INDEX(Base!68:68,0,MATCH(Output!$U68,Base!68:68,0)+2))&gt;2,LEFT(INDEX(Base!68:68,0,MATCH(Output!$U68,Base!68:68,0)+2),1),INDEX(Base!68:68,0,MATCH(Output!$U68,Base!68:68,0)+2))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <f t="shared" si="0"/>
+        <v>67</v>
+      </c>
       <c r="B69">
         <f>IF(OR(ISNUMBER(FIND(Configurações!$B$4,Base!B69)),ISNUMBER(FIND(Configurações!$B$5,Base!B69)),ISNUMBER(FIND(Configurações!$B$6,Base!B69)),ISNUMBER(FIND(Configurações!$B$7,Base!B69)),ISNUMBER(FIND(Configurações!$B$8,Base!B69)))=TRUE,Base!B69,0)</f>
         <v>0</v>
@@ -11599,7 +11852,7 @@
         <f>IF(TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("IPTU",Base!C69)),ISNUMBER(FIND("iptu",Base!C69)))=TRUE,RIGHT(Base!C69,5),0),"R$",""),"$",""))="0",TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("IPTU",Base!D69)),ISNUMBER(FIND("iptu",Base!D69)))=TRUE,RIGHT(Base!D69,5),0),"R$",""),"$","")),TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("iptu",Base!C69)),ISNUMBER(FIND("IPTU",Base!C69)))=TRUE,RIGHT(Base!C69,5),0),"R$",""),"$","")))</f>
         <v>0</v>
       </c>
-      <c r="F69" s="5" t="str" cm="1">
+      <c r="F69" s="4" t="str" cm="1">
         <f t="array" ref="F69">INDEX(Base!69:69,MATCH(MAX(LEN(Base!69:69)),LEN(Base!69:69),0))</f>
         <v>Aurea Residencial no Califórnia, bairro quot;coladinhoquot; ao centro de Nova Iguaçu. Apartamentos com 2 e 3 quartos. Todos com uma suíte, sacada e uma vaga de garagem. No condomín...</v>
       </c>
@@ -11652,23 +11905,27 @@
         <v>Rua Áurea Fonseca de Jesus, Califórnia</v>
       </c>
       <c r="V69" t="str" cm="1">
-        <f t="array" ref="V69">TRIM(SUBSTITUTE(INDEX(Base!69:69,0,MATCH(Planilha2!$U69,Base!69:69,0)+1),"m²",""))</f>
+        <f t="array" ref="V69">TRIM(SUBSTITUTE(INDEX(Base!69:69,0,MATCH(Output!$U69,Base!69:69,0)+1),"m²",""))</f>
         <v>52</v>
       </c>
       <c r="W69" t="str" cm="1">
-        <f t="array" ref="W69">IF(LEN(INDEX(Base!69:69,0,MATCH(Planilha2!$U69,Base!69:69,0)+2))&gt;2,LEFT(INDEX(Base!69:69,0,MATCH(Planilha2!$U69,Base!69:69,0)+2),1),INDEX(Base!69:69,0,MATCH(Planilha2!$U69,Base!69:69,0)+2))</f>
+        <f t="array" ref="W69">IF(LEN(INDEX(Base!69:69,0,MATCH(Output!$U69,Base!69:69,0)+2))&gt;2,LEFT(INDEX(Base!69:69,0,MATCH(Output!$U69,Base!69:69,0)+2),1),INDEX(Base!69:69,0,MATCH(Output!$U69,Base!69:69,0)+2))</f>
         <v>2</v>
       </c>
       <c r="X69" t="str" cm="1">
-        <f t="array" ref="X69">IF(LEN(INDEX(Base!69:69,0,MATCH(Planilha2!$U69,Base!69:69,0)+2))&gt;2,LEFT(INDEX(Base!69:69,0,MATCH(Planilha2!$U69,Base!69:69,0)+2),1),INDEX(Base!69:69,0,MATCH(Planilha2!$U69,Base!69:69,0)+2))</f>
+        <f t="array" ref="X69">IF(LEN(INDEX(Base!69:69,0,MATCH(Output!$U69,Base!69:69,0)+2))&gt;2,LEFT(INDEX(Base!69:69,0,MATCH(Output!$U69,Base!69:69,0)+2),1),INDEX(Base!69:69,0,MATCH(Output!$U69,Base!69:69,0)+2))</f>
         <v>2</v>
       </c>
       <c r="Y69" t="str" cm="1">
-        <f t="array" ref="Y69">IF(LEN(INDEX(Base!69:69,0,MATCH(Planilha2!$U69,Base!69:69,0)+2))&gt;2,LEFT(INDEX(Base!69:69,0,MATCH(Planilha2!$U69,Base!69:69,0)+2),1),INDEX(Base!69:69,0,MATCH(Planilha2!$U69,Base!69:69,0)+2))</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.3">
+        <f t="array" ref="Y69">IF(LEN(INDEX(Base!69:69,0,MATCH(Output!$U69,Base!69:69,0)+2))&gt;2,LEFT(INDEX(Base!69:69,0,MATCH(Output!$U69,Base!69:69,0)+2),1),INDEX(Base!69:69,0,MATCH(Output!$U69,Base!69:69,0)+2))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <f t="shared" si="0"/>
+        <v>68</v>
+      </c>
       <c r="B70">
         <f>IF(OR(ISNUMBER(FIND(Configurações!$B$4,Base!B70)),ISNUMBER(FIND(Configurações!$B$5,Base!B70)),ISNUMBER(FIND(Configurações!$B$6,Base!B70)),ISNUMBER(FIND(Configurações!$B$7,Base!B70)),ISNUMBER(FIND(Configurações!$B$8,Base!B70)))=TRUE,Base!B70,0)</f>
         <v>0</v>
@@ -11685,7 +11942,7 @@
         <f>IF(TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("IPTU",Base!C70)),ISNUMBER(FIND("iptu",Base!C70)))=TRUE,RIGHT(Base!C70,5),0),"R$",""),"$",""))="0",TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("IPTU",Base!D70)),ISNUMBER(FIND("iptu",Base!D70)))=TRUE,RIGHT(Base!D70,5),0),"R$",""),"$","")),TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("iptu",Base!C70)),ISNUMBER(FIND("IPTU",Base!C70)))=TRUE,RIGHT(Base!C70,5),0),"R$",""),"$","")))</f>
         <v>0</v>
       </c>
-      <c r="F70" s="5" t="str" cm="1">
+      <c r="F70" s="4" t="str" cm="1">
         <f t="array" ref="F70">INDEX(Base!70:70,MATCH(MAX(LEN(Base!70:70)),LEN(Base!70:70),0))</f>
         <v>Unidades prontas para morar! A partir de 66 m², com 2 ou 3 dormitórios, sendo uma suíte! Condomínio com área de lazer contendo piscinas adulto, com raia, e infantil; sala de muscul...</v>
       </c>
@@ -11738,23 +11995,27 @@
         <v>Rua Luís de Camões, Alvarez</v>
       </c>
       <c r="V70" t="str" cm="1">
-        <f t="array" ref="V70">TRIM(SUBSTITUTE(INDEX(Base!70:70,0,MATCH(Planilha2!$U70,Base!70:70,0)+1),"m²",""))</f>
+        <f t="array" ref="V70">TRIM(SUBSTITUTE(INDEX(Base!70:70,0,MATCH(Output!$U70,Base!70:70,0)+1),"m²",""))</f>
         <v>66</v>
       </c>
       <c r="W70" t="str" cm="1">
-        <f t="array" ref="W70">IF(LEN(INDEX(Base!70:70,0,MATCH(Planilha2!$U70,Base!70:70,0)+2))&gt;2,LEFT(INDEX(Base!70:70,0,MATCH(Planilha2!$U70,Base!70:70,0)+2),1),INDEX(Base!70:70,0,MATCH(Planilha2!$U70,Base!70:70,0)+2))</f>
+        <f t="array" ref="W70">IF(LEN(INDEX(Base!70:70,0,MATCH(Output!$U70,Base!70:70,0)+2))&gt;2,LEFT(INDEX(Base!70:70,0,MATCH(Output!$U70,Base!70:70,0)+2),1),INDEX(Base!70:70,0,MATCH(Output!$U70,Base!70:70,0)+2))</f>
         <v>2</v>
       </c>
       <c r="X70" t="str" cm="1">
-        <f t="array" ref="X70">IF(LEN(INDEX(Base!70:70,0,MATCH(Planilha2!$U70,Base!70:70,0)+2))&gt;2,LEFT(INDEX(Base!70:70,0,MATCH(Planilha2!$U70,Base!70:70,0)+2),1),INDEX(Base!70:70,0,MATCH(Planilha2!$U70,Base!70:70,0)+2))</f>
+        <f t="array" ref="X70">IF(LEN(INDEX(Base!70:70,0,MATCH(Output!$U70,Base!70:70,0)+2))&gt;2,LEFT(INDEX(Base!70:70,0,MATCH(Output!$U70,Base!70:70,0)+2),1),INDEX(Base!70:70,0,MATCH(Output!$U70,Base!70:70,0)+2))</f>
         <v>2</v>
       </c>
       <c r="Y70" t="str" cm="1">
-        <f t="array" ref="Y70">IF(LEN(INDEX(Base!70:70,0,MATCH(Planilha2!$U70,Base!70:70,0)+2))&gt;2,LEFT(INDEX(Base!70:70,0,MATCH(Planilha2!$U70,Base!70:70,0)+2),1),INDEX(Base!70:70,0,MATCH(Planilha2!$U70,Base!70:70,0)+2))</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.3">
+        <f t="array" ref="Y70">IF(LEN(INDEX(Base!70:70,0,MATCH(Output!$U70,Base!70:70,0)+2))&gt;2,LEFT(INDEX(Base!70:70,0,MATCH(Output!$U70,Base!70:70,0)+2),1),INDEX(Base!70:70,0,MATCH(Output!$U70,Base!70:70,0)+2))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <f t="shared" si="0"/>
+        <v>69</v>
+      </c>
       <c r="B71">
         <f>IF(OR(ISNUMBER(FIND(Configurações!$B$4,Base!B71)),ISNUMBER(FIND(Configurações!$B$5,Base!B71)),ISNUMBER(FIND(Configurações!$B$6,Base!B71)),ISNUMBER(FIND(Configurações!$B$7,Base!B71)),ISNUMBER(FIND(Configurações!$B$8,Base!B71)))=TRUE,Base!B71,0)</f>
         <v>0</v>
@@ -11771,7 +12032,7 @@
         <f>IF(TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("IPTU",Base!C71)),ISNUMBER(FIND("iptu",Base!C71)))=TRUE,RIGHT(Base!C71,5),0),"R$",""),"$",""))="0",TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("IPTU",Base!D71)),ISNUMBER(FIND("iptu",Base!D71)))=TRUE,RIGHT(Base!D71,5),0),"R$",""),"$","")),TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("iptu",Base!C71)),ISNUMBER(FIND("IPTU",Base!C71)))=TRUE,RIGHT(Base!C71,5),0),"R$",""),"$","")))</f>
         <v>0</v>
       </c>
-      <c r="F71" s="5" t="str" cm="1">
+      <c r="F71" s="4" t="str" cm="1">
         <f t="array" ref="F71">INDEX(Base!71:71,MATCH(MAX(LEN(Base!71:71)),LEN(Base!71:71),0))</f>
         <v>Ampla casa Duplex; 1ª Pav. Quartos, Sala, cozinha, banheiro social,área de serviços e garagem,piscina , churrasqueira, fogo a lenha, sauna.jardim. 2º Pav. 3 suites , hidromassagem,...</v>
       </c>
@@ -11824,23 +12085,27 @@
         <v>Rua Maria Helena, Monte Libano</v>
       </c>
       <c r="V71" t="str" cm="1">
-        <f t="array" ref="V71">TRIM(SUBSTITUTE(INDEX(Base!71:71,0,MATCH(Planilha2!$U71,Base!71:71,0)+1),"m²",""))</f>
+        <f t="array" ref="V71">TRIM(SUBSTITUTE(INDEX(Base!71:71,0,MATCH(Output!$U71,Base!71:71,0)+1),"m²",""))</f>
         <v>280</v>
       </c>
       <c r="W71" t="str" cm="1">
-        <f t="array" ref="W71">IF(LEN(INDEX(Base!71:71,0,MATCH(Planilha2!$U71,Base!71:71,0)+2))&gt;2,LEFT(INDEX(Base!71:71,0,MATCH(Planilha2!$U71,Base!71:71,0)+2),1),INDEX(Base!71:71,0,MATCH(Planilha2!$U71,Base!71:71,0)+2))</f>
+        <f t="array" ref="W71">IF(LEN(INDEX(Base!71:71,0,MATCH(Output!$U71,Base!71:71,0)+2))&gt;2,LEFT(INDEX(Base!71:71,0,MATCH(Output!$U71,Base!71:71,0)+2),1),INDEX(Base!71:71,0,MATCH(Output!$U71,Base!71:71,0)+2))</f>
         <v>4</v>
       </c>
       <c r="X71" t="str" cm="1">
-        <f t="array" ref="X71">IF(LEN(INDEX(Base!71:71,0,MATCH(Planilha2!$U71,Base!71:71,0)+2))&gt;2,LEFT(INDEX(Base!71:71,0,MATCH(Planilha2!$U71,Base!71:71,0)+2),1),INDEX(Base!71:71,0,MATCH(Planilha2!$U71,Base!71:71,0)+2))</f>
+        <f t="array" ref="X71">IF(LEN(INDEX(Base!71:71,0,MATCH(Output!$U71,Base!71:71,0)+2))&gt;2,LEFT(INDEX(Base!71:71,0,MATCH(Output!$U71,Base!71:71,0)+2),1),INDEX(Base!71:71,0,MATCH(Output!$U71,Base!71:71,0)+2))</f>
         <v>4</v>
       </c>
       <c r="Y71" t="str" cm="1">
-        <f t="array" ref="Y71">IF(LEN(INDEX(Base!71:71,0,MATCH(Planilha2!$U71,Base!71:71,0)+2))&gt;2,LEFT(INDEX(Base!71:71,0,MATCH(Planilha2!$U71,Base!71:71,0)+2),1),INDEX(Base!71:71,0,MATCH(Planilha2!$U71,Base!71:71,0)+2))</f>
+        <f t="array" ref="Y71">IF(LEN(INDEX(Base!71:71,0,MATCH(Output!$U71,Base!71:71,0)+2))&gt;2,LEFT(INDEX(Base!71:71,0,MATCH(Output!$U71,Base!71:71,0)+2),1),INDEX(Base!71:71,0,MATCH(Output!$U71,Base!71:71,0)+2))</f>
         <v>4</v>
       </c>
     </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
       <c r="B72">
         <f>IF(OR(ISNUMBER(FIND(Configurações!$B$4,Base!B72)),ISNUMBER(FIND(Configurações!$B$5,Base!B72)),ISNUMBER(FIND(Configurações!$B$6,Base!B72)),ISNUMBER(FIND(Configurações!$B$7,Base!B72)),ISNUMBER(FIND(Configurações!$B$8,Base!B72)))=TRUE,Base!B72,0)</f>
         <v>0</v>
@@ -11857,7 +12122,7 @@
         <f>IF(TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("IPTU",Base!C72)),ISNUMBER(FIND("iptu",Base!C72)))=TRUE,RIGHT(Base!C72,5),0),"R$",""),"$",""))="0",TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("IPTU",Base!D72)),ISNUMBER(FIND("iptu",Base!D72)))=TRUE,RIGHT(Base!D72,5),0),"R$",""),"$","")),TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("iptu",Base!C72)),ISNUMBER(FIND("IPTU",Base!C72)))=TRUE,RIGHT(Base!C72,5),0),"R$",""),"$","")))</f>
         <v>0</v>
       </c>
-      <c r="F72" s="5" t="str" cm="1">
+      <c r="F72" s="4" t="str" cm="1">
         <f t="array" ref="F72">INDEX(Base!72:72,MATCH(MAX(LEN(Base!72:72)),LEN(Base!72:72),0))</f>
         <v>CASA DE 2 ANDARES, FINO ACABAMENTO. 1o. ANDAR SALA, COPA COZINHA, BANHEIRO, QUINTAL E GARAGEM. 2o. ANDAR COM 2 QUARTOS, 1 BANHEIRO E VARANDA. ACEITAMOS FINACIAMENTO BANCÁRIO, FGTS,...</v>
       </c>
@@ -11910,23 +12175,27 @@
         <v>Rua Ana Teodoro do Amaral, Jardim Palmares</v>
       </c>
       <c r="V72" t="str" cm="1">
-        <f t="array" ref="V72">TRIM(SUBSTITUTE(INDEX(Base!72:72,0,MATCH(Planilha2!$U72,Base!72:72,0)+1),"m²",""))</f>
+        <f t="array" ref="V72">TRIM(SUBSTITUTE(INDEX(Base!72:72,0,MATCH(Output!$U72,Base!72:72,0)+1),"m²",""))</f>
         <v>100</v>
       </c>
       <c r="W72" t="str" cm="1">
-        <f t="array" ref="W72">IF(LEN(INDEX(Base!72:72,0,MATCH(Planilha2!$U72,Base!72:72,0)+2))&gt;2,LEFT(INDEX(Base!72:72,0,MATCH(Planilha2!$U72,Base!72:72,0)+2),1),INDEX(Base!72:72,0,MATCH(Planilha2!$U72,Base!72:72,0)+2))</f>
+        <f t="array" ref="W72">IF(LEN(INDEX(Base!72:72,0,MATCH(Output!$U72,Base!72:72,0)+2))&gt;2,LEFT(INDEX(Base!72:72,0,MATCH(Output!$U72,Base!72:72,0)+2),1),INDEX(Base!72:72,0,MATCH(Output!$U72,Base!72:72,0)+2))</f>
         <v>2</v>
       </c>
       <c r="X72" t="str" cm="1">
-        <f t="array" ref="X72">IF(LEN(INDEX(Base!72:72,0,MATCH(Planilha2!$U72,Base!72:72,0)+2))&gt;2,LEFT(INDEX(Base!72:72,0,MATCH(Planilha2!$U72,Base!72:72,0)+2),1),INDEX(Base!72:72,0,MATCH(Planilha2!$U72,Base!72:72,0)+2))</f>
+        <f t="array" ref="X72">IF(LEN(INDEX(Base!72:72,0,MATCH(Output!$U72,Base!72:72,0)+2))&gt;2,LEFT(INDEX(Base!72:72,0,MATCH(Output!$U72,Base!72:72,0)+2),1),INDEX(Base!72:72,0,MATCH(Output!$U72,Base!72:72,0)+2))</f>
         <v>2</v>
       </c>
       <c r="Y72" t="str" cm="1">
-        <f t="array" ref="Y72">IF(LEN(INDEX(Base!72:72,0,MATCH(Planilha2!$U72,Base!72:72,0)+2))&gt;2,LEFT(INDEX(Base!72:72,0,MATCH(Planilha2!$U72,Base!72:72,0)+2),1),INDEX(Base!72:72,0,MATCH(Planilha2!$U72,Base!72:72,0)+2))</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.3">
+        <f t="array" ref="Y72">IF(LEN(INDEX(Base!72:72,0,MATCH(Output!$U72,Base!72:72,0)+2))&gt;2,LEFT(INDEX(Base!72:72,0,MATCH(Output!$U72,Base!72:72,0)+2),1),INDEX(Base!72:72,0,MATCH(Output!$U72,Base!72:72,0)+2))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <f t="shared" si="0"/>
+        <v>71</v>
+      </c>
       <c r="B73" t="str">
         <f>IF(OR(ISNUMBER(FIND(Configurações!$B$4,Base!B73)),ISNUMBER(FIND(Configurações!$B$5,Base!B73)),ISNUMBER(FIND(Configurações!$B$6,Base!B73)),ISNUMBER(FIND(Configurações!$B$7,Base!B73)),ISNUMBER(FIND(Configurações!$B$8,Base!B73)))=TRUE,Base!B73,0)</f>
         <v>destaque</v>
@@ -11943,7 +12212,7 @@
         <f>IF(TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("IPTU",Base!C73)),ISNUMBER(FIND("iptu",Base!C73)))=TRUE,RIGHT(Base!C73,5),0),"R$",""),"$",""))="0",TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("IPTU",Base!D73)),ISNUMBER(FIND("iptu",Base!D73)))=TRUE,RIGHT(Base!D73,5),0),"R$",""),"$","")),TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("iptu",Base!C73)),ISNUMBER(FIND("IPTU",Base!C73)))=TRUE,RIGHT(Base!C73,5),0),"R$",""),"$","")))</f>
         <v>1</v>
       </c>
-      <c r="F73" s="5" t="str" cm="1">
+      <c r="F73" s="4" t="str" cm="1">
         <f t="array" ref="F73">INDEX(Base!73:73,MATCH(MAX(LEN(Base!73:73)),LEN(Base!73:73),0))</f>
         <v>FINANCIAMOS POR QUALQUER BANCO DA SUA ESCOLHA. Golden Gates Condomínio de altíssimo padrão que marcou a história do mercado imobiliário de Nova Iguaçu e da Baixada Fluminense. Todo...</v>
       </c>
@@ -11996,23 +12265,27 @@
         <v>Rua Afrânio Peixoto, da Luz</v>
       </c>
       <c r="V73" t="str" cm="1">
-        <f t="array" ref="V73">TRIM(SUBSTITUTE(INDEX(Base!73:73,0,MATCH(Planilha2!$U73,Base!73:73,0)+1),"m²",""))</f>
+        <f t="array" ref="V73">TRIM(SUBSTITUTE(INDEX(Base!73:73,0,MATCH(Output!$U73,Base!73:73,0)+1),"m²",""))</f>
         <v>105</v>
       </c>
       <c r="W73" t="str" cm="1">
-        <f t="array" ref="W73">IF(LEN(INDEX(Base!73:73,0,MATCH(Planilha2!$U73,Base!73:73,0)+2))&gt;2,LEFT(INDEX(Base!73:73,0,MATCH(Planilha2!$U73,Base!73:73,0)+2),1),INDEX(Base!73:73,0,MATCH(Planilha2!$U73,Base!73:73,0)+2))</f>
+        <f t="array" ref="W73">IF(LEN(INDEX(Base!73:73,0,MATCH(Output!$U73,Base!73:73,0)+2))&gt;2,LEFT(INDEX(Base!73:73,0,MATCH(Output!$U73,Base!73:73,0)+2),1),INDEX(Base!73:73,0,MATCH(Output!$U73,Base!73:73,0)+2))</f>
         <v>3</v>
       </c>
       <c r="X73" t="str" cm="1">
-        <f t="array" ref="X73">IF(LEN(INDEX(Base!73:73,0,MATCH(Planilha2!$U73,Base!73:73,0)+2))&gt;2,LEFT(INDEX(Base!73:73,0,MATCH(Planilha2!$U73,Base!73:73,0)+2),1),INDEX(Base!73:73,0,MATCH(Planilha2!$U73,Base!73:73,0)+2))</f>
+        <f t="array" ref="X73">IF(LEN(INDEX(Base!73:73,0,MATCH(Output!$U73,Base!73:73,0)+2))&gt;2,LEFT(INDEX(Base!73:73,0,MATCH(Output!$U73,Base!73:73,0)+2),1),INDEX(Base!73:73,0,MATCH(Output!$U73,Base!73:73,0)+2))</f>
         <v>3</v>
       </c>
       <c r="Y73" t="str" cm="1">
-        <f t="array" ref="Y73">IF(LEN(INDEX(Base!73:73,0,MATCH(Planilha2!$U73,Base!73:73,0)+2))&gt;2,LEFT(INDEX(Base!73:73,0,MATCH(Planilha2!$U73,Base!73:73,0)+2),1),INDEX(Base!73:73,0,MATCH(Planilha2!$U73,Base!73:73,0)+2))</f>
+        <f t="array" ref="Y73">IF(LEN(INDEX(Base!73:73,0,MATCH(Output!$U73,Base!73:73,0)+2))&gt;2,LEFT(INDEX(Base!73:73,0,MATCH(Output!$U73,Base!73:73,0)+2),1),INDEX(Base!73:73,0,MATCH(Output!$U73,Base!73:73,0)+2))</f>
         <v>3</v>
       </c>
     </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <f t="shared" si="0"/>
+        <v>72</v>
+      </c>
       <c r="B74" t="str">
         <f>IF(OR(ISNUMBER(FIND(Configurações!$B$4,Base!B74)),ISNUMBER(FIND(Configurações!$B$5,Base!B74)),ISNUMBER(FIND(Configurações!$B$6,Base!B74)),ISNUMBER(FIND(Configurações!$B$7,Base!B74)),ISNUMBER(FIND(Configurações!$B$8,Base!B74)))=TRUE,Base!B74,0)</f>
         <v>em construção</v>
@@ -12029,7 +12302,7 @@
         <f>IF(TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("IPTU",Base!C74)),ISNUMBER(FIND("iptu",Base!C74)))=TRUE,RIGHT(Base!C74,5),0),"R$",""),"$",""))="0",TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("IPTU",Base!D74)),ISNUMBER(FIND("iptu",Base!D74)))=TRUE,RIGHT(Base!D74,5),0),"R$",""),"$","")),TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("iptu",Base!C74)),ISNUMBER(FIND("IPTU",Base!C74)))=TRUE,RIGHT(Base!C74,5),0),"R$",""),"$","")))</f>
         <v>0</v>
       </c>
-      <c r="F74" s="5" t="str" cm="1">
+      <c r="F74" s="4" t="str" cm="1">
         <f t="array" ref="F74">INDEX(Base!74:74,MATCH(MAX(LEN(Base!74:74)),LEN(Base!74:74),0))</f>
         <v>É muito bom poder realizar o sonho da casa própria! No Viva Vida Alegria, você mora em um apartamento de 2 quartos com lazer completo, com condições imperdíveis para você mudar de...</v>
       </c>
@@ -12082,23 +12355,27 @@
         <v>Estrada da Boa Esperança, Bom Pastor</v>
       </c>
       <c r="V74" t="str" cm="1">
-        <f t="array" ref="V74">TRIM(SUBSTITUTE(INDEX(Base!74:74,0,MATCH(Planilha2!$U74,Base!74:74,0)+1),"m²",""))</f>
+        <f t="array" ref="V74">TRIM(SUBSTITUTE(INDEX(Base!74:74,0,MATCH(Output!$U74,Base!74:74,0)+1),"m²",""))</f>
         <v>50</v>
       </c>
       <c r="W74" t="str" cm="1">
-        <f t="array" ref="W74">IF(LEN(INDEX(Base!74:74,0,MATCH(Planilha2!$U74,Base!74:74,0)+2))&gt;2,LEFT(INDEX(Base!74:74,0,MATCH(Planilha2!$U74,Base!74:74,0)+2),1),INDEX(Base!74:74,0,MATCH(Planilha2!$U74,Base!74:74,0)+2))</f>
+        <f t="array" ref="W74">IF(LEN(INDEX(Base!74:74,0,MATCH(Output!$U74,Base!74:74,0)+2))&gt;2,LEFT(INDEX(Base!74:74,0,MATCH(Output!$U74,Base!74:74,0)+2),1),INDEX(Base!74:74,0,MATCH(Output!$U74,Base!74:74,0)+2))</f>
         <v>2</v>
       </c>
       <c r="X74" t="str" cm="1">
-        <f t="array" ref="X74">IF(LEN(INDEX(Base!74:74,0,MATCH(Planilha2!$U74,Base!74:74,0)+2))&gt;2,LEFT(INDEX(Base!74:74,0,MATCH(Planilha2!$U74,Base!74:74,0)+2),1),INDEX(Base!74:74,0,MATCH(Planilha2!$U74,Base!74:74,0)+2))</f>
+        <f t="array" ref="X74">IF(LEN(INDEX(Base!74:74,0,MATCH(Output!$U74,Base!74:74,0)+2))&gt;2,LEFT(INDEX(Base!74:74,0,MATCH(Output!$U74,Base!74:74,0)+2),1),INDEX(Base!74:74,0,MATCH(Output!$U74,Base!74:74,0)+2))</f>
         <v>2</v>
       </c>
       <c r="Y74" t="str" cm="1">
-        <f t="array" ref="Y74">IF(LEN(INDEX(Base!74:74,0,MATCH(Planilha2!$U74,Base!74:74,0)+2))&gt;2,LEFT(INDEX(Base!74:74,0,MATCH(Planilha2!$U74,Base!74:74,0)+2),1),INDEX(Base!74:74,0,MATCH(Planilha2!$U74,Base!74:74,0)+2))</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.3">
+        <f t="array" ref="Y74">IF(LEN(INDEX(Base!74:74,0,MATCH(Output!$U74,Base!74:74,0)+2))&gt;2,LEFT(INDEX(Base!74:74,0,MATCH(Output!$U74,Base!74:74,0)+2),1),INDEX(Base!74:74,0,MATCH(Output!$U74,Base!74:74,0)+2))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <f t="shared" si="0"/>
+        <v>73</v>
+      </c>
       <c r="B75" t="str">
         <f>IF(OR(ISNUMBER(FIND(Configurações!$B$4,Base!B75)),ISNUMBER(FIND(Configurações!$B$5,Base!B75)),ISNUMBER(FIND(Configurações!$B$6,Base!B75)),ISNUMBER(FIND(Configurações!$B$7,Base!B75)),ISNUMBER(FIND(Configurações!$B$8,Base!B75)))=TRUE,Base!B75,0)</f>
         <v>em construção</v>
@@ -12115,7 +12392,7 @@
         <f>IF(TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("IPTU",Base!C75)),ISNUMBER(FIND("iptu",Base!C75)))=TRUE,RIGHT(Base!C75,5),0),"R$",""),"$",""))="0",TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("IPTU",Base!D75)),ISNUMBER(FIND("iptu",Base!D75)))=TRUE,RIGHT(Base!D75,5),0),"R$",""),"$","")),TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("iptu",Base!C75)),ISNUMBER(FIND("IPTU",Base!C75)))=TRUE,RIGHT(Base!C75,5),0),"R$",""),"$","")))</f>
         <v>0</v>
       </c>
-      <c r="F75" s="5" t="str" cm="1">
+      <c r="F75" s="4" t="str" cm="1">
         <f t="array" ref="F75">INDEX(Base!75:75,MATCH(MAX(LEN(Base!75:75)),LEN(Base!75:75),0))</f>
         <v>Venha conhecer os diferenciais incríveis desse empreendimento. Fale com nossa equipe de corretores</v>
       </c>
@@ -12168,23 +12445,27 @@
         <v>Estrada Belford Roxo, Bom Pastor</v>
       </c>
       <c r="V75" t="str" cm="1">
-        <f t="array" ref="V75">TRIM(SUBSTITUTE(INDEX(Base!75:75,0,MATCH(Planilha2!$U75,Base!75:75,0)+1),"m²",""))</f>
+        <f t="array" ref="V75">TRIM(SUBSTITUTE(INDEX(Base!75:75,0,MATCH(Output!$U75,Base!75:75,0)+1),"m²",""))</f>
         <v>63</v>
       </c>
       <c r="W75" t="str" cm="1">
-        <f t="array" ref="W75">IF(LEN(INDEX(Base!75:75,0,MATCH(Planilha2!$U75,Base!75:75,0)+2))&gt;2,LEFT(INDEX(Base!75:75,0,MATCH(Planilha2!$U75,Base!75:75,0)+2),1),INDEX(Base!75:75,0,MATCH(Planilha2!$U75,Base!75:75,0)+2))</f>
+        <f t="array" ref="W75">IF(LEN(INDEX(Base!75:75,0,MATCH(Output!$U75,Base!75:75,0)+2))&gt;2,LEFT(INDEX(Base!75:75,0,MATCH(Output!$U75,Base!75:75,0)+2),1),INDEX(Base!75:75,0,MATCH(Output!$U75,Base!75:75,0)+2))</f>
         <v>2</v>
       </c>
       <c r="X75" t="str" cm="1">
-        <f t="array" ref="X75">IF(LEN(INDEX(Base!75:75,0,MATCH(Planilha2!$U75,Base!75:75,0)+2))&gt;2,LEFT(INDEX(Base!75:75,0,MATCH(Planilha2!$U75,Base!75:75,0)+2),1),INDEX(Base!75:75,0,MATCH(Planilha2!$U75,Base!75:75,0)+2))</f>
+        <f t="array" ref="X75">IF(LEN(INDEX(Base!75:75,0,MATCH(Output!$U75,Base!75:75,0)+2))&gt;2,LEFT(INDEX(Base!75:75,0,MATCH(Output!$U75,Base!75:75,0)+2),1),INDEX(Base!75:75,0,MATCH(Output!$U75,Base!75:75,0)+2))</f>
         <v>2</v>
       </c>
       <c r="Y75" t="str" cm="1">
-        <f t="array" ref="Y75">IF(LEN(INDEX(Base!75:75,0,MATCH(Planilha2!$U75,Base!75:75,0)+2))&gt;2,LEFT(INDEX(Base!75:75,0,MATCH(Planilha2!$U75,Base!75:75,0)+2),1),INDEX(Base!75:75,0,MATCH(Planilha2!$U75,Base!75:75,0)+2))</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.3">
+        <f t="array" ref="Y75">IF(LEN(INDEX(Base!75:75,0,MATCH(Output!$U75,Base!75:75,0)+2))&gt;2,LEFT(INDEX(Base!75:75,0,MATCH(Output!$U75,Base!75:75,0)+2),1),INDEX(Base!75:75,0,MATCH(Output!$U75,Base!75:75,0)+2))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <f t="shared" si="0"/>
+        <v>74</v>
+      </c>
       <c r="B76" t="str">
         <f>IF(OR(ISNUMBER(FIND(Configurações!$B$4,Base!B76)),ISNUMBER(FIND(Configurações!$B$5,Base!B76)),ISNUMBER(FIND(Configurações!$B$6,Base!B76)),ISNUMBER(FIND(Configurações!$B$7,Base!B76)),ISNUMBER(FIND(Configurações!$B$8,Base!B76)))=TRUE,Base!B76,0)</f>
         <v>em construção</v>
@@ -12201,7 +12482,7 @@
         <f>IF(TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("IPTU",Base!C76)),ISNUMBER(FIND("iptu",Base!C76)))=TRUE,RIGHT(Base!C76,5),0),"R$",""),"$",""))="0",TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("IPTU",Base!D76)),ISNUMBER(FIND("iptu",Base!D76)))=TRUE,RIGHT(Base!D76,5),0),"R$",""),"$","")),TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("iptu",Base!C76)),ISNUMBER(FIND("IPTU",Base!C76)))=TRUE,RIGHT(Base!C76,5),0),"R$",""),"$","")))</f>
         <v>0</v>
       </c>
-      <c r="F76" s="5" t="str" cm="1">
+      <c r="F76" s="4" t="str" cm="1">
         <f t="array" ref="F76">INDEX(Base!76:76,MATCH(MAX(LEN(Base!76:76)),LEN(Base!76:76),0))</f>
         <v>Venha conhecer os diferenciais incríveis desse empreendimento. Fale com nossa equipe de corretores</v>
       </c>
@@ -12254,23 +12535,27 @@
         <v>Avenida Cardoso Martins, Bom Pastor</v>
       </c>
       <c r="V76" t="str" cm="1">
-        <f t="array" ref="V76">TRIM(SUBSTITUTE(INDEX(Base!76:76,0,MATCH(Planilha2!$U76,Base!76:76,0)+1),"m²",""))</f>
+        <f t="array" ref="V76">TRIM(SUBSTITUTE(INDEX(Base!76:76,0,MATCH(Output!$U76,Base!76:76,0)+1),"m²",""))</f>
         <v>52</v>
       </c>
       <c r="W76" t="str" cm="1">
-        <f t="array" ref="W76">IF(LEN(INDEX(Base!76:76,0,MATCH(Planilha2!$U76,Base!76:76,0)+2))&gt;2,LEFT(INDEX(Base!76:76,0,MATCH(Planilha2!$U76,Base!76:76,0)+2),1),INDEX(Base!76:76,0,MATCH(Planilha2!$U76,Base!76:76,0)+2))</f>
+        <f t="array" ref="W76">IF(LEN(INDEX(Base!76:76,0,MATCH(Output!$U76,Base!76:76,0)+2))&gt;2,LEFT(INDEX(Base!76:76,0,MATCH(Output!$U76,Base!76:76,0)+2),1),INDEX(Base!76:76,0,MATCH(Output!$U76,Base!76:76,0)+2))</f>
         <v>2</v>
       </c>
       <c r="X76" t="str" cm="1">
-        <f t="array" ref="X76">IF(LEN(INDEX(Base!76:76,0,MATCH(Planilha2!$U76,Base!76:76,0)+2))&gt;2,LEFT(INDEX(Base!76:76,0,MATCH(Planilha2!$U76,Base!76:76,0)+2),1),INDEX(Base!76:76,0,MATCH(Planilha2!$U76,Base!76:76,0)+2))</f>
+        <f t="array" ref="X76">IF(LEN(INDEX(Base!76:76,0,MATCH(Output!$U76,Base!76:76,0)+2))&gt;2,LEFT(INDEX(Base!76:76,0,MATCH(Output!$U76,Base!76:76,0)+2),1),INDEX(Base!76:76,0,MATCH(Output!$U76,Base!76:76,0)+2))</f>
         <v>2</v>
       </c>
       <c r="Y76" t="str" cm="1">
-        <f t="array" ref="Y76">IF(LEN(INDEX(Base!76:76,0,MATCH(Planilha2!$U76,Base!76:76,0)+2))&gt;2,LEFT(INDEX(Base!76:76,0,MATCH(Planilha2!$U76,Base!76:76,0)+2),1),INDEX(Base!76:76,0,MATCH(Planilha2!$U76,Base!76:76,0)+2))</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.3">
+        <f t="array" ref="Y76">IF(LEN(INDEX(Base!76:76,0,MATCH(Output!$U76,Base!76:76,0)+2))&gt;2,LEFT(INDEX(Base!76:76,0,MATCH(Output!$U76,Base!76:76,0)+2),1),INDEX(Base!76:76,0,MATCH(Output!$U76,Base!76:76,0)+2))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <f t="shared" si="0"/>
+        <v>75</v>
+      </c>
       <c r="B77" t="str">
         <f>IF(OR(ISNUMBER(FIND(Configurações!$B$4,Base!B77)),ISNUMBER(FIND(Configurações!$B$5,Base!B77)),ISNUMBER(FIND(Configurações!$B$6,Base!B77)),ISNUMBER(FIND(Configurações!$B$7,Base!B77)),ISNUMBER(FIND(Configurações!$B$8,Base!B77)))=TRUE,Base!B77,0)</f>
         <v>super destaque</v>
@@ -12287,7 +12572,7 @@
         <f>IF(TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("IPTU",Base!C77)),ISNUMBER(FIND("iptu",Base!C77)))=TRUE,RIGHT(Base!C77,5),0),"R$",""),"$",""))="0",TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("IPTU",Base!D77)),ISNUMBER(FIND("iptu",Base!D77)))=TRUE,RIGHT(Base!D77,5),0),"R$",""),"$","")),TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("iptu",Base!C77)),ISNUMBER(FIND("IPTU",Base!C77)))=TRUE,RIGHT(Base!C77,5),0),"R$",""),"$","")))</f>
         <v>0</v>
       </c>
-      <c r="F77" s="5" t="str" cm="1">
+      <c r="F77" s="4" t="str" cm="1">
         <f t="array" ref="F77">INDEX(Base!77:77,MATCH(MAX(LEN(Base!77:77)),LEN(Base!77:77),0))</f>
         <v>Casa Triplex com piscina no centro de Nova Iguaçu/Rj 1ºPav. sala,cozinha,banheiro social,despensa,garagem para 4 carros,piscina, churrasqueira. 2ºPav. 3 suítes,sala, sacada,banheir...</v>
       </c>
@@ -12340,23 +12625,27 @@
         <v>Praça Carlos Gomes, Centro</v>
       </c>
       <c r="V77" t="str" cm="1">
-        <f t="array" ref="V77">TRIM(SUBSTITUTE(INDEX(Base!77:77,0,MATCH(Planilha2!$U77,Base!77:77,0)+1),"m²",""))</f>
+        <f t="array" ref="V77">TRIM(SUBSTITUTE(INDEX(Base!77:77,0,MATCH(Output!$U77,Base!77:77,0)+1),"m²",""))</f>
         <v>600</v>
       </c>
       <c r="W77" t="str" cm="1">
-        <f t="array" ref="W77">IF(LEN(INDEX(Base!77:77,0,MATCH(Planilha2!$U77,Base!77:77,0)+2))&gt;2,LEFT(INDEX(Base!77:77,0,MATCH(Planilha2!$U77,Base!77:77,0)+2),1),INDEX(Base!77:77,0,MATCH(Planilha2!$U77,Base!77:77,0)+2))</f>
+        <f t="array" ref="W77">IF(LEN(INDEX(Base!77:77,0,MATCH(Output!$U77,Base!77:77,0)+2))&gt;2,LEFT(INDEX(Base!77:77,0,MATCH(Output!$U77,Base!77:77,0)+2),1),INDEX(Base!77:77,0,MATCH(Output!$U77,Base!77:77,0)+2))</f>
         <v>3</v>
       </c>
       <c r="X77" t="str" cm="1">
-        <f t="array" ref="X77">IF(LEN(INDEX(Base!77:77,0,MATCH(Planilha2!$U77,Base!77:77,0)+2))&gt;2,LEFT(INDEX(Base!77:77,0,MATCH(Planilha2!$U77,Base!77:77,0)+2),1),INDEX(Base!77:77,0,MATCH(Planilha2!$U77,Base!77:77,0)+2))</f>
+        <f t="array" ref="X77">IF(LEN(INDEX(Base!77:77,0,MATCH(Output!$U77,Base!77:77,0)+2))&gt;2,LEFT(INDEX(Base!77:77,0,MATCH(Output!$U77,Base!77:77,0)+2),1),INDEX(Base!77:77,0,MATCH(Output!$U77,Base!77:77,0)+2))</f>
         <v>3</v>
       </c>
       <c r="Y77" t="str" cm="1">
-        <f t="array" ref="Y77">IF(LEN(INDEX(Base!77:77,0,MATCH(Planilha2!$U77,Base!77:77,0)+2))&gt;2,LEFT(INDEX(Base!77:77,0,MATCH(Planilha2!$U77,Base!77:77,0)+2),1),INDEX(Base!77:77,0,MATCH(Planilha2!$U77,Base!77:77,0)+2))</f>
+        <f t="array" ref="Y77">IF(LEN(INDEX(Base!77:77,0,MATCH(Output!$U77,Base!77:77,0)+2))&gt;2,LEFT(INDEX(Base!77:77,0,MATCH(Output!$U77,Base!77:77,0)+2),1),INDEX(Base!77:77,0,MATCH(Output!$U77,Base!77:77,0)+2))</f>
         <v>3</v>
       </c>
     </row>
-    <row r="78" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <f t="shared" si="0"/>
+        <v>76</v>
+      </c>
       <c r="B78" t="str">
         <f>IF(OR(ISNUMBER(FIND(Configurações!$B$4,Base!B78)),ISNUMBER(FIND(Configurações!$B$5,Base!B78)),ISNUMBER(FIND(Configurações!$B$6,Base!B78)),ISNUMBER(FIND(Configurações!$B$7,Base!B78)),ISNUMBER(FIND(Configurações!$B$8,Base!B78)))=TRUE,Base!B78,0)</f>
         <v>super destaque</v>
@@ -12373,7 +12662,7 @@
         <f>IF(TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("IPTU",Base!C78)),ISNUMBER(FIND("iptu",Base!C78)))=TRUE,RIGHT(Base!C78,5),0),"R$",""),"$",""))="0",TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("IPTU",Base!D78)),ISNUMBER(FIND("iptu",Base!D78)))=TRUE,RIGHT(Base!D78,5),0),"R$",""),"$","")),TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("iptu",Base!C78)),ISNUMBER(FIND("IPTU",Base!C78)))=TRUE,RIGHT(Base!C78,5),0),"R$",""),"$","")))</f>
         <v>0</v>
       </c>
-      <c r="F78" s="5" t="str" cm="1">
+      <c r="F78" s="4" t="str" cm="1">
         <f t="array" ref="F78">INDEX(Base!78:78,MATCH(MAX(LEN(Base!78:78)),LEN(Base!78:78),0))</f>
         <v>O apartamento está localizado no bairro Centro tem 70 metros quadrados com 3 quartos sendo 1 suite e 2 banheiros</v>
       </c>
@@ -12426,23 +12715,27 @@
         <v>Rua Doutor Barros Júnior, Centro</v>
       </c>
       <c r="V78" t="str" cm="1">
-        <f t="array" ref="V78">TRIM(SUBSTITUTE(INDEX(Base!78:78,0,MATCH(Planilha2!$U78,Base!78:78,0)+1),"m²",""))</f>
+        <f t="array" ref="V78">TRIM(SUBSTITUTE(INDEX(Base!78:78,0,MATCH(Output!$U78,Base!78:78,0)+1),"m²",""))</f>
         <v>70</v>
       </c>
       <c r="W78" t="str" cm="1">
-        <f t="array" ref="W78">IF(LEN(INDEX(Base!78:78,0,MATCH(Planilha2!$U78,Base!78:78,0)+2))&gt;2,LEFT(INDEX(Base!78:78,0,MATCH(Planilha2!$U78,Base!78:78,0)+2),1),INDEX(Base!78:78,0,MATCH(Planilha2!$U78,Base!78:78,0)+2))</f>
+        <f t="array" ref="W78">IF(LEN(INDEX(Base!78:78,0,MATCH(Output!$U78,Base!78:78,0)+2))&gt;2,LEFT(INDEX(Base!78:78,0,MATCH(Output!$U78,Base!78:78,0)+2),1),INDEX(Base!78:78,0,MATCH(Output!$U78,Base!78:78,0)+2))</f>
         <v>3</v>
       </c>
       <c r="X78" t="str" cm="1">
-        <f t="array" ref="X78">IF(LEN(INDEX(Base!78:78,0,MATCH(Planilha2!$U78,Base!78:78,0)+2))&gt;2,LEFT(INDEX(Base!78:78,0,MATCH(Planilha2!$U78,Base!78:78,0)+2),1),INDEX(Base!78:78,0,MATCH(Planilha2!$U78,Base!78:78,0)+2))</f>
+        <f t="array" ref="X78">IF(LEN(INDEX(Base!78:78,0,MATCH(Output!$U78,Base!78:78,0)+2))&gt;2,LEFT(INDEX(Base!78:78,0,MATCH(Output!$U78,Base!78:78,0)+2),1),INDEX(Base!78:78,0,MATCH(Output!$U78,Base!78:78,0)+2))</f>
         <v>3</v>
       </c>
       <c r="Y78" t="str" cm="1">
-        <f t="array" ref="Y78">IF(LEN(INDEX(Base!78:78,0,MATCH(Planilha2!$U78,Base!78:78,0)+2))&gt;2,LEFT(INDEX(Base!78:78,0,MATCH(Planilha2!$U78,Base!78:78,0)+2),1),INDEX(Base!78:78,0,MATCH(Planilha2!$U78,Base!78:78,0)+2))</f>
+        <f t="array" ref="Y78">IF(LEN(INDEX(Base!78:78,0,MATCH(Output!$U78,Base!78:78,0)+2))&gt;2,LEFT(INDEX(Base!78:78,0,MATCH(Output!$U78,Base!78:78,0)+2),1),INDEX(Base!78:78,0,MATCH(Output!$U78,Base!78:78,0)+2))</f>
         <v>3</v>
       </c>
     </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <f t="shared" si="0"/>
+        <v>77</v>
+      </c>
       <c r="B79" t="str">
         <f>IF(OR(ISNUMBER(FIND(Configurações!$B$4,Base!B79)),ISNUMBER(FIND(Configurações!$B$5,Base!B79)),ISNUMBER(FIND(Configurações!$B$6,Base!B79)),ISNUMBER(FIND(Configurações!$B$7,Base!B79)),ISNUMBER(FIND(Configurações!$B$8,Base!B79)))=TRUE,Base!B79,0)</f>
         <v>super destaque</v>
@@ -12459,7 +12752,7 @@
         <f>IF(TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("IPTU",Base!C79)),ISNUMBER(FIND("iptu",Base!C79)))=TRUE,RIGHT(Base!C79,5),0),"R$",""),"$",""))="0",TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("IPTU",Base!D79)),ISNUMBER(FIND("iptu",Base!D79)))=TRUE,RIGHT(Base!D79,5),0),"R$",""),"$","")),TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("iptu",Base!C79)),ISNUMBER(FIND("IPTU",Base!C79)))=TRUE,RIGHT(Base!C79,5),0),"R$",""),"$","")))</f>
         <v>150</v>
       </c>
-      <c r="F79" s="5" t="str" cm="1">
+      <c r="F79" s="4" t="str" cm="1">
         <f t="array" ref="F79">INDEX(Base!79:79,MATCH(MAX(LEN(Base!79:79)),LEN(Base!79:79),0))</f>
         <v>aproveite para montar o seu negócio no centro de nova iguaçu, sala pronta e com acesso para deficientes,4 Elevadores,entrada lateral,portaria 24 horas,internet sem fio (sistema Wi-...</v>
       </c>
@@ -12512,23 +12805,27 @@
         <v>Rua Coronel Bernardino de Melo, Centro</v>
       </c>
       <c r="V79" t="str" cm="1">
-        <f t="array" ref="V79">TRIM(SUBSTITUTE(INDEX(Base!79:79,0,MATCH(Planilha2!$U79,Base!79:79,0)+1),"m²",""))</f>
+        <f t="array" ref="V79">TRIM(SUBSTITUTE(INDEX(Base!79:79,0,MATCH(Output!$U79,Base!79:79,0)+1),"m²",""))</f>
         <v>50</v>
       </c>
       <c r="W79" cm="1">
-        <f t="array" ref="W79">IF(LEN(INDEX(Base!79:79,0,MATCH(Planilha2!$U79,Base!79:79,0)+2))&gt;2,LEFT(INDEX(Base!79:79,0,MATCH(Planilha2!$U79,Base!79:79,0)+2),1),INDEX(Base!79:79,0,MATCH(Planilha2!$U79,Base!79:79,0)+2))</f>
+        <f t="array" ref="W79">IF(LEN(INDEX(Base!79:79,0,MATCH(Output!$U79,Base!79:79,0)+2))&gt;2,LEFT(INDEX(Base!79:79,0,MATCH(Output!$U79,Base!79:79,0)+2),1),INDEX(Base!79:79,0,MATCH(Output!$U79,Base!79:79,0)+2))</f>
         <v>0</v>
       </c>
       <c r="X79" cm="1">
-        <f t="array" ref="X79">IF(LEN(INDEX(Base!79:79,0,MATCH(Planilha2!$U79,Base!79:79,0)+2))&gt;2,LEFT(INDEX(Base!79:79,0,MATCH(Planilha2!$U79,Base!79:79,0)+2),1),INDEX(Base!79:79,0,MATCH(Planilha2!$U79,Base!79:79,0)+2))</f>
+        <f t="array" ref="X79">IF(LEN(INDEX(Base!79:79,0,MATCH(Output!$U79,Base!79:79,0)+2))&gt;2,LEFT(INDEX(Base!79:79,0,MATCH(Output!$U79,Base!79:79,0)+2),1),INDEX(Base!79:79,0,MATCH(Output!$U79,Base!79:79,0)+2))</f>
         <v>0</v>
       </c>
       <c r="Y79" cm="1">
-        <f t="array" ref="Y79">IF(LEN(INDEX(Base!79:79,0,MATCH(Planilha2!$U79,Base!79:79,0)+2))&gt;2,LEFT(INDEX(Base!79:79,0,MATCH(Planilha2!$U79,Base!79:79,0)+2),1),INDEX(Base!79:79,0,MATCH(Planilha2!$U79,Base!79:79,0)+2))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.3">
+        <f t="array" ref="Y79">IF(LEN(INDEX(Base!79:79,0,MATCH(Output!$U79,Base!79:79,0)+2))&gt;2,LEFT(INDEX(Base!79:79,0,MATCH(Output!$U79,Base!79:79,0)+2),1),INDEX(Base!79:79,0,MATCH(Output!$U79,Base!79:79,0)+2))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <f t="shared" si="0"/>
+        <v>78</v>
+      </c>
       <c r="B80">
         <f>IF(OR(ISNUMBER(FIND(Configurações!$B$4,Base!B80)),ISNUMBER(FIND(Configurações!$B$5,Base!B80)),ISNUMBER(FIND(Configurações!$B$6,Base!B80)),ISNUMBER(FIND(Configurações!$B$7,Base!B80)),ISNUMBER(FIND(Configurações!$B$8,Base!B80)))=TRUE,Base!B80,0)</f>
         <v>0</v>
@@ -12545,7 +12842,7 @@
         <f>IF(TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("IPTU",Base!C80)),ISNUMBER(FIND("iptu",Base!C80)))=TRUE,RIGHT(Base!C80,5),0),"R$",""),"$",""))="0",TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("IPTU",Base!D80)),ISNUMBER(FIND("iptu",Base!D80)))=TRUE,RIGHT(Base!D80,5),0),"R$",""),"$","")),TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("iptu",Base!C80)),ISNUMBER(FIND("IPTU",Base!C80)))=TRUE,RIGHT(Base!C80,5),0),"R$",""),"$","")))</f>
         <v>0</v>
       </c>
-      <c r="F80" s="5" t="str" cm="1">
+      <c r="F80" s="4" t="str" cm="1">
         <f t="array" ref="F80">INDEX(Base!80:80,MATCH(MAX(LEN(Base!80:80)),LEN(Base!80:80),0))</f>
         <v>CASA DE 2 ANDARES, FINO ACABAMENTO. 1o. ANDAR SALA, COPA COZINHA, BANHEIRO, QUINTAL E GARAGEM. 2o. ANDAR COM 2 QUARTOS, 1 BANHEIRO E VARANDA. ACEITAMOS FINACIAMENTO BANCÁRIO, FGTS,...</v>
       </c>
@@ -12598,23 +12895,27 @@
         <v>Rua Ana Teodoro do Amaral, Jardim Palmares</v>
       </c>
       <c r="V80" t="str" cm="1">
-        <f t="array" ref="V80">TRIM(SUBSTITUTE(INDEX(Base!80:80,0,MATCH(Planilha2!$U80,Base!80:80,0)+1),"m²",""))</f>
+        <f t="array" ref="V80">TRIM(SUBSTITUTE(INDEX(Base!80:80,0,MATCH(Output!$U80,Base!80:80,0)+1),"m²",""))</f>
         <v>100</v>
       </c>
       <c r="W80" t="str" cm="1">
-        <f t="array" ref="W80">IF(LEN(INDEX(Base!80:80,0,MATCH(Planilha2!$U80,Base!80:80,0)+2))&gt;2,LEFT(INDEX(Base!80:80,0,MATCH(Planilha2!$U80,Base!80:80,0)+2),1),INDEX(Base!80:80,0,MATCH(Planilha2!$U80,Base!80:80,0)+2))</f>
+        <f t="array" ref="W80">IF(LEN(INDEX(Base!80:80,0,MATCH(Output!$U80,Base!80:80,0)+2))&gt;2,LEFT(INDEX(Base!80:80,0,MATCH(Output!$U80,Base!80:80,0)+2),1),INDEX(Base!80:80,0,MATCH(Output!$U80,Base!80:80,0)+2))</f>
         <v>2</v>
       </c>
       <c r="X80" t="str" cm="1">
-        <f t="array" ref="X80">IF(LEN(INDEX(Base!80:80,0,MATCH(Planilha2!$U80,Base!80:80,0)+2))&gt;2,LEFT(INDEX(Base!80:80,0,MATCH(Planilha2!$U80,Base!80:80,0)+2),1),INDEX(Base!80:80,0,MATCH(Planilha2!$U80,Base!80:80,0)+2))</f>
+        <f t="array" ref="X80">IF(LEN(INDEX(Base!80:80,0,MATCH(Output!$U80,Base!80:80,0)+2))&gt;2,LEFT(INDEX(Base!80:80,0,MATCH(Output!$U80,Base!80:80,0)+2),1),INDEX(Base!80:80,0,MATCH(Output!$U80,Base!80:80,0)+2))</f>
         <v>2</v>
       </c>
       <c r="Y80" t="str" cm="1">
-        <f t="array" ref="Y80">IF(LEN(INDEX(Base!80:80,0,MATCH(Planilha2!$U80,Base!80:80,0)+2))&gt;2,LEFT(INDEX(Base!80:80,0,MATCH(Planilha2!$U80,Base!80:80,0)+2),1),INDEX(Base!80:80,0,MATCH(Planilha2!$U80,Base!80:80,0)+2))</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="81" spans="2:25" x14ac:dyDescent="0.3">
+        <f t="array" ref="Y80">IF(LEN(INDEX(Base!80:80,0,MATCH(Output!$U80,Base!80:80,0)+2))&gt;2,LEFT(INDEX(Base!80:80,0,MATCH(Output!$U80,Base!80:80,0)+2),1),INDEX(Base!80:80,0,MATCH(Output!$U80,Base!80:80,0)+2))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <f t="shared" si="0"/>
+        <v>79</v>
+      </c>
       <c r="B81" t="str">
         <f>IF(OR(ISNUMBER(FIND(Configurações!$B$4,Base!B81)),ISNUMBER(FIND(Configurações!$B$5,Base!B81)),ISNUMBER(FIND(Configurações!$B$6,Base!B81)),ISNUMBER(FIND(Configurações!$B$7,Base!B81)),ISNUMBER(FIND(Configurações!$B$8,Base!B81)))=TRUE,Base!B81,0)</f>
         <v>destaque</v>
@@ -12631,7 +12932,7 @@
         <f>IF(TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("IPTU",Base!C81)),ISNUMBER(FIND("iptu",Base!C81)))=TRUE,RIGHT(Base!C81,5),0),"R$",""),"$",""))="0",TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("IPTU",Base!D81)),ISNUMBER(FIND("iptu",Base!D81)))=TRUE,RIGHT(Base!D81,5),0),"R$",""),"$","")),TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("iptu",Base!C81)),ISNUMBER(FIND("IPTU",Base!C81)))=TRUE,RIGHT(Base!C81,5),0),"R$",""),"$","")))</f>
         <v>1</v>
       </c>
-      <c r="F81" s="5" t="str" cm="1">
+      <c r="F81" s="4" t="str" cm="1">
         <f t="array" ref="F81">INDEX(Base!81:81,MATCH(MAX(LEN(Base!81:81)),LEN(Base!81:81),0))</f>
         <v>FINANCIAMOS POR QUALQUER BANCO DA SUA ESCOLHA. Golden Gates Condomínio de altíssimo padrão que marcou a história do mercado imobiliário de Nova Iguaçu e da Baixada Fluminense. Todo...</v>
       </c>
@@ -12684,23 +12985,27 @@
         <v>Rua Afrânio Peixoto, da Luz</v>
       </c>
       <c r="V81" t="str" cm="1">
-        <f t="array" ref="V81">TRIM(SUBSTITUTE(INDEX(Base!81:81,0,MATCH(Planilha2!$U81,Base!81:81,0)+1),"m²",""))</f>
+        <f t="array" ref="V81">TRIM(SUBSTITUTE(INDEX(Base!81:81,0,MATCH(Output!$U81,Base!81:81,0)+1),"m²",""))</f>
         <v>105</v>
       </c>
       <c r="W81" t="str" cm="1">
-        <f t="array" ref="W81">IF(LEN(INDEX(Base!81:81,0,MATCH(Planilha2!$U81,Base!81:81,0)+2))&gt;2,LEFT(INDEX(Base!81:81,0,MATCH(Planilha2!$U81,Base!81:81,0)+2),1),INDEX(Base!81:81,0,MATCH(Planilha2!$U81,Base!81:81,0)+2))</f>
+        <f t="array" ref="W81">IF(LEN(INDEX(Base!81:81,0,MATCH(Output!$U81,Base!81:81,0)+2))&gt;2,LEFT(INDEX(Base!81:81,0,MATCH(Output!$U81,Base!81:81,0)+2),1),INDEX(Base!81:81,0,MATCH(Output!$U81,Base!81:81,0)+2))</f>
         <v>3</v>
       </c>
       <c r="X81" t="str" cm="1">
-        <f t="array" ref="X81">IF(LEN(INDEX(Base!81:81,0,MATCH(Planilha2!$U81,Base!81:81,0)+2))&gt;2,LEFT(INDEX(Base!81:81,0,MATCH(Planilha2!$U81,Base!81:81,0)+2),1),INDEX(Base!81:81,0,MATCH(Planilha2!$U81,Base!81:81,0)+2))</f>
+        <f t="array" ref="X81">IF(LEN(INDEX(Base!81:81,0,MATCH(Output!$U81,Base!81:81,0)+2))&gt;2,LEFT(INDEX(Base!81:81,0,MATCH(Output!$U81,Base!81:81,0)+2),1),INDEX(Base!81:81,0,MATCH(Output!$U81,Base!81:81,0)+2))</f>
         <v>3</v>
       </c>
       <c r="Y81" t="str" cm="1">
-        <f t="array" ref="Y81">IF(LEN(INDEX(Base!81:81,0,MATCH(Planilha2!$U81,Base!81:81,0)+2))&gt;2,LEFT(INDEX(Base!81:81,0,MATCH(Planilha2!$U81,Base!81:81,0)+2),1),INDEX(Base!81:81,0,MATCH(Planilha2!$U81,Base!81:81,0)+2))</f>
+        <f t="array" ref="Y81">IF(LEN(INDEX(Base!81:81,0,MATCH(Output!$U81,Base!81:81,0)+2))&gt;2,LEFT(INDEX(Base!81:81,0,MATCH(Output!$U81,Base!81:81,0)+2),1),INDEX(Base!81:81,0,MATCH(Output!$U81,Base!81:81,0)+2))</f>
         <v>3</v>
       </c>
     </row>
-    <row r="82" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
       <c r="B82">
         <f>IF(OR(ISNUMBER(FIND(Configurações!$B$4,Base!B82)),ISNUMBER(FIND(Configurações!$B$5,Base!B82)),ISNUMBER(FIND(Configurações!$B$6,Base!B82)),ISNUMBER(FIND(Configurações!$B$7,Base!B82)),ISNUMBER(FIND(Configurações!$B$8,Base!B82)))=TRUE,Base!B82,0)</f>
         <v>0</v>
@@ -12717,7 +13022,7 @@
         <f>IF(TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("IPTU",Base!C82)),ISNUMBER(FIND("iptu",Base!C82)))=TRUE,RIGHT(Base!C82,5),0),"R$",""),"$",""))="0",TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("IPTU",Base!D82)),ISNUMBER(FIND("iptu",Base!D82)))=TRUE,RIGHT(Base!D82,5),0),"R$",""),"$","")),TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("iptu",Base!C82)),ISNUMBER(FIND("IPTU",Base!C82)))=TRUE,RIGHT(Base!C82,5),0),"R$",""),"$","")))</f>
         <v>0</v>
       </c>
-      <c r="F82" s="5" t="str" cm="1">
+      <c r="F82" s="4" t="str" cm="1">
         <f t="array" ref="F82">INDEX(Base!82:82,MATCH(MAX(LEN(Base!82:82)),LEN(Base!82:82),0))</f>
         <v>Linda casa de condomínio fechado, 2 quartos suítes com cama, guarda roupas e com ar condicionado, 4 banheiros sendo um lavabo, cozinha com móveis planejados e mesa de jantar, sala,...</v>
       </c>
@@ -12770,23 +13075,27 @@
         <v>Rua Vitalina, Vila São Luis</v>
       </c>
       <c r="V82" t="str" cm="1">
-        <f t="array" ref="V82">TRIM(SUBSTITUTE(INDEX(Base!82:82,0,MATCH(Planilha2!$U82,Base!82:82,0)+1),"m²",""))</f>
+        <f t="array" ref="V82">TRIM(SUBSTITUTE(INDEX(Base!82:82,0,MATCH(Output!$U82,Base!82:82,0)+1),"m²",""))</f>
         <v>90</v>
       </c>
       <c r="W82" t="str" cm="1">
-        <f t="array" ref="W82">IF(LEN(INDEX(Base!82:82,0,MATCH(Planilha2!$U82,Base!82:82,0)+2))&gt;2,LEFT(INDEX(Base!82:82,0,MATCH(Planilha2!$U82,Base!82:82,0)+2),1),INDEX(Base!82:82,0,MATCH(Planilha2!$U82,Base!82:82,0)+2))</f>
+        <f t="array" ref="W82">IF(LEN(INDEX(Base!82:82,0,MATCH(Output!$U82,Base!82:82,0)+2))&gt;2,LEFT(INDEX(Base!82:82,0,MATCH(Output!$U82,Base!82:82,0)+2),1),INDEX(Base!82:82,0,MATCH(Output!$U82,Base!82:82,0)+2))</f>
         <v>2</v>
       </c>
       <c r="X82" t="str" cm="1">
-        <f t="array" ref="X82">IF(LEN(INDEX(Base!82:82,0,MATCH(Planilha2!$U82,Base!82:82,0)+2))&gt;2,LEFT(INDEX(Base!82:82,0,MATCH(Planilha2!$U82,Base!82:82,0)+2),1),INDEX(Base!82:82,0,MATCH(Planilha2!$U82,Base!82:82,0)+2))</f>
+        <f t="array" ref="X82">IF(LEN(INDEX(Base!82:82,0,MATCH(Output!$U82,Base!82:82,0)+2))&gt;2,LEFT(INDEX(Base!82:82,0,MATCH(Output!$U82,Base!82:82,0)+2),1),INDEX(Base!82:82,0,MATCH(Output!$U82,Base!82:82,0)+2))</f>
         <v>2</v>
       </c>
       <c r="Y82" t="str" cm="1">
-        <f t="array" ref="Y82">IF(LEN(INDEX(Base!82:82,0,MATCH(Planilha2!$U82,Base!82:82,0)+2))&gt;2,LEFT(INDEX(Base!82:82,0,MATCH(Planilha2!$U82,Base!82:82,0)+2),1),INDEX(Base!82:82,0,MATCH(Planilha2!$U82,Base!82:82,0)+2))</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="83" spans="2:25" x14ac:dyDescent="0.3">
+        <f t="array" ref="Y82">IF(LEN(INDEX(Base!82:82,0,MATCH(Output!$U82,Base!82:82,0)+2))&gt;2,LEFT(INDEX(Base!82:82,0,MATCH(Output!$U82,Base!82:82,0)+2),1),INDEX(Base!82:82,0,MATCH(Output!$U82,Base!82:82,0)+2))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <f t="shared" si="0"/>
+        <v>81</v>
+      </c>
       <c r="B83">
         <f>IF(OR(ISNUMBER(FIND(Configurações!$B$4,Base!B83)),ISNUMBER(FIND(Configurações!$B$5,Base!B83)),ISNUMBER(FIND(Configurações!$B$6,Base!B83)),ISNUMBER(FIND(Configurações!$B$7,Base!B83)),ISNUMBER(FIND(Configurações!$B$8,Base!B83)))=TRUE,Base!B83,0)</f>
         <v>0</v>
@@ -12803,7 +13112,7 @@
         <f>IF(TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("IPTU",Base!C83)),ISNUMBER(FIND("iptu",Base!C83)))=TRUE,RIGHT(Base!C83,5),0),"R$",""),"$",""))="0",TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("IPTU",Base!D83)),ISNUMBER(FIND("iptu",Base!D83)))=TRUE,RIGHT(Base!D83,5),0),"R$",""),"$","")),TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("iptu",Base!C83)),ISNUMBER(FIND("IPTU",Base!C83)))=TRUE,RIGHT(Base!C83,5),0),"R$",""),"$","")))</f>
         <v>56</v>
       </c>
-      <c r="F83" s="5" t="str" cm="1">
+      <c r="F83" s="4" t="str" cm="1">
         <f t="array" ref="F83">INDEX(Base!83:83,MATCH(MAX(LEN(Base!83:83)),LEN(Base!83:83),0))</f>
         <v>Rua Doutor Barros Júnior, Rancho Novo</v>
       </c>
@@ -12856,23 +13165,27 @@
         <v>Rua Doutor Barros Júnior, Rancho Novo</v>
       </c>
       <c r="V83" t="str" cm="1">
-        <f t="array" ref="V83">TRIM(SUBSTITUTE(INDEX(Base!83:83,0,MATCH(Planilha2!$U83,Base!83:83,0)+1),"m²",""))</f>
+        <f t="array" ref="V83">TRIM(SUBSTITUTE(INDEX(Base!83:83,0,MATCH(Output!$U83,Base!83:83,0)+1),"m²",""))</f>
         <v>64</v>
       </c>
       <c r="W83" t="str" cm="1">
-        <f t="array" ref="W83">IF(LEN(INDEX(Base!83:83,0,MATCH(Planilha2!$U83,Base!83:83,0)+2))&gt;2,LEFT(INDEX(Base!83:83,0,MATCH(Planilha2!$U83,Base!83:83,0)+2),1),INDEX(Base!83:83,0,MATCH(Planilha2!$U83,Base!83:83,0)+2))</f>
+        <f t="array" ref="W83">IF(LEN(INDEX(Base!83:83,0,MATCH(Output!$U83,Base!83:83,0)+2))&gt;2,LEFT(INDEX(Base!83:83,0,MATCH(Output!$U83,Base!83:83,0)+2),1),INDEX(Base!83:83,0,MATCH(Output!$U83,Base!83:83,0)+2))</f>
         <v>3</v>
       </c>
       <c r="X83" t="str" cm="1">
-        <f t="array" ref="X83">IF(LEN(INDEX(Base!83:83,0,MATCH(Planilha2!$U83,Base!83:83,0)+2))&gt;2,LEFT(INDEX(Base!83:83,0,MATCH(Planilha2!$U83,Base!83:83,0)+2),1),INDEX(Base!83:83,0,MATCH(Planilha2!$U83,Base!83:83,0)+2))</f>
+        <f t="array" ref="X83">IF(LEN(INDEX(Base!83:83,0,MATCH(Output!$U83,Base!83:83,0)+2))&gt;2,LEFT(INDEX(Base!83:83,0,MATCH(Output!$U83,Base!83:83,0)+2),1),INDEX(Base!83:83,0,MATCH(Output!$U83,Base!83:83,0)+2))</f>
         <v>3</v>
       </c>
       <c r="Y83" t="str" cm="1">
-        <f t="array" ref="Y83">IF(LEN(INDEX(Base!83:83,0,MATCH(Planilha2!$U83,Base!83:83,0)+2))&gt;2,LEFT(INDEX(Base!83:83,0,MATCH(Planilha2!$U83,Base!83:83,0)+2),1),INDEX(Base!83:83,0,MATCH(Planilha2!$U83,Base!83:83,0)+2))</f>
+        <f t="array" ref="Y83">IF(LEN(INDEX(Base!83:83,0,MATCH(Output!$U83,Base!83:83,0)+2))&gt;2,LEFT(INDEX(Base!83:83,0,MATCH(Output!$U83,Base!83:83,0)+2),1),INDEX(Base!83:83,0,MATCH(Output!$U83,Base!83:83,0)+2))</f>
         <v>3</v>
       </c>
     </row>
-    <row r="84" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <f t="shared" si="0"/>
+        <v>82</v>
+      </c>
       <c r="B84">
         <f>IF(OR(ISNUMBER(FIND(Configurações!$B$4,Base!B84)),ISNUMBER(FIND(Configurações!$B$5,Base!B84)),ISNUMBER(FIND(Configurações!$B$6,Base!B84)),ISNUMBER(FIND(Configurações!$B$7,Base!B84)),ISNUMBER(FIND(Configurações!$B$8,Base!B84)))=TRUE,Base!B84,0)</f>
         <v>0</v>
@@ -12889,7 +13202,7 @@
         <f>IF(TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("IPTU",Base!C84)),ISNUMBER(FIND("iptu",Base!C84)))=TRUE,RIGHT(Base!C84,5),0),"R$",""),"$",""))="0",TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("IPTU",Base!D84)),ISNUMBER(FIND("iptu",Base!D84)))=TRUE,RIGHT(Base!D84,5),0),"R$",""),"$","")),TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("iptu",Base!C84)),ISNUMBER(FIND("IPTU",Base!C84)))=TRUE,RIGHT(Base!C84,5),0),"R$",""),"$","")))</f>
         <v>864</v>
       </c>
-      <c r="F84" s="5" t="str" cm="1">
+      <c r="F84" s="4" t="str" cm="1">
         <f t="array" ref="F84">INDEX(Base!84:84,MATCH(MAX(LEN(Base!84:84)),LEN(Base!84:84),0))</f>
         <v>A casa está localizado no bairro Moquetá com 114 metros quadrados com 3 quartos sendo 2 suítes e 4 banheiros, churrasqueira</v>
       </c>
@@ -12942,23 +13255,27 @@
         <v>Rua Tupinambá, Moqueta</v>
       </c>
       <c r="V84" t="str" cm="1">
-        <f t="array" ref="V84">TRIM(SUBSTITUTE(INDEX(Base!84:84,0,MATCH(Planilha2!$U84,Base!84:84,0)+1),"m²",""))</f>
+        <f t="array" ref="V84">TRIM(SUBSTITUTE(INDEX(Base!84:84,0,MATCH(Output!$U84,Base!84:84,0)+1),"m²",""))</f>
         <v>114</v>
       </c>
       <c r="W84" t="str" cm="1">
-        <f t="array" ref="W84">IF(LEN(INDEX(Base!84:84,0,MATCH(Planilha2!$U84,Base!84:84,0)+2))&gt;2,LEFT(INDEX(Base!84:84,0,MATCH(Planilha2!$U84,Base!84:84,0)+2),1),INDEX(Base!84:84,0,MATCH(Planilha2!$U84,Base!84:84,0)+2))</f>
+        <f t="array" ref="W84">IF(LEN(INDEX(Base!84:84,0,MATCH(Output!$U84,Base!84:84,0)+2))&gt;2,LEFT(INDEX(Base!84:84,0,MATCH(Output!$U84,Base!84:84,0)+2),1),INDEX(Base!84:84,0,MATCH(Output!$U84,Base!84:84,0)+2))</f>
         <v>3</v>
       </c>
       <c r="X84" t="str" cm="1">
-        <f t="array" ref="X84">IF(LEN(INDEX(Base!84:84,0,MATCH(Planilha2!$U84,Base!84:84,0)+2))&gt;2,LEFT(INDEX(Base!84:84,0,MATCH(Planilha2!$U84,Base!84:84,0)+2),1),INDEX(Base!84:84,0,MATCH(Planilha2!$U84,Base!84:84,0)+2))</f>
+        <f t="array" ref="X84">IF(LEN(INDEX(Base!84:84,0,MATCH(Output!$U84,Base!84:84,0)+2))&gt;2,LEFT(INDEX(Base!84:84,0,MATCH(Output!$U84,Base!84:84,0)+2),1),INDEX(Base!84:84,0,MATCH(Output!$U84,Base!84:84,0)+2))</f>
         <v>3</v>
       </c>
       <c r="Y84" t="str" cm="1">
-        <f t="array" ref="Y84">IF(LEN(INDEX(Base!84:84,0,MATCH(Planilha2!$U84,Base!84:84,0)+2))&gt;2,LEFT(INDEX(Base!84:84,0,MATCH(Planilha2!$U84,Base!84:84,0)+2),1),INDEX(Base!84:84,0,MATCH(Planilha2!$U84,Base!84:84,0)+2))</f>
+        <f t="array" ref="Y84">IF(LEN(INDEX(Base!84:84,0,MATCH(Output!$U84,Base!84:84,0)+2))&gt;2,LEFT(INDEX(Base!84:84,0,MATCH(Output!$U84,Base!84:84,0)+2),1),INDEX(Base!84:84,0,MATCH(Output!$U84,Base!84:84,0)+2))</f>
         <v>3</v>
       </c>
     </row>
-    <row r="85" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <f t="shared" si="0"/>
+        <v>83</v>
+      </c>
       <c r="B85">
         <f>IF(OR(ISNUMBER(FIND(Configurações!$B$4,Base!B85)),ISNUMBER(FIND(Configurações!$B$5,Base!B85)),ISNUMBER(FIND(Configurações!$B$6,Base!B85)),ISNUMBER(FIND(Configurações!$B$7,Base!B85)),ISNUMBER(FIND(Configurações!$B$8,Base!B85)))=TRUE,Base!B85,0)</f>
         <v>0</v>
@@ -12975,7 +13292,7 @@
         <f>IF(TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("IPTU",Base!C85)),ISNUMBER(FIND("iptu",Base!C85)))=TRUE,RIGHT(Base!C85,5),0),"R$",""),"$",""))="0",TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("IPTU",Base!D85)),ISNUMBER(FIND("iptu",Base!D85)))=TRUE,RIGHT(Base!D85,5),0),"R$",""),"$","")),TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("iptu",Base!C85)),ISNUMBER(FIND("IPTU",Base!C85)))=TRUE,RIGHT(Base!C85,5),0),"R$",""),"$","")))</f>
         <v>0</v>
       </c>
-      <c r="F85" s="5" t="str" cm="1">
+      <c r="F85" s="4" t="str" cm="1">
         <f t="array" ref="F85">INDEX(Base!85:85,MATCH(MAX(LEN(Base!85:85)),LEN(Base!85:85),0))</f>
         <v>Quer o conforto de uma casa, mas a segurança de um condomínio? Aqui no residencial Village Juriti você tem tudo isso e muito mais, nossas casas são de 3 e 4 quartos, com suíte, aca...</v>
       </c>
@@ -13028,23 +13345,27 @@
         <v>Rua Minas Gerais, Posse</v>
       </c>
       <c r="V85" t="str" cm="1">
-        <f t="array" ref="V85">TRIM(SUBSTITUTE(INDEX(Base!85:85,0,MATCH(Planilha2!$U85,Base!85:85,0)+1),"m²",""))</f>
+        <f t="array" ref="V85">TRIM(SUBSTITUTE(INDEX(Base!85:85,0,MATCH(Output!$U85,Base!85:85,0)+1),"m²",""))</f>
         <v>108</v>
       </c>
       <c r="W85" t="str" cm="1">
-        <f t="array" ref="W85">IF(LEN(INDEX(Base!85:85,0,MATCH(Planilha2!$U85,Base!85:85,0)+2))&gt;2,LEFT(INDEX(Base!85:85,0,MATCH(Planilha2!$U85,Base!85:85,0)+2),1),INDEX(Base!85:85,0,MATCH(Planilha2!$U85,Base!85:85,0)+2))</f>
+        <f t="array" ref="W85">IF(LEN(INDEX(Base!85:85,0,MATCH(Output!$U85,Base!85:85,0)+2))&gt;2,LEFT(INDEX(Base!85:85,0,MATCH(Output!$U85,Base!85:85,0)+2),1),INDEX(Base!85:85,0,MATCH(Output!$U85,Base!85:85,0)+2))</f>
         <v>3</v>
       </c>
       <c r="X85" t="str" cm="1">
-        <f t="array" ref="X85">IF(LEN(INDEX(Base!85:85,0,MATCH(Planilha2!$U85,Base!85:85,0)+2))&gt;2,LEFT(INDEX(Base!85:85,0,MATCH(Planilha2!$U85,Base!85:85,0)+2),1),INDEX(Base!85:85,0,MATCH(Planilha2!$U85,Base!85:85,0)+2))</f>
+        <f t="array" ref="X85">IF(LEN(INDEX(Base!85:85,0,MATCH(Output!$U85,Base!85:85,0)+2))&gt;2,LEFT(INDEX(Base!85:85,0,MATCH(Output!$U85,Base!85:85,0)+2),1),INDEX(Base!85:85,0,MATCH(Output!$U85,Base!85:85,0)+2))</f>
         <v>3</v>
       </c>
       <c r="Y85" t="str" cm="1">
-        <f t="array" ref="Y85">IF(LEN(INDEX(Base!85:85,0,MATCH(Planilha2!$U85,Base!85:85,0)+2))&gt;2,LEFT(INDEX(Base!85:85,0,MATCH(Planilha2!$U85,Base!85:85,0)+2),1),INDEX(Base!85:85,0,MATCH(Planilha2!$U85,Base!85:85,0)+2))</f>
+        <f t="array" ref="Y85">IF(LEN(INDEX(Base!85:85,0,MATCH(Output!$U85,Base!85:85,0)+2))&gt;2,LEFT(INDEX(Base!85:85,0,MATCH(Output!$U85,Base!85:85,0)+2),1),INDEX(Base!85:85,0,MATCH(Output!$U85,Base!85:85,0)+2))</f>
         <v>3</v>
       </c>
     </row>
-    <row r="86" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <f t="shared" si="0"/>
+        <v>84</v>
+      </c>
       <c r="B86">
         <f>IF(OR(ISNUMBER(FIND(Configurações!$B$4,Base!B86)),ISNUMBER(FIND(Configurações!$B$5,Base!B86)),ISNUMBER(FIND(Configurações!$B$6,Base!B86)),ISNUMBER(FIND(Configurações!$B$7,Base!B86)),ISNUMBER(FIND(Configurações!$B$8,Base!B86)))=TRUE,Base!B86,0)</f>
         <v>0</v>
@@ -13061,7 +13382,7 @@
         <f>IF(TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("IPTU",Base!C86)),ISNUMBER(FIND("iptu",Base!C86)))=TRUE,RIGHT(Base!C86,5),0),"R$",""),"$",""))="0",TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("IPTU",Base!D86)),ISNUMBER(FIND("iptu",Base!D86)))=TRUE,RIGHT(Base!D86,5),0),"R$",""),"$","")),TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("iptu",Base!C86)),ISNUMBER(FIND("IPTU",Base!C86)))=TRUE,RIGHT(Base!C86,5),0),"R$",""),"$","")))</f>
         <v>1.586</v>
       </c>
-      <c r="F86" s="5" t="str" cm="1">
+      <c r="F86" s="4" t="str" cm="1">
         <f t="array" ref="F86">INDEX(Base!86:86,MATCH(MAX(LEN(Base!86:86)),LEN(Base!86:86),0))</f>
         <v>O Golden Gate é um condomínio que tem área de lazer incrível. Ela foi projetada com variada diversão para a família toda. Esse apartamento tem uma excelente sala ampliada. Ela é pe...</v>
       </c>
@@ -13114,23 +13435,27 @@
         <v>Rua Afrânio Peixoto, Centro</v>
       </c>
       <c r="V86" t="str" cm="1">
-        <f t="array" ref="V86">TRIM(SUBSTITUTE(INDEX(Base!86:86,0,MATCH(Planilha2!$U86,Base!86:86,0)+1),"m²",""))</f>
+        <f t="array" ref="V86">TRIM(SUBSTITUTE(INDEX(Base!86:86,0,MATCH(Output!$U86,Base!86:86,0)+1),"m²",""))</f>
         <v>115</v>
       </c>
       <c r="W86" t="str" cm="1">
-        <f t="array" ref="W86">IF(LEN(INDEX(Base!86:86,0,MATCH(Planilha2!$U86,Base!86:86,0)+2))&gt;2,LEFT(INDEX(Base!86:86,0,MATCH(Planilha2!$U86,Base!86:86,0)+2),1),INDEX(Base!86:86,0,MATCH(Planilha2!$U86,Base!86:86,0)+2))</f>
+        <f t="array" ref="W86">IF(LEN(INDEX(Base!86:86,0,MATCH(Output!$U86,Base!86:86,0)+2))&gt;2,LEFT(INDEX(Base!86:86,0,MATCH(Output!$U86,Base!86:86,0)+2),1),INDEX(Base!86:86,0,MATCH(Output!$U86,Base!86:86,0)+2))</f>
         <v>3</v>
       </c>
       <c r="X86" t="str" cm="1">
-        <f t="array" ref="X86">IF(LEN(INDEX(Base!86:86,0,MATCH(Planilha2!$U86,Base!86:86,0)+2))&gt;2,LEFT(INDEX(Base!86:86,0,MATCH(Planilha2!$U86,Base!86:86,0)+2),1),INDEX(Base!86:86,0,MATCH(Planilha2!$U86,Base!86:86,0)+2))</f>
+        <f t="array" ref="X86">IF(LEN(INDEX(Base!86:86,0,MATCH(Output!$U86,Base!86:86,0)+2))&gt;2,LEFT(INDEX(Base!86:86,0,MATCH(Output!$U86,Base!86:86,0)+2),1),INDEX(Base!86:86,0,MATCH(Output!$U86,Base!86:86,0)+2))</f>
         <v>3</v>
       </c>
       <c r="Y86" t="str" cm="1">
-        <f t="array" ref="Y86">IF(LEN(INDEX(Base!86:86,0,MATCH(Planilha2!$U86,Base!86:86,0)+2))&gt;2,LEFT(INDEX(Base!86:86,0,MATCH(Planilha2!$U86,Base!86:86,0)+2),1),INDEX(Base!86:86,0,MATCH(Planilha2!$U86,Base!86:86,0)+2))</f>
+        <f t="array" ref="Y86">IF(LEN(INDEX(Base!86:86,0,MATCH(Output!$U86,Base!86:86,0)+2))&gt;2,LEFT(INDEX(Base!86:86,0,MATCH(Output!$U86,Base!86:86,0)+2),1),INDEX(Base!86:86,0,MATCH(Output!$U86,Base!86:86,0)+2))</f>
         <v>3</v>
       </c>
     </row>
-    <row r="87" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <f t="shared" si="0"/>
+        <v>85</v>
+      </c>
       <c r="B87">
         <f>IF(OR(ISNUMBER(FIND(Configurações!$B$4,Base!B87)),ISNUMBER(FIND(Configurações!$B$5,Base!B87)),ISNUMBER(FIND(Configurações!$B$6,Base!B87)),ISNUMBER(FIND(Configurações!$B$7,Base!B87)),ISNUMBER(FIND(Configurações!$B$8,Base!B87)))=TRUE,Base!B87,0)</f>
         <v>0</v>
@@ -13147,7 +13472,7 @@
         <f>IF(TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("IPTU",Base!C87)),ISNUMBER(FIND("iptu",Base!C87)))=TRUE,RIGHT(Base!C87,5),0),"R$",""),"$",""))="0",TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("IPTU",Base!D87)),ISNUMBER(FIND("iptu",Base!D87)))=TRUE,RIGHT(Base!D87,5),0),"R$",""),"$","")),TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("iptu",Base!C87)),ISNUMBER(FIND("IPTU",Base!C87)))=TRUE,RIGHT(Base!C87,5),0),"R$",""),"$","")))</f>
         <v>745</v>
       </c>
-      <c r="F87" s="5" t="str" cm="1">
+      <c r="F87" s="4" t="str" cm="1">
         <f t="array" ref="F87">INDEX(Base!87:87,MATCH(MAX(LEN(Base!87:87)),LEN(Base!87:87),0))</f>
         <v>Casa ampla com dois pavimentos construída em vila tranquila com casas de alto padrão, sendo ela apresentada a partir de um garagem espaçosa, acesso ao imóvel através de uma linda p...</v>
       </c>
@@ -13200,23 +13525,27 @@
         <v>Rua Jacutinga, Santa Eugênia</v>
       </c>
       <c r="V87" t="str" cm="1">
-        <f t="array" ref="V87">TRIM(SUBSTITUTE(INDEX(Base!87:87,0,MATCH(Planilha2!$U87,Base!87:87,0)+1),"m²",""))</f>
+        <f t="array" ref="V87">TRIM(SUBSTITUTE(INDEX(Base!87:87,0,MATCH(Output!$U87,Base!87:87,0)+1),"m²",""))</f>
         <v>140</v>
       </c>
       <c r="W87" t="str" cm="1">
-        <f t="array" ref="W87">IF(LEN(INDEX(Base!87:87,0,MATCH(Planilha2!$U87,Base!87:87,0)+2))&gt;2,LEFT(INDEX(Base!87:87,0,MATCH(Planilha2!$U87,Base!87:87,0)+2),1),INDEX(Base!87:87,0,MATCH(Planilha2!$U87,Base!87:87,0)+2))</f>
+        <f t="array" ref="W87">IF(LEN(INDEX(Base!87:87,0,MATCH(Output!$U87,Base!87:87,0)+2))&gt;2,LEFT(INDEX(Base!87:87,0,MATCH(Output!$U87,Base!87:87,0)+2),1),INDEX(Base!87:87,0,MATCH(Output!$U87,Base!87:87,0)+2))</f>
         <v>4</v>
       </c>
       <c r="X87" t="str" cm="1">
-        <f t="array" ref="X87">IF(LEN(INDEX(Base!87:87,0,MATCH(Planilha2!$U87,Base!87:87,0)+2))&gt;2,LEFT(INDEX(Base!87:87,0,MATCH(Planilha2!$U87,Base!87:87,0)+2),1),INDEX(Base!87:87,0,MATCH(Planilha2!$U87,Base!87:87,0)+2))</f>
+        <f t="array" ref="X87">IF(LEN(INDEX(Base!87:87,0,MATCH(Output!$U87,Base!87:87,0)+2))&gt;2,LEFT(INDEX(Base!87:87,0,MATCH(Output!$U87,Base!87:87,0)+2),1),INDEX(Base!87:87,0,MATCH(Output!$U87,Base!87:87,0)+2))</f>
         <v>4</v>
       </c>
       <c r="Y87" t="str" cm="1">
-        <f t="array" ref="Y87">IF(LEN(INDEX(Base!87:87,0,MATCH(Planilha2!$U87,Base!87:87,0)+2))&gt;2,LEFT(INDEX(Base!87:87,0,MATCH(Planilha2!$U87,Base!87:87,0)+2),1),INDEX(Base!87:87,0,MATCH(Planilha2!$U87,Base!87:87,0)+2))</f>
+        <f t="array" ref="Y87">IF(LEN(INDEX(Base!87:87,0,MATCH(Output!$U87,Base!87:87,0)+2))&gt;2,LEFT(INDEX(Base!87:87,0,MATCH(Output!$U87,Base!87:87,0)+2),1),INDEX(Base!87:87,0,MATCH(Output!$U87,Base!87:87,0)+2))</f>
         <v>4</v>
       </c>
     </row>
-    <row r="88" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <f t="shared" si="0"/>
+        <v>86</v>
+      </c>
       <c r="B88">
         <f>IF(OR(ISNUMBER(FIND(Configurações!$B$4,Base!B88)),ISNUMBER(FIND(Configurações!$B$5,Base!B88)),ISNUMBER(FIND(Configurações!$B$6,Base!B88)),ISNUMBER(FIND(Configurações!$B$7,Base!B88)),ISNUMBER(FIND(Configurações!$B$8,Base!B88)))=TRUE,Base!B88,0)</f>
         <v>0</v>
@@ -13233,7 +13562,7 @@
         <f>IF(TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("IPTU",Base!C88)),ISNUMBER(FIND("iptu",Base!C88)))=TRUE,RIGHT(Base!C88,5),0),"R$",""),"$",""))="0",TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("IPTU",Base!D88)),ISNUMBER(FIND("iptu",Base!D88)))=TRUE,RIGHT(Base!D88,5),0),"R$",""),"$","")),TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("iptu",Base!C88)),ISNUMBER(FIND("IPTU",Base!C88)))=TRUE,RIGHT(Base!C88,5),0),"R$",""),"$","")))</f>
         <v>820</v>
       </c>
-      <c r="F88" s="5" t="str" cm="1">
+      <c r="F88" s="4" t="str" cm="1">
         <f t="array" ref="F88">INDEX(Base!88:88,MATCH(MAX(LEN(Base!88:88)),LEN(Base!88:88),0))</f>
         <v>CASA DE 3 QUARTOS EM ÓTIMA LOCALIZAÇÃO (PERTINHO DE TUDO: SHOPPING, CENTRO COMERCIAL, LOJAS, SERVIÇOS PÚBLICOS, TRANSPORTE);</v>
       </c>
@@ -13286,23 +13615,27 @@
         <v>Rua Carlos Gomes, da Luz</v>
       </c>
       <c r="V88" t="str" cm="1">
-        <f t="array" ref="V88">TRIM(SUBSTITUTE(INDEX(Base!88:88,0,MATCH(Planilha2!$U88,Base!88:88,0)+1),"m²",""))</f>
+        <f t="array" ref="V88">TRIM(SUBSTITUTE(INDEX(Base!88:88,0,MATCH(Output!$U88,Base!88:88,0)+1),"m²",""))</f>
         <v>84</v>
       </c>
       <c r="W88" t="str" cm="1">
-        <f t="array" ref="W88">IF(LEN(INDEX(Base!88:88,0,MATCH(Planilha2!$U88,Base!88:88,0)+2))&gt;2,LEFT(INDEX(Base!88:88,0,MATCH(Planilha2!$U88,Base!88:88,0)+2),1),INDEX(Base!88:88,0,MATCH(Planilha2!$U88,Base!88:88,0)+2))</f>
+        <f t="array" ref="W88">IF(LEN(INDEX(Base!88:88,0,MATCH(Output!$U88,Base!88:88,0)+2))&gt;2,LEFT(INDEX(Base!88:88,0,MATCH(Output!$U88,Base!88:88,0)+2),1),INDEX(Base!88:88,0,MATCH(Output!$U88,Base!88:88,0)+2))</f>
         <v>3</v>
       </c>
       <c r="X88" t="str" cm="1">
-        <f t="array" ref="X88">IF(LEN(INDEX(Base!88:88,0,MATCH(Planilha2!$U88,Base!88:88,0)+2))&gt;2,LEFT(INDEX(Base!88:88,0,MATCH(Planilha2!$U88,Base!88:88,0)+2),1),INDEX(Base!88:88,0,MATCH(Planilha2!$U88,Base!88:88,0)+2))</f>
+        <f t="array" ref="X88">IF(LEN(INDEX(Base!88:88,0,MATCH(Output!$U88,Base!88:88,0)+2))&gt;2,LEFT(INDEX(Base!88:88,0,MATCH(Output!$U88,Base!88:88,0)+2),1),INDEX(Base!88:88,0,MATCH(Output!$U88,Base!88:88,0)+2))</f>
         <v>3</v>
       </c>
       <c r="Y88" t="str" cm="1">
-        <f t="array" ref="Y88">IF(LEN(INDEX(Base!88:88,0,MATCH(Planilha2!$U88,Base!88:88,0)+2))&gt;2,LEFT(INDEX(Base!88:88,0,MATCH(Planilha2!$U88,Base!88:88,0)+2),1),INDEX(Base!88:88,0,MATCH(Planilha2!$U88,Base!88:88,0)+2))</f>
+        <f t="array" ref="Y88">IF(LEN(INDEX(Base!88:88,0,MATCH(Output!$U88,Base!88:88,0)+2))&gt;2,LEFT(INDEX(Base!88:88,0,MATCH(Output!$U88,Base!88:88,0)+2),1),INDEX(Base!88:88,0,MATCH(Output!$U88,Base!88:88,0)+2))</f>
         <v>3</v>
       </c>
     </row>
-    <row r="89" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <f t="shared" si="0"/>
+        <v>87</v>
+      </c>
       <c r="B89" t="str">
         <f>IF(OR(ISNUMBER(FIND(Configurações!$B$4,Base!B89)),ISNUMBER(FIND(Configurações!$B$5,Base!B89)),ISNUMBER(FIND(Configurações!$B$6,Base!B89)),ISNUMBER(FIND(Configurações!$B$7,Base!B89)),ISNUMBER(FIND(Configurações!$B$8,Base!B89)))=TRUE,Base!B89,0)</f>
         <v>destaque</v>
@@ -13319,7 +13652,7 @@
         <f>IF(TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("IPTU",Base!C89)),ISNUMBER(FIND("iptu",Base!C89)))=TRUE,RIGHT(Base!C89,5),0),"R$",""),"$",""))="0",TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("IPTU",Base!D89)),ISNUMBER(FIND("iptu",Base!D89)))=TRUE,RIGHT(Base!D89,5),0),"R$",""),"$","")),TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("iptu",Base!C89)),ISNUMBER(FIND("IPTU",Base!C89)))=TRUE,RIGHT(Base!C89,5),0),"R$",""),"$","")))</f>
         <v>0</v>
       </c>
-      <c r="F89" s="5" t="str" cm="1">
+      <c r="F89" s="4" t="str" cm="1">
         <f t="array" ref="F89">INDEX(Base!89:89,MATCH(MAX(LEN(Base!89:89)),LEN(Base!89:89),0))</f>
         <v>Morar num local em que você acessa rápido um centro comercial ou uma via expressa é uma facilidade que ajuda a tornar o dia mais prático. E no Residencial Golden Clube isso será pe...</v>
       </c>
@@ -13372,23 +13705,27 @@
         <v>Rua Doutor Barros Júnior, Moqueta</v>
       </c>
       <c r="V89" t="str" cm="1">
-        <f t="array" ref="V89">TRIM(SUBSTITUTE(INDEX(Base!89:89,0,MATCH(Planilha2!$U89,Base!89:89,0)+1),"m²",""))</f>
+        <f t="array" ref="V89">TRIM(SUBSTITUTE(INDEX(Base!89:89,0,MATCH(Output!$U89,Base!89:89,0)+1),"m²",""))</f>
         <v>53</v>
       </c>
       <c r="W89" t="str" cm="1">
-        <f t="array" ref="W89">IF(LEN(INDEX(Base!89:89,0,MATCH(Planilha2!$U89,Base!89:89,0)+2))&gt;2,LEFT(INDEX(Base!89:89,0,MATCH(Planilha2!$U89,Base!89:89,0)+2),1),INDEX(Base!89:89,0,MATCH(Planilha2!$U89,Base!89:89,0)+2))</f>
+        <f t="array" ref="W89">IF(LEN(INDEX(Base!89:89,0,MATCH(Output!$U89,Base!89:89,0)+2))&gt;2,LEFT(INDEX(Base!89:89,0,MATCH(Output!$U89,Base!89:89,0)+2),1),INDEX(Base!89:89,0,MATCH(Output!$U89,Base!89:89,0)+2))</f>
         <v>2</v>
       </c>
       <c r="X89" t="str" cm="1">
-        <f t="array" ref="X89">IF(LEN(INDEX(Base!89:89,0,MATCH(Planilha2!$U89,Base!89:89,0)+2))&gt;2,LEFT(INDEX(Base!89:89,0,MATCH(Planilha2!$U89,Base!89:89,0)+2),1),INDEX(Base!89:89,0,MATCH(Planilha2!$U89,Base!89:89,0)+2))</f>
+        <f t="array" ref="X89">IF(LEN(INDEX(Base!89:89,0,MATCH(Output!$U89,Base!89:89,0)+2))&gt;2,LEFT(INDEX(Base!89:89,0,MATCH(Output!$U89,Base!89:89,0)+2),1),INDEX(Base!89:89,0,MATCH(Output!$U89,Base!89:89,0)+2))</f>
         <v>2</v>
       </c>
       <c r="Y89" t="str" cm="1">
-        <f t="array" ref="Y89">IF(LEN(INDEX(Base!89:89,0,MATCH(Planilha2!$U89,Base!89:89,0)+2))&gt;2,LEFT(INDEX(Base!89:89,0,MATCH(Planilha2!$U89,Base!89:89,0)+2),1),INDEX(Base!89:89,0,MATCH(Planilha2!$U89,Base!89:89,0)+2))</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="90" spans="2:25" x14ac:dyDescent="0.3">
+        <f t="array" ref="Y89">IF(LEN(INDEX(Base!89:89,0,MATCH(Output!$U89,Base!89:89,0)+2))&gt;2,LEFT(INDEX(Base!89:89,0,MATCH(Output!$U89,Base!89:89,0)+2),1),INDEX(Base!89:89,0,MATCH(Output!$U89,Base!89:89,0)+2))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <f t="shared" si="0"/>
+        <v>88</v>
+      </c>
       <c r="B90" t="str">
         <f>IF(OR(ISNUMBER(FIND(Configurações!$B$4,Base!B90)),ISNUMBER(FIND(Configurações!$B$5,Base!B90)),ISNUMBER(FIND(Configurações!$B$6,Base!B90)),ISNUMBER(FIND(Configurações!$B$7,Base!B90)),ISNUMBER(FIND(Configurações!$B$8,Base!B90)))=TRUE,Base!B90,0)</f>
         <v>destaque</v>
@@ -13405,7 +13742,7 @@
         <f>IF(TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("IPTU",Base!C90)),ISNUMBER(FIND("iptu",Base!C90)))=TRUE,RIGHT(Base!C90,5),0),"R$",""),"$",""))="0",TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("IPTU",Base!D90)),ISNUMBER(FIND("iptu",Base!D90)))=TRUE,RIGHT(Base!D90,5),0),"R$",""),"$","")),TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("iptu",Base!C90)),ISNUMBER(FIND("IPTU",Base!C90)))=TRUE,RIGHT(Base!C90,5),0),"R$",""),"$","")))</f>
         <v>120</v>
       </c>
-      <c r="F90" s="5" t="str" cm="1">
+      <c r="F90" s="4" t="str" cm="1">
         <f t="array" ref="F90">INDEX(Base!90:90,MATCH(MAX(LEN(Base!90:90)),LEN(Base!90:90),0))</f>
         <v>Vendo apartamento 2 quartos Centro Nova iguaçu, 2 quartos amplos, 1 suíte, varandas na sala e quartos, cozinha planejada, vista livre, área de serviço separada, banheiro social. Ár...</v>
       </c>
@@ -13458,23 +13795,27 @@
         <v>Avenida Doutor Luiz Guimarães, Centro</v>
       </c>
       <c r="V90" t="str" cm="1">
-        <f t="array" ref="V90">TRIM(SUBSTITUTE(INDEX(Base!90:90,0,MATCH(Planilha2!$U90,Base!90:90,0)+1),"m²",""))</f>
+        <f t="array" ref="V90">TRIM(SUBSTITUTE(INDEX(Base!90:90,0,MATCH(Output!$U90,Base!90:90,0)+1),"m²",""))</f>
         <v>114</v>
       </c>
       <c r="W90" t="str" cm="1">
-        <f t="array" ref="W90">IF(LEN(INDEX(Base!90:90,0,MATCH(Planilha2!$U90,Base!90:90,0)+2))&gt;2,LEFT(INDEX(Base!90:90,0,MATCH(Planilha2!$U90,Base!90:90,0)+2),1),INDEX(Base!90:90,0,MATCH(Planilha2!$U90,Base!90:90,0)+2))</f>
+        <f t="array" ref="W90">IF(LEN(INDEX(Base!90:90,0,MATCH(Output!$U90,Base!90:90,0)+2))&gt;2,LEFT(INDEX(Base!90:90,0,MATCH(Output!$U90,Base!90:90,0)+2),1),INDEX(Base!90:90,0,MATCH(Output!$U90,Base!90:90,0)+2))</f>
         <v>2</v>
       </c>
       <c r="X90" t="str" cm="1">
-        <f t="array" ref="X90">IF(LEN(INDEX(Base!90:90,0,MATCH(Planilha2!$U90,Base!90:90,0)+2))&gt;2,LEFT(INDEX(Base!90:90,0,MATCH(Planilha2!$U90,Base!90:90,0)+2),1),INDEX(Base!90:90,0,MATCH(Planilha2!$U90,Base!90:90,0)+2))</f>
+        <f t="array" ref="X90">IF(LEN(INDEX(Base!90:90,0,MATCH(Output!$U90,Base!90:90,0)+2))&gt;2,LEFT(INDEX(Base!90:90,0,MATCH(Output!$U90,Base!90:90,0)+2),1),INDEX(Base!90:90,0,MATCH(Output!$U90,Base!90:90,0)+2))</f>
         <v>2</v>
       </c>
       <c r="Y90" t="str" cm="1">
-        <f t="array" ref="Y90">IF(LEN(INDEX(Base!90:90,0,MATCH(Planilha2!$U90,Base!90:90,0)+2))&gt;2,LEFT(INDEX(Base!90:90,0,MATCH(Planilha2!$U90,Base!90:90,0)+2),1),INDEX(Base!90:90,0,MATCH(Planilha2!$U90,Base!90:90,0)+2))</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="91" spans="2:25" x14ac:dyDescent="0.3">
+        <f t="array" ref="Y90">IF(LEN(INDEX(Base!90:90,0,MATCH(Output!$U90,Base!90:90,0)+2))&gt;2,LEFT(INDEX(Base!90:90,0,MATCH(Output!$U90,Base!90:90,0)+2),1),INDEX(Base!90:90,0,MATCH(Output!$U90,Base!90:90,0)+2))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <f t="shared" ref="A91:A154" si="1">A90+1</f>
+        <v>89</v>
+      </c>
       <c r="B91">
         <f>IF(OR(ISNUMBER(FIND(Configurações!$B$4,Base!B91)),ISNUMBER(FIND(Configurações!$B$5,Base!B91)),ISNUMBER(FIND(Configurações!$B$6,Base!B91)),ISNUMBER(FIND(Configurações!$B$7,Base!B91)),ISNUMBER(FIND(Configurações!$B$8,Base!B91)))=TRUE,Base!B91,0)</f>
         <v>0</v>
@@ -13491,7 +13832,7 @@
         <f>IF(TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("IPTU",Base!C91)),ISNUMBER(FIND("iptu",Base!C91)))=TRUE,RIGHT(Base!C91,5),0),"R$",""),"$",""))="0",TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("IPTU",Base!D91)),ISNUMBER(FIND("iptu",Base!D91)))=TRUE,RIGHT(Base!D91,5),0),"R$",""),"$","")),TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("iptu",Base!C91)),ISNUMBER(FIND("IPTU",Base!C91)))=TRUE,RIGHT(Base!C91,5),0),"R$",""),"$","")))</f>
         <v>1</v>
       </c>
-      <c r="F91" s="5" t="str" cm="1">
+      <c r="F91" s="4" t="str" cm="1">
         <f t="array" ref="F91">INDEX(Base!91:91,MATCH(MAX(LEN(Base!91:91)),LEN(Base!91:91),0))</f>
         <v>FINANCIAMOS POR TODOS OS BANCOS, AGENDE SUA VISITA. Seu novo lar está localizado na região que mais cresce em Nova Iguaçu, bem próximo ao centro e com acesso facilitado as principa...</v>
       </c>
@@ -13544,23 +13885,27 @@
         <v>Avenida Abílio Augusto Távora, Jardim Jasmim</v>
       </c>
       <c r="V91" t="str" cm="1">
-        <f t="array" ref="V91">TRIM(SUBSTITUTE(INDEX(Base!91:91,0,MATCH(Planilha2!$U91,Base!91:91,0)+1),"m²",""))</f>
+        <f t="array" ref="V91">TRIM(SUBSTITUTE(INDEX(Base!91:91,0,MATCH(Output!$U91,Base!91:91,0)+1),"m²",""))</f>
         <v>53</v>
       </c>
       <c r="W91" t="str" cm="1">
-        <f t="array" ref="W91">IF(LEN(INDEX(Base!91:91,0,MATCH(Planilha2!$U91,Base!91:91,0)+2))&gt;2,LEFT(INDEX(Base!91:91,0,MATCH(Planilha2!$U91,Base!91:91,0)+2),1),INDEX(Base!91:91,0,MATCH(Planilha2!$U91,Base!91:91,0)+2))</f>
+        <f t="array" ref="W91">IF(LEN(INDEX(Base!91:91,0,MATCH(Output!$U91,Base!91:91,0)+2))&gt;2,LEFT(INDEX(Base!91:91,0,MATCH(Output!$U91,Base!91:91,0)+2),1),INDEX(Base!91:91,0,MATCH(Output!$U91,Base!91:91,0)+2))</f>
         <v>2</v>
       </c>
       <c r="X91" t="str" cm="1">
-        <f t="array" ref="X91">IF(LEN(INDEX(Base!91:91,0,MATCH(Planilha2!$U91,Base!91:91,0)+2))&gt;2,LEFT(INDEX(Base!91:91,0,MATCH(Planilha2!$U91,Base!91:91,0)+2),1),INDEX(Base!91:91,0,MATCH(Planilha2!$U91,Base!91:91,0)+2))</f>
+        <f t="array" ref="X91">IF(LEN(INDEX(Base!91:91,0,MATCH(Output!$U91,Base!91:91,0)+2))&gt;2,LEFT(INDEX(Base!91:91,0,MATCH(Output!$U91,Base!91:91,0)+2),1),INDEX(Base!91:91,0,MATCH(Output!$U91,Base!91:91,0)+2))</f>
         <v>2</v>
       </c>
       <c r="Y91" t="str" cm="1">
-        <f t="array" ref="Y91">IF(LEN(INDEX(Base!91:91,0,MATCH(Planilha2!$U91,Base!91:91,0)+2))&gt;2,LEFT(INDEX(Base!91:91,0,MATCH(Planilha2!$U91,Base!91:91,0)+2),1),INDEX(Base!91:91,0,MATCH(Planilha2!$U91,Base!91:91,0)+2))</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="92" spans="2:25" x14ac:dyDescent="0.3">
+        <f t="array" ref="Y91">IF(LEN(INDEX(Base!91:91,0,MATCH(Output!$U91,Base!91:91,0)+2))&gt;2,LEFT(INDEX(Base!91:91,0,MATCH(Output!$U91,Base!91:91,0)+2),1),INDEX(Base!91:91,0,MATCH(Output!$U91,Base!91:91,0)+2))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
       <c r="B92">
         <f>IF(OR(ISNUMBER(FIND(Configurações!$B$4,Base!B92)),ISNUMBER(FIND(Configurações!$B$5,Base!B92)),ISNUMBER(FIND(Configurações!$B$6,Base!B92)),ISNUMBER(FIND(Configurações!$B$7,Base!B92)),ISNUMBER(FIND(Configurações!$B$8,Base!B92)))=TRUE,Base!B92,0)</f>
         <v>0</v>
@@ -13577,7 +13922,7 @@
         <f>IF(TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("IPTU",Base!C92)),ISNUMBER(FIND("iptu",Base!C92)))=TRUE,RIGHT(Base!C92,5),0),"R$",""),"$",""))="0",TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("IPTU",Base!D92)),ISNUMBER(FIND("iptu",Base!D92)))=TRUE,RIGHT(Base!D92,5),0),"R$",""),"$","")),TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("iptu",Base!C92)),ISNUMBER(FIND("IPTU",Base!C92)))=TRUE,RIGHT(Base!C92,5),0),"R$",""),"$","")))</f>
         <v>0</v>
       </c>
-      <c r="F92" s="5" t="str" cm="1">
+      <c r="F92" s="4" t="str" cm="1">
         <f t="array" ref="F92">INDEX(Base!92:92,MATCH(MAX(LEN(Base!92:92)),LEN(Base!92:92),0))</f>
         <v>1 pav: ampla sala de estar e jantar integradas, banheiro completo, cozinha mobiliada, quarto, área...</v>
       </c>
@@ -13630,23 +13975,27 @@
         <v>Rua Newton Gonçalves Barros, Rancho Novo</v>
       </c>
       <c r="V92" t="str" cm="1">
-        <f t="array" ref="V92">TRIM(SUBSTITUTE(INDEX(Base!92:92,0,MATCH(Planilha2!$U92,Base!92:92,0)+1),"m²",""))</f>
+        <f t="array" ref="V92">TRIM(SUBSTITUTE(INDEX(Base!92:92,0,MATCH(Output!$U92,Base!92:92,0)+1),"m²",""))</f>
         <v>250</v>
       </c>
       <c r="W92" t="str" cm="1">
-        <f t="array" ref="W92">IF(LEN(INDEX(Base!92:92,0,MATCH(Planilha2!$U92,Base!92:92,0)+2))&gt;2,LEFT(INDEX(Base!92:92,0,MATCH(Planilha2!$U92,Base!92:92,0)+2),1),INDEX(Base!92:92,0,MATCH(Planilha2!$U92,Base!92:92,0)+2))</f>
+        <f t="array" ref="W92">IF(LEN(INDEX(Base!92:92,0,MATCH(Output!$U92,Base!92:92,0)+2))&gt;2,LEFT(INDEX(Base!92:92,0,MATCH(Output!$U92,Base!92:92,0)+2),1),INDEX(Base!92:92,0,MATCH(Output!$U92,Base!92:92,0)+2))</f>
         <v>4</v>
       </c>
       <c r="X92" t="str" cm="1">
-        <f t="array" ref="X92">IF(LEN(INDEX(Base!92:92,0,MATCH(Planilha2!$U92,Base!92:92,0)+2))&gt;2,LEFT(INDEX(Base!92:92,0,MATCH(Planilha2!$U92,Base!92:92,0)+2),1),INDEX(Base!92:92,0,MATCH(Planilha2!$U92,Base!92:92,0)+2))</f>
+        <f t="array" ref="X92">IF(LEN(INDEX(Base!92:92,0,MATCH(Output!$U92,Base!92:92,0)+2))&gt;2,LEFT(INDEX(Base!92:92,0,MATCH(Output!$U92,Base!92:92,0)+2),1),INDEX(Base!92:92,0,MATCH(Output!$U92,Base!92:92,0)+2))</f>
         <v>4</v>
       </c>
       <c r="Y92" t="str" cm="1">
-        <f t="array" ref="Y92">IF(LEN(INDEX(Base!92:92,0,MATCH(Planilha2!$U92,Base!92:92,0)+2))&gt;2,LEFT(INDEX(Base!92:92,0,MATCH(Planilha2!$U92,Base!92:92,0)+2),1),INDEX(Base!92:92,0,MATCH(Planilha2!$U92,Base!92:92,0)+2))</f>
+        <f t="array" ref="Y92">IF(LEN(INDEX(Base!92:92,0,MATCH(Output!$U92,Base!92:92,0)+2))&gt;2,LEFT(INDEX(Base!92:92,0,MATCH(Output!$U92,Base!92:92,0)+2),1),INDEX(Base!92:92,0,MATCH(Output!$U92,Base!92:92,0)+2))</f>
         <v>4</v>
       </c>
     </row>
-    <row r="93" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A93">
+        <f t="shared" si="1"/>
+        <v>91</v>
+      </c>
       <c r="B93" t="str">
         <f>IF(OR(ISNUMBER(FIND(Configurações!$B$4,Base!B93)),ISNUMBER(FIND(Configurações!$B$5,Base!B93)),ISNUMBER(FIND(Configurações!$B$6,Base!B93)),ISNUMBER(FIND(Configurações!$B$7,Base!B93)),ISNUMBER(FIND(Configurações!$B$8,Base!B93)))=TRUE,Base!B93,0)</f>
         <v>destaque</v>
@@ -13663,7 +14012,7 @@
         <f>IF(TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("IPTU",Base!C93)),ISNUMBER(FIND("iptu",Base!C93)))=TRUE,RIGHT(Base!C93,5),0),"R$",""),"$",""))="0",TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("IPTU",Base!D93)),ISNUMBER(FIND("iptu",Base!D93)))=TRUE,RIGHT(Base!D93,5),0),"R$",""),"$","")),TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("iptu",Base!C93)),ISNUMBER(FIND("IPTU",Base!C93)))=TRUE,RIGHT(Base!C93,5),0),"R$",""),"$","")))</f>
         <v>0</v>
       </c>
-      <c r="F93" s="5" t="str" cm="1">
+      <c r="F93" s="4" t="str" cm="1">
         <f t="array" ref="F93">INDEX(Base!93:93,MATCH(MAX(LEN(Base!93:93)),LEN(Base!93:93),0))</f>
         <v>Apartamento 3 quartos Nova Iguaçu. Localizado no procurado Edifício Rossi Exclusivo, Área nobre de Nova Iguaçu. Amplo apto de 3 quartos, 1 suíte, Lavabo, ARMÁRIOS Planejados em tod...</v>
       </c>
@@ -13716,23 +14065,27 @@
         <v>Rua Mauro de Almeida Flores, Centro</v>
       </c>
       <c r="V93" t="str" cm="1">
-        <f t="array" ref="V93">TRIM(SUBSTITUTE(INDEX(Base!93:93,0,MATCH(Planilha2!$U93,Base!93:93,0)+1),"m²",""))</f>
+        <f t="array" ref="V93">TRIM(SUBSTITUTE(INDEX(Base!93:93,0,MATCH(Output!$U93,Base!93:93,0)+1),"m²",""))</f>
         <v>102</v>
       </c>
       <c r="W93" t="str" cm="1">
-        <f t="array" ref="W93">IF(LEN(INDEX(Base!93:93,0,MATCH(Planilha2!$U93,Base!93:93,0)+2))&gt;2,LEFT(INDEX(Base!93:93,0,MATCH(Planilha2!$U93,Base!93:93,0)+2),1),INDEX(Base!93:93,0,MATCH(Planilha2!$U93,Base!93:93,0)+2))</f>
+        <f t="array" ref="W93">IF(LEN(INDEX(Base!93:93,0,MATCH(Output!$U93,Base!93:93,0)+2))&gt;2,LEFT(INDEX(Base!93:93,0,MATCH(Output!$U93,Base!93:93,0)+2),1),INDEX(Base!93:93,0,MATCH(Output!$U93,Base!93:93,0)+2))</f>
         <v>3</v>
       </c>
       <c r="X93" t="str" cm="1">
-        <f t="array" ref="X93">IF(LEN(INDEX(Base!93:93,0,MATCH(Planilha2!$U93,Base!93:93,0)+2))&gt;2,LEFT(INDEX(Base!93:93,0,MATCH(Planilha2!$U93,Base!93:93,0)+2),1),INDEX(Base!93:93,0,MATCH(Planilha2!$U93,Base!93:93,0)+2))</f>
+        <f t="array" ref="X93">IF(LEN(INDEX(Base!93:93,0,MATCH(Output!$U93,Base!93:93,0)+2))&gt;2,LEFT(INDEX(Base!93:93,0,MATCH(Output!$U93,Base!93:93,0)+2),1),INDEX(Base!93:93,0,MATCH(Output!$U93,Base!93:93,0)+2))</f>
         <v>3</v>
       </c>
       <c r="Y93" t="str" cm="1">
-        <f t="array" ref="Y93">IF(LEN(INDEX(Base!93:93,0,MATCH(Planilha2!$U93,Base!93:93,0)+2))&gt;2,LEFT(INDEX(Base!93:93,0,MATCH(Planilha2!$U93,Base!93:93,0)+2),1),INDEX(Base!93:93,0,MATCH(Planilha2!$U93,Base!93:93,0)+2))</f>
+        <f t="array" ref="Y93">IF(LEN(INDEX(Base!93:93,0,MATCH(Output!$U93,Base!93:93,0)+2))&gt;2,LEFT(INDEX(Base!93:93,0,MATCH(Output!$U93,Base!93:93,0)+2),1),INDEX(Base!93:93,0,MATCH(Output!$U93,Base!93:93,0)+2))</f>
         <v>3</v>
       </c>
     </row>
-    <row r="94" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <f t="shared" si="1"/>
+        <v>92</v>
+      </c>
       <c r="B94">
         <f>IF(OR(ISNUMBER(FIND(Configurações!$B$4,Base!B94)),ISNUMBER(FIND(Configurações!$B$5,Base!B94)),ISNUMBER(FIND(Configurações!$B$6,Base!B94)),ISNUMBER(FIND(Configurações!$B$7,Base!B94)),ISNUMBER(FIND(Configurações!$B$8,Base!B94)))=TRUE,Base!B94,0)</f>
         <v>0</v>
@@ -13749,7 +14102,7 @@
         <f>IF(TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("IPTU",Base!C94)),ISNUMBER(FIND("iptu",Base!C94)))=TRUE,RIGHT(Base!C94,5),0),"R$",""),"$",""))="0",TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("IPTU",Base!D94)),ISNUMBER(FIND("iptu",Base!D94)))=TRUE,RIGHT(Base!D94,5),0),"R$",""),"$","")),TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("iptu",Base!C94)),ISNUMBER(FIND("IPTU",Base!C94)))=TRUE,RIGHT(Base!C94,5),0),"R$",""),"$","")))</f>
         <v>100</v>
       </c>
-      <c r="F94" s="5" t="str" cm="1">
+      <c r="F94" s="4" t="str" cm="1">
         <f t="array" ref="F94">INDEX(Base!94:94,MATCH(MAX(LEN(Base!94:94)),LEN(Base!94:94),0))</f>
         <v>Casa ao lado do ponto final do ponto chic Nova Iguaçu, comércio e condução na porta. 1 pavimento uma casa com 2 quartos, sala, cozinha, banheiro e vaga de garagem e 2º pavimento co...</v>
       </c>
@@ -13802,23 +14155,27 @@
         <v>Estrada Velha de São José, Ponto Chic</v>
       </c>
       <c r="V94" t="str" cm="1">
-        <f t="array" ref="V94">TRIM(SUBSTITUTE(INDEX(Base!94:94,0,MATCH(Planilha2!$U94,Base!94:94,0)+1),"m²",""))</f>
+        <f t="array" ref="V94">TRIM(SUBSTITUTE(INDEX(Base!94:94,0,MATCH(Output!$U94,Base!94:94,0)+1),"m²",""))</f>
         <v>150</v>
       </c>
       <c r="W94" t="str" cm="1">
-        <f t="array" ref="W94">IF(LEN(INDEX(Base!94:94,0,MATCH(Planilha2!$U94,Base!94:94,0)+2))&gt;2,LEFT(INDEX(Base!94:94,0,MATCH(Planilha2!$U94,Base!94:94,0)+2),1),INDEX(Base!94:94,0,MATCH(Planilha2!$U94,Base!94:94,0)+2))</f>
+        <f t="array" ref="W94">IF(LEN(INDEX(Base!94:94,0,MATCH(Output!$U94,Base!94:94,0)+2))&gt;2,LEFT(INDEX(Base!94:94,0,MATCH(Output!$U94,Base!94:94,0)+2),1),INDEX(Base!94:94,0,MATCH(Output!$U94,Base!94:94,0)+2))</f>
         <v>4</v>
       </c>
       <c r="X94" t="str" cm="1">
-        <f t="array" ref="X94">IF(LEN(INDEX(Base!94:94,0,MATCH(Planilha2!$U94,Base!94:94,0)+2))&gt;2,LEFT(INDEX(Base!94:94,0,MATCH(Planilha2!$U94,Base!94:94,0)+2),1),INDEX(Base!94:94,0,MATCH(Planilha2!$U94,Base!94:94,0)+2))</f>
+        <f t="array" ref="X94">IF(LEN(INDEX(Base!94:94,0,MATCH(Output!$U94,Base!94:94,0)+2))&gt;2,LEFT(INDEX(Base!94:94,0,MATCH(Output!$U94,Base!94:94,0)+2),1),INDEX(Base!94:94,0,MATCH(Output!$U94,Base!94:94,0)+2))</f>
         <v>4</v>
       </c>
       <c r="Y94" t="str" cm="1">
-        <f t="array" ref="Y94">IF(LEN(INDEX(Base!94:94,0,MATCH(Planilha2!$U94,Base!94:94,0)+2))&gt;2,LEFT(INDEX(Base!94:94,0,MATCH(Planilha2!$U94,Base!94:94,0)+2),1),INDEX(Base!94:94,0,MATCH(Planilha2!$U94,Base!94:94,0)+2))</f>
+        <f t="array" ref="Y94">IF(LEN(INDEX(Base!94:94,0,MATCH(Output!$U94,Base!94:94,0)+2))&gt;2,LEFT(INDEX(Base!94:94,0,MATCH(Output!$U94,Base!94:94,0)+2),1),INDEX(Base!94:94,0,MATCH(Output!$U94,Base!94:94,0)+2))</f>
         <v>4</v>
       </c>
     </row>
-    <row r="95" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <f t="shared" si="1"/>
+        <v>93</v>
+      </c>
       <c r="B95" t="str">
         <f>IF(OR(ISNUMBER(FIND(Configurações!$B$4,Base!B95)),ISNUMBER(FIND(Configurações!$B$5,Base!B95)),ISNUMBER(FIND(Configurações!$B$6,Base!B95)),ISNUMBER(FIND(Configurações!$B$7,Base!B95)),ISNUMBER(FIND(Configurações!$B$8,Base!B95)))=TRUE,Base!B95,0)</f>
         <v>destaque</v>
@@ -13835,7 +14192,7 @@
         <f>IF(TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("IPTU",Base!C95)),ISNUMBER(FIND("iptu",Base!C95)))=TRUE,RIGHT(Base!C95,5),0),"R$",""),"$",""))="0",TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("IPTU",Base!D95)),ISNUMBER(FIND("iptu",Base!D95)))=TRUE,RIGHT(Base!D95,5),0),"R$",""),"$","")),TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("iptu",Base!C95)),ISNUMBER(FIND("IPTU",Base!C95)))=TRUE,RIGHT(Base!C95,5),0),"R$",""),"$","")))</f>
         <v>77</v>
       </c>
-      <c r="F95" s="5" t="str" cm="1">
+      <c r="F95" s="4" t="str" cm="1">
         <f t="array" ref="F95">INDEX(Base!95:95,MATCH(MAX(LEN(Base!95:95)),LEN(Base!95:95),0))</f>
         <v>Vendo Casa excelente com 3 quartos em condomínio fechado Vivendas do Bosque Bairro da Luz Nova Iguaçu, com dois banheiros, cozinha espaçosa, copa, sala boa, varandão e vaga para 2...</v>
       </c>
@@ -13888,23 +14245,27 @@
         <v>Rua Coronel Bernardino de Melo, da Luz</v>
       </c>
       <c r="V95" t="str" cm="1">
-        <f t="array" ref="V95">TRIM(SUBSTITUTE(INDEX(Base!95:95,0,MATCH(Planilha2!$U95,Base!95:95,0)+1),"m²",""))</f>
+        <f t="array" ref="V95">TRIM(SUBSTITUTE(INDEX(Base!95:95,0,MATCH(Output!$U95,Base!95:95,0)+1),"m²",""))</f>
         <v>100</v>
       </c>
       <c r="W95" t="str" cm="1">
-        <f t="array" ref="W95">IF(LEN(INDEX(Base!95:95,0,MATCH(Planilha2!$U95,Base!95:95,0)+2))&gt;2,LEFT(INDEX(Base!95:95,0,MATCH(Planilha2!$U95,Base!95:95,0)+2),1),INDEX(Base!95:95,0,MATCH(Planilha2!$U95,Base!95:95,0)+2))</f>
+        <f t="array" ref="W95">IF(LEN(INDEX(Base!95:95,0,MATCH(Output!$U95,Base!95:95,0)+2))&gt;2,LEFT(INDEX(Base!95:95,0,MATCH(Output!$U95,Base!95:95,0)+2),1),INDEX(Base!95:95,0,MATCH(Output!$U95,Base!95:95,0)+2))</f>
         <v>3</v>
       </c>
       <c r="X95" t="str" cm="1">
-        <f t="array" ref="X95">IF(LEN(INDEX(Base!95:95,0,MATCH(Planilha2!$U95,Base!95:95,0)+2))&gt;2,LEFT(INDEX(Base!95:95,0,MATCH(Planilha2!$U95,Base!95:95,0)+2),1),INDEX(Base!95:95,0,MATCH(Planilha2!$U95,Base!95:95,0)+2))</f>
+        <f t="array" ref="X95">IF(LEN(INDEX(Base!95:95,0,MATCH(Output!$U95,Base!95:95,0)+2))&gt;2,LEFT(INDEX(Base!95:95,0,MATCH(Output!$U95,Base!95:95,0)+2),1),INDEX(Base!95:95,0,MATCH(Output!$U95,Base!95:95,0)+2))</f>
         <v>3</v>
       </c>
       <c r="Y95" t="str" cm="1">
-        <f t="array" ref="Y95">IF(LEN(INDEX(Base!95:95,0,MATCH(Planilha2!$U95,Base!95:95,0)+2))&gt;2,LEFT(INDEX(Base!95:95,0,MATCH(Planilha2!$U95,Base!95:95,0)+2),1),INDEX(Base!95:95,0,MATCH(Planilha2!$U95,Base!95:95,0)+2))</f>
+        <f t="array" ref="Y95">IF(LEN(INDEX(Base!95:95,0,MATCH(Output!$U95,Base!95:95,0)+2))&gt;2,LEFT(INDEX(Base!95:95,0,MATCH(Output!$U95,Base!95:95,0)+2),1),INDEX(Base!95:95,0,MATCH(Output!$U95,Base!95:95,0)+2))</f>
         <v>3</v>
       </c>
     </row>
-    <row r="96" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <f t="shared" si="1"/>
+        <v>94</v>
+      </c>
       <c r="B96" t="str">
         <f>IF(OR(ISNUMBER(FIND(Configurações!$B$4,Base!B96)),ISNUMBER(FIND(Configurações!$B$5,Base!B96)),ISNUMBER(FIND(Configurações!$B$6,Base!B96)),ISNUMBER(FIND(Configurações!$B$7,Base!B96)),ISNUMBER(FIND(Configurações!$B$8,Base!B96)))=TRUE,Base!B96,0)</f>
         <v>destaque</v>
@@ -13921,7 +14282,7 @@
         <f>IF(TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("IPTU",Base!C96)),ISNUMBER(FIND("iptu",Base!C96)))=TRUE,RIGHT(Base!C96,5),0),"R$",""),"$",""))="0",TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("IPTU",Base!D96)),ISNUMBER(FIND("iptu",Base!D96)))=TRUE,RIGHT(Base!D96,5),0),"R$",""),"$","")),TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("iptu",Base!C96)),ISNUMBER(FIND("IPTU",Base!C96)))=TRUE,RIGHT(Base!C96,5),0),"R$",""),"$","")))</f>
         <v>0</v>
       </c>
-      <c r="F96" s="5" t="str" cm="1">
+      <c r="F96" s="4" t="str" cm="1">
         <f t="array" ref="F96">INDEX(Base!96:96,MATCH(MAX(LEN(Base!96:96)),LEN(Base!96:96),0))</f>
         <v>Casa frente para rua (84,82m²) Garagem - Sala (escada em granito), Cozinha espaçosa , Lavabo, Área de serviço...</v>
       </c>
@@ -13974,23 +14335,27 @@
         <v>Rua Eugênio Kan, Jardim da Viga</v>
       </c>
       <c r="V96" t="str" cm="1">
-        <f t="array" ref="V96">TRIM(SUBSTITUTE(INDEX(Base!96:96,0,MATCH(Planilha2!$U96,Base!96:96,0)+1),"m²",""))</f>
+        <f t="array" ref="V96">TRIM(SUBSTITUTE(INDEX(Base!96:96,0,MATCH(Output!$U96,Base!96:96,0)+1),"m²",""))</f>
         <v>94</v>
       </c>
       <c r="W96" t="str" cm="1">
-        <f t="array" ref="W96">IF(LEN(INDEX(Base!96:96,0,MATCH(Planilha2!$U96,Base!96:96,0)+2))&gt;2,LEFT(INDEX(Base!96:96,0,MATCH(Planilha2!$U96,Base!96:96,0)+2),1),INDEX(Base!96:96,0,MATCH(Planilha2!$U96,Base!96:96,0)+2))</f>
+        <f t="array" ref="W96">IF(LEN(INDEX(Base!96:96,0,MATCH(Output!$U96,Base!96:96,0)+2))&gt;2,LEFT(INDEX(Base!96:96,0,MATCH(Output!$U96,Base!96:96,0)+2),1),INDEX(Base!96:96,0,MATCH(Output!$U96,Base!96:96,0)+2))</f>
         <v>3</v>
       </c>
       <c r="X96" t="str" cm="1">
-        <f t="array" ref="X96">IF(LEN(INDEX(Base!96:96,0,MATCH(Planilha2!$U96,Base!96:96,0)+2))&gt;2,LEFT(INDEX(Base!96:96,0,MATCH(Planilha2!$U96,Base!96:96,0)+2),1),INDEX(Base!96:96,0,MATCH(Planilha2!$U96,Base!96:96,0)+2))</f>
+        <f t="array" ref="X96">IF(LEN(INDEX(Base!96:96,0,MATCH(Output!$U96,Base!96:96,0)+2))&gt;2,LEFT(INDEX(Base!96:96,0,MATCH(Output!$U96,Base!96:96,0)+2),1),INDEX(Base!96:96,0,MATCH(Output!$U96,Base!96:96,0)+2))</f>
         <v>3</v>
       </c>
       <c r="Y96" t="str" cm="1">
-        <f t="array" ref="Y96">IF(LEN(INDEX(Base!96:96,0,MATCH(Planilha2!$U96,Base!96:96,0)+2))&gt;2,LEFT(INDEX(Base!96:96,0,MATCH(Planilha2!$U96,Base!96:96,0)+2),1),INDEX(Base!96:96,0,MATCH(Planilha2!$U96,Base!96:96,0)+2))</f>
+        <f t="array" ref="Y96">IF(LEN(INDEX(Base!96:96,0,MATCH(Output!$U96,Base!96:96,0)+2))&gt;2,LEFT(INDEX(Base!96:96,0,MATCH(Output!$U96,Base!96:96,0)+2),1),INDEX(Base!96:96,0,MATCH(Output!$U96,Base!96:96,0)+2))</f>
         <v>3</v>
       </c>
     </row>
-    <row r="97" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <f t="shared" si="1"/>
+        <v>95</v>
+      </c>
       <c r="B97">
         <f>IF(OR(ISNUMBER(FIND(Configurações!$B$4,Base!B97)),ISNUMBER(FIND(Configurações!$B$5,Base!B97)),ISNUMBER(FIND(Configurações!$B$6,Base!B97)),ISNUMBER(FIND(Configurações!$B$7,Base!B97)),ISNUMBER(FIND(Configurações!$B$8,Base!B97)))=TRUE,Base!B97,0)</f>
         <v>0</v>
@@ -14007,7 +14372,7 @@
         <f>IF(TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("IPTU",Base!C97)),ISNUMBER(FIND("iptu",Base!C97)))=TRUE,RIGHT(Base!C97,5),0),"R$",""),"$",""))="0",TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("IPTU",Base!D97)),ISNUMBER(FIND("iptu",Base!D97)))=TRUE,RIGHT(Base!D97,5),0),"R$",""),"$","")),TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("iptu",Base!C97)),ISNUMBER(FIND("IPTU",Base!C97)))=TRUE,RIGHT(Base!C97,5),0),"R$",""),"$","")))</f>
         <v>60</v>
       </c>
-      <c r="F97" s="5" t="str" cm="1">
+      <c r="F97" s="4" t="str" cm="1">
         <f t="array" ref="F97">INDEX(Base!97:97,MATCH(MAX(LEN(Base!97:97)),LEN(Base!97:97),0))</f>
         <v>Vendo apartamento 2 quartos no Condomínio Dez em Nova Iguaçu. Possui sala ampla ,varanda, quartos, banheiro com blindex e área de serviço. Com vaga de garagem. Area de lazer comple...</v>
       </c>
@@ -14060,23 +14425,27 @@
         <v>Rua Doutor Barros Júnior, Rancho Novo</v>
       </c>
       <c r="V97" t="str" cm="1">
-        <f t="array" ref="V97">TRIM(SUBSTITUTE(INDEX(Base!97:97,0,MATCH(Planilha2!$U97,Base!97:97,0)+1),"m²",""))</f>
+        <f t="array" ref="V97">TRIM(SUBSTITUTE(INDEX(Base!97:97,0,MATCH(Output!$U97,Base!97:97,0)+1),"m²",""))</f>
         <v>55</v>
       </c>
       <c r="W97" t="str" cm="1">
-        <f t="array" ref="W97">IF(LEN(INDEX(Base!97:97,0,MATCH(Planilha2!$U97,Base!97:97,0)+2))&gt;2,LEFT(INDEX(Base!97:97,0,MATCH(Planilha2!$U97,Base!97:97,0)+2),1),INDEX(Base!97:97,0,MATCH(Planilha2!$U97,Base!97:97,0)+2))</f>
+        <f t="array" ref="W97">IF(LEN(INDEX(Base!97:97,0,MATCH(Output!$U97,Base!97:97,0)+2))&gt;2,LEFT(INDEX(Base!97:97,0,MATCH(Output!$U97,Base!97:97,0)+2),1),INDEX(Base!97:97,0,MATCH(Output!$U97,Base!97:97,0)+2))</f>
         <v>2</v>
       </c>
       <c r="X97" t="str" cm="1">
-        <f t="array" ref="X97">IF(LEN(INDEX(Base!97:97,0,MATCH(Planilha2!$U97,Base!97:97,0)+2))&gt;2,LEFT(INDEX(Base!97:97,0,MATCH(Planilha2!$U97,Base!97:97,0)+2),1),INDEX(Base!97:97,0,MATCH(Planilha2!$U97,Base!97:97,0)+2))</f>
+        <f t="array" ref="X97">IF(LEN(INDEX(Base!97:97,0,MATCH(Output!$U97,Base!97:97,0)+2))&gt;2,LEFT(INDEX(Base!97:97,0,MATCH(Output!$U97,Base!97:97,0)+2),1),INDEX(Base!97:97,0,MATCH(Output!$U97,Base!97:97,0)+2))</f>
         <v>2</v>
       </c>
       <c r="Y97" t="str" cm="1">
-        <f t="array" ref="Y97">IF(LEN(INDEX(Base!97:97,0,MATCH(Planilha2!$U97,Base!97:97,0)+2))&gt;2,LEFT(INDEX(Base!97:97,0,MATCH(Planilha2!$U97,Base!97:97,0)+2),1),INDEX(Base!97:97,0,MATCH(Planilha2!$U97,Base!97:97,0)+2))</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="98" spans="2:25" x14ac:dyDescent="0.3">
+        <f t="array" ref="Y97">IF(LEN(INDEX(Base!97:97,0,MATCH(Output!$U97,Base!97:97,0)+2))&gt;2,LEFT(INDEX(Base!97:97,0,MATCH(Output!$U97,Base!97:97,0)+2),1),INDEX(Base!97:97,0,MATCH(Output!$U97,Base!97:97,0)+2))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A98">
+        <f t="shared" si="1"/>
+        <v>96</v>
+      </c>
       <c r="B98" t="str">
         <f>IF(OR(ISNUMBER(FIND(Configurações!$B$4,Base!B98)),ISNUMBER(FIND(Configurações!$B$5,Base!B98)),ISNUMBER(FIND(Configurações!$B$6,Base!B98)),ISNUMBER(FIND(Configurações!$B$7,Base!B98)),ISNUMBER(FIND(Configurações!$B$8,Base!B98)))=TRUE,Base!B98,0)</f>
         <v>na planta</v>
@@ -14093,7 +14462,7 @@
         <f>IF(TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("IPTU",Base!C98)),ISNUMBER(FIND("iptu",Base!C98)))=TRUE,RIGHT(Base!C98,5),0),"R$",""),"$",""))="0",TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("IPTU",Base!D98)),ISNUMBER(FIND("iptu",Base!D98)))=TRUE,RIGHT(Base!D98,5),0),"R$",""),"$","")),TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("iptu",Base!C98)),ISNUMBER(FIND("IPTU",Base!C98)))=TRUE,RIGHT(Base!C98,5),0),"R$",""),"$","")))</f>
         <v>0</v>
       </c>
-      <c r="F98" s="5" t="str" cm="1">
+      <c r="F98" s="4" t="str" cm="1">
         <f t="array" ref="F98">INDEX(Base!98:98,MATCH(MAX(LEN(Base!98:98)),LEN(Base!98:98),0))</f>
         <v>Apartamentos incríveis dentro de um verdadeiro Condomínio Clube! Dois quartos com 66m² e três quartos com 86m²! Todos com suíte, varandão e uma vaga! Prédio com fachada muito difer...</v>
       </c>
@@ -14146,23 +14515,27 @@
         <v>Avenida Pernambucana, Vila Rosali</v>
       </c>
       <c r="V98" t="str" cm="1">
-        <f t="array" ref="V98">TRIM(SUBSTITUTE(INDEX(Base!98:98,0,MATCH(Planilha2!$U98,Base!98:98,0)+1),"m²",""))</f>
+        <f t="array" ref="V98">TRIM(SUBSTITUTE(INDEX(Base!98:98,0,MATCH(Output!$U98,Base!98:98,0)+1),"m²",""))</f>
         <v>66 - 86</v>
       </c>
       <c r="W98" t="str" cm="1">
-        <f t="array" ref="W98">IF(LEN(INDEX(Base!98:98,0,MATCH(Planilha2!$U98,Base!98:98,0)+2))&gt;2,LEFT(INDEX(Base!98:98,0,MATCH(Planilha2!$U98,Base!98:98,0)+2),1),INDEX(Base!98:98,0,MATCH(Planilha2!$U98,Base!98:98,0)+2))</f>
+        <f t="array" ref="W98">IF(LEN(INDEX(Base!98:98,0,MATCH(Output!$U98,Base!98:98,0)+2))&gt;2,LEFT(INDEX(Base!98:98,0,MATCH(Output!$U98,Base!98:98,0)+2),1),INDEX(Base!98:98,0,MATCH(Output!$U98,Base!98:98,0)+2))</f>
         <v>2</v>
       </c>
       <c r="X98" t="str" cm="1">
-        <f t="array" ref="X98">IF(LEN(INDEX(Base!98:98,0,MATCH(Planilha2!$U98,Base!98:98,0)+2))&gt;2,LEFT(INDEX(Base!98:98,0,MATCH(Planilha2!$U98,Base!98:98,0)+2),1),INDEX(Base!98:98,0,MATCH(Planilha2!$U98,Base!98:98,0)+2))</f>
+        <f t="array" ref="X98">IF(LEN(INDEX(Base!98:98,0,MATCH(Output!$U98,Base!98:98,0)+2))&gt;2,LEFT(INDEX(Base!98:98,0,MATCH(Output!$U98,Base!98:98,0)+2),1),INDEX(Base!98:98,0,MATCH(Output!$U98,Base!98:98,0)+2))</f>
         <v>2</v>
       </c>
       <c r="Y98" t="str" cm="1">
-        <f t="array" ref="Y98">IF(LEN(INDEX(Base!98:98,0,MATCH(Planilha2!$U98,Base!98:98,0)+2))&gt;2,LEFT(INDEX(Base!98:98,0,MATCH(Planilha2!$U98,Base!98:98,0)+2),1),INDEX(Base!98:98,0,MATCH(Planilha2!$U98,Base!98:98,0)+2))</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="99" spans="2:25" x14ac:dyDescent="0.3">
+        <f t="array" ref="Y98">IF(LEN(INDEX(Base!98:98,0,MATCH(Output!$U98,Base!98:98,0)+2))&gt;2,LEFT(INDEX(Base!98:98,0,MATCH(Output!$U98,Base!98:98,0)+2),1),INDEX(Base!98:98,0,MATCH(Output!$U98,Base!98:98,0)+2))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A99">
+        <f t="shared" si="1"/>
+        <v>97</v>
+      </c>
       <c r="B99" t="str">
         <f>IF(OR(ISNUMBER(FIND(Configurações!$B$4,Base!B99)),ISNUMBER(FIND(Configurações!$B$5,Base!B99)),ISNUMBER(FIND(Configurações!$B$6,Base!B99)),ISNUMBER(FIND(Configurações!$B$7,Base!B99)),ISNUMBER(FIND(Configurações!$B$8,Base!B99)))=TRUE,Base!B99,0)</f>
         <v>em construção</v>
@@ -14179,7 +14552,7 @@
         <f>IF(TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("IPTU",Base!C99)),ISNUMBER(FIND("iptu",Base!C99)))=TRUE,RIGHT(Base!C99,5),0),"R$",""),"$",""))="0",TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("IPTU",Base!D99)),ISNUMBER(FIND("iptu",Base!D99)))=TRUE,RIGHT(Base!D99,5),0),"R$",""),"$","")),TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("iptu",Base!C99)),ISNUMBER(FIND("IPTU",Base!C99)))=TRUE,RIGHT(Base!C99,5),0),"R$",""),"$","")))</f>
         <v>0</v>
       </c>
-      <c r="F99" s="5" t="str" cm="1">
+      <c r="F99" s="4" t="str" cm="1">
         <f t="array" ref="F99">INDEX(Base!99:99,MATCH(MAX(LEN(Base!99:99)),LEN(Base!99:99),0))</f>
         <v>No Viva Vida Naturale, você torna o dia a dia da sua família muito mais divertido. Tendo a tranquilidade de saber que, bem pertinho de casa, você e sua família vão ter sempre à dis...</v>
       </c>
@@ -14232,23 +14605,27 @@
         <v>Avenida Subtenente Manoel Henrique da Cunha Rabelo, São Vicente</v>
       </c>
       <c r="V99" t="str" cm="1">
-        <f t="array" ref="V99">TRIM(SUBSTITUTE(INDEX(Base!99:99,0,MATCH(Planilha2!$U99,Base!99:99,0)+1),"m²",""))</f>
+        <f t="array" ref="V99">TRIM(SUBSTITUTE(INDEX(Base!99:99,0,MATCH(Output!$U99,Base!99:99,0)+1),"m²",""))</f>
         <v>50</v>
       </c>
       <c r="W99" t="str" cm="1">
-        <f t="array" ref="W99">IF(LEN(INDEX(Base!99:99,0,MATCH(Planilha2!$U99,Base!99:99,0)+2))&gt;2,LEFT(INDEX(Base!99:99,0,MATCH(Planilha2!$U99,Base!99:99,0)+2),1),INDEX(Base!99:99,0,MATCH(Planilha2!$U99,Base!99:99,0)+2))</f>
+        <f t="array" ref="W99">IF(LEN(INDEX(Base!99:99,0,MATCH(Output!$U99,Base!99:99,0)+2))&gt;2,LEFT(INDEX(Base!99:99,0,MATCH(Output!$U99,Base!99:99,0)+2),1),INDEX(Base!99:99,0,MATCH(Output!$U99,Base!99:99,0)+2))</f>
         <v>2</v>
       </c>
       <c r="X99" t="str" cm="1">
-        <f t="array" ref="X99">IF(LEN(INDEX(Base!99:99,0,MATCH(Planilha2!$U99,Base!99:99,0)+2))&gt;2,LEFT(INDEX(Base!99:99,0,MATCH(Planilha2!$U99,Base!99:99,0)+2),1),INDEX(Base!99:99,0,MATCH(Planilha2!$U99,Base!99:99,0)+2))</f>
+        <f t="array" ref="X99">IF(LEN(INDEX(Base!99:99,0,MATCH(Output!$U99,Base!99:99,0)+2))&gt;2,LEFT(INDEX(Base!99:99,0,MATCH(Output!$U99,Base!99:99,0)+2),1),INDEX(Base!99:99,0,MATCH(Output!$U99,Base!99:99,0)+2))</f>
         <v>2</v>
       </c>
       <c r="Y99" t="str" cm="1">
-        <f t="array" ref="Y99">IF(LEN(INDEX(Base!99:99,0,MATCH(Planilha2!$U99,Base!99:99,0)+2))&gt;2,LEFT(INDEX(Base!99:99,0,MATCH(Planilha2!$U99,Base!99:99,0)+2),1),INDEX(Base!99:99,0,MATCH(Planilha2!$U99,Base!99:99,0)+2))</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="100" spans="2:25" x14ac:dyDescent="0.3">
+        <f t="array" ref="Y99">IF(LEN(INDEX(Base!99:99,0,MATCH(Output!$U99,Base!99:99,0)+2))&gt;2,LEFT(INDEX(Base!99:99,0,MATCH(Output!$U99,Base!99:99,0)+2),1),INDEX(Base!99:99,0,MATCH(Output!$U99,Base!99:99,0)+2))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A100">
+        <f t="shared" si="1"/>
+        <v>98</v>
+      </c>
       <c r="B100" t="str">
         <f>IF(OR(ISNUMBER(FIND(Configurações!$B$4,Base!B100)),ISNUMBER(FIND(Configurações!$B$5,Base!B100)),ISNUMBER(FIND(Configurações!$B$6,Base!B100)),ISNUMBER(FIND(Configurações!$B$7,Base!B100)),ISNUMBER(FIND(Configurações!$B$8,Base!B100)))=TRUE,Base!B100,0)</f>
         <v>em construção</v>
@@ -14265,7 +14642,7 @@
         <f>IF(TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("IPTU",Base!C100)),ISNUMBER(FIND("iptu",Base!C100)))=TRUE,RIGHT(Base!C100,5),0),"R$",""),"$",""))="0",TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("IPTU",Base!D100)),ISNUMBER(FIND("iptu",Base!D100)))=TRUE,RIGHT(Base!D100,5),0),"R$",""),"$","")),TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("iptu",Base!C100)),ISNUMBER(FIND("IPTU",Base!C100)))=TRUE,RIGHT(Base!C100,5),0),"R$",""),"$","")))</f>
         <v>0</v>
       </c>
-      <c r="F100" s="5" t="str" cm="1">
+      <c r="F100" s="4" t="str" cm="1">
         <f t="array" ref="F100">INDEX(Base!100:100,MATCH(MAX(LEN(Base!100:100)),LEN(Base!100:100),0))</f>
         <v>Condomínio fechado com apartamentos de 2 quartos em Campo Grande. Segurança, tranquilidade, conforto e lazer com piscina para sua família se divertir sem sair de casa. O Rio Rock o...</v>
       </c>
@@ -14318,23 +14695,27 @@
         <v>Caminho do Encanamento, Campo Grande</v>
       </c>
       <c r="V100" t="str" cm="1">
-        <f t="array" ref="V100">TRIM(SUBSTITUTE(INDEX(Base!100:100,0,MATCH(Planilha2!$U100,Base!100:100,0)+1),"m²",""))</f>
+        <f t="array" ref="V100">TRIM(SUBSTITUTE(INDEX(Base!100:100,0,MATCH(Output!$U100,Base!100:100,0)+1),"m²",""))</f>
         <v>41 - 45</v>
       </c>
       <c r="W100" t="str" cm="1">
-        <f t="array" ref="W100">IF(LEN(INDEX(Base!100:100,0,MATCH(Planilha2!$U100,Base!100:100,0)+2))&gt;2,LEFT(INDEX(Base!100:100,0,MATCH(Planilha2!$U100,Base!100:100,0)+2),1),INDEX(Base!100:100,0,MATCH(Planilha2!$U100,Base!100:100,0)+2))</f>
+        <f t="array" ref="W100">IF(LEN(INDEX(Base!100:100,0,MATCH(Output!$U100,Base!100:100,0)+2))&gt;2,LEFT(INDEX(Base!100:100,0,MATCH(Output!$U100,Base!100:100,0)+2),1),INDEX(Base!100:100,0,MATCH(Output!$U100,Base!100:100,0)+2))</f>
         <v>2</v>
       </c>
       <c r="X100" t="str" cm="1">
-        <f t="array" ref="X100">IF(LEN(INDEX(Base!100:100,0,MATCH(Planilha2!$U100,Base!100:100,0)+2))&gt;2,LEFT(INDEX(Base!100:100,0,MATCH(Planilha2!$U100,Base!100:100,0)+2),1),INDEX(Base!100:100,0,MATCH(Planilha2!$U100,Base!100:100,0)+2))</f>
+        <f t="array" ref="X100">IF(LEN(INDEX(Base!100:100,0,MATCH(Output!$U100,Base!100:100,0)+2))&gt;2,LEFT(INDEX(Base!100:100,0,MATCH(Output!$U100,Base!100:100,0)+2),1),INDEX(Base!100:100,0,MATCH(Output!$U100,Base!100:100,0)+2))</f>
         <v>2</v>
       </c>
       <c r="Y100" t="str" cm="1">
-        <f t="array" ref="Y100">IF(LEN(INDEX(Base!100:100,0,MATCH(Planilha2!$U100,Base!100:100,0)+2))&gt;2,LEFT(INDEX(Base!100:100,0,MATCH(Planilha2!$U100,Base!100:100,0)+2),1),INDEX(Base!100:100,0,MATCH(Planilha2!$U100,Base!100:100,0)+2))</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="101" spans="2:25" x14ac:dyDescent="0.3">
+        <f t="array" ref="Y100">IF(LEN(INDEX(Base!100:100,0,MATCH(Output!$U100,Base!100:100,0)+2))&gt;2,LEFT(INDEX(Base!100:100,0,MATCH(Output!$U100,Base!100:100,0)+2),1),INDEX(Base!100:100,0,MATCH(Output!$U100,Base!100:100,0)+2))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A101">
+        <f t="shared" si="1"/>
+        <v>99</v>
+      </c>
       <c r="B101" t="str">
         <f>IF(OR(ISNUMBER(FIND(Configurações!$B$4,Base!B101)),ISNUMBER(FIND(Configurações!$B$5,Base!B101)),ISNUMBER(FIND(Configurações!$B$6,Base!B101)),ISNUMBER(FIND(Configurações!$B$7,Base!B101)),ISNUMBER(FIND(Configurações!$B$8,Base!B101)))=TRUE,Base!B101,0)</f>
         <v>super destaque</v>
@@ -14351,7 +14732,7 @@
         <f>IF(TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("IPTU",Base!C101)),ISNUMBER(FIND("iptu",Base!C101)))=TRUE,RIGHT(Base!C101,5),0),"R$",""),"$",""))="0",TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("IPTU",Base!D101)),ISNUMBER(FIND("iptu",Base!D101)))=TRUE,RIGHT(Base!D101,5),0),"R$",""),"$","")),TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("iptu",Base!C101)),ISNUMBER(FIND("IPTU",Base!C101)))=TRUE,RIGHT(Base!C101,5),0),"R$",""),"$","")))</f>
         <v>400</v>
       </c>
-      <c r="F101" s="5" t="str" cm="1">
+      <c r="F101" s="4" t="str" cm="1">
         <f t="array" ref="F101">INDEX(Base!101:101,MATCH(MAX(LEN(Base!101:101)),LEN(Base!101:101),0))</f>
         <v>Excelentes apartamentos com 2/3 qtos + Garden todos com suítes, varanda e vaga de garagem com metragens que variam de 53m² 106....</v>
       </c>
@@ -14404,23 +14785,27 @@
         <v>Rua Doutor Barros Júnior, Moqueta</v>
       </c>
       <c r="V101" t="str" cm="1">
-        <f t="array" ref="V101">TRIM(SUBSTITUTE(INDEX(Base!101:101,0,MATCH(Planilha2!$U101,Base!101:101,0)+1),"m²",""))</f>
+        <f t="array" ref="V101">TRIM(SUBSTITUTE(INDEX(Base!101:101,0,MATCH(Output!$U101,Base!101:101,0)+1),"m²",""))</f>
         <v>53</v>
       </c>
       <c r="W101" t="str" cm="1">
-        <f t="array" ref="W101">IF(LEN(INDEX(Base!101:101,0,MATCH(Planilha2!$U101,Base!101:101,0)+2))&gt;2,LEFT(INDEX(Base!101:101,0,MATCH(Planilha2!$U101,Base!101:101,0)+2),1),INDEX(Base!101:101,0,MATCH(Planilha2!$U101,Base!101:101,0)+2))</f>
+        <f t="array" ref="W101">IF(LEN(INDEX(Base!101:101,0,MATCH(Output!$U101,Base!101:101,0)+2))&gt;2,LEFT(INDEX(Base!101:101,0,MATCH(Output!$U101,Base!101:101,0)+2),1),INDEX(Base!101:101,0,MATCH(Output!$U101,Base!101:101,0)+2))</f>
         <v>2</v>
       </c>
       <c r="X101" t="str" cm="1">
-        <f t="array" ref="X101">IF(LEN(INDEX(Base!101:101,0,MATCH(Planilha2!$U101,Base!101:101,0)+2))&gt;2,LEFT(INDEX(Base!101:101,0,MATCH(Planilha2!$U101,Base!101:101,0)+2),1),INDEX(Base!101:101,0,MATCH(Planilha2!$U101,Base!101:101,0)+2))</f>
+        <f t="array" ref="X101">IF(LEN(INDEX(Base!101:101,0,MATCH(Output!$U101,Base!101:101,0)+2))&gt;2,LEFT(INDEX(Base!101:101,0,MATCH(Output!$U101,Base!101:101,0)+2),1),INDEX(Base!101:101,0,MATCH(Output!$U101,Base!101:101,0)+2))</f>
         <v>2</v>
       </c>
       <c r="Y101" t="str" cm="1">
-        <f t="array" ref="Y101">IF(LEN(INDEX(Base!101:101,0,MATCH(Planilha2!$U101,Base!101:101,0)+2))&gt;2,LEFT(INDEX(Base!101:101,0,MATCH(Planilha2!$U101,Base!101:101,0)+2),1),INDEX(Base!101:101,0,MATCH(Planilha2!$U101,Base!101:101,0)+2))</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="102" spans="2:25" x14ac:dyDescent="0.3">
+        <f t="array" ref="Y101">IF(LEN(INDEX(Base!101:101,0,MATCH(Output!$U101,Base!101:101,0)+2))&gt;2,LEFT(INDEX(Base!101:101,0,MATCH(Output!$U101,Base!101:101,0)+2),1),INDEX(Base!101:101,0,MATCH(Output!$U101,Base!101:101,0)+2))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A102">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
       <c r="B102" t="str">
         <f>IF(OR(ISNUMBER(FIND(Configurações!$B$4,Base!B102)),ISNUMBER(FIND(Configurações!$B$5,Base!B102)),ISNUMBER(FIND(Configurações!$B$6,Base!B102)),ISNUMBER(FIND(Configurações!$B$7,Base!B102)),ISNUMBER(FIND(Configurações!$B$8,Base!B102)))=TRUE,Base!B102,0)</f>
         <v>super destaque</v>
@@ -14437,7 +14822,7 @@
         <f>IF(TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("IPTU",Base!C102)),ISNUMBER(FIND("iptu",Base!C102)))=TRUE,RIGHT(Base!C102,5),0),"R$",""),"$",""))="0",TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("IPTU",Base!D102)),ISNUMBER(FIND("iptu",Base!D102)))=TRUE,RIGHT(Base!D102,5),0),"R$",""),"$","")),TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("iptu",Base!C102)),ISNUMBER(FIND("IPTU",Base!C102)))=TRUE,RIGHT(Base!C102,5),0),"R$",""),"$","")))</f>
         <v>150</v>
       </c>
-      <c r="F102" s="5" t="str" cm="1">
+      <c r="F102" s="4" t="str" cm="1">
         <f t="array" ref="F102">INDEX(Base!102:102,MATCH(MAX(LEN(Base!102:102)),LEN(Base!102:102),0))</f>
         <v>aproveite para montar o seu negócio no centro de nova iguaçu, sala pronta e com acesso para deficientes,4 Elevadores,entrada lateral,portaria 24 horas,internet sem fio (sistema Wi-...</v>
       </c>
@@ -14490,23 +14875,27 @@
         <v>Rua Coronel Bernardino de Melo, Centro</v>
       </c>
       <c r="V102" t="str" cm="1">
-        <f t="array" ref="V102">TRIM(SUBSTITUTE(INDEX(Base!102:102,0,MATCH(Planilha2!$U102,Base!102:102,0)+1),"m²",""))</f>
+        <f t="array" ref="V102">TRIM(SUBSTITUTE(INDEX(Base!102:102,0,MATCH(Output!$U102,Base!102:102,0)+1),"m²",""))</f>
         <v>50</v>
       </c>
       <c r="W102" cm="1">
-        <f t="array" ref="W102">IF(LEN(INDEX(Base!102:102,0,MATCH(Planilha2!$U102,Base!102:102,0)+2))&gt;2,LEFT(INDEX(Base!102:102,0,MATCH(Planilha2!$U102,Base!102:102,0)+2),1),INDEX(Base!102:102,0,MATCH(Planilha2!$U102,Base!102:102,0)+2))</f>
+        <f t="array" ref="W102">IF(LEN(INDEX(Base!102:102,0,MATCH(Output!$U102,Base!102:102,0)+2))&gt;2,LEFT(INDEX(Base!102:102,0,MATCH(Output!$U102,Base!102:102,0)+2),1),INDEX(Base!102:102,0,MATCH(Output!$U102,Base!102:102,0)+2))</f>
         <v>0</v>
       </c>
       <c r="X102" cm="1">
-        <f t="array" ref="X102">IF(LEN(INDEX(Base!102:102,0,MATCH(Planilha2!$U102,Base!102:102,0)+2))&gt;2,LEFT(INDEX(Base!102:102,0,MATCH(Planilha2!$U102,Base!102:102,0)+2),1),INDEX(Base!102:102,0,MATCH(Planilha2!$U102,Base!102:102,0)+2))</f>
+        <f t="array" ref="X102">IF(LEN(INDEX(Base!102:102,0,MATCH(Output!$U102,Base!102:102,0)+2))&gt;2,LEFT(INDEX(Base!102:102,0,MATCH(Output!$U102,Base!102:102,0)+2),1),INDEX(Base!102:102,0,MATCH(Output!$U102,Base!102:102,0)+2))</f>
         <v>0</v>
       </c>
       <c r="Y102" cm="1">
-        <f t="array" ref="Y102">IF(LEN(INDEX(Base!102:102,0,MATCH(Planilha2!$U102,Base!102:102,0)+2))&gt;2,LEFT(INDEX(Base!102:102,0,MATCH(Planilha2!$U102,Base!102:102,0)+2),1),INDEX(Base!102:102,0,MATCH(Planilha2!$U102,Base!102:102,0)+2))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="2:25" x14ac:dyDescent="0.3">
+        <f t="array" ref="Y102">IF(LEN(INDEX(Base!102:102,0,MATCH(Output!$U102,Base!102:102,0)+2))&gt;2,LEFT(INDEX(Base!102:102,0,MATCH(Output!$U102,Base!102:102,0)+2),1),INDEX(Base!102:102,0,MATCH(Output!$U102,Base!102:102,0)+2))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A103">
+        <f t="shared" si="1"/>
+        <v>101</v>
+      </c>
       <c r="B103" t="str">
         <f>IF(OR(ISNUMBER(FIND(Configurações!$B$4,Base!B103)),ISNUMBER(FIND(Configurações!$B$5,Base!B103)),ISNUMBER(FIND(Configurações!$B$6,Base!B103)),ISNUMBER(FIND(Configurações!$B$7,Base!B103)),ISNUMBER(FIND(Configurações!$B$8,Base!B103)))=TRUE,Base!B103,0)</f>
         <v>super destaque</v>
@@ -14523,7 +14912,7 @@
         <f>IF(TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("IPTU",Base!C103)),ISNUMBER(FIND("iptu",Base!C103)))=TRUE,RIGHT(Base!C103,5),0),"R$",""),"$",""))="0",TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("IPTU",Base!D103)),ISNUMBER(FIND("iptu",Base!D103)))=TRUE,RIGHT(Base!D103,5),0),"R$",""),"$","")),TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("iptu",Base!C103)),ISNUMBER(FIND("IPTU",Base!C103)))=TRUE,RIGHT(Base!C103,5),0),"R$",""),"$","")))</f>
         <v>846</v>
       </c>
-      <c r="F103" s="5" t="str" cm="1">
+      <c r="F103" s="4" t="str" cm="1">
         <f t="array" ref="F103">INDEX(Base!103:103,MATCH(MAX(LEN(Base!103:103)),LEN(Base!103:103),0))</f>
         <v>Sabe aquela casa agradável para receber os amigos e seus familiares? Ela existe. É uma casa independente em bairro residencial com ruas asfaltadas, bons imóveis, próximo a Dutra, a...</v>
       </c>
@@ -14576,23 +14965,27 @@
         <v>Rua Newton Gonçalves Barros, Jardim Esplanada</v>
       </c>
       <c r="V103" t="str" cm="1">
-        <f t="array" ref="V103">TRIM(SUBSTITUTE(INDEX(Base!103:103,0,MATCH(Planilha2!$U103,Base!103:103,0)+1),"m²",""))</f>
+        <f t="array" ref="V103">TRIM(SUBSTITUTE(INDEX(Base!103:103,0,MATCH(Output!$U103,Base!103:103,0)+1),"m²",""))</f>
         <v>100</v>
       </c>
       <c r="W103" t="str" cm="1">
-        <f t="array" ref="W103">IF(LEN(INDEX(Base!103:103,0,MATCH(Planilha2!$U103,Base!103:103,0)+2))&gt;2,LEFT(INDEX(Base!103:103,0,MATCH(Planilha2!$U103,Base!103:103,0)+2),1),INDEX(Base!103:103,0,MATCH(Planilha2!$U103,Base!103:103,0)+2))</f>
+        <f t="array" ref="W103">IF(LEN(INDEX(Base!103:103,0,MATCH(Output!$U103,Base!103:103,0)+2))&gt;2,LEFT(INDEX(Base!103:103,0,MATCH(Output!$U103,Base!103:103,0)+2),1),INDEX(Base!103:103,0,MATCH(Output!$U103,Base!103:103,0)+2))</f>
         <v>3</v>
       </c>
       <c r="X103" t="str" cm="1">
-        <f t="array" ref="X103">IF(LEN(INDEX(Base!103:103,0,MATCH(Planilha2!$U103,Base!103:103,0)+2))&gt;2,LEFT(INDEX(Base!103:103,0,MATCH(Planilha2!$U103,Base!103:103,0)+2),1),INDEX(Base!103:103,0,MATCH(Planilha2!$U103,Base!103:103,0)+2))</f>
+        <f t="array" ref="X103">IF(LEN(INDEX(Base!103:103,0,MATCH(Output!$U103,Base!103:103,0)+2))&gt;2,LEFT(INDEX(Base!103:103,0,MATCH(Output!$U103,Base!103:103,0)+2),1),INDEX(Base!103:103,0,MATCH(Output!$U103,Base!103:103,0)+2))</f>
         <v>3</v>
       </c>
       <c r="Y103" t="str" cm="1">
-        <f t="array" ref="Y103">IF(LEN(INDEX(Base!103:103,0,MATCH(Planilha2!$U103,Base!103:103,0)+2))&gt;2,LEFT(INDEX(Base!103:103,0,MATCH(Planilha2!$U103,Base!103:103,0)+2),1),INDEX(Base!103:103,0,MATCH(Planilha2!$U103,Base!103:103,0)+2))</f>
+        <f t="array" ref="Y103">IF(LEN(INDEX(Base!103:103,0,MATCH(Output!$U103,Base!103:103,0)+2))&gt;2,LEFT(INDEX(Base!103:103,0,MATCH(Output!$U103,Base!103:103,0)+2),1),INDEX(Base!103:103,0,MATCH(Output!$U103,Base!103:103,0)+2))</f>
         <v>3</v>
       </c>
     </row>
-    <row r="104" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A104">
+        <f t="shared" si="1"/>
+        <v>102</v>
+      </c>
       <c r="B104">
         <f>IF(OR(ISNUMBER(FIND(Configurações!$B$4,Base!B104)),ISNUMBER(FIND(Configurações!$B$5,Base!B104)),ISNUMBER(FIND(Configurações!$B$6,Base!B104)),ISNUMBER(FIND(Configurações!$B$7,Base!B104)),ISNUMBER(FIND(Configurações!$B$8,Base!B104)))=TRUE,Base!B104,0)</f>
         <v>0</v>
@@ -14609,7 +15002,7 @@
         <f>IF(TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("IPTU",Base!C104)),ISNUMBER(FIND("iptu",Base!C104)))=TRUE,RIGHT(Base!C104,5),0),"R$",""),"$",""))="0",TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("IPTU",Base!D104)),ISNUMBER(FIND("iptu",Base!D104)))=TRUE,RIGHT(Base!D104,5),0),"R$",""),"$","")),TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("iptu",Base!C104)),ISNUMBER(FIND("IPTU",Base!C104)))=TRUE,RIGHT(Base!C104,5),0),"R$",""),"$","")))</f>
         <v>260</v>
       </c>
-      <c r="F104" s="5" t="str" cm="1">
+      <c r="F104" s="4" t="str" cm="1">
         <f t="array" ref="F104">INDEX(Base!104:104,MATCH(MAX(LEN(Base!104:104)),LEN(Base!104:104),0))</f>
         <v>Cód: CIAP20048. Excelente apartamento, com 92 m2, varandão, sala, 2 ambientes, 2 quartos, sendo 1 suíte, hidromassagem, banheiro social, cozinha planejada, áreas de serviço e livre...</v>
       </c>
@@ -14662,23 +15055,27 @@
         <v>Rua João Bento Calixto, Santa Eugênia</v>
       </c>
       <c r="V104" t="str" cm="1">
-        <f t="array" ref="V104">TRIM(SUBSTITUTE(INDEX(Base!104:104,0,MATCH(Planilha2!$U104,Base!104:104,0)+1),"m²",""))</f>
+        <f t="array" ref="V104">TRIM(SUBSTITUTE(INDEX(Base!104:104,0,MATCH(Output!$U104,Base!104:104,0)+1),"m²",""))</f>
         <v>92</v>
       </c>
       <c r="W104" t="str" cm="1">
-        <f t="array" ref="W104">IF(LEN(INDEX(Base!104:104,0,MATCH(Planilha2!$U104,Base!104:104,0)+2))&gt;2,LEFT(INDEX(Base!104:104,0,MATCH(Planilha2!$U104,Base!104:104,0)+2),1),INDEX(Base!104:104,0,MATCH(Planilha2!$U104,Base!104:104,0)+2))</f>
+        <f t="array" ref="W104">IF(LEN(INDEX(Base!104:104,0,MATCH(Output!$U104,Base!104:104,0)+2))&gt;2,LEFT(INDEX(Base!104:104,0,MATCH(Output!$U104,Base!104:104,0)+2),1),INDEX(Base!104:104,0,MATCH(Output!$U104,Base!104:104,0)+2))</f>
         <v>2</v>
       </c>
       <c r="X104" t="str" cm="1">
-        <f t="array" ref="X104">IF(LEN(INDEX(Base!104:104,0,MATCH(Planilha2!$U104,Base!104:104,0)+2))&gt;2,LEFT(INDEX(Base!104:104,0,MATCH(Planilha2!$U104,Base!104:104,0)+2),1),INDEX(Base!104:104,0,MATCH(Planilha2!$U104,Base!104:104,0)+2))</f>
+        <f t="array" ref="X104">IF(LEN(INDEX(Base!104:104,0,MATCH(Output!$U104,Base!104:104,0)+2))&gt;2,LEFT(INDEX(Base!104:104,0,MATCH(Output!$U104,Base!104:104,0)+2),1),INDEX(Base!104:104,0,MATCH(Output!$U104,Base!104:104,0)+2))</f>
         <v>2</v>
       </c>
       <c r="Y104" t="str" cm="1">
-        <f t="array" ref="Y104">IF(LEN(INDEX(Base!104:104,0,MATCH(Planilha2!$U104,Base!104:104,0)+2))&gt;2,LEFT(INDEX(Base!104:104,0,MATCH(Planilha2!$U104,Base!104:104,0)+2),1),INDEX(Base!104:104,0,MATCH(Planilha2!$U104,Base!104:104,0)+2))</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="105" spans="2:25" x14ac:dyDescent="0.3">
+        <f t="array" ref="Y104">IF(LEN(INDEX(Base!104:104,0,MATCH(Output!$U104,Base!104:104,0)+2))&gt;2,LEFT(INDEX(Base!104:104,0,MATCH(Output!$U104,Base!104:104,0)+2),1),INDEX(Base!104:104,0,MATCH(Output!$U104,Base!104:104,0)+2))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A105">
+        <f t="shared" si="1"/>
+        <v>103</v>
+      </c>
       <c r="B105" t="str">
         <f>IF(OR(ISNUMBER(FIND(Configurações!$B$4,Base!B105)),ISNUMBER(FIND(Configurações!$B$5,Base!B105)),ISNUMBER(FIND(Configurações!$B$6,Base!B105)),ISNUMBER(FIND(Configurações!$B$7,Base!B105)),ISNUMBER(FIND(Configurações!$B$8,Base!B105)))=TRUE,Base!B105,0)</f>
         <v>destaque</v>
@@ -14695,7 +15092,7 @@
         <f>IF(TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("IPTU",Base!C105)),ISNUMBER(FIND("iptu",Base!C105)))=TRUE,RIGHT(Base!C105,5),0),"R$",""),"$",""))="0",TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("IPTU",Base!D105)),ISNUMBER(FIND("iptu",Base!D105)))=TRUE,RIGHT(Base!D105,5),0),"R$",""),"$","")),TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("iptu",Base!C105)),ISNUMBER(FIND("IPTU",Base!C105)))=TRUE,RIGHT(Base!C105,5),0),"R$",""),"$","")))</f>
         <v>825</v>
       </c>
-      <c r="F105" s="5" t="str" cm="1">
+      <c r="F105" s="4" t="str" cm="1">
         <f t="array" ref="F105">INDEX(Base!105:105,MATCH(MAX(LEN(Base!105:105)),LEN(Base!105:105),0))</f>
         <v>Vendo ou alugo apartamento no Condomínio Bosque das Águas em Nova Iguaçu. Planta confortável 2 quartos sendo 1 suíte, Sala com ar condicionado, Varanda com vista livre, Cozinha com...</v>
       </c>
@@ -14748,23 +15145,27 @@
         <v>Estrada Doutor Plínio Casado, Prata</v>
       </c>
       <c r="V105" t="str" cm="1">
-        <f t="array" ref="V105">TRIM(SUBSTITUTE(INDEX(Base!105:105,0,MATCH(Planilha2!$U105,Base!105:105,0)+1),"m²",""))</f>
+        <f t="array" ref="V105">TRIM(SUBSTITUTE(INDEX(Base!105:105,0,MATCH(Output!$U105,Base!105:105,0)+1),"m²",""))</f>
         <v>75</v>
       </c>
       <c r="W105" t="str" cm="1">
-        <f t="array" ref="W105">IF(LEN(INDEX(Base!105:105,0,MATCH(Planilha2!$U105,Base!105:105,0)+2))&gt;2,LEFT(INDEX(Base!105:105,0,MATCH(Planilha2!$U105,Base!105:105,0)+2),1),INDEX(Base!105:105,0,MATCH(Planilha2!$U105,Base!105:105,0)+2))</f>
+        <f t="array" ref="W105">IF(LEN(INDEX(Base!105:105,0,MATCH(Output!$U105,Base!105:105,0)+2))&gt;2,LEFT(INDEX(Base!105:105,0,MATCH(Output!$U105,Base!105:105,0)+2),1),INDEX(Base!105:105,0,MATCH(Output!$U105,Base!105:105,0)+2))</f>
         <v>2</v>
       </c>
       <c r="X105" t="str" cm="1">
-        <f t="array" ref="X105">IF(LEN(INDEX(Base!105:105,0,MATCH(Planilha2!$U105,Base!105:105,0)+2))&gt;2,LEFT(INDEX(Base!105:105,0,MATCH(Planilha2!$U105,Base!105:105,0)+2),1),INDEX(Base!105:105,0,MATCH(Planilha2!$U105,Base!105:105,0)+2))</f>
+        <f t="array" ref="X105">IF(LEN(INDEX(Base!105:105,0,MATCH(Output!$U105,Base!105:105,0)+2))&gt;2,LEFT(INDEX(Base!105:105,0,MATCH(Output!$U105,Base!105:105,0)+2),1),INDEX(Base!105:105,0,MATCH(Output!$U105,Base!105:105,0)+2))</f>
         <v>2</v>
       </c>
       <c r="Y105" t="str" cm="1">
-        <f t="array" ref="Y105">IF(LEN(INDEX(Base!105:105,0,MATCH(Planilha2!$U105,Base!105:105,0)+2))&gt;2,LEFT(INDEX(Base!105:105,0,MATCH(Planilha2!$U105,Base!105:105,0)+2),1),INDEX(Base!105:105,0,MATCH(Planilha2!$U105,Base!105:105,0)+2))</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="106" spans="2:25" x14ac:dyDescent="0.3">
+        <f t="array" ref="Y105">IF(LEN(INDEX(Base!105:105,0,MATCH(Output!$U105,Base!105:105,0)+2))&gt;2,LEFT(INDEX(Base!105:105,0,MATCH(Output!$U105,Base!105:105,0)+2),1),INDEX(Base!105:105,0,MATCH(Output!$U105,Base!105:105,0)+2))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A106">
+        <f t="shared" si="1"/>
+        <v>104</v>
+      </c>
       <c r="B106">
         <f>IF(OR(ISNUMBER(FIND(Configurações!$B$4,Base!B106)),ISNUMBER(FIND(Configurações!$B$5,Base!B106)),ISNUMBER(FIND(Configurações!$B$6,Base!B106)),ISNUMBER(FIND(Configurações!$B$7,Base!B106)),ISNUMBER(FIND(Configurações!$B$8,Base!B106)))=TRUE,Base!B106,0)</f>
         <v>0</v>
@@ -14781,7 +15182,7 @@
         <f>IF(TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("IPTU",Base!C106)),ISNUMBER(FIND("iptu",Base!C106)))=TRUE,RIGHT(Base!C106,5),0),"R$",""),"$",""))="0",TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("IPTU",Base!D106)),ISNUMBER(FIND("iptu",Base!D106)))=TRUE,RIGHT(Base!D106,5),0),"R$",""),"$","")),TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("iptu",Base!C106)),ISNUMBER(FIND("IPTU",Base!C106)))=TRUE,RIGHT(Base!C106,5),0),"R$",""),"$","")))</f>
         <v>1.350</v>
       </c>
-      <c r="F106" s="5" t="str" cm="1">
+      <c r="F106" s="4" t="str" cm="1">
         <f t="array" ref="F106">INDEX(Base!106:106,MATCH(MAX(LEN(Base!106:106)),LEN(Base!106:106),0))</f>
         <v>Excelente imóvel estilo colonial, no conceituado Bairro da Luz, próximo ao Shopping Nova Iguaçu e da Via Light. São duas casas localizadas no mesmo terreno, dentro do Condomínio Ge...</v>
       </c>
@@ -14834,23 +15235,27 @@
         <v>Rua Gérson Chernichard, da Luz</v>
       </c>
       <c r="V106" t="str" cm="1">
-        <f t="array" ref="V106">TRIM(SUBSTITUTE(INDEX(Base!106:106,0,MATCH(Planilha2!$U106,Base!106:106,0)+1),"m²",""))</f>
+        <f t="array" ref="V106">TRIM(SUBSTITUTE(INDEX(Base!106:106,0,MATCH(Output!$U106,Base!106:106,0)+1),"m²",""))</f>
         <v>190</v>
       </c>
       <c r="W106" t="str" cm="1">
-        <f t="array" ref="W106">IF(LEN(INDEX(Base!106:106,0,MATCH(Planilha2!$U106,Base!106:106,0)+2))&gt;2,LEFT(INDEX(Base!106:106,0,MATCH(Planilha2!$U106,Base!106:106,0)+2),1),INDEX(Base!106:106,0,MATCH(Planilha2!$U106,Base!106:106,0)+2))</f>
+        <f t="array" ref="W106">IF(LEN(INDEX(Base!106:106,0,MATCH(Output!$U106,Base!106:106,0)+2))&gt;2,LEFT(INDEX(Base!106:106,0,MATCH(Output!$U106,Base!106:106,0)+2),1),INDEX(Base!106:106,0,MATCH(Output!$U106,Base!106:106,0)+2))</f>
         <v>5</v>
       </c>
       <c r="X106" t="str" cm="1">
-        <f t="array" ref="X106">IF(LEN(INDEX(Base!106:106,0,MATCH(Planilha2!$U106,Base!106:106,0)+2))&gt;2,LEFT(INDEX(Base!106:106,0,MATCH(Planilha2!$U106,Base!106:106,0)+2),1),INDEX(Base!106:106,0,MATCH(Planilha2!$U106,Base!106:106,0)+2))</f>
+        <f t="array" ref="X106">IF(LEN(INDEX(Base!106:106,0,MATCH(Output!$U106,Base!106:106,0)+2))&gt;2,LEFT(INDEX(Base!106:106,0,MATCH(Output!$U106,Base!106:106,0)+2),1),INDEX(Base!106:106,0,MATCH(Output!$U106,Base!106:106,0)+2))</f>
         <v>5</v>
       </c>
       <c r="Y106" t="str" cm="1">
-        <f t="array" ref="Y106">IF(LEN(INDEX(Base!106:106,0,MATCH(Planilha2!$U106,Base!106:106,0)+2))&gt;2,LEFT(INDEX(Base!106:106,0,MATCH(Planilha2!$U106,Base!106:106,0)+2),1),INDEX(Base!106:106,0,MATCH(Planilha2!$U106,Base!106:106,0)+2))</f>
+        <f t="array" ref="Y106">IF(LEN(INDEX(Base!106:106,0,MATCH(Output!$U106,Base!106:106,0)+2))&gt;2,LEFT(INDEX(Base!106:106,0,MATCH(Output!$U106,Base!106:106,0)+2),1),INDEX(Base!106:106,0,MATCH(Output!$U106,Base!106:106,0)+2))</f>
         <v>5</v>
       </c>
     </row>
-    <row r="107" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A107">
+        <f t="shared" si="1"/>
+        <v>105</v>
+      </c>
       <c r="B107" t="str">
         <f>IF(OR(ISNUMBER(FIND(Configurações!$B$4,Base!B107)),ISNUMBER(FIND(Configurações!$B$5,Base!B107)),ISNUMBER(FIND(Configurações!$B$6,Base!B107)),ISNUMBER(FIND(Configurações!$B$7,Base!B107)),ISNUMBER(FIND(Configurações!$B$8,Base!B107)))=TRUE,Base!B107,0)</f>
         <v>destaque</v>
@@ -14867,7 +15272,7 @@
         <f>IF(TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("IPTU",Base!C107)),ISNUMBER(FIND("iptu",Base!C107)))=TRUE,RIGHT(Base!C107,5),0),"R$",""),"$",""))="0",TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("IPTU",Base!D107)),ISNUMBER(FIND("iptu",Base!D107)))=TRUE,RIGHT(Base!D107,5),0),"R$",""),"$","")),TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("iptu",Base!C107)),ISNUMBER(FIND("IPTU",Base!C107)))=TRUE,RIGHT(Base!C107,5),0),"R$",""),"$","")))</f>
         <v>1</v>
       </c>
-      <c r="F107" s="5" t="str" cm="1">
+      <c r="F107" s="4" t="str" cm="1">
         <f t="array" ref="F107">INDEX(Base!107:107,MATCH(MAX(LEN(Base!107:107)),LEN(Base!107:107),0))</f>
         <v>FINANCIAMOS POR QUALQUER BANCO DA SUA ESCOLHA. Apartamento moderno e espaçoso, bem localizado. Possui ampla sala com 3 quartos, uma suíte, com 2 vagas, piso em cerâmica, banheiro,...</v>
       </c>
@@ -14920,23 +15325,27 @@
         <v>Rua Luís de Camões, Centro</v>
       </c>
       <c r="V107" t="str" cm="1">
-        <f t="array" ref="V107">TRIM(SUBSTITUTE(INDEX(Base!107:107,0,MATCH(Planilha2!$U107,Base!107:107,0)+1),"m²",""))</f>
+        <f t="array" ref="V107">TRIM(SUBSTITUTE(INDEX(Base!107:107,0,MATCH(Output!$U107,Base!107:107,0)+1),"m²",""))</f>
         <v>84</v>
       </c>
       <c r="W107" t="str" cm="1">
-        <f t="array" ref="W107">IF(LEN(INDEX(Base!107:107,0,MATCH(Planilha2!$U107,Base!107:107,0)+2))&gt;2,LEFT(INDEX(Base!107:107,0,MATCH(Planilha2!$U107,Base!107:107,0)+2),1),INDEX(Base!107:107,0,MATCH(Planilha2!$U107,Base!107:107,0)+2))</f>
+        <f t="array" ref="W107">IF(LEN(INDEX(Base!107:107,0,MATCH(Output!$U107,Base!107:107,0)+2))&gt;2,LEFT(INDEX(Base!107:107,0,MATCH(Output!$U107,Base!107:107,0)+2),1),INDEX(Base!107:107,0,MATCH(Output!$U107,Base!107:107,0)+2))</f>
         <v>3</v>
       </c>
       <c r="X107" t="str" cm="1">
-        <f t="array" ref="X107">IF(LEN(INDEX(Base!107:107,0,MATCH(Planilha2!$U107,Base!107:107,0)+2))&gt;2,LEFT(INDEX(Base!107:107,0,MATCH(Planilha2!$U107,Base!107:107,0)+2),1),INDEX(Base!107:107,0,MATCH(Planilha2!$U107,Base!107:107,0)+2))</f>
+        <f t="array" ref="X107">IF(LEN(INDEX(Base!107:107,0,MATCH(Output!$U107,Base!107:107,0)+2))&gt;2,LEFT(INDEX(Base!107:107,0,MATCH(Output!$U107,Base!107:107,0)+2),1),INDEX(Base!107:107,0,MATCH(Output!$U107,Base!107:107,0)+2))</f>
         <v>3</v>
       </c>
       <c r="Y107" t="str" cm="1">
-        <f t="array" ref="Y107">IF(LEN(INDEX(Base!107:107,0,MATCH(Planilha2!$U107,Base!107:107,0)+2))&gt;2,LEFT(INDEX(Base!107:107,0,MATCH(Planilha2!$U107,Base!107:107,0)+2),1),INDEX(Base!107:107,0,MATCH(Planilha2!$U107,Base!107:107,0)+2))</f>
+        <f t="array" ref="Y107">IF(LEN(INDEX(Base!107:107,0,MATCH(Output!$U107,Base!107:107,0)+2))&gt;2,LEFT(INDEX(Base!107:107,0,MATCH(Output!$U107,Base!107:107,0)+2),1),INDEX(Base!107:107,0,MATCH(Output!$U107,Base!107:107,0)+2))</f>
         <v>3</v>
       </c>
     </row>
-    <row r="108" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A108">
+        <f t="shared" si="1"/>
+        <v>106</v>
+      </c>
       <c r="B108">
         <f>IF(OR(ISNUMBER(FIND(Configurações!$B$4,Base!B108)),ISNUMBER(FIND(Configurações!$B$5,Base!B108)),ISNUMBER(FIND(Configurações!$B$6,Base!B108)),ISNUMBER(FIND(Configurações!$B$7,Base!B108)),ISNUMBER(FIND(Configurações!$B$8,Base!B108)))=TRUE,Base!B108,0)</f>
         <v>0</v>
@@ -14953,7 +15362,7 @@
         <f>IF(TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("IPTU",Base!C108)),ISNUMBER(FIND("iptu",Base!C108)))=TRUE,RIGHT(Base!C108,5),0),"R$",""),"$",""))="0",TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("IPTU",Base!D108)),ISNUMBER(FIND("iptu",Base!D108)))=TRUE,RIGHT(Base!D108,5),0),"R$",""),"$","")),TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("iptu",Base!C108)),ISNUMBER(FIND("IPTU",Base!C108)))=TRUE,RIGHT(Base!C108,5),0),"R$",""),"$","")))</f>
         <v>110</v>
       </c>
-      <c r="F108" s="5" t="str" cm="1">
+      <c r="F108" s="4" t="str" cm="1">
         <f t="array" ref="F108">INDEX(Base!108:108,MATCH(MAX(LEN(Base!108:108)),LEN(Base!108:108),0))</f>
         <v>Venda casa 3 quartos Moqueta Nova Iguaçu, sala ampla , 3 quartos , banheiro , cozinha espaçosa , sala de jantar, varanda na frente e fundos , área de serviço separada, piscina , es...</v>
       </c>
@@ -15006,23 +15415,27 @@
         <v>Rua Pedro Antônio Pereira, Moqueta</v>
       </c>
       <c r="V108" t="str" cm="1">
-        <f t="array" ref="V108">TRIM(SUBSTITUTE(INDEX(Base!108:108,0,MATCH(Planilha2!$U108,Base!108:108,0)+1),"m²",""))</f>
+        <f t="array" ref="V108">TRIM(SUBSTITUTE(INDEX(Base!108:108,0,MATCH(Output!$U108,Base!108:108,0)+1),"m²",""))</f>
         <v>250</v>
       </c>
       <c r="W108" t="str" cm="1">
-        <f t="array" ref="W108">IF(LEN(INDEX(Base!108:108,0,MATCH(Planilha2!$U108,Base!108:108,0)+2))&gt;2,LEFT(INDEX(Base!108:108,0,MATCH(Planilha2!$U108,Base!108:108,0)+2),1),INDEX(Base!108:108,0,MATCH(Planilha2!$U108,Base!108:108,0)+2))</f>
+        <f t="array" ref="W108">IF(LEN(INDEX(Base!108:108,0,MATCH(Output!$U108,Base!108:108,0)+2))&gt;2,LEFT(INDEX(Base!108:108,0,MATCH(Output!$U108,Base!108:108,0)+2),1),INDEX(Base!108:108,0,MATCH(Output!$U108,Base!108:108,0)+2))</f>
         <v>3</v>
       </c>
       <c r="X108" t="str" cm="1">
-        <f t="array" ref="X108">IF(LEN(INDEX(Base!108:108,0,MATCH(Planilha2!$U108,Base!108:108,0)+2))&gt;2,LEFT(INDEX(Base!108:108,0,MATCH(Planilha2!$U108,Base!108:108,0)+2),1),INDEX(Base!108:108,0,MATCH(Planilha2!$U108,Base!108:108,0)+2))</f>
+        <f t="array" ref="X108">IF(LEN(INDEX(Base!108:108,0,MATCH(Output!$U108,Base!108:108,0)+2))&gt;2,LEFT(INDEX(Base!108:108,0,MATCH(Output!$U108,Base!108:108,0)+2),1),INDEX(Base!108:108,0,MATCH(Output!$U108,Base!108:108,0)+2))</f>
         <v>3</v>
       </c>
       <c r="Y108" t="str" cm="1">
-        <f t="array" ref="Y108">IF(LEN(INDEX(Base!108:108,0,MATCH(Planilha2!$U108,Base!108:108,0)+2))&gt;2,LEFT(INDEX(Base!108:108,0,MATCH(Planilha2!$U108,Base!108:108,0)+2),1),INDEX(Base!108:108,0,MATCH(Planilha2!$U108,Base!108:108,0)+2))</f>
+        <f t="array" ref="Y108">IF(LEN(INDEX(Base!108:108,0,MATCH(Output!$U108,Base!108:108,0)+2))&gt;2,LEFT(INDEX(Base!108:108,0,MATCH(Output!$U108,Base!108:108,0)+2),1),INDEX(Base!108:108,0,MATCH(Output!$U108,Base!108:108,0)+2))</f>
         <v>3</v>
       </c>
     </row>
-    <row r="109" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A109">
+        <f t="shared" si="1"/>
+        <v>107</v>
+      </c>
       <c r="B109" t="str">
         <f>IF(OR(ISNUMBER(FIND(Configurações!$B$4,Base!B109)),ISNUMBER(FIND(Configurações!$B$5,Base!B109)),ISNUMBER(FIND(Configurações!$B$6,Base!B109)),ISNUMBER(FIND(Configurações!$B$7,Base!B109)),ISNUMBER(FIND(Configurações!$B$8,Base!B109)))=TRUE,Base!B109,0)</f>
         <v>destaque</v>
@@ -15039,7 +15452,7 @@
         <f>IF(TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("IPTU",Base!C109)),ISNUMBER(FIND("iptu",Base!C109)))=TRUE,RIGHT(Base!C109,5),0),"R$",""),"$",""))="0",TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("IPTU",Base!D109)),ISNUMBER(FIND("iptu",Base!D109)))=TRUE,RIGHT(Base!D109,5),0),"R$",""),"$","")),TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("iptu",Base!C109)),ISNUMBER(FIND("IPTU",Base!C109)))=TRUE,RIGHT(Base!C109,5),0),"R$",""),"$","")))</f>
         <v>0</v>
       </c>
-      <c r="F109" s="5" t="str" cm="1">
+      <c r="F109" s="4" t="str" cm="1">
         <f t="array" ref="F109">INDEX(Base!109:109,MATCH(MAX(LEN(Base!109:109)),LEN(Base!109:109),0))</f>
         <v>Apto 2 quartos nova Iguaçu - Colado ao Top Shopping. Localização privilegiada. Planta confortável de 2 quartos com suíte, NOVO, varanda gourmet com churrasqueira, cozinha com área...</v>
       </c>
@@ -15092,23 +15505,27 @@
         <v>Rua Paschoal Palladino, Centro</v>
       </c>
       <c r="V109" t="str" cm="1">
-        <f t="array" ref="V109">TRIM(SUBSTITUTE(INDEX(Base!109:109,0,MATCH(Planilha2!$U109,Base!109:109,0)+1),"m²",""))</f>
+        <f t="array" ref="V109">TRIM(SUBSTITUTE(INDEX(Base!109:109,0,MATCH(Output!$U109,Base!109:109,0)+1),"m²",""))</f>
         <v>64</v>
       </c>
       <c r="W109" t="str" cm="1">
-        <f t="array" ref="W109">IF(LEN(INDEX(Base!109:109,0,MATCH(Planilha2!$U109,Base!109:109,0)+2))&gt;2,LEFT(INDEX(Base!109:109,0,MATCH(Planilha2!$U109,Base!109:109,0)+2),1),INDEX(Base!109:109,0,MATCH(Planilha2!$U109,Base!109:109,0)+2))</f>
+        <f t="array" ref="W109">IF(LEN(INDEX(Base!109:109,0,MATCH(Output!$U109,Base!109:109,0)+2))&gt;2,LEFT(INDEX(Base!109:109,0,MATCH(Output!$U109,Base!109:109,0)+2),1),INDEX(Base!109:109,0,MATCH(Output!$U109,Base!109:109,0)+2))</f>
         <v>2</v>
       </c>
       <c r="X109" t="str" cm="1">
-        <f t="array" ref="X109">IF(LEN(INDEX(Base!109:109,0,MATCH(Planilha2!$U109,Base!109:109,0)+2))&gt;2,LEFT(INDEX(Base!109:109,0,MATCH(Planilha2!$U109,Base!109:109,0)+2),1),INDEX(Base!109:109,0,MATCH(Planilha2!$U109,Base!109:109,0)+2))</f>
+        <f t="array" ref="X109">IF(LEN(INDEX(Base!109:109,0,MATCH(Output!$U109,Base!109:109,0)+2))&gt;2,LEFT(INDEX(Base!109:109,0,MATCH(Output!$U109,Base!109:109,0)+2),1),INDEX(Base!109:109,0,MATCH(Output!$U109,Base!109:109,0)+2))</f>
         <v>2</v>
       </c>
       <c r="Y109" t="str" cm="1">
-        <f t="array" ref="Y109">IF(LEN(INDEX(Base!109:109,0,MATCH(Planilha2!$U109,Base!109:109,0)+2))&gt;2,LEFT(INDEX(Base!109:109,0,MATCH(Planilha2!$U109,Base!109:109,0)+2),1),INDEX(Base!109:109,0,MATCH(Planilha2!$U109,Base!109:109,0)+2))</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="110" spans="2:25" x14ac:dyDescent="0.3">
+        <f t="array" ref="Y109">IF(LEN(INDEX(Base!109:109,0,MATCH(Output!$U109,Base!109:109,0)+2))&gt;2,LEFT(INDEX(Base!109:109,0,MATCH(Output!$U109,Base!109:109,0)+2),1),INDEX(Base!109:109,0,MATCH(Output!$U109,Base!109:109,0)+2))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A110">
+        <f t="shared" si="1"/>
+        <v>108</v>
+      </c>
       <c r="B110" t="str">
         <f>IF(OR(ISNUMBER(FIND(Configurações!$B$4,Base!B110)),ISNUMBER(FIND(Configurações!$B$5,Base!B110)),ISNUMBER(FIND(Configurações!$B$6,Base!B110)),ISNUMBER(FIND(Configurações!$B$7,Base!B110)),ISNUMBER(FIND(Configurações!$B$8,Base!B110)))=TRUE,Base!B110,0)</f>
         <v>destaque</v>
@@ -15125,7 +15542,7 @@
         <f>IF(TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("IPTU",Base!C110)),ISNUMBER(FIND("iptu",Base!C110)))=TRUE,RIGHT(Base!C110,5),0),"R$",""),"$",""))="0",TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("IPTU",Base!D110)),ISNUMBER(FIND("iptu",Base!D110)))=TRUE,RIGHT(Base!D110,5),0),"R$",""),"$","")),TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("iptu",Base!C110)),ISNUMBER(FIND("IPTU",Base!C110)))=TRUE,RIGHT(Base!C110,5),0),"R$",""),"$","")))</f>
         <v>60</v>
       </c>
-      <c r="F110" s="5" t="str" cm="1">
+      <c r="F110" s="4" t="str" cm="1">
         <f t="array" ref="F110">INDEX(Base!110:110,MATCH(MAX(LEN(Base!110:110)),LEN(Base!110:110),0))</f>
         <v>Vendo casa 4 quartos condomínio Vila Angela Jardim Alvorada Nova Iguaçu, sala ampla 3 ambientes, banheiro social, cozinha grande com armários e bancada ,área de serviço, churrasque...</v>
       </c>
@@ -15178,23 +15595,27 @@
         <v>Avenida Abílio Augusto Távora, Jardim Alvorada</v>
       </c>
       <c r="V110" t="str" cm="1">
-        <f t="array" ref="V110">TRIM(SUBSTITUTE(INDEX(Base!110:110,0,MATCH(Planilha2!$U110,Base!110:110,0)+1),"m²",""))</f>
+        <f t="array" ref="V110">TRIM(SUBSTITUTE(INDEX(Base!110:110,0,MATCH(Output!$U110,Base!110:110,0)+1),"m²",""))</f>
         <v>154</v>
       </c>
       <c r="W110" t="str" cm="1">
-        <f t="array" ref="W110">IF(LEN(INDEX(Base!110:110,0,MATCH(Planilha2!$U110,Base!110:110,0)+2))&gt;2,LEFT(INDEX(Base!110:110,0,MATCH(Planilha2!$U110,Base!110:110,0)+2),1),INDEX(Base!110:110,0,MATCH(Planilha2!$U110,Base!110:110,0)+2))</f>
+        <f t="array" ref="W110">IF(LEN(INDEX(Base!110:110,0,MATCH(Output!$U110,Base!110:110,0)+2))&gt;2,LEFT(INDEX(Base!110:110,0,MATCH(Output!$U110,Base!110:110,0)+2),1),INDEX(Base!110:110,0,MATCH(Output!$U110,Base!110:110,0)+2))</f>
         <v>4</v>
       </c>
       <c r="X110" t="str" cm="1">
-        <f t="array" ref="X110">IF(LEN(INDEX(Base!110:110,0,MATCH(Planilha2!$U110,Base!110:110,0)+2))&gt;2,LEFT(INDEX(Base!110:110,0,MATCH(Planilha2!$U110,Base!110:110,0)+2),1),INDEX(Base!110:110,0,MATCH(Planilha2!$U110,Base!110:110,0)+2))</f>
+        <f t="array" ref="X110">IF(LEN(INDEX(Base!110:110,0,MATCH(Output!$U110,Base!110:110,0)+2))&gt;2,LEFT(INDEX(Base!110:110,0,MATCH(Output!$U110,Base!110:110,0)+2),1),INDEX(Base!110:110,0,MATCH(Output!$U110,Base!110:110,0)+2))</f>
         <v>4</v>
       </c>
       <c r="Y110" t="str" cm="1">
-        <f t="array" ref="Y110">IF(LEN(INDEX(Base!110:110,0,MATCH(Planilha2!$U110,Base!110:110,0)+2))&gt;2,LEFT(INDEX(Base!110:110,0,MATCH(Planilha2!$U110,Base!110:110,0)+2),1),INDEX(Base!110:110,0,MATCH(Planilha2!$U110,Base!110:110,0)+2))</f>
+        <f t="array" ref="Y110">IF(LEN(INDEX(Base!110:110,0,MATCH(Output!$U110,Base!110:110,0)+2))&gt;2,LEFT(INDEX(Base!110:110,0,MATCH(Output!$U110,Base!110:110,0)+2),1),INDEX(Base!110:110,0,MATCH(Output!$U110,Base!110:110,0)+2))</f>
         <v>4</v>
       </c>
     </row>
-    <row r="111" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A111">
+        <f t="shared" si="1"/>
+        <v>109</v>
+      </c>
       <c r="B111">
         <f>IF(OR(ISNUMBER(FIND(Configurações!$B$4,Base!B111)),ISNUMBER(FIND(Configurações!$B$5,Base!B111)),ISNUMBER(FIND(Configurações!$B$6,Base!B111)),ISNUMBER(FIND(Configurações!$B$7,Base!B111)),ISNUMBER(FIND(Configurações!$B$8,Base!B111)))=TRUE,Base!B111,0)</f>
         <v>0</v>
@@ -15211,7 +15632,7 @@
         <f>IF(TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("IPTU",Base!C111)),ISNUMBER(FIND("iptu",Base!C111)))=TRUE,RIGHT(Base!C111,5),0),"R$",""),"$",""))="0",TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("IPTU",Base!D111)),ISNUMBER(FIND("iptu",Base!D111)))=TRUE,RIGHT(Base!D111,5),0),"R$",""),"$","")),TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("iptu",Base!C111)),ISNUMBER(FIND("IPTU",Base!C111)))=TRUE,RIGHT(Base!C111,5),0),"R$",""),"$","")))</f>
         <v>1</v>
       </c>
-      <c r="F111" s="5" t="str" cm="1">
+      <c r="F111" s="4" t="str" cm="1">
         <f t="array" ref="F111">INDEX(Base!111:111,MATCH(MAX(LEN(Base!111:111)),LEN(Base!111:111),0))</f>
         <v>Tabela promocional de Natal. Apartamento na região nobre de Nova Iguaçu, no luxuoso Condomínio Golden Gate (apenas duas torres). Unidade 1704 do bloco A, com 2 suítes, varanda gour...</v>
       </c>
@@ -15264,23 +15685,27 @@
         <v>Rua Afrânio Peixoto, Centro</v>
       </c>
       <c r="V111" t="str" cm="1">
-        <f t="array" ref="V111">TRIM(SUBSTITUTE(INDEX(Base!111:111,0,MATCH(Planilha2!$U111,Base!111:111,0)+1),"m²",""))</f>
+        <f t="array" ref="V111">TRIM(SUBSTITUTE(INDEX(Base!111:111,0,MATCH(Output!$U111,Base!111:111,0)+1),"m²",""))</f>
         <v>115</v>
       </c>
       <c r="W111" t="str" cm="1">
-        <f t="array" ref="W111">IF(LEN(INDEX(Base!111:111,0,MATCH(Planilha2!$U111,Base!111:111,0)+2))&gt;2,LEFT(INDEX(Base!111:111,0,MATCH(Planilha2!$U111,Base!111:111,0)+2),1),INDEX(Base!111:111,0,MATCH(Planilha2!$U111,Base!111:111,0)+2))</f>
+        <f t="array" ref="W111">IF(LEN(INDEX(Base!111:111,0,MATCH(Output!$U111,Base!111:111,0)+2))&gt;2,LEFT(INDEX(Base!111:111,0,MATCH(Output!$U111,Base!111:111,0)+2),1),INDEX(Base!111:111,0,MATCH(Output!$U111,Base!111:111,0)+2))</f>
         <v>3</v>
       </c>
       <c r="X111" t="str" cm="1">
-        <f t="array" ref="X111">IF(LEN(INDEX(Base!111:111,0,MATCH(Planilha2!$U111,Base!111:111,0)+2))&gt;2,LEFT(INDEX(Base!111:111,0,MATCH(Planilha2!$U111,Base!111:111,0)+2),1),INDEX(Base!111:111,0,MATCH(Planilha2!$U111,Base!111:111,0)+2))</f>
+        <f t="array" ref="X111">IF(LEN(INDEX(Base!111:111,0,MATCH(Output!$U111,Base!111:111,0)+2))&gt;2,LEFT(INDEX(Base!111:111,0,MATCH(Output!$U111,Base!111:111,0)+2),1),INDEX(Base!111:111,0,MATCH(Output!$U111,Base!111:111,0)+2))</f>
         <v>3</v>
       </c>
       <c r="Y111" t="str" cm="1">
-        <f t="array" ref="Y111">IF(LEN(INDEX(Base!111:111,0,MATCH(Planilha2!$U111,Base!111:111,0)+2))&gt;2,LEFT(INDEX(Base!111:111,0,MATCH(Planilha2!$U111,Base!111:111,0)+2),1),INDEX(Base!111:111,0,MATCH(Planilha2!$U111,Base!111:111,0)+2))</f>
+        <f t="array" ref="Y111">IF(LEN(INDEX(Base!111:111,0,MATCH(Output!$U111,Base!111:111,0)+2))&gt;2,LEFT(INDEX(Base!111:111,0,MATCH(Output!$U111,Base!111:111,0)+2),1),INDEX(Base!111:111,0,MATCH(Output!$U111,Base!111:111,0)+2))</f>
         <v>3</v>
       </c>
     </row>
-    <row r="112" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A112">
+        <f t="shared" si="1"/>
+        <v>110</v>
+      </c>
       <c r="B112">
         <f>IF(OR(ISNUMBER(FIND(Configurações!$B$4,Base!B112)),ISNUMBER(FIND(Configurações!$B$5,Base!B112)),ISNUMBER(FIND(Configurações!$B$6,Base!B112)),ISNUMBER(FIND(Configurações!$B$7,Base!B112)),ISNUMBER(FIND(Configurações!$B$8,Base!B112)))=TRUE,Base!B112,0)</f>
         <v>0</v>
@@ -15297,7 +15722,7 @@
         <f>IF(TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("IPTU",Base!C112)),ISNUMBER(FIND("iptu",Base!C112)))=TRUE,RIGHT(Base!C112,5),0),"R$",""),"$",""))="0",TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("IPTU",Base!D112)),ISNUMBER(FIND("iptu",Base!D112)))=TRUE,RIGHT(Base!D112,5),0),"R$",""),"$","")),TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("iptu",Base!C112)),ISNUMBER(FIND("IPTU",Base!C112)))=TRUE,RIGHT(Base!C112,5),0),"R$",""),"$","")))</f>
         <v>0</v>
       </c>
-      <c r="F112" s="5" t="str" cm="1">
+      <c r="F112" s="4" t="str" cm="1">
         <f t="array" ref="F112">INDEX(Base!112:112,MATCH(MAX(LEN(Base!112:112)),LEN(Base!112:112),0))</f>
         <v>Linda casa em condomínio fechado composta por: 3 quartos sendo 1 suíte, sala ampla, 2 banheiros, cozinha com planejados, área de serviço, vaga de garagem, quintal mini arborizado *...</v>
       </c>
@@ -15350,23 +15775,27 @@
         <v>Rua Geni Saraiva, Cerâmica</v>
       </c>
       <c r="V112" t="str" cm="1">
-        <f t="array" ref="V112">TRIM(SUBSTITUTE(INDEX(Base!112:112,0,MATCH(Planilha2!$U112,Base!112:112,0)+1),"m²",""))</f>
+        <f t="array" ref="V112">TRIM(SUBSTITUTE(INDEX(Base!112:112,0,MATCH(Output!$U112,Base!112:112,0)+1),"m²",""))</f>
         <v>95</v>
       </c>
       <c r="W112" t="str" cm="1">
-        <f t="array" ref="W112">IF(LEN(INDEX(Base!112:112,0,MATCH(Planilha2!$U112,Base!112:112,0)+2))&gt;2,LEFT(INDEX(Base!112:112,0,MATCH(Planilha2!$U112,Base!112:112,0)+2),1),INDEX(Base!112:112,0,MATCH(Planilha2!$U112,Base!112:112,0)+2))</f>
+        <f t="array" ref="W112">IF(LEN(INDEX(Base!112:112,0,MATCH(Output!$U112,Base!112:112,0)+2))&gt;2,LEFT(INDEX(Base!112:112,0,MATCH(Output!$U112,Base!112:112,0)+2),1),INDEX(Base!112:112,0,MATCH(Output!$U112,Base!112:112,0)+2))</f>
         <v>3</v>
       </c>
       <c r="X112" t="str" cm="1">
-        <f t="array" ref="X112">IF(LEN(INDEX(Base!112:112,0,MATCH(Planilha2!$U112,Base!112:112,0)+2))&gt;2,LEFT(INDEX(Base!112:112,0,MATCH(Planilha2!$U112,Base!112:112,0)+2),1),INDEX(Base!112:112,0,MATCH(Planilha2!$U112,Base!112:112,0)+2))</f>
+        <f t="array" ref="X112">IF(LEN(INDEX(Base!112:112,0,MATCH(Output!$U112,Base!112:112,0)+2))&gt;2,LEFT(INDEX(Base!112:112,0,MATCH(Output!$U112,Base!112:112,0)+2),1),INDEX(Base!112:112,0,MATCH(Output!$U112,Base!112:112,0)+2))</f>
         <v>3</v>
       </c>
       <c r="Y112" t="str" cm="1">
-        <f t="array" ref="Y112">IF(LEN(INDEX(Base!112:112,0,MATCH(Planilha2!$U112,Base!112:112,0)+2))&gt;2,LEFT(INDEX(Base!112:112,0,MATCH(Planilha2!$U112,Base!112:112,0)+2),1),INDEX(Base!112:112,0,MATCH(Planilha2!$U112,Base!112:112,0)+2))</f>
+        <f t="array" ref="Y112">IF(LEN(INDEX(Base!112:112,0,MATCH(Output!$U112,Base!112:112,0)+2))&gt;2,LEFT(INDEX(Base!112:112,0,MATCH(Output!$U112,Base!112:112,0)+2),1),INDEX(Base!112:112,0,MATCH(Output!$U112,Base!112:112,0)+2))</f>
         <v>3</v>
       </c>
     </row>
-    <row r="113" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A113">
+        <f t="shared" si="1"/>
+        <v>111</v>
+      </c>
       <c r="B113">
         <f>IF(OR(ISNUMBER(FIND(Configurações!$B$4,Base!B113)),ISNUMBER(FIND(Configurações!$B$5,Base!B113)),ISNUMBER(FIND(Configurações!$B$6,Base!B113)),ISNUMBER(FIND(Configurações!$B$7,Base!B113)),ISNUMBER(FIND(Configurações!$B$8,Base!B113)))=TRUE,Base!B113,0)</f>
         <v>0</v>
@@ -15383,7 +15812,7 @@
         <f>IF(TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("IPTU",Base!C113)),ISNUMBER(FIND("iptu",Base!C113)))=TRUE,RIGHT(Base!C113,5),0),"R$",""),"$",""))="0",TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("IPTU",Base!D113)),ISNUMBER(FIND("iptu",Base!D113)))=TRUE,RIGHT(Base!D113,5),0),"R$",""),"$","")),TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("iptu",Base!C113)),ISNUMBER(FIND("IPTU",Base!C113)))=TRUE,RIGHT(Base!C113,5),0),"R$",""),"$","")))</f>
         <v>0</v>
       </c>
-      <c r="F113" s="5" t="str" cm="1">
+      <c r="F113" s="4" t="str" cm="1">
         <f t="array" ref="F113">INDEX(Base!113:113,MATCH(MAX(LEN(Base!113:113)),LEN(Base!113:113),0))</f>
         <v>Rua Coronel Bernardino de Melo, K 11</v>
       </c>
@@ -15436,23 +15865,27 @@
         <v>Rua Coronel Bernardino de Melo, K 11</v>
       </c>
       <c r="V113" t="str" cm="1">
-        <f t="array" ref="V113">TRIM(SUBSTITUTE(INDEX(Base!113:113,0,MATCH(Planilha2!$U113,Base!113:113,0)+1),"m²",""))</f>
+        <f t="array" ref="V113">TRIM(SUBSTITUTE(INDEX(Base!113:113,0,MATCH(Output!$U113,Base!113:113,0)+1),"m²",""))</f>
         <v>100</v>
       </c>
       <c r="W113" t="str" cm="1">
-        <f t="array" ref="W113">IF(LEN(INDEX(Base!113:113,0,MATCH(Planilha2!$U113,Base!113:113,0)+2))&gt;2,LEFT(INDEX(Base!113:113,0,MATCH(Planilha2!$U113,Base!113:113,0)+2),1),INDEX(Base!113:113,0,MATCH(Planilha2!$U113,Base!113:113,0)+2))</f>
+        <f t="array" ref="W113">IF(LEN(INDEX(Base!113:113,0,MATCH(Output!$U113,Base!113:113,0)+2))&gt;2,LEFT(INDEX(Base!113:113,0,MATCH(Output!$U113,Base!113:113,0)+2),1),INDEX(Base!113:113,0,MATCH(Output!$U113,Base!113:113,0)+2))</f>
         <v>2</v>
       </c>
       <c r="X113" t="str" cm="1">
-        <f t="array" ref="X113">IF(LEN(INDEX(Base!113:113,0,MATCH(Planilha2!$U113,Base!113:113,0)+2))&gt;2,LEFT(INDEX(Base!113:113,0,MATCH(Planilha2!$U113,Base!113:113,0)+2),1),INDEX(Base!113:113,0,MATCH(Planilha2!$U113,Base!113:113,0)+2))</f>
+        <f t="array" ref="X113">IF(LEN(INDEX(Base!113:113,0,MATCH(Output!$U113,Base!113:113,0)+2))&gt;2,LEFT(INDEX(Base!113:113,0,MATCH(Output!$U113,Base!113:113,0)+2),1),INDEX(Base!113:113,0,MATCH(Output!$U113,Base!113:113,0)+2))</f>
         <v>2</v>
       </c>
       <c r="Y113" t="str" cm="1">
-        <f t="array" ref="Y113">IF(LEN(INDEX(Base!113:113,0,MATCH(Planilha2!$U113,Base!113:113,0)+2))&gt;2,LEFT(INDEX(Base!113:113,0,MATCH(Planilha2!$U113,Base!113:113,0)+2),1),INDEX(Base!113:113,0,MATCH(Planilha2!$U113,Base!113:113,0)+2))</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="114" spans="2:25" x14ac:dyDescent="0.3">
+        <f t="array" ref="Y113">IF(LEN(INDEX(Base!113:113,0,MATCH(Output!$U113,Base!113:113,0)+2))&gt;2,LEFT(INDEX(Base!113:113,0,MATCH(Output!$U113,Base!113:113,0)+2),1),INDEX(Base!113:113,0,MATCH(Output!$U113,Base!113:113,0)+2))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A114">
+        <f t="shared" si="1"/>
+        <v>112</v>
+      </c>
       <c r="B114">
         <f>IF(OR(ISNUMBER(FIND(Configurações!$B$4,Base!B114)),ISNUMBER(FIND(Configurações!$B$5,Base!B114)),ISNUMBER(FIND(Configurações!$B$6,Base!B114)),ISNUMBER(FIND(Configurações!$B$7,Base!B114)),ISNUMBER(FIND(Configurações!$B$8,Base!B114)))=TRUE,Base!B114,0)</f>
         <v>0</v>
@@ -15469,7 +15902,7 @@
         <f>IF(TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("IPTU",Base!C114)),ISNUMBER(FIND("iptu",Base!C114)))=TRUE,RIGHT(Base!C114,5),0),"R$",""),"$",""))="0",TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("IPTU",Base!D114)),ISNUMBER(FIND("iptu",Base!D114)))=TRUE,RIGHT(Base!D114,5),0),"R$",""),"$","")),TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("iptu",Base!C114)),ISNUMBER(FIND("IPTU",Base!C114)))=TRUE,RIGHT(Base!C114,5),0),"R$",""),"$","")))</f>
         <v>220</v>
       </c>
-      <c r="F114" s="5" t="str" cm="1">
+      <c r="F114" s="4" t="str" cm="1">
         <f t="array" ref="F114">INDEX(Base!114:114,MATCH(MAX(LEN(Base!114:114)),LEN(Base!114:114),0))</f>
         <v>Venda de casa 3 quartos Santa Eugenia Nova Iguaçu, sala com rebaixamento de gesso,piso porcelanato, suite com armário e espaço para escritório ou closet , 2 quartos com armários pl...</v>
       </c>
@@ -15522,23 +15955,27 @@
         <v>Rua Carlos Pereira Leal, Parque Residencial Guadalajara</v>
       </c>
       <c r="V114" t="str" cm="1">
-        <f t="array" ref="V114">TRIM(SUBSTITUTE(INDEX(Base!114:114,0,MATCH(Planilha2!$U114,Base!114:114,0)+1),"m²",""))</f>
+        <f t="array" ref="V114">TRIM(SUBSTITUTE(INDEX(Base!114:114,0,MATCH(Output!$U114,Base!114:114,0)+1),"m²",""))</f>
         <v>182</v>
       </c>
       <c r="W114" t="str" cm="1">
-        <f t="array" ref="W114">IF(LEN(INDEX(Base!114:114,0,MATCH(Planilha2!$U114,Base!114:114,0)+2))&gt;2,LEFT(INDEX(Base!114:114,0,MATCH(Planilha2!$U114,Base!114:114,0)+2),1),INDEX(Base!114:114,0,MATCH(Planilha2!$U114,Base!114:114,0)+2))</f>
+        <f t="array" ref="W114">IF(LEN(INDEX(Base!114:114,0,MATCH(Output!$U114,Base!114:114,0)+2))&gt;2,LEFT(INDEX(Base!114:114,0,MATCH(Output!$U114,Base!114:114,0)+2),1),INDEX(Base!114:114,0,MATCH(Output!$U114,Base!114:114,0)+2))</f>
         <v>3</v>
       </c>
       <c r="X114" t="str" cm="1">
-        <f t="array" ref="X114">IF(LEN(INDEX(Base!114:114,0,MATCH(Planilha2!$U114,Base!114:114,0)+2))&gt;2,LEFT(INDEX(Base!114:114,0,MATCH(Planilha2!$U114,Base!114:114,0)+2),1),INDEX(Base!114:114,0,MATCH(Planilha2!$U114,Base!114:114,0)+2))</f>
+        <f t="array" ref="X114">IF(LEN(INDEX(Base!114:114,0,MATCH(Output!$U114,Base!114:114,0)+2))&gt;2,LEFT(INDEX(Base!114:114,0,MATCH(Output!$U114,Base!114:114,0)+2),1),INDEX(Base!114:114,0,MATCH(Output!$U114,Base!114:114,0)+2))</f>
         <v>3</v>
       </c>
       <c r="Y114" t="str" cm="1">
-        <f t="array" ref="Y114">IF(LEN(INDEX(Base!114:114,0,MATCH(Planilha2!$U114,Base!114:114,0)+2))&gt;2,LEFT(INDEX(Base!114:114,0,MATCH(Planilha2!$U114,Base!114:114,0)+2),1),INDEX(Base!114:114,0,MATCH(Planilha2!$U114,Base!114:114,0)+2))</f>
+        <f t="array" ref="Y114">IF(LEN(INDEX(Base!114:114,0,MATCH(Output!$U114,Base!114:114,0)+2))&gt;2,LEFT(INDEX(Base!114:114,0,MATCH(Output!$U114,Base!114:114,0)+2),1),INDEX(Base!114:114,0,MATCH(Output!$U114,Base!114:114,0)+2))</f>
         <v>3</v>
       </c>
     </row>
-    <row r="115" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A115">
+        <f t="shared" si="1"/>
+        <v>113</v>
+      </c>
       <c r="B115">
         <f>IF(OR(ISNUMBER(FIND(Configurações!$B$4,Base!B115)),ISNUMBER(FIND(Configurações!$B$5,Base!B115)),ISNUMBER(FIND(Configurações!$B$6,Base!B115)),ISNUMBER(FIND(Configurações!$B$7,Base!B115)),ISNUMBER(FIND(Configurações!$B$8,Base!B115)))=TRUE,Base!B115,0)</f>
         <v>0</v>
@@ -15555,7 +15992,7 @@
         <f>IF(TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("IPTU",Base!C115)),ISNUMBER(FIND("iptu",Base!C115)))=TRUE,RIGHT(Base!C115,5),0),"R$",""),"$",""))="0",TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("IPTU",Base!D115)),ISNUMBER(FIND("iptu",Base!D115)))=TRUE,RIGHT(Base!D115,5),0),"R$",""),"$","")),TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("iptu",Base!C115)),ISNUMBER(FIND("IPTU",Base!C115)))=TRUE,RIGHT(Base!C115,5),0),"R$",""),"$","")))</f>
         <v>100</v>
       </c>
-      <c r="F115" s="5" t="str" cm="1">
+      <c r="F115" s="4" t="str" cm="1">
         <f t="array" ref="F115">INDEX(Base!115:115,MATCH(MAX(LEN(Base!115:115)),LEN(Base!115:115),0))</f>
         <v>Casa de 2 andares, casa independente com a parte de cima com quarto, escritório, circulação e varandão, sala de estar, cozinha ampla, banheiro moderno, área de serviço, casa muito...</v>
       </c>
@@ -15608,23 +16045,27 @@
         <v>Rua Vereador Helcio Chambarelli, Caonze</v>
       </c>
       <c r="V115" t="str" cm="1">
-        <f t="array" ref="V115">TRIM(SUBSTITUTE(INDEX(Base!115:115,0,MATCH(Planilha2!$U115,Base!115:115,0)+1),"m²",""))</f>
+        <f t="array" ref="V115">TRIM(SUBSTITUTE(INDEX(Base!115:115,0,MATCH(Output!$U115,Base!115:115,0)+1),"m²",""))</f>
         <v>200</v>
       </c>
       <c r="W115" t="str" cm="1">
-        <f t="array" ref="W115">IF(LEN(INDEX(Base!115:115,0,MATCH(Planilha2!$U115,Base!115:115,0)+2))&gt;2,LEFT(INDEX(Base!115:115,0,MATCH(Planilha2!$U115,Base!115:115,0)+2),1),INDEX(Base!115:115,0,MATCH(Planilha2!$U115,Base!115:115,0)+2))</f>
+        <f t="array" ref="W115">IF(LEN(INDEX(Base!115:115,0,MATCH(Output!$U115,Base!115:115,0)+2))&gt;2,LEFT(INDEX(Base!115:115,0,MATCH(Output!$U115,Base!115:115,0)+2),1),INDEX(Base!115:115,0,MATCH(Output!$U115,Base!115:115,0)+2))</f>
         <v>3</v>
       </c>
       <c r="X115" t="str" cm="1">
-        <f t="array" ref="X115">IF(LEN(INDEX(Base!115:115,0,MATCH(Planilha2!$U115,Base!115:115,0)+2))&gt;2,LEFT(INDEX(Base!115:115,0,MATCH(Planilha2!$U115,Base!115:115,0)+2),1),INDEX(Base!115:115,0,MATCH(Planilha2!$U115,Base!115:115,0)+2))</f>
+        <f t="array" ref="X115">IF(LEN(INDEX(Base!115:115,0,MATCH(Output!$U115,Base!115:115,0)+2))&gt;2,LEFT(INDEX(Base!115:115,0,MATCH(Output!$U115,Base!115:115,0)+2),1),INDEX(Base!115:115,0,MATCH(Output!$U115,Base!115:115,0)+2))</f>
         <v>3</v>
       </c>
       <c r="Y115" t="str" cm="1">
-        <f t="array" ref="Y115">IF(LEN(INDEX(Base!115:115,0,MATCH(Planilha2!$U115,Base!115:115,0)+2))&gt;2,LEFT(INDEX(Base!115:115,0,MATCH(Planilha2!$U115,Base!115:115,0)+2),1),INDEX(Base!115:115,0,MATCH(Planilha2!$U115,Base!115:115,0)+2))</f>
+        <f t="array" ref="Y115">IF(LEN(INDEX(Base!115:115,0,MATCH(Output!$U115,Base!115:115,0)+2))&gt;2,LEFT(INDEX(Base!115:115,0,MATCH(Output!$U115,Base!115:115,0)+2),1),INDEX(Base!115:115,0,MATCH(Output!$U115,Base!115:115,0)+2))</f>
         <v>3</v>
       </c>
     </row>
-    <row r="116" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A116">
+        <f t="shared" si="1"/>
+        <v>114</v>
+      </c>
       <c r="B116">
         <f>IF(OR(ISNUMBER(FIND(Configurações!$B$4,Base!B116)),ISNUMBER(FIND(Configurações!$B$5,Base!B116)),ISNUMBER(FIND(Configurações!$B$6,Base!B116)),ISNUMBER(FIND(Configurações!$B$7,Base!B116)),ISNUMBER(FIND(Configurações!$B$8,Base!B116)))=TRUE,Base!B116,0)</f>
         <v>0</v>
@@ -15641,7 +16082,7 @@
         <f>IF(TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("IPTU",Base!C116)),ISNUMBER(FIND("iptu",Base!C116)))=TRUE,RIGHT(Base!C116,5),0),"R$",""),"$",""))="0",TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("IPTU",Base!D116)),ISNUMBER(FIND("iptu",Base!D116)))=TRUE,RIGHT(Base!D116,5),0),"R$",""),"$","")),TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("iptu",Base!C116)),ISNUMBER(FIND("IPTU",Base!C116)))=TRUE,RIGHT(Base!C116,5),0),"R$",""),"$","")))</f>
         <v>300</v>
       </c>
-      <c r="F116" s="5" t="str" cm="1">
+      <c r="F116" s="4" t="str" cm="1">
         <f t="array" ref="F116">INDEX(Base!116:116,MATCH(MAX(LEN(Base!116:116)),LEN(Base!116:116),0))</f>
         <v>A casa no bairro Parque Flora possui 77 metros quadrados com 2 quartos sendo 1 suite e 2 banheiros</v>
       </c>
@@ -15694,23 +16135,27 @@
         <v>Rua Proclamação, Parque Flora</v>
       </c>
       <c r="V116" t="str" cm="1">
-        <f t="array" ref="V116">TRIM(SUBSTITUTE(INDEX(Base!116:116,0,MATCH(Planilha2!$U116,Base!116:116,0)+1),"m²",""))</f>
+        <f t="array" ref="V116">TRIM(SUBSTITUTE(INDEX(Base!116:116,0,MATCH(Output!$U116,Base!116:116,0)+1),"m²",""))</f>
         <v>77</v>
       </c>
       <c r="W116" t="str" cm="1">
-        <f t="array" ref="W116">IF(LEN(INDEX(Base!116:116,0,MATCH(Planilha2!$U116,Base!116:116,0)+2))&gt;2,LEFT(INDEX(Base!116:116,0,MATCH(Planilha2!$U116,Base!116:116,0)+2),1),INDEX(Base!116:116,0,MATCH(Planilha2!$U116,Base!116:116,0)+2))</f>
+        <f t="array" ref="W116">IF(LEN(INDEX(Base!116:116,0,MATCH(Output!$U116,Base!116:116,0)+2))&gt;2,LEFT(INDEX(Base!116:116,0,MATCH(Output!$U116,Base!116:116,0)+2),1),INDEX(Base!116:116,0,MATCH(Output!$U116,Base!116:116,0)+2))</f>
         <v>2</v>
       </c>
       <c r="X116" t="str" cm="1">
-        <f t="array" ref="X116">IF(LEN(INDEX(Base!116:116,0,MATCH(Planilha2!$U116,Base!116:116,0)+2))&gt;2,LEFT(INDEX(Base!116:116,0,MATCH(Planilha2!$U116,Base!116:116,0)+2),1),INDEX(Base!116:116,0,MATCH(Planilha2!$U116,Base!116:116,0)+2))</f>
+        <f t="array" ref="X116">IF(LEN(INDEX(Base!116:116,0,MATCH(Output!$U116,Base!116:116,0)+2))&gt;2,LEFT(INDEX(Base!116:116,0,MATCH(Output!$U116,Base!116:116,0)+2),1),INDEX(Base!116:116,0,MATCH(Output!$U116,Base!116:116,0)+2))</f>
         <v>2</v>
       </c>
       <c r="Y116" t="str" cm="1">
-        <f t="array" ref="Y116">IF(LEN(INDEX(Base!116:116,0,MATCH(Planilha2!$U116,Base!116:116,0)+2))&gt;2,LEFT(INDEX(Base!116:116,0,MATCH(Planilha2!$U116,Base!116:116,0)+2),1),INDEX(Base!116:116,0,MATCH(Planilha2!$U116,Base!116:116,0)+2))</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="117" spans="2:25" x14ac:dyDescent="0.3">
+        <f t="array" ref="Y116">IF(LEN(INDEX(Base!116:116,0,MATCH(Output!$U116,Base!116:116,0)+2))&gt;2,LEFT(INDEX(Base!116:116,0,MATCH(Output!$U116,Base!116:116,0)+2),1),INDEX(Base!116:116,0,MATCH(Output!$U116,Base!116:116,0)+2))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A117">
+        <f t="shared" si="1"/>
+        <v>115</v>
+      </c>
       <c r="B117" t="str">
         <f>IF(OR(ISNUMBER(FIND(Configurações!$B$4,Base!B117)),ISNUMBER(FIND(Configurações!$B$5,Base!B117)),ISNUMBER(FIND(Configurações!$B$6,Base!B117)),ISNUMBER(FIND(Configurações!$B$7,Base!B117)),ISNUMBER(FIND(Configurações!$B$8,Base!B117)))=TRUE,Base!B117,0)</f>
         <v>destaque</v>
@@ -15727,7 +16172,7 @@
         <f>IF(TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("IPTU",Base!C117)),ISNUMBER(FIND("iptu",Base!C117)))=TRUE,RIGHT(Base!C117,5),0),"R$",""),"$",""))="0",TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("IPTU",Base!D117)),ISNUMBER(FIND("iptu",Base!D117)))=TRUE,RIGHT(Base!D117,5),0),"R$",""),"$","")),TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("iptu",Base!C117)),ISNUMBER(FIND("IPTU",Base!C117)))=TRUE,RIGHT(Base!C117,5),0),"R$",""),"$","")))</f>
         <v>0</v>
       </c>
-      <c r="F117" s="5" t="str" cm="1">
+      <c r="F117" s="4" t="str" cm="1">
         <f t="array" ref="F117">INDEX(Base!117:117,MATCH(MAX(LEN(Base!117:117)),LEN(Base!117:117),0))</f>
         <v>Buscando por espaço e localização? O residencial Paschoal Paladino tem tudo isso, seu endereço estratégico pertinho do Top Shopping e ainda com um amplo comércio ao redor se destac...</v>
       </c>
@@ -15780,23 +16225,27 @@
         <v>Rua Paschoal Palladino, Chacrinha</v>
       </c>
       <c r="V117" t="str" cm="1">
-        <f t="array" ref="V117">TRIM(SUBSTITUTE(INDEX(Base!117:117,0,MATCH(Planilha2!$U117,Base!117:117,0)+1),"m²",""))</f>
+        <f t="array" ref="V117">TRIM(SUBSTITUTE(INDEX(Base!117:117,0,MATCH(Output!$U117,Base!117:117,0)+1),"m²",""))</f>
         <v>66</v>
       </c>
       <c r="W117" t="str" cm="1">
-        <f t="array" ref="W117">IF(LEN(INDEX(Base!117:117,0,MATCH(Planilha2!$U117,Base!117:117,0)+2))&gt;2,LEFT(INDEX(Base!117:117,0,MATCH(Planilha2!$U117,Base!117:117,0)+2),1),INDEX(Base!117:117,0,MATCH(Planilha2!$U117,Base!117:117,0)+2))</f>
+        <f t="array" ref="W117">IF(LEN(INDEX(Base!117:117,0,MATCH(Output!$U117,Base!117:117,0)+2))&gt;2,LEFT(INDEX(Base!117:117,0,MATCH(Output!$U117,Base!117:117,0)+2),1),INDEX(Base!117:117,0,MATCH(Output!$U117,Base!117:117,0)+2))</f>
         <v>2</v>
       </c>
       <c r="X117" t="str" cm="1">
-        <f t="array" ref="X117">IF(LEN(INDEX(Base!117:117,0,MATCH(Planilha2!$U117,Base!117:117,0)+2))&gt;2,LEFT(INDEX(Base!117:117,0,MATCH(Planilha2!$U117,Base!117:117,0)+2),1),INDEX(Base!117:117,0,MATCH(Planilha2!$U117,Base!117:117,0)+2))</f>
+        <f t="array" ref="X117">IF(LEN(INDEX(Base!117:117,0,MATCH(Output!$U117,Base!117:117,0)+2))&gt;2,LEFT(INDEX(Base!117:117,0,MATCH(Output!$U117,Base!117:117,0)+2),1),INDEX(Base!117:117,0,MATCH(Output!$U117,Base!117:117,0)+2))</f>
         <v>2</v>
       </c>
       <c r="Y117" t="str" cm="1">
-        <f t="array" ref="Y117">IF(LEN(INDEX(Base!117:117,0,MATCH(Planilha2!$U117,Base!117:117,0)+2))&gt;2,LEFT(INDEX(Base!117:117,0,MATCH(Planilha2!$U117,Base!117:117,0)+2),1),INDEX(Base!117:117,0,MATCH(Planilha2!$U117,Base!117:117,0)+2))</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="118" spans="2:25" x14ac:dyDescent="0.3">
+        <f t="array" ref="Y117">IF(LEN(INDEX(Base!117:117,0,MATCH(Output!$U117,Base!117:117,0)+2))&gt;2,LEFT(INDEX(Base!117:117,0,MATCH(Output!$U117,Base!117:117,0)+2),1),INDEX(Base!117:117,0,MATCH(Output!$U117,Base!117:117,0)+2))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A118">
+        <f t="shared" si="1"/>
+        <v>116</v>
+      </c>
       <c r="B118" t="str">
         <f>IF(OR(ISNUMBER(FIND(Configurações!$B$4,Base!B118)),ISNUMBER(FIND(Configurações!$B$5,Base!B118)),ISNUMBER(FIND(Configurações!$B$6,Base!B118)),ISNUMBER(FIND(Configurações!$B$7,Base!B118)),ISNUMBER(FIND(Configurações!$B$8,Base!B118)))=TRUE,Base!B118,0)</f>
         <v>destaque</v>
@@ -15813,7 +16262,7 @@
         <f>IF(TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("IPTU",Base!C118)),ISNUMBER(FIND("iptu",Base!C118)))=TRUE,RIGHT(Base!C118,5),0),"R$",""),"$",""))="0",TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("IPTU",Base!D118)),ISNUMBER(FIND("iptu",Base!D118)))=TRUE,RIGHT(Base!D118,5),0),"R$",""),"$","")),TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("iptu",Base!C118)),ISNUMBER(FIND("IPTU",Base!C118)))=TRUE,RIGHT(Base!C118,5),0),"R$",""),"$","")))</f>
         <v>733</v>
       </c>
-      <c r="F118" s="5" t="str" cm="1">
+      <c r="F118" s="4" t="str" cm="1">
         <f t="array" ref="F118">INDEX(Base!118:118,MATCH(MAX(LEN(Base!118:118)),LEN(Base!118:118),0))</f>
         <v>Imóvel com 75 m², localizado em Nova Iguaçu, em condomínio com excelente infraestrutura. Próximo ao comércio, farta condução de transportes, escolas e diversas opções de entretenim...</v>
       </c>
@@ -15866,23 +16315,27 @@
         <v>Estrada Doutor Plínio Casado, Parque Rosario</v>
       </c>
       <c r="V118" t="str" cm="1">
-        <f t="array" ref="V118">TRIM(SUBSTITUTE(INDEX(Base!118:118,0,MATCH(Planilha2!$U118,Base!118:118,0)+1),"m²",""))</f>
+        <f t="array" ref="V118">TRIM(SUBSTITUTE(INDEX(Base!118:118,0,MATCH(Output!$U118,Base!118:118,0)+1),"m²",""))</f>
         <v>75</v>
       </c>
       <c r="W118" t="str" cm="1">
-        <f t="array" ref="W118">IF(LEN(INDEX(Base!118:118,0,MATCH(Planilha2!$U118,Base!118:118,0)+2))&gt;2,LEFT(INDEX(Base!118:118,0,MATCH(Planilha2!$U118,Base!118:118,0)+2),1),INDEX(Base!118:118,0,MATCH(Planilha2!$U118,Base!118:118,0)+2))</f>
+        <f t="array" ref="W118">IF(LEN(INDEX(Base!118:118,0,MATCH(Output!$U118,Base!118:118,0)+2))&gt;2,LEFT(INDEX(Base!118:118,0,MATCH(Output!$U118,Base!118:118,0)+2),1),INDEX(Base!118:118,0,MATCH(Output!$U118,Base!118:118,0)+2))</f>
         <v>2</v>
       </c>
       <c r="X118" t="str" cm="1">
-        <f t="array" ref="X118">IF(LEN(INDEX(Base!118:118,0,MATCH(Planilha2!$U118,Base!118:118,0)+2))&gt;2,LEFT(INDEX(Base!118:118,0,MATCH(Planilha2!$U118,Base!118:118,0)+2),1),INDEX(Base!118:118,0,MATCH(Planilha2!$U118,Base!118:118,0)+2))</f>
+        <f t="array" ref="X118">IF(LEN(INDEX(Base!118:118,0,MATCH(Output!$U118,Base!118:118,0)+2))&gt;2,LEFT(INDEX(Base!118:118,0,MATCH(Output!$U118,Base!118:118,0)+2),1),INDEX(Base!118:118,0,MATCH(Output!$U118,Base!118:118,0)+2))</f>
         <v>2</v>
       </c>
       <c r="Y118" t="str" cm="1">
-        <f t="array" ref="Y118">IF(LEN(INDEX(Base!118:118,0,MATCH(Planilha2!$U118,Base!118:118,0)+2))&gt;2,LEFT(INDEX(Base!118:118,0,MATCH(Planilha2!$U118,Base!118:118,0)+2),1),INDEX(Base!118:118,0,MATCH(Planilha2!$U118,Base!118:118,0)+2))</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="119" spans="2:25" x14ac:dyDescent="0.3">
+        <f t="array" ref="Y118">IF(LEN(INDEX(Base!118:118,0,MATCH(Output!$U118,Base!118:118,0)+2))&gt;2,LEFT(INDEX(Base!118:118,0,MATCH(Output!$U118,Base!118:118,0)+2),1),INDEX(Base!118:118,0,MATCH(Output!$U118,Base!118:118,0)+2))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A119">
+        <f t="shared" si="1"/>
+        <v>117</v>
+      </c>
       <c r="B119" t="str">
         <f>IF(OR(ISNUMBER(FIND(Configurações!$B$4,Base!B119)),ISNUMBER(FIND(Configurações!$B$5,Base!B119)),ISNUMBER(FIND(Configurações!$B$6,Base!B119)),ISNUMBER(FIND(Configurações!$B$7,Base!B119)),ISNUMBER(FIND(Configurações!$B$8,Base!B119)))=TRUE,Base!B119,0)</f>
         <v>destaque</v>
@@ -15899,7 +16352,7 @@
         <f>IF(TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("IPTU",Base!C119)),ISNUMBER(FIND("iptu",Base!C119)))=TRUE,RIGHT(Base!C119,5),0),"R$",""),"$",""))="0",TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("IPTU",Base!D119)),ISNUMBER(FIND("iptu",Base!D119)))=TRUE,RIGHT(Base!D119,5),0),"R$",""),"$","")),TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("iptu",Base!C119)),ISNUMBER(FIND("IPTU",Base!C119)))=TRUE,RIGHT(Base!C119,5),0),"R$",""),"$","")))</f>
         <v>105</v>
       </c>
-      <c r="F119" s="5" t="str" cm="1">
+      <c r="F119" s="4" t="str" cm="1">
         <f t="array" ref="F119">INDEX(Base!119:119,MATCH(MAX(LEN(Base!119:119)),LEN(Base!119:119),0))</f>
         <v>Vendo casa linear com 3 quartos em Santa Eugenia Nova Iguaçu, com 3 vagas de garagem e grande quintal atrás descoberto. Sala espaçosa, cozinha grande toda planejada, com área de se...</v>
       </c>
@@ -15952,23 +16405,27 @@
         <v>Rua Barão do Cerro Azul, Santa Eugênia</v>
       </c>
       <c r="V119" t="str" cm="1">
-        <f t="array" ref="V119">TRIM(SUBSTITUTE(INDEX(Base!119:119,0,MATCH(Planilha2!$U119,Base!119:119,0)+1),"m²",""))</f>
+        <f t="array" ref="V119">TRIM(SUBSTITUTE(INDEX(Base!119:119,0,MATCH(Output!$U119,Base!119:119,0)+1),"m²",""))</f>
         <v>130</v>
       </c>
       <c r="W119" t="str" cm="1">
-        <f t="array" ref="W119">IF(LEN(INDEX(Base!119:119,0,MATCH(Planilha2!$U119,Base!119:119,0)+2))&gt;2,LEFT(INDEX(Base!119:119,0,MATCH(Planilha2!$U119,Base!119:119,0)+2),1),INDEX(Base!119:119,0,MATCH(Planilha2!$U119,Base!119:119,0)+2))</f>
+        <f t="array" ref="W119">IF(LEN(INDEX(Base!119:119,0,MATCH(Output!$U119,Base!119:119,0)+2))&gt;2,LEFT(INDEX(Base!119:119,0,MATCH(Output!$U119,Base!119:119,0)+2),1),INDEX(Base!119:119,0,MATCH(Output!$U119,Base!119:119,0)+2))</f>
         <v>3</v>
       </c>
       <c r="X119" t="str" cm="1">
-        <f t="array" ref="X119">IF(LEN(INDEX(Base!119:119,0,MATCH(Planilha2!$U119,Base!119:119,0)+2))&gt;2,LEFT(INDEX(Base!119:119,0,MATCH(Planilha2!$U119,Base!119:119,0)+2),1),INDEX(Base!119:119,0,MATCH(Planilha2!$U119,Base!119:119,0)+2))</f>
+        <f t="array" ref="X119">IF(LEN(INDEX(Base!119:119,0,MATCH(Output!$U119,Base!119:119,0)+2))&gt;2,LEFT(INDEX(Base!119:119,0,MATCH(Output!$U119,Base!119:119,0)+2),1),INDEX(Base!119:119,0,MATCH(Output!$U119,Base!119:119,0)+2))</f>
         <v>3</v>
       </c>
       <c r="Y119" t="str" cm="1">
-        <f t="array" ref="Y119">IF(LEN(INDEX(Base!119:119,0,MATCH(Planilha2!$U119,Base!119:119,0)+2))&gt;2,LEFT(INDEX(Base!119:119,0,MATCH(Planilha2!$U119,Base!119:119,0)+2),1),INDEX(Base!119:119,0,MATCH(Planilha2!$U119,Base!119:119,0)+2))</f>
+        <f t="array" ref="Y119">IF(LEN(INDEX(Base!119:119,0,MATCH(Output!$U119,Base!119:119,0)+2))&gt;2,LEFT(INDEX(Base!119:119,0,MATCH(Output!$U119,Base!119:119,0)+2),1),INDEX(Base!119:119,0,MATCH(Output!$U119,Base!119:119,0)+2))</f>
         <v>3</v>
       </c>
     </row>
-    <row r="120" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A120">
+        <f t="shared" si="1"/>
+        <v>118</v>
+      </c>
       <c r="B120">
         <f>IF(OR(ISNUMBER(FIND(Configurações!$B$4,Base!B120)),ISNUMBER(FIND(Configurações!$B$5,Base!B120)),ISNUMBER(FIND(Configurações!$B$6,Base!B120)),ISNUMBER(FIND(Configurações!$B$7,Base!B120)),ISNUMBER(FIND(Configurações!$B$8,Base!B120)))=TRUE,Base!B120,0)</f>
         <v>0</v>
@@ -15985,7 +16442,7 @@
         <f>IF(TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("IPTU",Base!C120)),ISNUMBER(FIND("iptu",Base!C120)))=TRUE,RIGHT(Base!C120,5),0),"R$",""),"$",""))="0",TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("IPTU",Base!D120)),ISNUMBER(FIND("iptu",Base!D120)))=TRUE,RIGHT(Base!D120,5),0),"R$",""),"$","")),TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("iptu",Base!C120)),ISNUMBER(FIND("IPTU",Base!C120)))=TRUE,RIGHT(Base!C120,5),0),"R$",""),"$","")))</f>
         <v>395</v>
       </c>
-      <c r="F120" s="5" t="str" cm="1">
+      <c r="F120" s="4" t="str" cm="1">
         <f t="array" ref="F120">INDEX(Base!120:120,MATCH(MAX(LEN(Base!120:120)),LEN(Base!120:120),0))</f>
         <v>O apartamento está localizado no bairro Prata possui 47 metros quadrados com 2 quartos e 1 banheiro</v>
       </c>
@@ -16038,23 +16495,27 @@
         <v>Estrada Doutor Plínio Casado, Prata</v>
       </c>
       <c r="V120" t="str" cm="1">
-        <f t="array" ref="V120">TRIM(SUBSTITUTE(INDEX(Base!120:120,0,MATCH(Planilha2!$U120,Base!120:120,0)+1),"m²",""))</f>
+        <f t="array" ref="V120">TRIM(SUBSTITUTE(INDEX(Base!120:120,0,MATCH(Output!$U120,Base!120:120,0)+1),"m²",""))</f>
         <v>47</v>
       </c>
       <c r="W120" t="str" cm="1">
-        <f t="array" ref="W120">IF(LEN(INDEX(Base!120:120,0,MATCH(Planilha2!$U120,Base!120:120,0)+2))&gt;2,LEFT(INDEX(Base!120:120,0,MATCH(Planilha2!$U120,Base!120:120,0)+2),1),INDEX(Base!120:120,0,MATCH(Planilha2!$U120,Base!120:120,0)+2))</f>
+        <f t="array" ref="W120">IF(LEN(INDEX(Base!120:120,0,MATCH(Output!$U120,Base!120:120,0)+2))&gt;2,LEFT(INDEX(Base!120:120,0,MATCH(Output!$U120,Base!120:120,0)+2),1),INDEX(Base!120:120,0,MATCH(Output!$U120,Base!120:120,0)+2))</f>
         <v>2</v>
       </c>
       <c r="X120" t="str" cm="1">
-        <f t="array" ref="X120">IF(LEN(INDEX(Base!120:120,0,MATCH(Planilha2!$U120,Base!120:120,0)+2))&gt;2,LEFT(INDEX(Base!120:120,0,MATCH(Planilha2!$U120,Base!120:120,0)+2),1),INDEX(Base!120:120,0,MATCH(Planilha2!$U120,Base!120:120,0)+2))</f>
+        <f t="array" ref="X120">IF(LEN(INDEX(Base!120:120,0,MATCH(Output!$U120,Base!120:120,0)+2))&gt;2,LEFT(INDEX(Base!120:120,0,MATCH(Output!$U120,Base!120:120,0)+2),1),INDEX(Base!120:120,0,MATCH(Output!$U120,Base!120:120,0)+2))</f>
         <v>2</v>
       </c>
       <c r="Y120" t="str" cm="1">
-        <f t="array" ref="Y120">IF(LEN(INDEX(Base!120:120,0,MATCH(Planilha2!$U120,Base!120:120,0)+2))&gt;2,LEFT(INDEX(Base!120:120,0,MATCH(Planilha2!$U120,Base!120:120,0)+2),1),INDEX(Base!120:120,0,MATCH(Planilha2!$U120,Base!120:120,0)+2))</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="121" spans="2:25" x14ac:dyDescent="0.3">
+        <f t="array" ref="Y120">IF(LEN(INDEX(Base!120:120,0,MATCH(Output!$U120,Base!120:120,0)+2))&gt;2,LEFT(INDEX(Base!120:120,0,MATCH(Output!$U120,Base!120:120,0)+2),1),INDEX(Base!120:120,0,MATCH(Output!$U120,Base!120:120,0)+2))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A121">
+        <f t="shared" si="1"/>
+        <v>119</v>
+      </c>
       <c r="B121" t="str">
         <f>IF(OR(ISNUMBER(FIND(Configurações!$B$4,Base!B121)),ISNUMBER(FIND(Configurações!$B$5,Base!B121)),ISNUMBER(FIND(Configurações!$B$6,Base!B121)),ISNUMBER(FIND(Configurações!$B$7,Base!B121)),ISNUMBER(FIND(Configurações!$B$8,Base!B121)))=TRUE,Base!B121,0)</f>
         <v>destaque</v>
@@ -16071,7 +16532,7 @@
         <f>IF(TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("IPTU",Base!C121)),ISNUMBER(FIND("iptu",Base!C121)))=TRUE,RIGHT(Base!C121,5),0),"R$",""),"$",""))="0",TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("IPTU",Base!D121)),ISNUMBER(FIND("iptu",Base!D121)))=TRUE,RIGHT(Base!D121,5),0),"R$",""),"$","")),TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("iptu",Base!C121)),ISNUMBER(FIND("IPTU",Base!C121)))=TRUE,RIGHT(Base!C121,5),0),"R$",""),"$","")))</f>
         <v>0</v>
       </c>
-      <c r="F121" s="5" t="str" cm="1">
+      <c r="F121" s="4" t="str" cm="1">
         <f t="array" ref="F121">INDEX(Base!121:121,MATCH(MAX(LEN(Base!121:121)),LEN(Base!121:121),0))</f>
         <v>A casa no bairro Ouro Preto possui 100 metros quadrados com 3 quartos sendo 1 suite e 3 banheiros</v>
       </c>
@@ -16124,23 +16585,27 @@
         <v>Ouro Preto, Nova Iguaçu</v>
       </c>
       <c r="V121" t="str" cm="1">
-        <f t="array" ref="V121">TRIM(SUBSTITUTE(INDEX(Base!121:121,0,MATCH(Planilha2!$U121,Base!121:121,0)+1),"m²",""))</f>
+        <f t="array" ref="V121">TRIM(SUBSTITUTE(INDEX(Base!121:121,0,MATCH(Output!$U121,Base!121:121,0)+1),"m²",""))</f>
         <v>100</v>
       </c>
       <c r="W121" t="str" cm="1">
-        <f t="array" ref="W121">IF(LEN(INDEX(Base!121:121,0,MATCH(Planilha2!$U121,Base!121:121,0)+2))&gt;2,LEFT(INDEX(Base!121:121,0,MATCH(Planilha2!$U121,Base!121:121,0)+2),1),INDEX(Base!121:121,0,MATCH(Planilha2!$U121,Base!121:121,0)+2))</f>
+        <f t="array" ref="W121">IF(LEN(INDEX(Base!121:121,0,MATCH(Output!$U121,Base!121:121,0)+2))&gt;2,LEFT(INDEX(Base!121:121,0,MATCH(Output!$U121,Base!121:121,0)+2),1),INDEX(Base!121:121,0,MATCH(Output!$U121,Base!121:121,0)+2))</f>
         <v>3</v>
       </c>
       <c r="X121" t="str" cm="1">
-        <f t="array" ref="X121">IF(LEN(INDEX(Base!121:121,0,MATCH(Planilha2!$U121,Base!121:121,0)+2))&gt;2,LEFT(INDEX(Base!121:121,0,MATCH(Planilha2!$U121,Base!121:121,0)+2),1),INDEX(Base!121:121,0,MATCH(Planilha2!$U121,Base!121:121,0)+2))</f>
+        <f t="array" ref="X121">IF(LEN(INDEX(Base!121:121,0,MATCH(Output!$U121,Base!121:121,0)+2))&gt;2,LEFT(INDEX(Base!121:121,0,MATCH(Output!$U121,Base!121:121,0)+2),1),INDEX(Base!121:121,0,MATCH(Output!$U121,Base!121:121,0)+2))</f>
         <v>3</v>
       </c>
       <c r="Y121" t="str" cm="1">
-        <f t="array" ref="Y121">IF(LEN(INDEX(Base!121:121,0,MATCH(Planilha2!$U121,Base!121:121,0)+2))&gt;2,LEFT(INDEX(Base!121:121,0,MATCH(Planilha2!$U121,Base!121:121,0)+2),1),INDEX(Base!121:121,0,MATCH(Planilha2!$U121,Base!121:121,0)+2))</f>
+        <f t="array" ref="Y121">IF(LEN(INDEX(Base!121:121,0,MATCH(Output!$U121,Base!121:121,0)+2))&gt;2,LEFT(INDEX(Base!121:121,0,MATCH(Output!$U121,Base!121:121,0)+2),1),INDEX(Base!121:121,0,MATCH(Output!$U121,Base!121:121,0)+2))</f>
         <v>3</v>
       </c>
     </row>
-    <row r="122" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A122">
+        <f t="shared" si="1"/>
+        <v>120</v>
+      </c>
       <c r="B122">
         <f>IF(OR(ISNUMBER(FIND(Configurações!$B$4,Base!B122)),ISNUMBER(FIND(Configurações!$B$5,Base!B122)),ISNUMBER(FIND(Configurações!$B$6,Base!B122)),ISNUMBER(FIND(Configurações!$B$7,Base!B122)),ISNUMBER(FIND(Configurações!$B$8,Base!B122)))=TRUE,Base!B122,0)</f>
         <v>0</v>
@@ -16157,7 +16622,7 @@
         <f>IF(TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("IPTU",Base!C122)),ISNUMBER(FIND("iptu",Base!C122)))=TRUE,RIGHT(Base!C122,5),0),"R$",""),"$",""))="0",TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("IPTU",Base!D122)),ISNUMBER(FIND("iptu",Base!D122)))=TRUE,RIGHT(Base!D122,5),0),"R$",""),"$","")),TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("iptu",Base!C122)),ISNUMBER(FIND("IPTU",Base!C122)))=TRUE,RIGHT(Base!C122,5),0),"R$",""),"$","")))</f>
         <v>0</v>
       </c>
-      <c r="F122" s="5" cm="1">
+      <c r="F122" s="4" cm="1">
         <f t="array" ref="F122">INDEX(Base!122:122,MATCH(MAX(LEN(Base!122:122)),LEN(Base!122:122),0))</f>
         <v>0</v>
       </c>
@@ -16210,23 +16675,27 @@
         <v>0</v>
       </c>
       <c r="V122" t="e" cm="1">
-        <f t="array" ref="V122">TRIM(SUBSTITUTE(INDEX(Base!122:122,0,MATCH(Planilha2!$U122,Base!122:122,0)+1),"m²",""))</f>
+        <f t="array" ref="V122">TRIM(SUBSTITUTE(INDEX(Base!122:122,0,MATCH(Output!$U122,Base!122:122,0)+1),"m²",""))</f>
         <v>#N/A</v>
       </c>
       <c r="W122" t="e" cm="1">
-        <f t="array" ref="W122">IF(LEN(INDEX(Base!122:122,0,MATCH(Planilha2!$U122,Base!122:122,0)+2))&gt;2,LEFT(INDEX(Base!122:122,0,MATCH(Planilha2!$U122,Base!122:122,0)+2),1),INDEX(Base!122:122,0,MATCH(Planilha2!$U122,Base!122:122,0)+2))</f>
+        <f t="array" ref="W122">IF(LEN(INDEX(Base!122:122,0,MATCH(Output!$U122,Base!122:122,0)+2))&gt;2,LEFT(INDEX(Base!122:122,0,MATCH(Output!$U122,Base!122:122,0)+2),1),INDEX(Base!122:122,0,MATCH(Output!$U122,Base!122:122,0)+2))</f>
         <v>#N/A</v>
       </c>
       <c r="X122" t="e" cm="1">
-        <f t="array" ref="X122">IF(LEN(INDEX(Base!122:122,0,MATCH(Planilha2!$U122,Base!122:122,0)+2))&gt;2,LEFT(INDEX(Base!122:122,0,MATCH(Planilha2!$U122,Base!122:122,0)+2),1),INDEX(Base!122:122,0,MATCH(Planilha2!$U122,Base!122:122,0)+2))</f>
+        <f t="array" ref="X122">IF(LEN(INDEX(Base!122:122,0,MATCH(Output!$U122,Base!122:122,0)+2))&gt;2,LEFT(INDEX(Base!122:122,0,MATCH(Output!$U122,Base!122:122,0)+2),1),INDEX(Base!122:122,0,MATCH(Output!$U122,Base!122:122,0)+2))</f>
         <v>#N/A</v>
       </c>
       <c r="Y122" t="e" cm="1">
-        <f t="array" ref="Y122">IF(LEN(INDEX(Base!122:122,0,MATCH(Planilha2!$U122,Base!122:122,0)+2))&gt;2,LEFT(INDEX(Base!122:122,0,MATCH(Planilha2!$U122,Base!122:122,0)+2),1),INDEX(Base!122:122,0,MATCH(Planilha2!$U122,Base!122:122,0)+2))</f>
+        <f t="array" ref="Y122">IF(LEN(INDEX(Base!122:122,0,MATCH(Output!$U122,Base!122:122,0)+2))&gt;2,LEFT(INDEX(Base!122:122,0,MATCH(Output!$U122,Base!122:122,0)+2),1),INDEX(Base!122:122,0,MATCH(Output!$U122,Base!122:122,0)+2))</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="123" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A123">
+        <f t="shared" si="1"/>
+        <v>121</v>
+      </c>
       <c r="B123">
         <f>IF(OR(ISNUMBER(FIND(Configurações!$B$4,Base!B123)),ISNUMBER(FIND(Configurações!$B$5,Base!B123)),ISNUMBER(FIND(Configurações!$B$6,Base!B123)),ISNUMBER(FIND(Configurações!$B$7,Base!B123)),ISNUMBER(FIND(Configurações!$B$8,Base!B123)))=TRUE,Base!B123,0)</f>
         <v>0</v>
@@ -16243,7 +16712,7 @@
         <f>IF(TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("IPTU",Base!C123)),ISNUMBER(FIND("iptu",Base!C123)))=TRUE,RIGHT(Base!C123,5),0),"R$",""),"$",""))="0",TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("IPTU",Base!D123)),ISNUMBER(FIND("iptu",Base!D123)))=TRUE,RIGHT(Base!D123,5),0),"R$",""),"$","")),TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("iptu",Base!C123)),ISNUMBER(FIND("IPTU",Base!C123)))=TRUE,RIGHT(Base!C123,5),0),"R$",""),"$","")))</f>
         <v>0</v>
       </c>
-      <c r="F123" s="5" cm="1">
+      <c r="F123" s="4" cm="1">
         <f t="array" ref="F123">INDEX(Base!123:123,MATCH(MAX(LEN(Base!123:123)),LEN(Base!123:123),0))</f>
         <v>0</v>
       </c>
@@ -16296,23 +16765,27 @@
         <v>0</v>
       </c>
       <c r="V123" t="e" cm="1">
-        <f t="array" ref="V123">TRIM(SUBSTITUTE(INDEX(Base!123:123,0,MATCH(Planilha2!$U123,Base!123:123,0)+1),"m²",""))</f>
+        <f t="array" ref="V123">TRIM(SUBSTITUTE(INDEX(Base!123:123,0,MATCH(Output!$U123,Base!123:123,0)+1),"m²",""))</f>
         <v>#N/A</v>
       </c>
       <c r="W123" t="e" cm="1">
-        <f t="array" ref="W123">IF(LEN(INDEX(Base!123:123,0,MATCH(Planilha2!$U123,Base!123:123,0)+2))&gt;2,LEFT(INDEX(Base!123:123,0,MATCH(Planilha2!$U123,Base!123:123,0)+2),1),INDEX(Base!123:123,0,MATCH(Planilha2!$U123,Base!123:123,0)+2))</f>
+        <f t="array" ref="W123">IF(LEN(INDEX(Base!123:123,0,MATCH(Output!$U123,Base!123:123,0)+2))&gt;2,LEFT(INDEX(Base!123:123,0,MATCH(Output!$U123,Base!123:123,0)+2),1),INDEX(Base!123:123,0,MATCH(Output!$U123,Base!123:123,0)+2))</f>
         <v>#N/A</v>
       </c>
       <c r="X123" t="e" cm="1">
-        <f t="array" ref="X123">IF(LEN(INDEX(Base!123:123,0,MATCH(Planilha2!$U123,Base!123:123,0)+2))&gt;2,LEFT(INDEX(Base!123:123,0,MATCH(Planilha2!$U123,Base!123:123,0)+2),1),INDEX(Base!123:123,0,MATCH(Planilha2!$U123,Base!123:123,0)+2))</f>
+        <f t="array" ref="X123">IF(LEN(INDEX(Base!123:123,0,MATCH(Output!$U123,Base!123:123,0)+2))&gt;2,LEFT(INDEX(Base!123:123,0,MATCH(Output!$U123,Base!123:123,0)+2),1),INDEX(Base!123:123,0,MATCH(Output!$U123,Base!123:123,0)+2))</f>
         <v>#N/A</v>
       </c>
       <c r="Y123" t="e" cm="1">
-        <f t="array" ref="Y123">IF(LEN(INDEX(Base!123:123,0,MATCH(Planilha2!$U123,Base!123:123,0)+2))&gt;2,LEFT(INDEX(Base!123:123,0,MATCH(Planilha2!$U123,Base!123:123,0)+2),1),INDEX(Base!123:123,0,MATCH(Planilha2!$U123,Base!123:123,0)+2))</f>
+        <f t="array" ref="Y123">IF(LEN(INDEX(Base!123:123,0,MATCH(Output!$U123,Base!123:123,0)+2))&gt;2,LEFT(INDEX(Base!123:123,0,MATCH(Output!$U123,Base!123:123,0)+2),1),INDEX(Base!123:123,0,MATCH(Output!$U123,Base!123:123,0)+2))</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="124" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A124">
+        <f t="shared" si="1"/>
+        <v>122</v>
+      </c>
       <c r="B124">
         <f>IF(OR(ISNUMBER(FIND(Configurações!$B$4,Base!B124)),ISNUMBER(FIND(Configurações!$B$5,Base!B124)),ISNUMBER(FIND(Configurações!$B$6,Base!B124)),ISNUMBER(FIND(Configurações!$B$7,Base!B124)),ISNUMBER(FIND(Configurações!$B$8,Base!B124)))=TRUE,Base!B124,0)</f>
         <v>0</v>
@@ -16329,7 +16802,7 @@
         <f>IF(TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("IPTU",Base!C124)),ISNUMBER(FIND("iptu",Base!C124)))=TRUE,RIGHT(Base!C124,5),0),"R$",""),"$",""))="0",TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("IPTU",Base!D124)),ISNUMBER(FIND("iptu",Base!D124)))=TRUE,RIGHT(Base!D124,5),0),"R$",""),"$","")),TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("iptu",Base!C124)),ISNUMBER(FIND("IPTU",Base!C124)))=TRUE,RIGHT(Base!C124,5),0),"R$",""),"$","")))</f>
         <v>0</v>
       </c>
-      <c r="F124" s="5" cm="1">
+      <c r="F124" s="4" cm="1">
         <f t="array" ref="F124">INDEX(Base!124:124,MATCH(MAX(LEN(Base!124:124)),LEN(Base!124:124),0))</f>
         <v>0</v>
       </c>
@@ -16382,23 +16855,27 @@
         <v>0</v>
       </c>
       <c r="V124" t="e" cm="1">
-        <f t="array" ref="V124">TRIM(SUBSTITUTE(INDEX(Base!124:124,0,MATCH(Planilha2!$U124,Base!124:124,0)+1),"m²",""))</f>
+        <f t="array" ref="V124">TRIM(SUBSTITUTE(INDEX(Base!124:124,0,MATCH(Output!$U124,Base!124:124,0)+1),"m²",""))</f>
         <v>#N/A</v>
       </c>
       <c r="W124" t="e" cm="1">
-        <f t="array" ref="W124">IF(LEN(INDEX(Base!124:124,0,MATCH(Planilha2!$U124,Base!124:124,0)+2))&gt;2,LEFT(INDEX(Base!124:124,0,MATCH(Planilha2!$U124,Base!124:124,0)+2),1),INDEX(Base!124:124,0,MATCH(Planilha2!$U124,Base!124:124,0)+2))</f>
+        <f t="array" ref="W124">IF(LEN(INDEX(Base!124:124,0,MATCH(Output!$U124,Base!124:124,0)+2))&gt;2,LEFT(INDEX(Base!124:124,0,MATCH(Output!$U124,Base!124:124,0)+2),1),INDEX(Base!124:124,0,MATCH(Output!$U124,Base!124:124,0)+2))</f>
         <v>#N/A</v>
       </c>
       <c r="X124" t="e" cm="1">
-        <f t="array" ref="X124">IF(LEN(INDEX(Base!124:124,0,MATCH(Planilha2!$U124,Base!124:124,0)+2))&gt;2,LEFT(INDEX(Base!124:124,0,MATCH(Planilha2!$U124,Base!124:124,0)+2),1),INDEX(Base!124:124,0,MATCH(Planilha2!$U124,Base!124:124,0)+2))</f>
+        <f t="array" ref="X124">IF(LEN(INDEX(Base!124:124,0,MATCH(Output!$U124,Base!124:124,0)+2))&gt;2,LEFT(INDEX(Base!124:124,0,MATCH(Output!$U124,Base!124:124,0)+2),1),INDEX(Base!124:124,0,MATCH(Output!$U124,Base!124:124,0)+2))</f>
         <v>#N/A</v>
       </c>
       <c r="Y124" t="e" cm="1">
-        <f t="array" ref="Y124">IF(LEN(INDEX(Base!124:124,0,MATCH(Planilha2!$U124,Base!124:124,0)+2))&gt;2,LEFT(INDEX(Base!124:124,0,MATCH(Planilha2!$U124,Base!124:124,0)+2),1),INDEX(Base!124:124,0,MATCH(Planilha2!$U124,Base!124:124,0)+2))</f>
+        <f t="array" ref="Y124">IF(LEN(INDEX(Base!124:124,0,MATCH(Output!$U124,Base!124:124,0)+2))&gt;2,LEFT(INDEX(Base!124:124,0,MATCH(Output!$U124,Base!124:124,0)+2),1),INDEX(Base!124:124,0,MATCH(Output!$U124,Base!124:124,0)+2))</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="125" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A125">
+        <f t="shared" si="1"/>
+        <v>123</v>
+      </c>
       <c r="B125">
         <f>IF(OR(ISNUMBER(FIND(Configurações!$B$4,Base!B125)),ISNUMBER(FIND(Configurações!$B$5,Base!B125)),ISNUMBER(FIND(Configurações!$B$6,Base!B125)),ISNUMBER(FIND(Configurações!$B$7,Base!B125)),ISNUMBER(FIND(Configurações!$B$8,Base!B125)))=TRUE,Base!B125,0)</f>
         <v>0</v>
@@ -16415,7 +16892,7 @@
         <f>IF(TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("IPTU",Base!C125)),ISNUMBER(FIND("iptu",Base!C125)))=TRUE,RIGHT(Base!C125,5),0),"R$",""),"$",""))="0",TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("IPTU",Base!D125)),ISNUMBER(FIND("iptu",Base!D125)))=TRUE,RIGHT(Base!D125,5),0),"R$",""),"$","")),TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("iptu",Base!C125)),ISNUMBER(FIND("IPTU",Base!C125)))=TRUE,RIGHT(Base!C125,5),0),"R$",""),"$","")))</f>
         <v>0</v>
       </c>
-      <c r="F125" s="5" cm="1">
+      <c r="F125" s="4" cm="1">
         <f t="array" ref="F125">INDEX(Base!125:125,MATCH(MAX(LEN(Base!125:125)),LEN(Base!125:125),0))</f>
         <v>0</v>
       </c>
@@ -16468,23 +16945,27 @@
         <v>0</v>
       </c>
       <c r="V125" t="e" cm="1">
-        <f t="array" ref="V125">TRIM(SUBSTITUTE(INDEX(Base!125:125,0,MATCH(Planilha2!$U125,Base!125:125,0)+1),"m²",""))</f>
+        <f t="array" ref="V125">TRIM(SUBSTITUTE(INDEX(Base!125:125,0,MATCH(Output!$U125,Base!125:125,0)+1),"m²",""))</f>
         <v>#N/A</v>
       </c>
       <c r="W125" t="e" cm="1">
-        <f t="array" ref="W125">IF(LEN(INDEX(Base!125:125,0,MATCH(Planilha2!$U125,Base!125:125,0)+2))&gt;2,LEFT(INDEX(Base!125:125,0,MATCH(Planilha2!$U125,Base!125:125,0)+2),1),INDEX(Base!125:125,0,MATCH(Planilha2!$U125,Base!125:125,0)+2))</f>
+        <f t="array" ref="W125">IF(LEN(INDEX(Base!125:125,0,MATCH(Output!$U125,Base!125:125,0)+2))&gt;2,LEFT(INDEX(Base!125:125,0,MATCH(Output!$U125,Base!125:125,0)+2),1),INDEX(Base!125:125,0,MATCH(Output!$U125,Base!125:125,0)+2))</f>
         <v>#N/A</v>
       </c>
       <c r="X125" t="e" cm="1">
-        <f t="array" ref="X125">IF(LEN(INDEX(Base!125:125,0,MATCH(Planilha2!$U125,Base!125:125,0)+2))&gt;2,LEFT(INDEX(Base!125:125,0,MATCH(Planilha2!$U125,Base!125:125,0)+2),1),INDEX(Base!125:125,0,MATCH(Planilha2!$U125,Base!125:125,0)+2))</f>
+        <f t="array" ref="X125">IF(LEN(INDEX(Base!125:125,0,MATCH(Output!$U125,Base!125:125,0)+2))&gt;2,LEFT(INDEX(Base!125:125,0,MATCH(Output!$U125,Base!125:125,0)+2),1),INDEX(Base!125:125,0,MATCH(Output!$U125,Base!125:125,0)+2))</f>
         <v>#N/A</v>
       </c>
       <c r="Y125" t="e" cm="1">
-        <f t="array" ref="Y125">IF(LEN(INDEX(Base!125:125,0,MATCH(Planilha2!$U125,Base!125:125,0)+2))&gt;2,LEFT(INDEX(Base!125:125,0,MATCH(Planilha2!$U125,Base!125:125,0)+2),1),INDEX(Base!125:125,0,MATCH(Planilha2!$U125,Base!125:125,0)+2))</f>
+        <f t="array" ref="Y125">IF(LEN(INDEX(Base!125:125,0,MATCH(Output!$U125,Base!125:125,0)+2))&gt;2,LEFT(INDEX(Base!125:125,0,MATCH(Output!$U125,Base!125:125,0)+2),1),INDEX(Base!125:125,0,MATCH(Output!$U125,Base!125:125,0)+2))</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="126" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A126">
+        <f t="shared" si="1"/>
+        <v>124</v>
+      </c>
       <c r="B126">
         <f>IF(OR(ISNUMBER(FIND(Configurações!$B$4,Base!B126)),ISNUMBER(FIND(Configurações!$B$5,Base!B126)),ISNUMBER(FIND(Configurações!$B$6,Base!B126)),ISNUMBER(FIND(Configurações!$B$7,Base!B126)),ISNUMBER(FIND(Configurações!$B$8,Base!B126)))=TRUE,Base!B126,0)</f>
         <v>0</v>
@@ -16501,7 +16982,7 @@
         <f>IF(TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("IPTU",Base!C126)),ISNUMBER(FIND("iptu",Base!C126)))=TRUE,RIGHT(Base!C126,5),0),"R$",""),"$",""))="0",TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("IPTU",Base!D126)),ISNUMBER(FIND("iptu",Base!D126)))=TRUE,RIGHT(Base!D126,5),0),"R$",""),"$","")),TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("iptu",Base!C126)),ISNUMBER(FIND("IPTU",Base!C126)))=TRUE,RIGHT(Base!C126,5),0),"R$",""),"$","")))</f>
         <v>0</v>
       </c>
-      <c r="F126" s="5" cm="1">
+      <c r="F126" s="4" cm="1">
         <f t="array" ref="F126">INDEX(Base!126:126,MATCH(MAX(LEN(Base!126:126)),LEN(Base!126:126),0))</f>
         <v>0</v>
       </c>
@@ -16554,23 +17035,27 @@
         <v>0</v>
       </c>
       <c r="V126" t="e" cm="1">
-        <f t="array" ref="V126">TRIM(SUBSTITUTE(INDEX(Base!126:126,0,MATCH(Planilha2!$U126,Base!126:126,0)+1),"m²",""))</f>
+        <f t="array" ref="V126">TRIM(SUBSTITUTE(INDEX(Base!126:126,0,MATCH(Output!$U126,Base!126:126,0)+1),"m²",""))</f>
         <v>#N/A</v>
       </c>
       <c r="W126" t="e" cm="1">
-        <f t="array" ref="W126">IF(LEN(INDEX(Base!126:126,0,MATCH(Planilha2!$U126,Base!126:126,0)+2))&gt;2,LEFT(INDEX(Base!126:126,0,MATCH(Planilha2!$U126,Base!126:126,0)+2),1),INDEX(Base!126:126,0,MATCH(Planilha2!$U126,Base!126:126,0)+2))</f>
+        <f t="array" ref="W126">IF(LEN(INDEX(Base!126:126,0,MATCH(Output!$U126,Base!126:126,0)+2))&gt;2,LEFT(INDEX(Base!126:126,0,MATCH(Output!$U126,Base!126:126,0)+2),1),INDEX(Base!126:126,0,MATCH(Output!$U126,Base!126:126,0)+2))</f>
         <v>#N/A</v>
       </c>
       <c r="X126" t="e" cm="1">
-        <f t="array" ref="X126">IF(LEN(INDEX(Base!126:126,0,MATCH(Planilha2!$U126,Base!126:126,0)+2))&gt;2,LEFT(INDEX(Base!126:126,0,MATCH(Planilha2!$U126,Base!126:126,0)+2),1),INDEX(Base!126:126,0,MATCH(Planilha2!$U126,Base!126:126,0)+2))</f>
+        <f t="array" ref="X126">IF(LEN(INDEX(Base!126:126,0,MATCH(Output!$U126,Base!126:126,0)+2))&gt;2,LEFT(INDEX(Base!126:126,0,MATCH(Output!$U126,Base!126:126,0)+2),1),INDEX(Base!126:126,0,MATCH(Output!$U126,Base!126:126,0)+2))</f>
         <v>#N/A</v>
       </c>
       <c r="Y126" t="e" cm="1">
-        <f t="array" ref="Y126">IF(LEN(INDEX(Base!126:126,0,MATCH(Planilha2!$U126,Base!126:126,0)+2))&gt;2,LEFT(INDEX(Base!126:126,0,MATCH(Planilha2!$U126,Base!126:126,0)+2),1),INDEX(Base!126:126,0,MATCH(Planilha2!$U126,Base!126:126,0)+2))</f>
+        <f t="array" ref="Y126">IF(LEN(INDEX(Base!126:126,0,MATCH(Output!$U126,Base!126:126,0)+2))&gt;2,LEFT(INDEX(Base!126:126,0,MATCH(Output!$U126,Base!126:126,0)+2),1),INDEX(Base!126:126,0,MATCH(Output!$U126,Base!126:126,0)+2))</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="127" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A127">
+        <f t="shared" si="1"/>
+        <v>125</v>
+      </c>
       <c r="B127">
         <f>IF(OR(ISNUMBER(FIND(Configurações!$B$4,Base!B127)),ISNUMBER(FIND(Configurações!$B$5,Base!B127)),ISNUMBER(FIND(Configurações!$B$6,Base!B127)),ISNUMBER(FIND(Configurações!$B$7,Base!B127)),ISNUMBER(FIND(Configurações!$B$8,Base!B127)))=TRUE,Base!B127,0)</f>
         <v>0</v>
@@ -16587,7 +17072,7 @@
         <f>IF(TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("IPTU",Base!C127)),ISNUMBER(FIND("iptu",Base!C127)))=TRUE,RIGHT(Base!C127,5),0),"R$",""),"$",""))="0",TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("IPTU",Base!D127)),ISNUMBER(FIND("iptu",Base!D127)))=TRUE,RIGHT(Base!D127,5),0),"R$",""),"$","")),TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("iptu",Base!C127)),ISNUMBER(FIND("IPTU",Base!C127)))=TRUE,RIGHT(Base!C127,5),0),"R$",""),"$","")))</f>
         <v>0</v>
       </c>
-      <c r="F127" s="5" cm="1">
+      <c r="F127" s="4" cm="1">
         <f t="array" ref="F127">INDEX(Base!127:127,MATCH(MAX(LEN(Base!127:127)),LEN(Base!127:127),0))</f>
         <v>0</v>
       </c>
@@ -16640,23 +17125,27 @@
         <v>0</v>
       </c>
       <c r="V127" t="e" cm="1">
-        <f t="array" ref="V127">TRIM(SUBSTITUTE(INDEX(Base!127:127,0,MATCH(Planilha2!$U127,Base!127:127,0)+1),"m²",""))</f>
+        <f t="array" ref="V127">TRIM(SUBSTITUTE(INDEX(Base!127:127,0,MATCH(Output!$U127,Base!127:127,0)+1),"m²",""))</f>
         <v>#N/A</v>
       </c>
       <c r="W127" t="e" cm="1">
-        <f t="array" ref="W127">IF(LEN(INDEX(Base!127:127,0,MATCH(Planilha2!$U127,Base!127:127,0)+2))&gt;2,LEFT(INDEX(Base!127:127,0,MATCH(Planilha2!$U127,Base!127:127,0)+2),1),INDEX(Base!127:127,0,MATCH(Planilha2!$U127,Base!127:127,0)+2))</f>
+        <f t="array" ref="W127">IF(LEN(INDEX(Base!127:127,0,MATCH(Output!$U127,Base!127:127,0)+2))&gt;2,LEFT(INDEX(Base!127:127,0,MATCH(Output!$U127,Base!127:127,0)+2),1),INDEX(Base!127:127,0,MATCH(Output!$U127,Base!127:127,0)+2))</f>
         <v>#N/A</v>
       </c>
       <c r="X127" t="e" cm="1">
-        <f t="array" ref="X127">IF(LEN(INDEX(Base!127:127,0,MATCH(Planilha2!$U127,Base!127:127,0)+2))&gt;2,LEFT(INDEX(Base!127:127,0,MATCH(Planilha2!$U127,Base!127:127,0)+2),1),INDEX(Base!127:127,0,MATCH(Planilha2!$U127,Base!127:127,0)+2))</f>
+        <f t="array" ref="X127">IF(LEN(INDEX(Base!127:127,0,MATCH(Output!$U127,Base!127:127,0)+2))&gt;2,LEFT(INDEX(Base!127:127,0,MATCH(Output!$U127,Base!127:127,0)+2),1),INDEX(Base!127:127,0,MATCH(Output!$U127,Base!127:127,0)+2))</f>
         <v>#N/A</v>
       </c>
       <c r="Y127" t="e" cm="1">
-        <f t="array" ref="Y127">IF(LEN(INDEX(Base!127:127,0,MATCH(Planilha2!$U127,Base!127:127,0)+2))&gt;2,LEFT(INDEX(Base!127:127,0,MATCH(Planilha2!$U127,Base!127:127,0)+2),1),INDEX(Base!127:127,0,MATCH(Planilha2!$U127,Base!127:127,0)+2))</f>
+        <f t="array" ref="Y127">IF(LEN(INDEX(Base!127:127,0,MATCH(Output!$U127,Base!127:127,0)+2))&gt;2,LEFT(INDEX(Base!127:127,0,MATCH(Output!$U127,Base!127:127,0)+2),1),INDEX(Base!127:127,0,MATCH(Output!$U127,Base!127:127,0)+2))</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="128" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A128">
+        <f t="shared" si="1"/>
+        <v>126</v>
+      </c>
       <c r="B128">
         <f>IF(OR(ISNUMBER(FIND(Configurações!$B$4,Base!B128)),ISNUMBER(FIND(Configurações!$B$5,Base!B128)),ISNUMBER(FIND(Configurações!$B$6,Base!B128)),ISNUMBER(FIND(Configurações!$B$7,Base!B128)),ISNUMBER(FIND(Configurações!$B$8,Base!B128)))=TRUE,Base!B128,0)</f>
         <v>0</v>
@@ -16673,7 +17162,7 @@
         <f>IF(TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("IPTU",Base!C128)),ISNUMBER(FIND("iptu",Base!C128)))=TRUE,RIGHT(Base!C128,5),0),"R$",""),"$",""))="0",TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("IPTU",Base!D128)),ISNUMBER(FIND("iptu",Base!D128)))=TRUE,RIGHT(Base!D128,5),0),"R$",""),"$","")),TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("iptu",Base!C128)),ISNUMBER(FIND("IPTU",Base!C128)))=TRUE,RIGHT(Base!C128,5),0),"R$",""),"$","")))</f>
         <v>0</v>
       </c>
-      <c r="F128" s="5" cm="1">
+      <c r="F128" s="4" cm="1">
         <f t="array" ref="F128">INDEX(Base!128:128,MATCH(MAX(LEN(Base!128:128)),LEN(Base!128:128),0))</f>
         <v>0</v>
       </c>
@@ -16726,23 +17215,27 @@
         <v>0</v>
       </c>
       <c r="V128" t="e" cm="1">
-        <f t="array" ref="V128">TRIM(SUBSTITUTE(INDEX(Base!128:128,0,MATCH(Planilha2!$U128,Base!128:128,0)+1),"m²",""))</f>
+        <f t="array" ref="V128">TRIM(SUBSTITUTE(INDEX(Base!128:128,0,MATCH(Output!$U128,Base!128:128,0)+1),"m²",""))</f>
         <v>#N/A</v>
       </c>
       <c r="W128" t="e" cm="1">
-        <f t="array" ref="W128">IF(LEN(INDEX(Base!128:128,0,MATCH(Planilha2!$U128,Base!128:128,0)+2))&gt;2,LEFT(INDEX(Base!128:128,0,MATCH(Planilha2!$U128,Base!128:128,0)+2),1),INDEX(Base!128:128,0,MATCH(Planilha2!$U128,Base!128:128,0)+2))</f>
+        <f t="array" ref="W128">IF(LEN(INDEX(Base!128:128,0,MATCH(Output!$U128,Base!128:128,0)+2))&gt;2,LEFT(INDEX(Base!128:128,0,MATCH(Output!$U128,Base!128:128,0)+2),1),INDEX(Base!128:128,0,MATCH(Output!$U128,Base!128:128,0)+2))</f>
         <v>#N/A</v>
       </c>
       <c r="X128" t="e" cm="1">
-        <f t="array" ref="X128">IF(LEN(INDEX(Base!128:128,0,MATCH(Planilha2!$U128,Base!128:128,0)+2))&gt;2,LEFT(INDEX(Base!128:128,0,MATCH(Planilha2!$U128,Base!128:128,0)+2),1),INDEX(Base!128:128,0,MATCH(Planilha2!$U128,Base!128:128,0)+2))</f>
+        <f t="array" ref="X128">IF(LEN(INDEX(Base!128:128,0,MATCH(Output!$U128,Base!128:128,0)+2))&gt;2,LEFT(INDEX(Base!128:128,0,MATCH(Output!$U128,Base!128:128,0)+2),1),INDEX(Base!128:128,0,MATCH(Output!$U128,Base!128:128,0)+2))</f>
         <v>#N/A</v>
       </c>
       <c r="Y128" t="e" cm="1">
-        <f t="array" ref="Y128">IF(LEN(INDEX(Base!128:128,0,MATCH(Planilha2!$U128,Base!128:128,0)+2))&gt;2,LEFT(INDEX(Base!128:128,0,MATCH(Planilha2!$U128,Base!128:128,0)+2),1),INDEX(Base!128:128,0,MATCH(Planilha2!$U128,Base!128:128,0)+2))</f>
+        <f t="array" ref="Y128">IF(LEN(INDEX(Base!128:128,0,MATCH(Output!$U128,Base!128:128,0)+2))&gt;2,LEFT(INDEX(Base!128:128,0,MATCH(Output!$U128,Base!128:128,0)+2),1),INDEX(Base!128:128,0,MATCH(Output!$U128,Base!128:128,0)+2))</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="129" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A129">
+        <f t="shared" si="1"/>
+        <v>127</v>
+      </c>
       <c r="B129">
         <f>IF(OR(ISNUMBER(FIND(Configurações!$B$4,Base!B129)),ISNUMBER(FIND(Configurações!$B$5,Base!B129)),ISNUMBER(FIND(Configurações!$B$6,Base!B129)),ISNUMBER(FIND(Configurações!$B$7,Base!B129)),ISNUMBER(FIND(Configurações!$B$8,Base!B129)))=TRUE,Base!B129,0)</f>
         <v>0</v>
@@ -16759,7 +17252,7 @@
         <f>IF(TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("IPTU",Base!C129)),ISNUMBER(FIND("iptu",Base!C129)))=TRUE,RIGHT(Base!C129,5),0),"R$",""),"$",""))="0",TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("IPTU",Base!D129)),ISNUMBER(FIND("iptu",Base!D129)))=TRUE,RIGHT(Base!D129,5),0),"R$",""),"$","")),TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("iptu",Base!C129)),ISNUMBER(FIND("IPTU",Base!C129)))=TRUE,RIGHT(Base!C129,5),0),"R$",""),"$","")))</f>
         <v>0</v>
       </c>
-      <c r="F129" s="5" cm="1">
+      <c r="F129" s="4" cm="1">
         <f t="array" ref="F129">INDEX(Base!129:129,MATCH(MAX(LEN(Base!129:129)),LEN(Base!129:129),0))</f>
         <v>0</v>
       </c>
@@ -16812,23 +17305,27 @@
         <v>0</v>
       </c>
       <c r="V129" t="e" cm="1">
-        <f t="array" ref="V129">TRIM(SUBSTITUTE(INDEX(Base!129:129,0,MATCH(Planilha2!$U129,Base!129:129,0)+1),"m²",""))</f>
+        <f t="array" ref="V129">TRIM(SUBSTITUTE(INDEX(Base!129:129,0,MATCH(Output!$U129,Base!129:129,0)+1),"m²",""))</f>
         <v>#N/A</v>
       </c>
       <c r="W129" t="e" cm="1">
-        <f t="array" ref="W129">IF(LEN(INDEX(Base!129:129,0,MATCH(Planilha2!$U129,Base!129:129,0)+2))&gt;2,LEFT(INDEX(Base!129:129,0,MATCH(Planilha2!$U129,Base!129:129,0)+2),1),INDEX(Base!129:129,0,MATCH(Planilha2!$U129,Base!129:129,0)+2))</f>
+        <f t="array" ref="W129">IF(LEN(INDEX(Base!129:129,0,MATCH(Output!$U129,Base!129:129,0)+2))&gt;2,LEFT(INDEX(Base!129:129,0,MATCH(Output!$U129,Base!129:129,0)+2),1),INDEX(Base!129:129,0,MATCH(Output!$U129,Base!129:129,0)+2))</f>
         <v>#N/A</v>
       </c>
       <c r="X129" t="e" cm="1">
-        <f t="array" ref="X129">IF(LEN(INDEX(Base!129:129,0,MATCH(Planilha2!$U129,Base!129:129,0)+2))&gt;2,LEFT(INDEX(Base!129:129,0,MATCH(Planilha2!$U129,Base!129:129,0)+2),1),INDEX(Base!129:129,0,MATCH(Planilha2!$U129,Base!129:129,0)+2))</f>
+        <f t="array" ref="X129">IF(LEN(INDEX(Base!129:129,0,MATCH(Output!$U129,Base!129:129,0)+2))&gt;2,LEFT(INDEX(Base!129:129,0,MATCH(Output!$U129,Base!129:129,0)+2),1),INDEX(Base!129:129,0,MATCH(Output!$U129,Base!129:129,0)+2))</f>
         <v>#N/A</v>
       </c>
       <c r="Y129" t="e" cm="1">
-        <f t="array" ref="Y129">IF(LEN(INDEX(Base!129:129,0,MATCH(Planilha2!$U129,Base!129:129,0)+2))&gt;2,LEFT(INDEX(Base!129:129,0,MATCH(Planilha2!$U129,Base!129:129,0)+2),1),INDEX(Base!129:129,0,MATCH(Planilha2!$U129,Base!129:129,0)+2))</f>
+        <f t="array" ref="Y129">IF(LEN(INDEX(Base!129:129,0,MATCH(Output!$U129,Base!129:129,0)+2))&gt;2,LEFT(INDEX(Base!129:129,0,MATCH(Output!$U129,Base!129:129,0)+2),1),INDEX(Base!129:129,0,MATCH(Output!$U129,Base!129:129,0)+2))</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="130" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A130">
+        <f t="shared" si="1"/>
+        <v>128</v>
+      </c>
       <c r="B130">
         <f>IF(OR(ISNUMBER(FIND(Configurações!$B$4,Base!B130)),ISNUMBER(FIND(Configurações!$B$5,Base!B130)),ISNUMBER(FIND(Configurações!$B$6,Base!B130)),ISNUMBER(FIND(Configurações!$B$7,Base!B130)),ISNUMBER(FIND(Configurações!$B$8,Base!B130)))=TRUE,Base!B130,0)</f>
         <v>0</v>
@@ -16845,7 +17342,7 @@
         <f>IF(TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("IPTU",Base!C130)),ISNUMBER(FIND("iptu",Base!C130)))=TRUE,RIGHT(Base!C130,5),0),"R$",""),"$",""))="0",TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("IPTU",Base!D130)),ISNUMBER(FIND("iptu",Base!D130)))=TRUE,RIGHT(Base!D130,5),0),"R$",""),"$","")),TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("iptu",Base!C130)),ISNUMBER(FIND("IPTU",Base!C130)))=TRUE,RIGHT(Base!C130,5),0),"R$",""),"$","")))</f>
         <v>0</v>
       </c>
-      <c r="F130" s="5" cm="1">
+      <c r="F130" s="4" cm="1">
         <f t="array" ref="F130">INDEX(Base!130:130,MATCH(MAX(LEN(Base!130:130)),LEN(Base!130:130),0))</f>
         <v>0</v>
       </c>
@@ -16898,23 +17395,27 @@
         <v>0</v>
       </c>
       <c r="V130" t="e" cm="1">
-        <f t="array" ref="V130">TRIM(SUBSTITUTE(INDEX(Base!130:130,0,MATCH(Planilha2!$U130,Base!130:130,0)+1),"m²",""))</f>
+        <f t="array" ref="V130">TRIM(SUBSTITUTE(INDEX(Base!130:130,0,MATCH(Output!$U130,Base!130:130,0)+1),"m²",""))</f>
         <v>#N/A</v>
       </c>
       <c r="W130" t="e" cm="1">
-        <f t="array" ref="W130">IF(LEN(INDEX(Base!130:130,0,MATCH(Planilha2!$U130,Base!130:130,0)+2))&gt;2,LEFT(INDEX(Base!130:130,0,MATCH(Planilha2!$U130,Base!130:130,0)+2),1),INDEX(Base!130:130,0,MATCH(Planilha2!$U130,Base!130:130,0)+2))</f>
+        <f t="array" ref="W130">IF(LEN(INDEX(Base!130:130,0,MATCH(Output!$U130,Base!130:130,0)+2))&gt;2,LEFT(INDEX(Base!130:130,0,MATCH(Output!$U130,Base!130:130,0)+2),1),INDEX(Base!130:130,0,MATCH(Output!$U130,Base!130:130,0)+2))</f>
         <v>#N/A</v>
       </c>
       <c r="X130" t="e" cm="1">
-        <f t="array" ref="X130">IF(LEN(INDEX(Base!130:130,0,MATCH(Planilha2!$U130,Base!130:130,0)+2))&gt;2,LEFT(INDEX(Base!130:130,0,MATCH(Planilha2!$U130,Base!130:130,0)+2),1),INDEX(Base!130:130,0,MATCH(Planilha2!$U130,Base!130:130,0)+2))</f>
+        <f t="array" ref="X130">IF(LEN(INDEX(Base!130:130,0,MATCH(Output!$U130,Base!130:130,0)+2))&gt;2,LEFT(INDEX(Base!130:130,0,MATCH(Output!$U130,Base!130:130,0)+2),1),INDEX(Base!130:130,0,MATCH(Output!$U130,Base!130:130,0)+2))</f>
         <v>#N/A</v>
       </c>
       <c r="Y130" t="e" cm="1">
-        <f t="array" ref="Y130">IF(LEN(INDEX(Base!130:130,0,MATCH(Planilha2!$U130,Base!130:130,0)+2))&gt;2,LEFT(INDEX(Base!130:130,0,MATCH(Planilha2!$U130,Base!130:130,0)+2),1),INDEX(Base!130:130,0,MATCH(Planilha2!$U130,Base!130:130,0)+2))</f>
+        <f t="array" ref="Y130">IF(LEN(INDEX(Base!130:130,0,MATCH(Output!$U130,Base!130:130,0)+2))&gt;2,LEFT(INDEX(Base!130:130,0,MATCH(Output!$U130,Base!130:130,0)+2),1),INDEX(Base!130:130,0,MATCH(Output!$U130,Base!130:130,0)+2))</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="131" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A131">
+        <f t="shared" si="1"/>
+        <v>129</v>
+      </c>
       <c r="B131">
         <f>IF(OR(ISNUMBER(FIND(Configurações!$B$4,Base!B131)),ISNUMBER(FIND(Configurações!$B$5,Base!B131)),ISNUMBER(FIND(Configurações!$B$6,Base!B131)),ISNUMBER(FIND(Configurações!$B$7,Base!B131)),ISNUMBER(FIND(Configurações!$B$8,Base!B131)))=TRUE,Base!B131,0)</f>
         <v>0</v>
@@ -16931,7 +17432,7 @@
         <f>IF(TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("IPTU",Base!C131)),ISNUMBER(FIND("iptu",Base!C131)))=TRUE,RIGHT(Base!C131,5),0),"R$",""),"$",""))="0",TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("IPTU",Base!D131)),ISNUMBER(FIND("iptu",Base!D131)))=TRUE,RIGHT(Base!D131,5),0),"R$",""),"$","")),TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("iptu",Base!C131)),ISNUMBER(FIND("IPTU",Base!C131)))=TRUE,RIGHT(Base!C131,5),0),"R$",""),"$","")))</f>
         <v>0</v>
       </c>
-      <c r="F131" s="5" cm="1">
+      <c r="F131" s="4" cm="1">
         <f t="array" ref="F131">INDEX(Base!131:131,MATCH(MAX(LEN(Base!131:131)),LEN(Base!131:131),0))</f>
         <v>0</v>
       </c>
@@ -16984,23 +17485,27 @@
         <v>0</v>
       </c>
       <c r="V131" t="e" cm="1">
-        <f t="array" ref="V131">TRIM(SUBSTITUTE(INDEX(Base!131:131,0,MATCH(Planilha2!$U131,Base!131:131,0)+1),"m²",""))</f>
+        <f t="array" ref="V131">TRIM(SUBSTITUTE(INDEX(Base!131:131,0,MATCH(Output!$U131,Base!131:131,0)+1),"m²",""))</f>
         <v>#N/A</v>
       </c>
       <c r="W131" t="e" cm="1">
-        <f t="array" ref="W131">IF(LEN(INDEX(Base!131:131,0,MATCH(Planilha2!$U131,Base!131:131,0)+2))&gt;2,LEFT(INDEX(Base!131:131,0,MATCH(Planilha2!$U131,Base!131:131,0)+2),1),INDEX(Base!131:131,0,MATCH(Planilha2!$U131,Base!131:131,0)+2))</f>
+        <f t="array" ref="W131">IF(LEN(INDEX(Base!131:131,0,MATCH(Output!$U131,Base!131:131,0)+2))&gt;2,LEFT(INDEX(Base!131:131,0,MATCH(Output!$U131,Base!131:131,0)+2),1),INDEX(Base!131:131,0,MATCH(Output!$U131,Base!131:131,0)+2))</f>
         <v>#N/A</v>
       </c>
       <c r="X131" t="e" cm="1">
-        <f t="array" ref="X131">IF(LEN(INDEX(Base!131:131,0,MATCH(Planilha2!$U131,Base!131:131,0)+2))&gt;2,LEFT(INDEX(Base!131:131,0,MATCH(Planilha2!$U131,Base!131:131,0)+2),1),INDEX(Base!131:131,0,MATCH(Planilha2!$U131,Base!131:131,0)+2))</f>
+        <f t="array" ref="X131">IF(LEN(INDEX(Base!131:131,0,MATCH(Output!$U131,Base!131:131,0)+2))&gt;2,LEFT(INDEX(Base!131:131,0,MATCH(Output!$U131,Base!131:131,0)+2),1),INDEX(Base!131:131,0,MATCH(Output!$U131,Base!131:131,0)+2))</f>
         <v>#N/A</v>
       </c>
       <c r="Y131" t="e" cm="1">
-        <f t="array" ref="Y131">IF(LEN(INDEX(Base!131:131,0,MATCH(Planilha2!$U131,Base!131:131,0)+2))&gt;2,LEFT(INDEX(Base!131:131,0,MATCH(Planilha2!$U131,Base!131:131,0)+2),1),INDEX(Base!131:131,0,MATCH(Planilha2!$U131,Base!131:131,0)+2))</f>
+        <f t="array" ref="Y131">IF(LEN(INDEX(Base!131:131,0,MATCH(Output!$U131,Base!131:131,0)+2))&gt;2,LEFT(INDEX(Base!131:131,0,MATCH(Output!$U131,Base!131:131,0)+2),1),INDEX(Base!131:131,0,MATCH(Output!$U131,Base!131:131,0)+2))</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="132" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A132">
+        <f t="shared" si="1"/>
+        <v>130</v>
+      </c>
       <c r="B132">
         <f>IF(OR(ISNUMBER(FIND(Configurações!$B$4,Base!B132)),ISNUMBER(FIND(Configurações!$B$5,Base!B132)),ISNUMBER(FIND(Configurações!$B$6,Base!B132)),ISNUMBER(FIND(Configurações!$B$7,Base!B132)),ISNUMBER(FIND(Configurações!$B$8,Base!B132)))=TRUE,Base!B132,0)</f>
         <v>0</v>
@@ -17017,7 +17522,7 @@
         <f>IF(TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("IPTU",Base!C132)),ISNUMBER(FIND("iptu",Base!C132)))=TRUE,RIGHT(Base!C132,5),0),"R$",""),"$",""))="0",TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("IPTU",Base!D132)),ISNUMBER(FIND("iptu",Base!D132)))=TRUE,RIGHT(Base!D132,5),0),"R$",""),"$","")),TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("iptu",Base!C132)),ISNUMBER(FIND("IPTU",Base!C132)))=TRUE,RIGHT(Base!C132,5),0),"R$",""),"$","")))</f>
         <v>0</v>
       </c>
-      <c r="F132" s="5" cm="1">
+      <c r="F132" s="4" cm="1">
         <f t="array" ref="F132">INDEX(Base!132:132,MATCH(MAX(LEN(Base!132:132)),LEN(Base!132:132),0))</f>
         <v>0</v>
       </c>
@@ -17070,23 +17575,27 @@
         <v>0</v>
       </c>
       <c r="V132" t="e" cm="1">
-        <f t="array" ref="V132">TRIM(SUBSTITUTE(INDEX(Base!132:132,0,MATCH(Planilha2!$U132,Base!132:132,0)+1),"m²",""))</f>
+        <f t="array" ref="V132">TRIM(SUBSTITUTE(INDEX(Base!132:132,0,MATCH(Output!$U132,Base!132:132,0)+1),"m²",""))</f>
         <v>#N/A</v>
       </c>
       <c r="W132" t="e" cm="1">
-        <f t="array" ref="W132">IF(LEN(INDEX(Base!132:132,0,MATCH(Planilha2!$U132,Base!132:132,0)+2))&gt;2,LEFT(INDEX(Base!132:132,0,MATCH(Planilha2!$U132,Base!132:132,0)+2),1),INDEX(Base!132:132,0,MATCH(Planilha2!$U132,Base!132:132,0)+2))</f>
+        <f t="array" ref="W132">IF(LEN(INDEX(Base!132:132,0,MATCH(Output!$U132,Base!132:132,0)+2))&gt;2,LEFT(INDEX(Base!132:132,0,MATCH(Output!$U132,Base!132:132,0)+2),1),INDEX(Base!132:132,0,MATCH(Output!$U132,Base!132:132,0)+2))</f>
         <v>#N/A</v>
       </c>
       <c r="X132" t="e" cm="1">
-        <f t="array" ref="X132">IF(LEN(INDEX(Base!132:132,0,MATCH(Planilha2!$U132,Base!132:132,0)+2))&gt;2,LEFT(INDEX(Base!132:132,0,MATCH(Planilha2!$U132,Base!132:132,0)+2),1),INDEX(Base!132:132,0,MATCH(Planilha2!$U132,Base!132:132,0)+2))</f>
+        <f t="array" ref="X132">IF(LEN(INDEX(Base!132:132,0,MATCH(Output!$U132,Base!132:132,0)+2))&gt;2,LEFT(INDEX(Base!132:132,0,MATCH(Output!$U132,Base!132:132,0)+2),1),INDEX(Base!132:132,0,MATCH(Output!$U132,Base!132:132,0)+2))</f>
         <v>#N/A</v>
       </c>
       <c r="Y132" t="e" cm="1">
-        <f t="array" ref="Y132">IF(LEN(INDEX(Base!132:132,0,MATCH(Planilha2!$U132,Base!132:132,0)+2))&gt;2,LEFT(INDEX(Base!132:132,0,MATCH(Planilha2!$U132,Base!132:132,0)+2),1),INDEX(Base!132:132,0,MATCH(Planilha2!$U132,Base!132:132,0)+2))</f>
+        <f t="array" ref="Y132">IF(LEN(INDEX(Base!132:132,0,MATCH(Output!$U132,Base!132:132,0)+2))&gt;2,LEFT(INDEX(Base!132:132,0,MATCH(Output!$U132,Base!132:132,0)+2),1),INDEX(Base!132:132,0,MATCH(Output!$U132,Base!132:132,0)+2))</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="133" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A133">
+        <f t="shared" si="1"/>
+        <v>131</v>
+      </c>
       <c r="B133">
         <f>IF(OR(ISNUMBER(FIND(Configurações!$B$4,Base!B133)),ISNUMBER(FIND(Configurações!$B$5,Base!B133)),ISNUMBER(FIND(Configurações!$B$6,Base!B133)),ISNUMBER(FIND(Configurações!$B$7,Base!B133)),ISNUMBER(FIND(Configurações!$B$8,Base!B133)))=TRUE,Base!B133,0)</f>
         <v>0</v>
@@ -17103,7 +17612,7 @@
         <f>IF(TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("IPTU",Base!C133)),ISNUMBER(FIND("iptu",Base!C133)))=TRUE,RIGHT(Base!C133,5),0),"R$",""),"$",""))="0",TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("IPTU",Base!D133)),ISNUMBER(FIND("iptu",Base!D133)))=TRUE,RIGHT(Base!D133,5),0),"R$",""),"$","")),TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("iptu",Base!C133)),ISNUMBER(FIND("IPTU",Base!C133)))=TRUE,RIGHT(Base!C133,5),0),"R$",""),"$","")))</f>
         <v>0</v>
       </c>
-      <c r="F133" s="5" cm="1">
+      <c r="F133" s="4" cm="1">
         <f t="array" ref="F133">INDEX(Base!133:133,MATCH(MAX(LEN(Base!133:133)),LEN(Base!133:133),0))</f>
         <v>0</v>
       </c>
@@ -17156,23 +17665,27 @@
         <v>0</v>
       </c>
       <c r="V133" t="e" cm="1">
-        <f t="array" ref="V133">TRIM(SUBSTITUTE(INDEX(Base!133:133,0,MATCH(Planilha2!$U133,Base!133:133,0)+1),"m²",""))</f>
+        <f t="array" ref="V133">TRIM(SUBSTITUTE(INDEX(Base!133:133,0,MATCH(Output!$U133,Base!133:133,0)+1),"m²",""))</f>
         <v>#N/A</v>
       </c>
       <c r="W133" t="e" cm="1">
-        <f t="array" ref="W133">IF(LEN(INDEX(Base!133:133,0,MATCH(Planilha2!$U133,Base!133:133,0)+2))&gt;2,LEFT(INDEX(Base!133:133,0,MATCH(Planilha2!$U133,Base!133:133,0)+2),1),INDEX(Base!133:133,0,MATCH(Planilha2!$U133,Base!133:133,0)+2))</f>
+        <f t="array" ref="W133">IF(LEN(INDEX(Base!133:133,0,MATCH(Output!$U133,Base!133:133,0)+2))&gt;2,LEFT(INDEX(Base!133:133,0,MATCH(Output!$U133,Base!133:133,0)+2),1),INDEX(Base!133:133,0,MATCH(Output!$U133,Base!133:133,0)+2))</f>
         <v>#N/A</v>
       </c>
       <c r="X133" t="e" cm="1">
-        <f t="array" ref="X133">IF(LEN(INDEX(Base!133:133,0,MATCH(Planilha2!$U133,Base!133:133,0)+2))&gt;2,LEFT(INDEX(Base!133:133,0,MATCH(Planilha2!$U133,Base!133:133,0)+2),1),INDEX(Base!133:133,0,MATCH(Planilha2!$U133,Base!133:133,0)+2))</f>
+        <f t="array" ref="X133">IF(LEN(INDEX(Base!133:133,0,MATCH(Output!$U133,Base!133:133,0)+2))&gt;2,LEFT(INDEX(Base!133:133,0,MATCH(Output!$U133,Base!133:133,0)+2),1),INDEX(Base!133:133,0,MATCH(Output!$U133,Base!133:133,0)+2))</f>
         <v>#N/A</v>
       </c>
       <c r="Y133" t="e" cm="1">
-        <f t="array" ref="Y133">IF(LEN(INDEX(Base!133:133,0,MATCH(Planilha2!$U133,Base!133:133,0)+2))&gt;2,LEFT(INDEX(Base!133:133,0,MATCH(Planilha2!$U133,Base!133:133,0)+2),1),INDEX(Base!133:133,0,MATCH(Planilha2!$U133,Base!133:133,0)+2))</f>
+        <f t="array" ref="Y133">IF(LEN(INDEX(Base!133:133,0,MATCH(Output!$U133,Base!133:133,0)+2))&gt;2,LEFT(INDEX(Base!133:133,0,MATCH(Output!$U133,Base!133:133,0)+2),1),INDEX(Base!133:133,0,MATCH(Output!$U133,Base!133:133,0)+2))</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="134" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A134">
+        <f t="shared" si="1"/>
+        <v>132</v>
+      </c>
       <c r="B134">
         <f>IF(OR(ISNUMBER(FIND(Configurações!$B$4,Base!B134)),ISNUMBER(FIND(Configurações!$B$5,Base!B134)),ISNUMBER(FIND(Configurações!$B$6,Base!B134)),ISNUMBER(FIND(Configurações!$B$7,Base!B134)),ISNUMBER(FIND(Configurações!$B$8,Base!B134)))=TRUE,Base!B134,0)</f>
         <v>0</v>
@@ -17189,7 +17702,7 @@
         <f>IF(TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("IPTU",Base!C134)),ISNUMBER(FIND("iptu",Base!C134)))=TRUE,RIGHT(Base!C134,5),0),"R$",""),"$",""))="0",TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("IPTU",Base!D134)),ISNUMBER(FIND("iptu",Base!D134)))=TRUE,RIGHT(Base!D134,5),0),"R$",""),"$","")),TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("iptu",Base!C134)),ISNUMBER(FIND("IPTU",Base!C134)))=TRUE,RIGHT(Base!C134,5),0),"R$",""),"$","")))</f>
         <v>0</v>
       </c>
-      <c r="F134" s="5" cm="1">
+      <c r="F134" s="4" cm="1">
         <f t="array" ref="F134">INDEX(Base!134:134,MATCH(MAX(LEN(Base!134:134)),LEN(Base!134:134),0))</f>
         <v>0</v>
       </c>
@@ -17242,23 +17755,27 @@
         <v>0</v>
       </c>
       <c r="V134" t="e" cm="1">
-        <f t="array" ref="V134">TRIM(SUBSTITUTE(INDEX(Base!134:134,0,MATCH(Planilha2!$U134,Base!134:134,0)+1),"m²",""))</f>
+        <f t="array" ref="V134">TRIM(SUBSTITUTE(INDEX(Base!134:134,0,MATCH(Output!$U134,Base!134:134,0)+1),"m²",""))</f>
         <v>#N/A</v>
       </c>
       <c r="W134" t="e" cm="1">
-        <f t="array" ref="W134">IF(LEN(INDEX(Base!134:134,0,MATCH(Planilha2!$U134,Base!134:134,0)+2))&gt;2,LEFT(INDEX(Base!134:134,0,MATCH(Planilha2!$U134,Base!134:134,0)+2),1),INDEX(Base!134:134,0,MATCH(Planilha2!$U134,Base!134:134,0)+2))</f>
+        <f t="array" ref="W134">IF(LEN(INDEX(Base!134:134,0,MATCH(Output!$U134,Base!134:134,0)+2))&gt;2,LEFT(INDEX(Base!134:134,0,MATCH(Output!$U134,Base!134:134,0)+2),1),INDEX(Base!134:134,0,MATCH(Output!$U134,Base!134:134,0)+2))</f>
         <v>#N/A</v>
       </c>
       <c r="X134" t="e" cm="1">
-        <f t="array" ref="X134">IF(LEN(INDEX(Base!134:134,0,MATCH(Planilha2!$U134,Base!134:134,0)+2))&gt;2,LEFT(INDEX(Base!134:134,0,MATCH(Planilha2!$U134,Base!134:134,0)+2),1),INDEX(Base!134:134,0,MATCH(Planilha2!$U134,Base!134:134,0)+2))</f>
+        <f t="array" ref="X134">IF(LEN(INDEX(Base!134:134,0,MATCH(Output!$U134,Base!134:134,0)+2))&gt;2,LEFT(INDEX(Base!134:134,0,MATCH(Output!$U134,Base!134:134,0)+2),1),INDEX(Base!134:134,0,MATCH(Output!$U134,Base!134:134,0)+2))</f>
         <v>#N/A</v>
       </c>
       <c r="Y134" t="e" cm="1">
-        <f t="array" ref="Y134">IF(LEN(INDEX(Base!134:134,0,MATCH(Planilha2!$U134,Base!134:134,0)+2))&gt;2,LEFT(INDEX(Base!134:134,0,MATCH(Planilha2!$U134,Base!134:134,0)+2),1),INDEX(Base!134:134,0,MATCH(Planilha2!$U134,Base!134:134,0)+2))</f>
+        <f t="array" ref="Y134">IF(LEN(INDEX(Base!134:134,0,MATCH(Output!$U134,Base!134:134,0)+2))&gt;2,LEFT(INDEX(Base!134:134,0,MATCH(Output!$U134,Base!134:134,0)+2),1),INDEX(Base!134:134,0,MATCH(Output!$U134,Base!134:134,0)+2))</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="135" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A135">
+        <f t="shared" si="1"/>
+        <v>133</v>
+      </c>
       <c r="B135">
         <f>IF(OR(ISNUMBER(FIND(Configurações!$B$4,Base!B135)),ISNUMBER(FIND(Configurações!$B$5,Base!B135)),ISNUMBER(FIND(Configurações!$B$6,Base!B135)),ISNUMBER(FIND(Configurações!$B$7,Base!B135)),ISNUMBER(FIND(Configurações!$B$8,Base!B135)))=TRUE,Base!B135,0)</f>
         <v>0</v>
@@ -17275,7 +17792,7 @@
         <f>IF(TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("IPTU",Base!C135)),ISNUMBER(FIND("iptu",Base!C135)))=TRUE,RIGHT(Base!C135,5),0),"R$",""),"$",""))="0",TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("IPTU",Base!D135)),ISNUMBER(FIND("iptu",Base!D135)))=TRUE,RIGHT(Base!D135,5),0),"R$",""),"$","")),TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("iptu",Base!C135)),ISNUMBER(FIND("IPTU",Base!C135)))=TRUE,RIGHT(Base!C135,5),0),"R$",""),"$","")))</f>
         <v>0</v>
       </c>
-      <c r="F135" s="5" cm="1">
+      <c r="F135" s="4" cm="1">
         <f t="array" ref="F135">INDEX(Base!135:135,MATCH(MAX(LEN(Base!135:135)),LEN(Base!135:135),0))</f>
         <v>0</v>
       </c>
@@ -17328,23 +17845,27 @@
         <v>0</v>
       </c>
       <c r="V135" t="e" cm="1">
-        <f t="array" ref="V135">TRIM(SUBSTITUTE(INDEX(Base!135:135,0,MATCH(Planilha2!$U135,Base!135:135,0)+1),"m²",""))</f>
+        <f t="array" ref="V135">TRIM(SUBSTITUTE(INDEX(Base!135:135,0,MATCH(Output!$U135,Base!135:135,0)+1),"m²",""))</f>
         <v>#N/A</v>
       </c>
       <c r="W135" t="e" cm="1">
-        <f t="array" ref="W135">IF(LEN(INDEX(Base!135:135,0,MATCH(Planilha2!$U135,Base!135:135,0)+2))&gt;2,LEFT(INDEX(Base!135:135,0,MATCH(Planilha2!$U135,Base!135:135,0)+2),1),INDEX(Base!135:135,0,MATCH(Planilha2!$U135,Base!135:135,0)+2))</f>
+        <f t="array" ref="W135">IF(LEN(INDEX(Base!135:135,0,MATCH(Output!$U135,Base!135:135,0)+2))&gt;2,LEFT(INDEX(Base!135:135,0,MATCH(Output!$U135,Base!135:135,0)+2),1),INDEX(Base!135:135,0,MATCH(Output!$U135,Base!135:135,0)+2))</f>
         <v>#N/A</v>
       </c>
       <c r="X135" t="e" cm="1">
-        <f t="array" ref="X135">IF(LEN(INDEX(Base!135:135,0,MATCH(Planilha2!$U135,Base!135:135,0)+2))&gt;2,LEFT(INDEX(Base!135:135,0,MATCH(Planilha2!$U135,Base!135:135,0)+2),1),INDEX(Base!135:135,0,MATCH(Planilha2!$U135,Base!135:135,0)+2))</f>
+        <f t="array" ref="X135">IF(LEN(INDEX(Base!135:135,0,MATCH(Output!$U135,Base!135:135,0)+2))&gt;2,LEFT(INDEX(Base!135:135,0,MATCH(Output!$U135,Base!135:135,0)+2),1),INDEX(Base!135:135,0,MATCH(Output!$U135,Base!135:135,0)+2))</f>
         <v>#N/A</v>
       </c>
       <c r="Y135" t="e" cm="1">
-        <f t="array" ref="Y135">IF(LEN(INDEX(Base!135:135,0,MATCH(Planilha2!$U135,Base!135:135,0)+2))&gt;2,LEFT(INDEX(Base!135:135,0,MATCH(Planilha2!$U135,Base!135:135,0)+2),1),INDEX(Base!135:135,0,MATCH(Planilha2!$U135,Base!135:135,0)+2))</f>
+        <f t="array" ref="Y135">IF(LEN(INDEX(Base!135:135,0,MATCH(Output!$U135,Base!135:135,0)+2))&gt;2,LEFT(INDEX(Base!135:135,0,MATCH(Output!$U135,Base!135:135,0)+2),1),INDEX(Base!135:135,0,MATCH(Output!$U135,Base!135:135,0)+2))</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="136" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A136">
+        <f t="shared" si="1"/>
+        <v>134</v>
+      </c>
       <c r="B136">
         <f>IF(OR(ISNUMBER(FIND(Configurações!$B$4,Base!B136)),ISNUMBER(FIND(Configurações!$B$5,Base!B136)),ISNUMBER(FIND(Configurações!$B$6,Base!B136)),ISNUMBER(FIND(Configurações!$B$7,Base!B136)),ISNUMBER(FIND(Configurações!$B$8,Base!B136)))=TRUE,Base!B136,0)</f>
         <v>0</v>
@@ -17361,7 +17882,7 @@
         <f>IF(TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("IPTU",Base!C136)),ISNUMBER(FIND("iptu",Base!C136)))=TRUE,RIGHT(Base!C136,5),0),"R$",""),"$",""))="0",TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("IPTU",Base!D136)),ISNUMBER(FIND("iptu",Base!D136)))=TRUE,RIGHT(Base!D136,5),0),"R$",""),"$","")),TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("iptu",Base!C136)),ISNUMBER(FIND("IPTU",Base!C136)))=TRUE,RIGHT(Base!C136,5),0),"R$",""),"$","")))</f>
         <v>0</v>
       </c>
-      <c r="F136" s="5" cm="1">
+      <c r="F136" s="4" cm="1">
         <f t="array" ref="F136">INDEX(Base!136:136,MATCH(MAX(LEN(Base!136:136)),LEN(Base!136:136),0))</f>
         <v>0</v>
       </c>
@@ -17414,23 +17935,27 @@
         <v>0</v>
       </c>
       <c r="V136" t="e" cm="1">
-        <f t="array" ref="V136">TRIM(SUBSTITUTE(INDEX(Base!136:136,0,MATCH(Planilha2!$U136,Base!136:136,0)+1),"m²",""))</f>
+        <f t="array" ref="V136">TRIM(SUBSTITUTE(INDEX(Base!136:136,0,MATCH(Output!$U136,Base!136:136,0)+1),"m²",""))</f>
         <v>#N/A</v>
       </c>
       <c r="W136" t="e" cm="1">
-        <f t="array" ref="W136">IF(LEN(INDEX(Base!136:136,0,MATCH(Planilha2!$U136,Base!136:136,0)+2))&gt;2,LEFT(INDEX(Base!136:136,0,MATCH(Planilha2!$U136,Base!136:136,0)+2),1),INDEX(Base!136:136,0,MATCH(Planilha2!$U136,Base!136:136,0)+2))</f>
+        <f t="array" ref="W136">IF(LEN(INDEX(Base!136:136,0,MATCH(Output!$U136,Base!136:136,0)+2))&gt;2,LEFT(INDEX(Base!136:136,0,MATCH(Output!$U136,Base!136:136,0)+2),1),INDEX(Base!136:136,0,MATCH(Output!$U136,Base!136:136,0)+2))</f>
         <v>#N/A</v>
       </c>
       <c r="X136" t="e" cm="1">
-        <f t="array" ref="X136">IF(LEN(INDEX(Base!136:136,0,MATCH(Planilha2!$U136,Base!136:136,0)+2))&gt;2,LEFT(INDEX(Base!136:136,0,MATCH(Planilha2!$U136,Base!136:136,0)+2),1),INDEX(Base!136:136,0,MATCH(Planilha2!$U136,Base!136:136,0)+2))</f>
+        <f t="array" ref="X136">IF(LEN(INDEX(Base!136:136,0,MATCH(Output!$U136,Base!136:136,0)+2))&gt;2,LEFT(INDEX(Base!136:136,0,MATCH(Output!$U136,Base!136:136,0)+2),1),INDEX(Base!136:136,0,MATCH(Output!$U136,Base!136:136,0)+2))</f>
         <v>#N/A</v>
       </c>
       <c r="Y136" t="e" cm="1">
-        <f t="array" ref="Y136">IF(LEN(INDEX(Base!136:136,0,MATCH(Planilha2!$U136,Base!136:136,0)+2))&gt;2,LEFT(INDEX(Base!136:136,0,MATCH(Planilha2!$U136,Base!136:136,0)+2),1),INDEX(Base!136:136,0,MATCH(Planilha2!$U136,Base!136:136,0)+2))</f>
+        <f t="array" ref="Y136">IF(LEN(INDEX(Base!136:136,0,MATCH(Output!$U136,Base!136:136,0)+2))&gt;2,LEFT(INDEX(Base!136:136,0,MATCH(Output!$U136,Base!136:136,0)+2),1),INDEX(Base!136:136,0,MATCH(Output!$U136,Base!136:136,0)+2))</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="137" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A137">
+        <f t="shared" si="1"/>
+        <v>135</v>
+      </c>
       <c r="B137">
         <f>IF(OR(ISNUMBER(FIND(Configurações!$B$4,Base!B137)),ISNUMBER(FIND(Configurações!$B$5,Base!B137)),ISNUMBER(FIND(Configurações!$B$6,Base!B137)),ISNUMBER(FIND(Configurações!$B$7,Base!B137)),ISNUMBER(FIND(Configurações!$B$8,Base!B137)))=TRUE,Base!B137,0)</f>
         <v>0</v>
@@ -17447,7 +17972,7 @@
         <f>IF(TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("IPTU",Base!C137)),ISNUMBER(FIND("iptu",Base!C137)))=TRUE,RIGHT(Base!C137,5),0),"R$",""),"$",""))="0",TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("IPTU",Base!D137)),ISNUMBER(FIND("iptu",Base!D137)))=TRUE,RIGHT(Base!D137,5),0),"R$",""),"$","")),TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("iptu",Base!C137)),ISNUMBER(FIND("IPTU",Base!C137)))=TRUE,RIGHT(Base!C137,5),0),"R$",""),"$","")))</f>
         <v>0</v>
       </c>
-      <c r="F137" s="5" cm="1">
+      <c r="F137" s="4" cm="1">
         <f t="array" ref="F137">INDEX(Base!137:137,MATCH(MAX(LEN(Base!137:137)),LEN(Base!137:137),0))</f>
         <v>0</v>
       </c>
@@ -17500,23 +18025,27 @@
         <v>0</v>
       </c>
       <c r="V137" t="e" cm="1">
-        <f t="array" ref="V137">TRIM(SUBSTITUTE(INDEX(Base!137:137,0,MATCH(Planilha2!$U137,Base!137:137,0)+1),"m²",""))</f>
+        <f t="array" ref="V137">TRIM(SUBSTITUTE(INDEX(Base!137:137,0,MATCH(Output!$U137,Base!137:137,0)+1),"m²",""))</f>
         <v>#N/A</v>
       </c>
       <c r="W137" t="e" cm="1">
-        <f t="array" ref="W137">IF(LEN(INDEX(Base!137:137,0,MATCH(Planilha2!$U137,Base!137:137,0)+2))&gt;2,LEFT(INDEX(Base!137:137,0,MATCH(Planilha2!$U137,Base!137:137,0)+2),1),INDEX(Base!137:137,0,MATCH(Planilha2!$U137,Base!137:137,0)+2))</f>
+        <f t="array" ref="W137">IF(LEN(INDEX(Base!137:137,0,MATCH(Output!$U137,Base!137:137,0)+2))&gt;2,LEFT(INDEX(Base!137:137,0,MATCH(Output!$U137,Base!137:137,0)+2),1),INDEX(Base!137:137,0,MATCH(Output!$U137,Base!137:137,0)+2))</f>
         <v>#N/A</v>
       </c>
       <c r="X137" t="e" cm="1">
-        <f t="array" ref="X137">IF(LEN(INDEX(Base!137:137,0,MATCH(Planilha2!$U137,Base!137:137,0)+2))&gt;2,LEFT(INDEX(Base!137:137,0,MATCH(Planilha2!$U137,Base!137:137,0)+2),1),INDEX(Base!137:137,0,MATCH(Planilha2!$U137,Base!137:137,0)+2))</f>
+        <f t="array" ref="X137">IF(LEN(INDEX(Base!137:137,0,MATCH(Output!$U137,Base!137:137,0)+2))&gt;2,LEFT(INDEX(Base!137:137,0,MATCH(Output!$U137,Base!137:137,0)+2),1),INDEX(Base!137:137,0,MATCH(Output!$U137,Base!137:137,0)+2))</f>
         <v>#N/A</v>
       </c>
       <c r="Y137" t="e" cm="1">
-        <f t="array" ref="Y137">IF(LEN(INDEX(Base!137:137,0,MATCH(Planilha2!$U137,Base!137:137,0)+2))&gt;2,LEFT(INDEX(Base!137:137,0,MATCH(Planilha2!$U137,Base!137:137,0)+2),1),INDEX(Base!137:137,0,MATCH(Planilha2!$U137,Base!137:137,0)+2))</f>
+        <f t="array" ref="Y137">IF(LEN(INDEX(Base!137:137,0,MATCH(Output!$U137,Base!137:137,0)+2))&gt;2,LEFT(INDEX(Base!137:137,0,MATCH(Output!$U137,Base!137:137,0)+2),1),INDEX(Base!137:137,0,MATCH(Output!$U137,Base!137:137,0)+2))</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="138" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A138">
+        <f t="shared" si="1"/>
+        <v>136</v>
+      </c>
       <c r="B138">
         <f>IF(OR(ISNUMBER(FIND(Configurações!$B$4,Base!B138)),ISNUMBER(FIND(Configurações!$B$5,Base!B138)),ISNUMBER(FIND(Configurações!$B$6,Base!B138)),ISNUMBER(FIND(Configurações!$B$7,Base!B138)),ISNUMBER(FIND(Configurações!$B$8,Base!B138)))=TRUE,Base!B138,0)</f>
         <v>0</v>
@@ -17533,7 +18062,7 @@
         <f>IF(TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("IPTU",Base!C138)),ISNUMBER(FIND("iptu",Base!C138)))=TRUE,RIGHT(Base!C138,5),0),"R$",""),"$",""))="0",TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("IPTU",Base!D138)),ISNUMBER(FIND("iptu",Base!D138)))=TRUE,RIGHT(Base!D138,5),0),"R$",""),"$","")),TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("iptu",Base!C138)),ISNUMBER(FIND("IPTU",Base!C138)))=TRUE,RIGHT(Base!C138,5),0),"R$",""),"$","")))</f>
         <v>0</v>
       </c>
-      <c r="F138" s="5" cm="1">
+      <c r="F138" s="4" cm="1">
         <f t="array" ref="F138">INDEX(Base!138:138,MATCH(MAX(LEN(Base!138:138)),LEN(Base!138:138),0))</f>
         <v>0</v>
       </c>
@@ -17586,23 +18115,27 @@
         <v>0</v>
       </c>
       <c r="V138" t="e" cm="1">
-        <f t="array" ref="V138">TRIM(SUBSTITUTE(INDEX(Base!138:138,0,MATCH(Planilha2!$U138,Base!138:138,0)+1),"m²",""))</f>
+        <f t="array" ref="V138">TRIM(SUBSTITUTE(INDEX(Base!138:138,0,MATCH(Output!$U138,Base!138:138,0)+1),"m²",""))</f>
         <v>#N/A</v>
       </c>
       <c r="W138" t="e" cm="1">
-        <f t="array" ref="W138">IF(LEN(INDEX(Base!138:138,0,MATCH(Planilha2!$U138,Base!138:138,0)+2))&gt;2,LEFT(INDEX(Base!138:138,0,MATCH(Planilha2!$U138,Base!138:138,0)+2),1),INDEX(Base!138:138,0,MATCH(Planilha2!$U138,Base!138:138,0)+2))</f>
+        <f t="array" ref="W138">IF(LEN(INDEX(Base!138:138,0,MATCH(Output!$U138,Base!138:138,0)+2))&gt;2,LEFT(INDEX(Base!138:138,0,MATCH(Output!$U138,Base!138:138,0)+2),1),INDEX(Base!138:138,0,MATCH(Output!$U138,Base!138:138,0)+2))</f>
         <v>#N/A</v>
       </c>
       <c r="X138" t="e" cm="1">
-        <f t="array" ref="X138">IF(LEN(INDEX(Base!138:138,0,MATCH(Planilha2!$U138,Base!138:138,0)+2))&gt;2,LEFT(INDEX(Base!138:138,0,MATCH(Planilha2!$U138,Base!138:138,0)+2),1),INDEX(Base!138:138,0,MATCH(Planilha2!$U138,Base!138:138,0)+2))</f>
+        <f t="array" ref="X138">IF(LEN(INDEX(Base!138:138,0,MATCH(Output!$U138,Base!138:138,0)+2))&gt;2,LEFT(INDEX(Base!138:138,0,MATCH(Output!$U138,Base!138:138,0)+2),1),INDEX(Base!138:138,0,MATCH(Output!$U138,Base!138:138,0)+2))</f>
         <v>#N/A</v>
       </c>
       <c r="Y138" t="e" cm="1">
-        <f t="array" ref="Y138">IF(LEN(INDEX(Base!138:138,0,MATCH(Planilha2!$U138,Base!138:138,0)+2))&gt;2,LEFT(INDEX(Base!138:138,0,MATCH(Planilha2!$U138,Base!138:138,0)+2),1),INDEX(Base!138:138,0,MATCH(Planilha2!$U138,Base!138:138,0)+2))</f>
+        <f t="array" ref="Y138">IF(LEN(INDEX(Base!138:138,0,MATCH(Output!$U138,Base!138:138,0)+2))&gt;2,LEFT(INDEX(Base!138:138,0,MATCH(Output!$U138,Base!138:138,0)+2),1),INDEX(Base!138:138,0,MATCH(Output!$U138,Base!138:138,0)+2))</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="139" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A139">
+        <f t="shared" si="1"/>
+        <v>137</v>
+      </c>
       <c r="B139">
         <f>IF(OR(ISNUMBER(FIND(Configurações!$B$4,Base!B139)),ISNUMBER(FIND(Configurações!$B$5,Base!B139)),ISNUMBER(FIND(Configurações!$B$6,Base!B139)),ISNUMBER(FIND(Configurações!$B$7,Base!B139)),ISNUMBER(FIND(Configurações!$B$8,Base!B139)))=TRUE,Base!B139,0)</f>
         <v>0</v>
@@ -17619,7 +18152,7 @@
         <f>IF(TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("IPTU",Base!C139)),ISNUMBER(FIND("iptu",Base!C139)))=TRUE,RIGHT(Base!C139,5),0),"R$",""),"$",""))="0",TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("IPTU",Base!D139)),ISNUMBER(FIND("iptu",Base!D139)))=TRUE,RIGHT(Base!D139,5),0),"R$",""),"$","")),TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("iptu",Base!C139)),ISNUMBER(FIND("IPTU",Base!C139)))=TRUE,RIGHT(Base!C139,5),0),"R$",""),"$","")))</f>
         <v>0</v>
       </c>
-      <c r="F139" s="5" cm="1">
+      <c r="F139" s="4" cm="1">
         <f t="array" ref="F139">INDEX(Base!139:139,MATCH(MAX(LEN(Base!139:139)),LEN(Base!139:139),0))</f>
         <v>0</v>
       </c>
@@ -17672,23 +18205,27 @@
         <v>0</v>
       </c>
       <c r="V139" t="e" cm="1">
-        <f t="array" ref="V139">TRIM(SUBSTITUTE(INDEX(Base!139:139,0,MATCH(Planilha2!$U139,Base!139:139,0)+1),"m²",""))</f>
+        <f t="array" ref="V139">TRIM(SUBSTITUTE(INDEX(Base!139:139,0,MATCH(Output!$U139,Base!139:139,0)+1),"m²",""))</f>
         <v>#N/A</v>
       </c>
       <c r="W139" t="e" cm="1">
-        <f t="array" ref="W139">IF(LEN(INDEX(Base!139:139,0,MATCH(Planilha2!$U139,Base!139:139,0)+2))&gt;2,LEFT(INDEX(Base!139:139,0,MATCH(Planilha2!$U139,Base!139:139,0)+2),1),INDEX(Base!139:139,0,MATCH(Planilha2!$U139,Base!139:139,0)+2))</f>
+        <f t="array" ref="W139">IF(LEN(INDEX(Base!139:139,0,MATCH(Output!$U139,Base!139:139,0)+2))&gt;2,LEFT(INDEX(Base!139:139,0,MATCH(Output!$U139,Base!139:139,0)+2),1),INDEX(Base!139:139,0,MATCH(Output!$U139,Base!139:139,0)+2))</f>
         <v>#N/A</v>
       </c>
       <c r="X139" t="e" cm="1">
-        <f t="array" ref="X139">IF(LEN(INDEX(Base!139:139,0,MATCH(Planilha2!$U139,Base!139:139,0)+2))&gt;2,LEFT(INDEX(Base!139:139,0,MATCH(Planilha2!$U139,Base!139:139,0)+2),1),INDEX(Base!139:139,0,MATCH(Planilha2!$U139,Base!139:139,0)+2))</f>
+        <f t="array" ref="X139">IF(LEN(INDEX(Base!139:139,0,MATCH(Output!$U139,Base!139:139,0)+2))&gt;2,LEFT(INDEX(Base!139:139,0,MATCH(Output!$U139,Base!139:139,0)+2),1),INDEX(Base!139:139,0,MATCH(Output!$U139,Base!139:139,0)+2))</f>
         <v>#N/A</v>
       </c>
       <c r="Y139" t="e" cm="1">
-        <f t="array" ref="Y139">IF(LEN(INDEX(Base!139:139,0,MATCH(Planilha2!$U139,Base!139:139,0)+2))&gt;2,LEFT(INDEX(Base!139:139,0,MATCH(Planilha2!$U139,Base!139:139,0)+2),1),INDEX(Base!139:139,0,MATCH(Planilha2!$U139,Base!139:139,0)+2))</f>
+        <f t="array" ref="Y139">IF(LEN(INDEX(Base!139:139,0,MATCH(Output!$U139,Base!139:139,0)+2))&gt;2,LEFT(INDEX(Base!139:139,0,MATCH(Output!$U139,Base!139:139,0)+2),1),INDEX(Base!139:139,0,MATCH(Output!$U139,Base!139:139,0)+2))</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="140" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A140">
+        <f t="shared" si="1"/>
+        <v>138</v>
+      </c>
       <c r="B140">
         <f>IF(OR(ISNUMBER(FIND(Configurações!$B$4,Base!B140)),ISNUMBER(FIND(Configurações!$B$5,Base!B140)),ISNUMBER(FIND(Configurações!$B$6,Base!B140)),ISNUMBER(FIND(Configurações!$B$7,Base!B140)),ISNUMBER(FIND(Configurações!$B$8,Base!B140)))=TRUE,Base!B140,0)</f>
         <v>0</v>
@@ -17705,7 +18242,7 @@
         <f>IF(TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("IPTU",Base!C140)),ISNUMBER(FIND("iptu",Base!C140)))=TRUE,RIGHT(Base!C140,5),0),"R$",""),"$",""))="0",TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("IPTU",Base!D140)),ISNUMBER(FIND("iptu",Base!D140)))=TRUE,RIGHT(Base!D140,5),0),"R$",""),"$","")),TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("iptu",Base!C140)),ISNUMBER(FIND("IPTU",Base!C140)))=TRUE,RIGHT(Base!C140,5),0),"R$",""),"$","")))</f>
         <v>0</v>
       </c>
-      <c r="F140" s="5" cm="1">
+      <c r="F140" s="4" cm="1">
         <f t="array" ref="F140">INDEX(Base!140:140,MATCH(MAX(LEN(Base!140:140)),LEN(Base!140:140),0))</f>
         <v>0</v>
       </c>
@@ -17758,23 +18295,27 @@
         <v>0</v>
       </c>
       <c r="V140" t="e" cm="1">
-        <f t="array" ref="V140">TRIM(SUBSTITUTE(INDEX(Base!140:140,0,MATCH(Planilha2!$U140,Base!140:140,0)+1),"m²",""))</f>
+        <f t="array" ref="V140">TRIM(SUBSTITUTE(INDEX(Base!140:140,0,MATCH(Output!$U140,Base!140:140,0)+1),"m²",""))</f>
         <v>#N/A</v>
       </c>
       <c r="W140" t="e" cm="1">
-        <f t="array" ref="W140">IF(LEN(INDEX(Base!140:140,0,MATCH(Planilha2!$U140,Base!140:140,0)+2))&gt;2,LEFT(INDEX(Base!140:140,0,MATCH(Planilha2!$U140,Base!140:140,0)+2),1),INDEX(Base!140:140,0,MATCH(Planilha2!$U140,Base!140:140,0)+2))</f>
+        <f t="array" ref="W140">IF(LEN(INDEX(Base!140:140,0,MATCH(Output!$U140,Base!140:140,0)+2))&gt;2,LEFT(INDEX(Base!140:140,0,MATCH(Output!$U140,Base!140:140,0)+2),1),INDEX(Base!140:140,0,MATCH(Output!$U140,Base!140:140,0)+2))</f>
         <v>#N/A</v>
       </c>
       <c r="X140" t="e" cm="1">
-        <f t="array" ref="X140">IF(LEN(INDEX(Base!140:140,0,MATCH(Planilha2!$U140,Base!140:140,0)+2))&gt;2,LEFT(INDEX(Base!140:140,0,MATCH(Planilha2!$U140,Base!140:140,0)+2),1),INDEX(Base!140:140,0,MATCH(Planilha2!$U140,Base!140:140,0)+2))</f>
+        <f t="array" ref="X140">IF(LEN(INDEX(Base!140:140,0,MATCH(Output!$U140,Base!140:140,0)+2))&gt;2,LEFT(INDEX(Base!140:140,0,MATCH(Output!$U140,Base!140:140,0)+2),1),INDEX(Base!140:140,0,MATCH(Output!$U140,Base!140:140,0)+2))</f>
         <v>#N/A</v>
       </c>
       <c r="Y140" t="e" cm="1">
-        <f t="array" ref="Y140">IF(LEN(INDEX(Base!140:140,0,MATCH(Planilha2!$U140,Base!140:140,0)+2))&gt;2,LEFT(INDEX(Base!140:140,0,MATCH(Planilha2!$U140,Base!140:140,0)+2),1),INDEX(Base!140:140,0,MATCH(Planilha2!$U140,Base!140:140,0)+2))</f>
+        <f t="array" ref="Y140">IF(LEN(INDEX(Base!140:140,0,MATCH(Output!$U140,Base!140:140,0)+2))&gt;2,LEFT(INDEX(Base!140:140,0,MATCH(Output!$U140,Base!140:140,0)+2),1),INDEX(Base!140:140,0,MATCH(Output!$U140,Base!140:140,0)+2))</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="141" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A141">
+        <f t="shared" si="1"/>
+        <v>139</v>
+      </c>
       <c r="B141">
         <f>IF(OR(ISNUMBER(FIND(Configurações!$B$4,Base!B141)),ISNUMBER(FIND(Configurações!$B$5,Base!B141)),ISNUMBER(FIND(Configurações!$B$6,Base!B141)),ISNUMBER(FIND(Configurações!$B$7,Base!B141)),ISNUMBER(FIND(Configurações!$B$8,Base!B141)))=TRUE,Base!B141,0)</f>
         <v>0</v>
@@ -17791,7 +18332,7 @@
         <f>IF(TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("IPTU",Base!C141)),ISNUMBER(FIND("iptu",Base!C141)))=TRUE,RIGHT(Base!C141,5),0),"R$",""),"$",""))="0",TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("IPTU",Base!D141)),ISNUMBER(FIND("iptu",Base!D141)))=TRUE,RIGHT(Base!D141,5),0),"R$",""),"$","")),TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("iptu",Base!C141)),ISNUMBER(FIND("IPTU",Base!C141)))=TRUE,RIGHT(Base!C141,5),0),"R$",""),"$","")))</f>
         <v>0</v>
       </c>
-      <c r="F141" s="5" cm="1">
+      <c r="F141" s="4" cm="1">
         <f t="array" ref="F141">INDEX(Base!141:141,MATCH(MAX(LEN(Base!141:141)),LEN(Base!141:141),0))</f>
         <v>0</v>
       </c>
@@ -17844,23 +18385,27 @@
         <v>0</v>
       </c>
       <c r="V141" t="e" cm="1">
-        <f t="array" ref="V141">TRIM(SUBSTITUTE(INDEX(Base!141:141,0,MATCH(Planilha2!$U141,Base!141:141,0)+1),"m²",""))</f>
+        <f t="array" ref="V141">TRIM(SUBSTITUTE(INDEX(Base!141:141,0,MATCH(Output!$U141,Base!141:141,0)+1),"m²",""))</f>
         <v>#N/A</v>
       </c>
       <c r="W141" t="e" cm="1">
-        <f t="array" ref="W141">IF(LEN(INDEX(Base!141:141,0,MATCH(Planilha2!$U141,Base!141:141,0)+2))&gt;2,LEFT(INDEX(Base!141:141,0,MATCH(Planilha2!$U141,Base!141:141,0)+2),1),INDEX(Base!141:141,0,MATCH(Planilha2!$U141,Base!141:141,0)+2))</f>
+        <f t="array" ref="W141">IF(LEN(INDEX(Base!141:141,0,MATCH(Output!$U141,Base!141:141,0)+2))&gt;2,LEFT(INDEX(Base!141:141,0,MATCH(Output!$U141,Base!141:141,0)+2),1),INDEX(Base!141:141,0,MATCH(Output!$U141,Base!141:141,0)+2))</f>
         <v>#N/A</v>
       </c>
       <c r="X141" t="e" cm="1">
-        <f t="array" ref="X141">IF(LEN(INDEX(Base!141:141,0,MATCH(Planilha2!$U141,Base!141:141,0)+2))&gt;2,LEFT(INDEX(Base!141:141,0,MATCH(Planilha2!$U141,Base!141:141,0)+2),1),INDEX(Base!141:141,0,MATCH(Planilha2!$U141,Base!141:141,0)+2))</f>
+        <f t="array" ref="X141">IF(LEN(INDEX(Base!141:141,0,MATCH(Output!$U141,Base!141:141,0)+2))&gt;2,LEFT(INDEX(Base!141:141,0,MATCH(Output!$U141,Base!141:141,0)+2),1),INDEX(Base!141:141,0,MATCH(Output!$U141,Base!141:141,0)+2))</f>
         <v>#N/A</v>
       </c>
       <c r="Y141" t="e" cm="1">
-        <f t="array" ref="Y141">IF(LEN(INDEX(Base!141:141,0,MATCH(Planilha2!$U141,Base!141:141,0)+2))&gt;2,LEFT(INDEX(Base!141:141,0,MATCH(Planilha2!$U141,Base!141:141,0)+2),1),INDEX(Base!141:141,0,MATCH(Planilha2!$U141,Base!141:141,0)+2))</f>
+        <f t="array" ref="Y141">IF(LEN(INDEX(Base!141:141,0,MATCH(Output!$U141,Base!141:141,0)+2))&gt;2,LEFT(INDEX(Base!141:141,0,MATCH(Output!$U141,Base!141:141,0)+2),1),INDEX(Base!141:141,0,MATCH(Output!$U141,Base!141:141,0)+2))</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="142" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A142">
+        <f t="shared" si="1"/>
+        <v>140</v>
+      </c>
       <c r="B142">
         <f>IF(OR(ISNUMBER(FIND(Configurações!$B$4,Base!B142)),ISNUMBER(FIND(Configurações!$B$5,Base!B142)),ISNUMBER(FIND(Configurações!$B$6,Base!B142)),ISNUMBER(FIND(Configurações!$B$7,Base!B142)),ISNUMBER(FIND(Configurações!$B$8,Base!B142)))=TRUE,Base!B142,0)</f>
         <v>0</v>
@@ -17877,7 +18422,7 @@
         <f>IF(TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("IPTU",Base!C142)),ISNUMBER(FIND("iptu",Base!C142)))=TRUE,RIGHT(Base!C142,5),0),"R$",""),"$",""))="0",TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("IPTU",Base!D142)),ISNUMBER(FIND("iptu",Base!D142)))=TRUE,RIGHT(Base!D142,5),0),"R$",""),"$","")),TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("iptu",Base!C142)),ISNUMBER(FIND("IPTU",Base!C142)))=TRUE,RIGHT(Base!C142,5),0),"R$",""),"$","")))</f>
         <v>0</v>
       </c>
-      <c r="F142" s="5" cm="1">
+      <c r="F142" s="4" cm="1">
         <f t="array" ref="F142">INDEX(Base!142:142,MATCH(MAX(LEN(Base!142:142)),LEN(Base!142:142),0))</f>
         <v>0</v>
       </c>
@@ -17930,23 +18475,27 @@
         <v>0</v>
       </c>
       <c r="V142" t="e" cm="1">
-        <f t="array" ref="V142">TRIM(SUBSTITUTE(INDEX(Base!142:142,0,MATCH(Planilha2!$U142,Base!142:142,0)+1),"m²",""))</f>
+        <f t="array" ref="V142">TRIM(SUBSTITUTE(INDEX(Base!142:142,0,MATCH(Output!$U142,Base!142:142,0)+1),"m²",""))</f>
         <v>#N/A</v>
       </c>
       <c r="W142" t="e" cm="1">
-        <f t="array" ref="W142">IF(LEN(INDEX(Base!142:142,0,MATCH(Planilha2!$U142,Base!142:142,0)+2))&gt;2,LEFT(INDEX(Base!142:142,0,MATCH(Planilha2!$U142,Base!142:142,0)+2),1),INDEX(Base!142:142,0,MATCH(Planilha2!$U142,Base!142:142,0)+2))</f>
+        <f t="array" ref="W142">IF(LEN(INDEX(Base!142:142,0,MATCH(Output!$U142,Base!142:142,0)+2))&gt;2,LEFT(INDEX(Base!142:142,0,MATCH(Output!$U142,Base!142:142,0)+2),1),INDEX(Base!142:142,0,MATCH(Output!$U142,Base!142:142,0)+2))</f>
         <v>#N/A</v>
       </c>
       <c r="X142" t="e" cm="1">
-        <f t="array" ref="X142">IF(LEN(INDEX(Base!142:142,0,MATCH(Planilha2!$U142,Base!142:142,0)+2))&gt;2,LEFT(INDEX(Base!142:142,0,MATCH(Planilha2!$U142,Base!142:142,0)+2),1),INDEX(Base!142:142,0,MATCH(Planilha2!$U142,Base!142:142,0)+2))</f>
+        <f t="array" ref="X142">IF(LEN(INDEX(Base!142:142,0,MATCH(Output!$U142,Base!142:142,0)+2))&gt;2,LEFT(INDEX(Base!142:142,0,MATCH(Output!$U142,Base!142:142,0)+2),1),INDEX(Base!142:142,0,MATCH(Output!$U142,Base!142:142,0)+2))</f>
         <v>#N/A</v>
       </c>
       <c r="Y142" t="e" cm="1">
-        <f t="array" ref="Y142">IF(LEN(INDEX(Base!142:142,0,MATCH(Planilha2!$U142,Base!142:142,0)+2))&gt;2,LEFT(INDEX(Base!142:142,0,MATCH(Planilha2!$U142,Base!142:142,0)+2),1),INDEX(Base!142:142,0,MATCH(Planilha2!$U142,Base!142:142,0)+2))</f>
+        <f t="array" ref="Y142">IF(LEN(INDEX(Base!142:142,0,MATCH(Output!$U142,Base!142:142,0)+2))&gt;2,LEFT(INDEX(Base!142:142,0,MATCH(Output!$U142,Base!142:142,0)+2),1),INDEX(Base!142:142,0,MATCH(Output!$U142,Base!142:142,0)+2))</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="143" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A143">
+        <f t="shared" si="1"/>
+        <v>141</v>
+      </c>
       <c r="B143">
         <f>IF(OR(ISNUMBER(FIND(Configurações!$B$4,Base!B143)),ISNUMBER(FIND(Configurações!$B$5,Base!B143)),ISNUMBER(FIND(Configurações!$B$6,Base!B143)),ISNUMBER(FIND(Configurações!$B$7,Base!B143)),ISNUMBER(FIND(Configurações!$B$8,Base!B143)))=TRUE,Base!B143,0)</f>
         <v>0</v>
@@ -17963,7 +18512,7 @@
         <f>IF(TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("IPTU",Base!C143)),ISNUMBER(FIND("iptu",Base!C143)))=TRUE,RIGHT(Base!C143,5),0),"R$",""),"$",""))="0",TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("IPTU",Base!D143)),ISNUMBER(FIND("iptu",Base!D143)))=TRUE,RIGHT(Base!D143,5),0),"R$",""),"$","")),TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("iptu",Base!C143)),ISNUMBER(FIND("IPTU",Base!C143)))=TRUE,RIGHT(Base!C143,5),0),"R$",""),"$","")))</f>
         <v>0</v>
       </c>
-      <c r="F143" s="5" cm="1">
+      <c r="F143" s="4" cm="1">
         <f t="array" ref="F143">INDEX(Base!143:143,MATCH(MAX(LEN(Base!143:143)),LEN(Base!143:143),0))</f>
         <v>0</v>
       </c>
@@ -18016,23 +18565,27 @@
         <v>0</v>
       </c>
       <c r="V143" t="e" cm="1">
-        <f t="array" ref="V143">TRIM(SUBSTITUTE(INDEX(Base!143:143,0,MATCH(Planilha2!$U143,Base!143:143,0)+1),"m²",""))</f>
+        <f t="array" ref="V143">TRIM(SUBSTITUTE(INDEX(Base!143:143,0,MATCH(Output!$U143,Base!143:143,0)+1),"m²",""))</f>
         <v>#N/A</v>
       </c>
       <c r="W143" t="e" cm="1">
-        <f t="array" ref="W143">IF(LEN(INDEX(Base!143:143,0,MATCH(Planilha2!$U143,Base!143:143,0)+2))&gt;2,LEFT(INDEX(Base!143:143,0,MATCH(Planilha2!$U143,Base!143:143,0)+2),1),INDEX(Base!143:143,0,MATCH(Planilha2!$U143,Base!143:143,0)+2))</f>
+        <f t="array" ref="W143">IF(LEN(INDEX(Base!143:143,0,MATCH(Output!$U143,Base!143:143,0)+2))&gt;2,LEFT(INDEX(Base!143:143,0,MATCH(Output!$U143,Base!143:143,0)+2),1),INDEX(Base!143:143,0,MATCH(Output!$U143,Base!143:143,0)+2))</f>
         <v>#N/A</v>
       </c>
       <c r="X143" t="e" cm="1">
-        <f t="array" ref="X143">IF(LEN(INDEX(Base!143:143,0,MATCH(Planilha2!$U143,Base!143:143,0)+2))&gt;2,LEFT(INDEX(Base!143:143,0,MATCH(Planilha2!$U143,Base!143:143,0)+2),1),INDEX(Base!143:143,0,MATCH(Planilha2!$U143,Base!143:143,0)+2))</f>
+        <f t="array" ref="X143">IF(LEN(INDEX(Base!143:143,0,MATCH(Output!$U143,Base!143:143,0)+2))&gt;2,LEFT(INDEX(Base!143:143,0,MATCH(Output!$U143,Base!143:143,0)+2),1),INDEX(Base!143:143,0,MATCH(Output!$U143,Base!143:143,0)+2))</f>
         <v>#N/A</v>
       </c>
       <c r="Y143" t="e" cm="1">
-        <f t="array" ref="Y143">IF(LEN(INDEX(Base!143:143,0,MATCH(Planilha2!$U143,Base!143:143,0)+2))&gt;2,LEFT(INDEX(Base!143:143,0,MATCH(Planilha2!$U143,Base!143:143,0)+2),1),INDEX(Base!143:143,0,MATCH(Planilha2!$U143,Base!143:143,0)+2))</f>
+        <f t="array" ref="Y143">IF(LEN(INDEX(Base!143:143,0,MATCH(Output!$U143,Base!143:143,0)+2))&gt;2,LEFT(INDEX(Base!143:143,0,MATCH(Output!$U143,Base!143:143,0)+2),1),INDEX(Base!143:143,0,MATCH(Output!$U143,Base!143:143,0)+2))</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="144" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A144">
+        <f t="shared" si="1"/>
+        <v>142</v>
+      </c>
       <c r="B144">
         <f>IF(OR(ISNUMBER(FIND(Configurações!$B$4,Base!B144)),ISNUMBER(FIND(Configurações!$B$5,Base!B144)),ISNUMBER(FIND(Configurações!$B$6,Base!B144)),ISNUMBER(FIND(Configurações!$B$7,Base!B144)),ISNUMBER(FIND(Configurações!$B$8,Base!B144)))=TRUE,Base!B144,0)</f>
         <v>0</v>
@@ -18049,7 +18602,7 @@
         <f>IF(TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("IPTU",Base!C144)),ISNUMBER(FIND("iptu",Base!C144)))=TRUE,RIGHT(Base!C144,5),0),"R$",""),"$",""))="0",TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("IPTU",Base!D144)),ISNUMBER(FIND("iptu",Base!D144)))=TRUE,RIGHT(Base!D144,5),0),"R$",""),"$","")),TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("iptu",Base!C144)),ISNUMBER(FIND("IPTU",Base!C144)))=TRUE,RIGHT(Base!C144,5),0),"R$",""),"$","")))</f>
         <v>0</v>
       </c>
-      <c r="F144" s="5" cm="1">
+      <c r="F144" s="4" cm="1">
         <f t="array" ref="F144">INDEX(Base!144:144,MATCH(MAX(LEN(Base!144:144)),LEN(Base!144:144),0))</f>
         <v>0</v>
       </c>
@@ -18102,23 +18655,27 @@
         <v>0</v>
       </c>
       <c r="V144" t="e" cm="1">
-        <f t="array" ref="V144">TRIM(SUBSTITUTE(INDEX(Base!144:144,0,MATCH(Planilha2!$U144,Base!144:144,0)+1),"m²",""))</f>
+        <f t="array" ref="V144">TRIM(SUBSTITUTE(INDEX(Base!144:144,0,MATCH(Output!$U144,Base!144:144,0)+1),"m²",""))</f>
         <v>#N/A</v>
       </c>
       <c r="W144" t="e" cm="1">
-        <f t="array" ref="W144">IF(LEN(INDEX(Base!144:144,0,MATCH(Planilha2!$U144,Base!144:144,0)+2))&gt;2,LEFT(INDEX(Base!144:144,0,MATCH(Planilha2!$U144,Base!144:144,0)+2),1),INDEX(Base!144:144,0,MATCH(Planilha2!$U144,Base!144:144,0)+2))</f>
+        <f t="array" ref="W144">IF(LEN(INDEX(Base!144:144,0,MATCH(Output!$U144,Base!144:144,0)+2))&gt;2,LEFT(INDEX(Base!144:144,0,MATCH(Output!$U144,Base!144:144,0)+2),1),INDEX(Base!144:144,0,MATCH(Output!$U144,Base!144:144,0)+2))</f>
         <v>#N/A</v>
       </c>
       <c r="X144" t="e" cm="1">
-        <f t="array" ref="X144">IF(LEN(INDEX(Base!144:144,0,MATCH(Planilha2!$U144,Base!144:144,0)+2))&gt;2,LEFT(INDEX(Base!144:144,0,MATCH(Planilha2!$U144,Base!144:144,0)+2),1),INDEX(Base!144:144,0,MATCH(Planilha2!$U144,Base!144:144,0)+2))</f>
+        <f t="array" ref="X144">IF(LEN(INDEX(Base!144:144,0,MATCH(Output!$U144,Base!144:144,0)+2))&gt;2,LEFT(INDEX(Base!144:144,0,MATCH(Output!$U144,Base!144:144,0)+2),1),INDEX(Base!144:144,0,MATCH(Output!$U144,Base!144:144,0)+2))</f>
         <v>#N/A</v>
       </c>
       <c r="Y144" t="e" cm="1">
-        <f t="array" ref="Y144">IF(LEN(INDEX(Base!144:144,0,MATCH(Planilha2!$U144,Base!144:144,0)+2))&gt;2,LEFT(INDEX(Base!144:144,0,MATCH(Planilha2!$U144,Base!144:144,0)+2),1),INDEX(Base!144:144,0,MATCH(Planilha2!$U144,Base!144:144,0)+2))</f>
+        <f t="array" ref="Y144">IF(LEN(INDEX(Base!144:144,0,MATCH(Output!$U144,Base!144:144,0)+2))&gt;2,LEFT(INDEX(Base!144:144,0,MATCH(Output!$U144,Base!144:144,0)+2),1),INDEX(Base!144:144,0,MATCH(Output!$U144,Base!144:144,0)+2))</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="145" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A145">
+        <f t="shared" si="1"/>
+        <v>143</v>
+      </c>
       <c r="B145">
         <f>IF(OR(ISNUMBER(FIND(Configurações!$B$4,Base!B145)),ISNUMBER(FIND(Configurações!$B$5,Base!B145)),ISNUMBER(FIND(Configurações!$B$6,Base!B145)),ISNUMBER(FIND(Configurações!$B$7,Base!B145)),ISNUMBER(FIND(Configurações!$B$8,Base!B145)))=TRUE,Base!B145,0)</f>
         <v>0</v>
@@ -18135,7 +18692,7 @@
         <f>IF(TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("IPTU",Base!C145)),ISNUMBER(FIND("iptu",Base!C145)))=TRUE,RIGHT(Base!C145,5),0),"R$",""),"$",""))="0",TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("IPTU",Base!D145)),ISNUMBER(FIND("iptu",Base!D145)))=TRUE,RIGHT(Base!D145,5),0),"R$",""),"$","")),TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("iptu",Base!C145)),ISNUMBER(FIND("IPTU",Base!C145)))=TRUE,RIGHT(Base!C145,5),0),"R$",""),"$","")))</f>
         <v>0</v>
       </c>
-      <c r="F145" s="5" cm="1">
+      <c r="F145" s="4" cm="1">
         <f t="array" ref="F145">INDEX(Base!145:145,MATCH(MAX(LEN(Base!145:145)),LEN(Base!145:145),0))</f>
         <v>0</v>
       </c>
@@ -18188,23 +18745,27 @@
         <v>0</v>
       </c>
       <c r="V145" t="e" cm="1">
-        <f t="array" ref="V145">TRIM(SUBSTITUTE(INDEX(Base!145:145,0,MATCH(Planilha2!$U145,Base!145:145,0)+1),"m²",""))</f>
+        <f t="array" ref="V145">TRIM(SUBSTITUTE(INDEX(Base!145:145,0,MATCH(Output!$U145,Base!145:145,0)+1),"m²",""))</f>
         <v>#N/A</v>
       </c>
       <c r="W145" t="e" cm="1">
-        <f t="array" ref="W145">IF(LEN(INDEX(Base!145:145,0,MATCH(Planilha2!$U145,Base!145:145,0)+2))&gt;2,LEFT(INDEX(Base!145:145,0,MATCH(Planilha2!$U145,Base!145:145,0)+2),1),INDEX(Base!145:145,0,MATCH(Planilha2!$U145,Base!145:145,0)+2))</f>
+        <f t="array" ref="W145">IF(LEN(INDEX(Base!145:145,0,MATCH(Output!$U145,Base!145:145,0)+2))&gt;2,LEFT(INDEX(Base!145:145,0,MATCH(Output!$U145,Base!145:145,0)+2),1),INDEX(Base!145:145,0,MATCH(Output!$U145,Base!145:145,0)+2))</f>
         <v>#N/A</v>
       </c>
       <c r="X145" t="e" cm="1">
-        <f t="array" ref="X145">IF(LEN(INDEX(Base!145:145,0,MATCH(Planilha2!$U145,Base!145:145,0)+2))&gt;2,LEFT(INDEX(Base!145:145,0,MATCH(Planilha2!$U145,Base!145:145,0)+2),1),INDEX(Base!145:145,0,MATCH(Planilha2!$U145,Base!145:145,0)+2))</f>
+        <f t="array" ref="X145">IF(LEN(INDEX(Base!145:145,0,MATCH(Output!$U145,Base!145:145,0)+2))&gt;2,LEFT(INDEX(Base!145:145,0,MATCH(Output!$U145,Base!145:145,0)+2),1),INDEX(Base!145:145,0,MATCH(Output!$U145,Base!145:145,0)+2))</f>
         <v>#N/A</v>
       </c>
       <c r="Y145" t="e" cm="1">
-        <f t="array" ref="Y145">IF(LEN(INDEX(Base!145:145,0,MATCH(Planilha2!$U145,Base!145:145,0)+2))&gt;2,LEFT(INDEX(Base!145:145,0,MATCH(Planilha2!$U145,Base!145:145,0)+2),1),INDEX(Base!145:145,0,MATCH(Planilha2!$U145,Base!145:145,0)+2))</f>
+        <f t="array" ref="Y145">IF(LEN(INDEX(Base!145:145,0,MATCH(Output!$U145,Base!145:145,0)+2))&gt;2,LEFT(INDEX(Base!145:145,0,MATCH(Output!$U145,Base!145:145,0)+2),1),INDEX(Base!145:145,0,MATCH(Output!$U145,Base!145:145,0)+2))</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="146" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A146">
+        <f t="shared" si="1"/>
+        <v>144</v>
+      </c>
       <c r="B146">
         <f>IF(OR(ISNUMBER(FIND(Configurações!$B$4,Base!B146)),ISNUMBER(FIND(Configurações!$B$5,Base!B146)),ISNUMBER(FIND(Configurações!$B$6,Base!B146)),ISNUMBER(FIND(Configurações!$B$7,Base!B146)),ISNUMBER(FIND(Configurações!$B$8,Base!B146)))=TRUE,Base!B146,0)</f>
         <v>0</v>
@@ -18221,7 +18782,7 @@
         <f>IF(TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("IPTU",Base!C146)),ISNUMBER(FIND("iptu",Base!C146)))=TRUE,RIGHT(Base!C146,5),0),"R$",""),"$",""))="0",TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("IPTU",Base!D146)),ISNUMBER(FIND("iptu",Base!D146)))=TRUE,RIGHT(Base!D146,5),0),"R$",""),"$","")),TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("iptu",Base!C146)),ISNUMBER(FIND("IPTU",Base!C146)))=TRUE,RIGHT(Base!C146,5),0),"R$",""),"$","")))</f>
         <v>0</v>
       </c>
-      <c r="F146" s="5" cm="1">
+      <c r="F146" s="4" cm="1">
         <f t="array" ref="F146">INDEX(Base!146:146,MATCH(MAX(LEN(Base!146:146)),LEN(Base!146:146),0))</f>
         <v>0</v>
       </c>
@@ -18274,23 +18835,27 @@
         <v>0</v>
       </c>
       <c r="V146" t="e" cm="1">
-        <f t="array" ref="V146">TRIM(SUBSTITUTE(INDEX(Base!146:146,0,MATCH(Planilha2!$U146,Base!146:146,0)+1),"m²",""))</f>
+        <f t="array" ref="V146">TRIM(SUBSTITUTE(INDEX(Base!146:146,0,MATCH(Output!$U146,Base!146:146,0)+1),"m²",""))</f>
         <v>#N/A</v>
       </c>
       <c r="W146" t="e" cm="1">
-        <f t="array" ref="W146">IF(LEN(INDEX(Base!146:146,0,MATCH(Planilha2!$U146,Base!146:146,0)+2))&gt;2,LEFT(INDEX(Base!146:146,0,MATCH(Planilha2!$U146,Base!146:146,0)+2),1),INDEX(Base!146:146,0,MATCH(Planilha2!$U146,Base!146:146,0)+2))</f>
+        <f t="array" ref="W146">IF(LEN(INDEX(Base!146:146,0,MATCH(Output!$U146,Base!146:146,0)+2))&gt;2,LEFT(INDEX(Base!146:146,0,MATCH(Output!$U146,Base!146:146,0)+2),1),INDEX(Base!146:146,0,MATCH(Output!$U146,Base!146:146,0)+2))</f>
         <v>#N/A</v>
       </c>
       <c r="X146" t="e" cm="1">
-        <f t="array" ref="X146">IF(LEN(INDEX(Base!146:146,0,MATCH(Planilha2!$U146,Base!146:146,0)+2))&gt;2,LEFT(INDEX(Base!146:146,0,MATCH(Planilha2!$U146,Base!146:146,0)+2),1),INDEX(Base!146:146,0,MATCH(Planilha2!$U146,Base!146:146,0)+2))</f>
+        <f t="array" ref="X146">IF(LEN(INDEX(Base!146:146,0,MATCH(Output!$U146,Base!146:146,0)+2))&gt;2,LEFT(INDEX(Base!146:146,0,MATCH(Output!$U146,Base!146:146,0)+2),1),INDEX(Base!146:146,0,MATCH(Output!$U146,Base!146:146,0)+2))</f>
         <v>#N/A</v>
       </c>
       <c r="Y146" t="e" cm="1">
-        <f t="array" ref="Y146">IF(LEN(INDEX(Base!146:146,0,MATCH(Planilha2!$U146,Base!146:146,0)+2))&gt;2,LEFT(INDEX(Base!146:146,0,MATCH(Planilha2!$U146,Base!146:146,0)+2),1),INDEX(Base!146:146,0,MATCH(Planilha2!$U146,Base!146:146,0)+2))</f>
+        <f t="array" ref="Y146">IF(LEN(INDEX(Base!146:146,0,MATCH(Output!$U146,Base!146:146,0)+2))&gt;2,LEFT(INDEX(Base!146:146,0,MATCH(Output!$U146,Base!146:146,0)+2),1),INDEX(Base!146:146,0,MATCH(Output!$U146,Base!146:146,0)+2))</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="147" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A147">
+        <f t="shared" si="1"/>
+        <v>145</v>
+      </c>
       <c r="B147">
         <f>IF(OR(ISNUMBER(FIND(Configurações!$B$4,Base!B147)),ISNUMBER(FIND(Configurações!$B$5,Base!B147)),ISNUMBER(FIND(Configurações!$B$6,Base!B147)),ISNUMBER(FIND(Configurações!$B$7,Base!B147)),ISNUMBER(FIND(Configurações!$B$8,Base!B147)))=TRUE,Base!B147,0)</f>
         <v>0</v>
@@ -18307,7 +18872,7 @@
         <f>IF(TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("IPTU",Base!C147)),ISNUMBER(FIND("iptu",Base!C147)))=TRUE,RIGHT(Base!C147,5),0),"R$",""),"$",""))="0",TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("IPTU",Base!D147)),ISNUMBER(FIND("iptu",Base!D147)))=TRUE,RIGHT(Base!D147,5),0),"R$",""),"$","")),TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("iptu",Base!C147)),ISNUMBER(FIND("IPTU",Base!C147)))=TRUE,RIGHT(Base!C147,5),0),"R$",""),"$","")))</f>
         <v>0</v>
       </c>
-      <c r="F147" s="5" cm="1">
+      <c r="F147" s="4" cm="1">
         <f t="array" ref="F147">INDEX(Base!147:147,MATCH(MAX(LEN(Base!147:147)),LEN(Base!147:147),0))</f>
         <v>0</v>
       </c>
@@ -18360,23 +18925,27 @@
         <v>0</v>
       </c>
       <c r="V147" t="e" cm="1">
-        <f t="array" ref="V147">TRIM(SUBSTITUTE(INDEX(Base!147:147,0,MATCH(Planilha2!$U147,Base!147:147,0)+1),"m²",""))</f>
+        <f t="array" ref="V147">TRIM(SUBSTITUTE(INDEX(Base!147:147,0,MATCH(Output!$U147,Base!147:147,0)+1),"m²",""))</f>
         <v>#N/A</v>
       </c>
       <c r="W147" t="e" cm="1">
-        <f t="array" ref="W147">IF(LEN(INDEX(Base!147:147,0,MATCH(Planilha2!$U147,Base!147:147,0)+2))&gt;2,LEFT(INDEX(Base!147:147,0,MATCH(Planilha2!$U147,Base!147:147,0)+2),1),INDEX(Base!147:147,0,MATCH(Planilha2!$U147,Base!147:147,0)+2))</f>
+        <f t="array" ref="W147">IF(LEN(INDEX(Base!147:147,0,MATCH(Output!$U147,Base!147:147,0)+2))&gt;2,LEFT(INDEX(Base!147:147,0,MATCH(Output!$U147,Base!147:147,0)+2),1),INDEX(Base!147:147,0,MATCH(Output!$U147,Base!147:147,0)+2))</f>
         <v>#N/A</v>
       </c>
       <c r="X147" t="e" cm="1">
-        <f t="array" ref="X147">IF(LEN(INDEX(Base!147:147,0,MATCH(Planilha2!$U147,Base!147:147,0)+2))&gt;2,LEFT(INDEX(Base!147:147,0,MATCH(Planilha2!$U147,Base!147:147,0)+2),1),INDEX(Base!147:147,0,MATCH(Planilha2!$U147,Base!147:147,0)+2))</f>
+        <f t="array" ref="X147">IF(LEN(INDEX(Base!147:147,0,MATCH(Output!$U147,Base!147:147,0)+2))&gt;2,LEFT(INDEX(Base!147:147,0,MATCH(Output!$U147,Base!147:147,0)+2),1),INDEX(Base!147:147,0,MATCH(Output!$U147,Base!147:147,0)+2))</f>
         <v>#N/A</v>
       </c>
       <c r="Y147" t="e" cm="1">
-        <f t="array" ref="Y147">IF(LEN(INDEX(Base!147:147,0,MATCH(Planilha2!$U147,Base!147:147,0)+2))&gt;2,LEFT(INDEX(Base!147:147,0,MATCH(Planilha2!$U147,Base!147:147,0)+2),1),INDEX(Base!147:147,0,MATCH(Planilha2!$U147,Base!147:147,0)+2))</f>
+        <f t="array" ref="Y147">IF(LEN(INDEX(Base!147:147,0,MATCH(Output!$U147,Base!147:147,0)+2))&gt;2,LEFT(INDEX(Base!147:147,0,MATCH(Output!$U147,Base!147:147,0)+2),1),INDEX(Base!147:147,0,MATCH(Output!$U147,Base!147:147,0)+2))</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="148" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A148">
+        <f t="shared" si="1"/>
+        <v>146</v>
+      </c>
       <c r="B148">
         <f>IF(OR(ISNUMBER(FIND(Configurações!$B$4,Base!B148)),ISNUMBER(FIND(Configurações!$B$5,Base!B148)),ISNUMBER(FIND(Configurações!$B$6,Base!B148)),ISNUMBER(FIND(Configurações!$B$7,Base!B148)),ISNUMBER(FIND(Configurações!$B$8,Base!B148)))=TRUE,Base!B148,0)</f>
         <v>0</v>
@@ -18393,7 +18962,7 @@
         <f>IF(TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("IPTU",Base!C148)),ISNUMBER(FIND("iptu",Base!C148)))=TRUE,RIGHT(Base!C148,5),0),"R$",""),"$",""))="0",TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("IPTU",Base!D148)),ISNUMBER(FIND("iptu",Base!D148)))=TRUE,RIGHT(Base!D148,5),0),"R$",""),"$","")),TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("iptu",Base!C148)),ISNUMBER(FIND("IPTU",Base!C148)))=TRUE,RIGHT(Base!C148,5),0),"R$",""),"$","")))</f>
         <v>0</v>
       </c>
-      <c r="F148" s="5" cm="1">
+      <c r="F148" s="4" cm="1">
         <f t="array" ref="F148">INDEX(Base!148:148,MATCH(MAX(LEN(Base!148:148)),LEN(Base!148:148),0))</f>
         <v>0</v>
       </c>
@@ -18446,23 +19015,27 @@
         <v>0</v>
       </c>
       <c r="V148" t="e" cm="1">
-        <f t="array" ref="V148">TRIM(SUBSTITUTE(INDEX(Base!148:148,0,MATCH(Planilha2!$U148,Base!148:148,0)+1),"m²",""))</f>
+        <f t="array" ref="V148">TRIM(SUBSTITUTE(INDEX(Base!148:148,0,MATCH(Output!$U148,Base!148:148,0)+1),"m²",""))</f>
         <v>#N/A</v>
       </c>
       <c r="W148" t="e" cm="1">
-        <f t="array" ref="W148">IF(LEN(INDEX(Base!148:148,0,MATCH(Planilha2!$U148,Base!148:148,0)+2))&gt;2,LEFT(INDEX(Base!148:148,0,MATCH(Planilha2!$U148,Base!148:148,0)+2),1),INDEX(Base!148:148,0,MATCH(Planilha2!$U148,Base!148:148,0)+2))</f>
+        <f t="array" ref="W148">IF(LEN(INDEX(Base!148:148,0,MATCH(Output!$U148,Base!148:148,0)+2))&gt;2,LEFT(INDEX(Base!148:148,0,MATCH(Output!$U148,Base!148:148,0)+2),1),INDEX(Base!148:148,0,MATCH(Output!$U148,Base!148:148,0)+2))</f>
         <v>#N/A</v>
       </c>
       <c r="X148" t="e" cm="1">
-        <f t="array" ref="X148">IF(LEN(INDEX(Base!148:148,0,MATCH(Planilha2!$U148,Base!148:148,0)+2))&gt;2,LEFT(INDEX(Base!148:148,0,MATCH(Planilha2!$U148,Base!148:148,0)+2),1),INDEX(Base!148:148,0,MATCH(Planilha2!$U148,Base!148:148,0)+2))</f>
+        <f t="array" ref="X148">IF(LEN(INDEX(Base!148:148,0,MATCH(Output!$U148,Base!148:148,0)+2))&gt;2,LEFT(INDEX(Base!148:148,0,MATCH(Output!$U148,Base!148:148,0)+2),1),INDEX(Base!148:148,0,MATCH(Output!$U148,Base!148:148,0)+2))</f>
         <v>#N/A</v>
       </c>
       <c r="Y148" t="e" cm="1">
-        <f t="array" ref="Y148">IF(LEN(INDEX(Base!148:148,0,MATCH(Planilha2!$U148,Base!148:148,0)+2))&gt;2,LEFT(INDEX(Base!148:148,0,MATCH(Planilha2!$U148,Base!148:148,0)+2),1),INDEX(Base!148:148,0,MATCH(Planilha2!$U148,Base!148:148,0)+2))</f>
+        <f t="array" ref="Y148">IF(LEN(INDEX(Base!148:148,0,MATCH(Output!$U148,Base!148:148,0)+2))&gt;2,LEFT(INDEX(Base!148:148,0,MATCH(Output!$U148,Base!148:148,0)+2),1),INDEX(Base!148:148,0,MATCH(Output!$U148,Base!148:148,0)+2))</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="149" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A149">
+        <f t="shared" si="1"/>
+        <v>147</v>
+      </c>
       <c r="B149">
         <f>IF(OR(ISNUMBER(FIND(Configurações!$B$4,Base!B149)),ISNUMBER(FIND(Configurações!$B$5,Base!B149)),ISNUMBER(FIND(Configurações!$B$6,Base!B149)),ISNUMBER(FIND(Configurações!$B$7,Base!B149)),ISNUMBER(FIND(Configurações!$B$8,Base!B149)))=TRUE,Base!B149,0)</f>
         <v>0</v>
@@ -18479,7 +19052,7 @@
         <f>IF(TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("IPTU",Base!C149)),ISNUMBER(FIND("iptu",Base!C149)))=TRUE,RIGHT(Base!C149,5),0),"R$",""),"$",""))="0",TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("IPTU",Base!D149)),ISNUMBER(FIND("iptu",Base!D149)))=TRUE,RIGHT(Base!D149,5),0),"R$",""),"$","")),TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("iptu",Base!C149)),ISNUMBER(FIND("IPTU",Base!C149)))=TRUE,RIGHT(Base!C149,5),0),"R$",""),"$","")))</f>
         <v>0</v>
       </c>
-      <c r="F149" s="5" cm="1">
+      <c r="F149" s="4" cm="1">
         <f t="array" ref="F149">INDEX(Base!149:149,MATCH(MAX(LEN(Base!149:149)),LEN(Base!149:149),0))</f>
         <v>0</v>
       </c>
@@ -18532,23 +19105,27 @@
         <v>0</v>
       </c>
       <c r="V149" t="e" cm="1">
-        <f t="array" ref="V149">TRIM(SUBSTITUTE(INDEX(Base!149:149,0,MATCH(Planilha2!$U149,Base!149:149,0)+1),"m²",""))</f>
+        <f t="array" ref="V149">TRIM(SUBSTITUTE(INDEX(Base!149:149,0,MATCH(Output!$U149,Base!149:149,0)+1),"m²",""))</f>
         <v>#N/A</v>
       </c>
       <c r="W149" t="e" cm="1">
-        <f t="array" ref="W149">IF(LEN(INDEX(Base!149:149,0,MATCH(Planilha2!$U149,Base!149:149,0)+2))&gt;2,LEFT(INDEX(Base!149:149,0,MATCH(Planilha2!$U149,Base!149:149,0)+2),1),INDEX(Base!149:149,0,MATCH(Planilha2!$U149,Base!149:149,0)+2))</f>
+        <f t="array" ref="W149">IF(LEN(INDEX(Base!149:149,0,MATCH(Output!$U149,Base!149:149,0)+2))&gt;2,LEFT(INDEX(Base!149:149,0,MATCH(Output!$U149,Base!149:149,0)+2),1),INDEX(Base!149:149,0,MATCH(Output!$U149,Base!149:149,0)+2))</f>
         <v>#N/A</v>
       </c>
       <c r="X149" t="e" cm="1">
-        <f t="array" ref="X149">IF(LEN(INDEX(Base!149:149,0,MATCH(Planilha2!$U149,Base!149:149,0)+2))&gt;2,LEFT(INDEX(Base!149:149,0,MATCH(Planilha2!$U149,Base!149:149,0)+2),1),INDEX(Base!149:149,0,MATCH(Planilha2!$U149,Base!149:149,0)+2))</f>
+        <f t="array" ref="X149">IF(LEN(INDEX(Base!149:149,0,MATCH(Output!$U149,Base!149:149,0)+2))&gt;2,LEFT(INDEX(Base!149:149,0,MATCH(Output!$U149,Base!149:149,0)+2),1),INDEX(Base!149:149,0,MATCH(Output!$U149,Base!149:149,0)+2))</f>
         <v>#N/A</v>
       </c>
       <c r="Y149" t="e" cm="1">
-        <f t="array" ref="Y149">IF(LEN(INDEX(Base!149:149,0,MATCH(Planilha2!$U149,Base!149:149,0)+2))&gt;2,LEFT(INDEX(Base!149:149,0,MATCH(Planilha2!$U149,Base!149:149,0)+2),1),INDEX(Base!149:149,0,MATCH(Planilha2!$U149,Base!149:149,0)+2))</f>
+        <f t="array" ref="Y149">IF(LEN(INDEX(Base!149:149,0,MATCH(Output!$U149,Base!149:149,0)+2))&gt;2,LEFT(INDEX(Base!149:149,0,MATCH(Output!$U149,Base!149:149,0)+2),1),INDEX(Base!149:149,0,MATCH(Output!$U149,Base!149:149,0)+2))</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="150" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A150">
+        <f t="shared" si="1"/>
+        <v>148</v>
+      </c>
       <c r="B150">
         <f>IF(OR(ISNUMBER(FIND(Configurações!$B$4,Base!B150)),ISNUMBER(FIND(Configurações!$B$5,Base!B150)),ISNUMBER(FIND(Configurações!$B$6,Base!B150)),ISNUMBER(FIND(Configurações!$B$7,Base!B150)),ISNUMBER(FIND(Configurações!$B$8,Base!B150)))=TRUE,Base!B150,0)</f>
         <v>0</v>
@@ -18565,7 +19142,7 @@
         <f>IF(TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("IPTU",Base!C150)),ISNUMBER(FIND("iptu",Base!C150)))=TRUE,RIGHT(Base!C150,5),0),"R$",""),"$",""))="0",TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("IPTU",Base!D150)),ISNUMBER(FIND("iptu",Base!D150)))=TRUE,RIGHT(Base!D150,5),0),"R$",""),"$","")),TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("iptu",Base!C150)),ISNUMBER(FIND("IPTU",Base!C150)))=TRUE,RIGHT(Base!C150,5),0),"R$",""),"$","")))</f>
         <v>0</v>
       </c>
-      <c r="F150" s="5" cm="1">
+      <c r="F150" s="4" cm="1">
         <f t="array" ref="F150">INDEX(Base!150:150,MATCH(MAX(LEN(Base!150:150)),LEN(Base!150:150),0))</f>
         <v>0</v>
       </c>
@@ -18618,23 +19195,27 @@
         <v>0</v>
       </c>
       <c r="V150" t="e" cm="1">
-        <f t="array" ref="V150">TRIM(SUBSTITUTE(INDEX(Base!150:150,0,MATCH(Planilha2!$U150,Base!150:150,0)+1),"m²",""))</f>
+        <f t="array" ref="V150">TRIM(SUBSTITUTE(INDEX(Base!150:150,0,MATCH(Output!$U150,Base!150:150,0)+1),"m²",""))</f>
         <v>#N/A</v>
       </c>
       <c r="W150" t="e" cm="1">
-        <f t="array" ref="W150">IF(LEN(INDEX(Base!150:150,0,MATCH(Planilha2!$U150,Base!150:150,0)+2))&gt;2,LEFT(INDEX(Base!150:150,0,MATCH(Planilha2!$U150,Base!150:150,0)+2),1),INDEX(Base!150:150,0,MATCH(Planilha2!$U150,Base!150:150,0)+2))</f>
+        <f t="array" ref="W150">IF(LEN(INDEX(Base!150:150,0,MATCH(Output!$U150,Base!150:150,0)+2))&gt;2,LEFT(INDEX(Base!150:150,0,MATCH(Output!$U150,Base!150:150,0)+2),1),INDEX(Base!150:150,0,MATCH(Output!$U150,Base!150:150,0)+2))</f>
         <v>#N/A</v>
       </c>
       <c r="X150" t="e" cm="1">
-        <f t="array" ref="X150">IF(LEN(INDEX(Base!150:150,0,MATCH(Planilha2!$U150,Base!150:150,0)+2))&gt;2,LEFT(INDEX(Base!150:150,0,MATCH(Planilha2!$U150,Base!150:150,0)+2),1),INDEX(Base!150:150,0,MATCH(Planilha2!$U150,Base!150:150,0)+2))</f>
+        <f t="array" ref="X150">IF(LEN(INDEX(Base!150:150,0,MATCH(Output!$U150,Base!150:150,0)+2))&gt;2,LEFT(INDEX(Base!150:150,0,MATCH(Output!$U150,Base!150:150,0)+2),1),INDEX(Base!150:150,0,MATCH(Output!$U150,Base!150:150,0)+2))</f>
         <v>#N/A</v>
       </c>
       <c r="Y150" t="e" cm="1">
-        <f t="array" ref="Y150">IF(LEN(INDEX(Base!150:150,0,MATCH(Planilha2!$U150,Base!150:150,0)+2))&gt;2,LEFT(INDEX(Base!150:150,0,MATCH(Planilha2!$U150,Base!150:150,0)+2),1),INDEX(Base!150:150,0,MATCH(Planilha2!$U150,Base!150:150,0)+2))</f>
+        <f t="array" ref="Y150">IF(LEN(INDEX(Base!150:150,0,MATCH(Output!$U150,Base!150:150,0)+2))&gt;2,LEFT(INDEX(Base!150:150,0,MATCH(Output!$U150,Base!150:150,0)+2),1),INDEX(Base!150:150,0,MATCH(Output!$U150,Base!150:150,0)+2))</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="151" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A151">
+        <f t="shared" si="1"/>
+        <v>149</v>
+      </c>
       <c r="B151">
         <f>IF(OR(ISNUMBER(FIND(Configurações!$B$4,Base!B151)),ISNUMBER(FIND(Configurações!$B$5,Base!B151)),ISNUMBER(FIND(Configurações!$B$6,Base!B151)),ISNUMBER(FIND(Configurações!$B$7,Base!B151)),ISNUMBER(FIND(Configurações!$B$8,Base!B151)))=TRUE,Base!B151,0)</f>
         <v>0</v>
@@ -18651,7 +19232,7 @@
         <f>IF(TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("IPTU",Base!C151)),ISNUMBER(FIND("iptu",Base!C151)))=TRUE,RIGHT(Base!C151,5),0),"R$",""),"$",""))="0",TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("IPTU",Base!D151)),ISNUMBER(FIND("iptu",Base!D151)))=TRUE,RIGHT(Base!D151,5),0),"R$",""),"$","")),TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("iptu",Base!C151)),ISNUMBER(FIND("IPTU",Base!C151)))=TRUE,RIGHT(Base!C151,5),0),"R$",""),"$","")))</f>
         <v>0</v>
       </c>
-      <c r="F151" s="5" cm="1">
+      <c r="F151" s="4" cm="1">
         <f t="array" ref="F151">INDEX(Base!151:151,MATCH(MAX(LEN(Base!151:151)),LEN(Base!151:151),0))</f>
         <v>0</v>
       </c>
@@ -18704,23 +19285,27 @@
         <v>0</v>
       </c>
       <c r="V151" t="e" cm="1">
-        <f t="array" ref="V151">TRIM(SUBSTITUTE(INDEX(Base!151:151,0,MATCH(Planilha2!$U151,Base!151:151,0)+1),"m²",""))</f>
+        <f t="array" ref="V151">TRIM(SUBSTITUTE(INDEX(Base!151:151,0,MATCH(Output!$U151,Base!151:151,0)+1),"m²",""))</f>
         <v>#N/A</v>
       </c>
       <c r="W151" t="e" cm="1">
-        <f t="array" ref="W151">IF(LEN(INDEX(Base!151:151,0,MATCH(Planilha2!$U151,Base!151:151,0)+2))&gt;2,LEFT(INDEX(Base!151:151,0,MATCH(Planilha2!$U151,Base!151:151,0)+2),1),INDEX(Base!151:151,0,MATCH(Planilha2!$U151,Base!151:151,0)+2))</f>
+        <f t="array" ref="W151">IF(LEN(INDEX(Base!151:151,0,MATCH(Output!$U151,Base!151:151,0)+2))&gt;2,LEFT(INDEX(Base!151:151,0,MATCH(Output!$U151,Base!151:151,0)+2),1),INDEX(Base!151:151,0,MATCH(Output!$U151,Base!151:151,0)+2))</f>
         <v>#N/A</v>
       </c>
       <c r="X151" t="e" cm="1">
-        <f t="array" ref="X151">IF(LEN(INDEX(Base!151:151,0,MATCH(Planilha2!$U151,Base!151:151,0)+2))&gt;2,LEFT(INDEX(Base!151:151,0,MATCH(Planilha2!$U151,Base!151:151,0)+2),1),INDEX(Base!151:151,0,MATCH(Planilha2!$U151,Base!151:151,0)+2))</f>
+        <f t="array" ref="X151">IF(LEN(INDEX(Base!151:151,0,MATCH(Output!$U151,Base!151:151,0)+2))&gt;2,LEFT(INDEX(Base!151:151,0,MATCH(Output!$U151,Base!151:151,0)+2),1),INDEX(Base!151:151,0,MATCH(Output!$U151,Base!151:151,0)+2))</f>
         <v>#N/A</v>
       </c>
       <c r="Y151" t="e" cm="1">
-        <f t="array" ref="Y151">IF(LEN(INDEX(Base!151:151,0,MATCH(Planilha2!$U151,Base!151:151,0)+2))&gt;2,LEFT(INDEX(Base!151:151,0,MATCH(Planilha2!$U151,Base!151:151,0)+2),1),INDEX(Base!151:151,0,MATCH(Planilha2!$U151,Base!151:151,0)+2))</f>
+        <f t="array" ref="Y151">IF(LEN(INDEX(Base!151:151,0,MATCH(Output!$U151,Base!151:151,0)+2))&gt;2,LEFT(INDEX(Base!151:151,0,MATCH(Output!$U151,Base!151:151,0)+2),1),INDEX(Base!151:151,0,MATCH(Output!$U151,Base!151:151,0)+2))</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="152" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A152">
+        <f t="shared" si="1"/>
+        <v>150</v>
+      </c>
       <c r="B152">
         <f>IF(OR(ISNUMBER(FIND(Configurações!$B$4,Base!B152)),ISNUMBER(FIND(Configurações!$B$5,Base!B152)),ISNUMBER(FIND(Configurações!$B$6,Base!B152)),ISNUMBER(FIND(Configurações!$B$7,Base!B152)),ISNUMBER(FIND(Configurações!$B$8,Base!B152)))=TRUE,Base!B152,0)</f>
         <v>0</v>
@@ -18737,7 +19322,7 @@
         <f>IF(TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("IPTU",Base!C152)),ISNUMBER(FIND("iptu",Base!C152)))=TRUE,RIGHT(Base!C152,5),0),"R$",""),"$",""))="0",TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("IPTU",Base!D152)),ISNUMBER(FIND("iptu",Base!D152)))=TRUE,RIGHT(Base!D152,5),0),"R$",""),"$","")),TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("iptu",Base!C152)),ISNUMBER(FIND("IPTU",Base!C152)))=TRUE,RIGHT(Base!C152,5),0),"R$",""),"$","")))</f>
         <v>0</v>
       </c>
-      <c r="F152" s="5" cm="1">
+      <c r="F152" s="4" cm="1">
         <f t="array" ref="F152">INDEX(Base!152:152,MATCH(MAX(LEN(Base!152:152)),LEN(Base!152:152),0))</f>
         <v>0</v>
       </c>
@@ -18790,23 +19375,27 @@
         <v>0</v>
       </c>
       <c r="V152" t="e" cm="1">
-        <f t="array" ref="V152">TRIM(SUBSTITUTE(INDEX(Base!152:152,0,MATCH(Planilha2!$U152,Base!152:152,0)+1),"m²",""))</f>
+        <f t="array" ref="V152">TRIM(SUBSTITUTE(INDEX(Base!152:152,0,MATCH(Output!$U152,Base!152:152,0)+1),"m²",""))</f>
         <v>#N/A</v>
       </c>
       <c r="W152" t="e" cm="1">
-        <f t="array" ref="W152">IF(LEN(INDEX(Base!152:152,0,MATCH(Planilha2!$U152,Base!152:152,0)+2))&gt;2,LEFT(INDEX(Base!152:152,0,MATCH(Planilha2!$U152,Base!152:152,0)+2),1),INDEX(Base!152:152,0,MATCH(Planilha2!$U152,Base!152:152,0)+2))</f>
+        <f t="array" ref="W152">IF(LEN(INDEX(Base!152:152,0,MATCH(Output!$U152,Base!152:152,0)+2))&gt;2,LEFT(INDEX(Base!152:152,0,MATCH(Output!$U152,Base!152:152,0)+2),1),INDEX(Base!152:152,0,MATCH(Output!$U152,Base!152:152,0)+2))</f>
         <v>#N/A</v>
       </c>
       <c r="X152" t="e" cm="1">
-        <f t="array" ref="X152">IF(LEN(INDEX(Base!152:152,0,MATCH(Planilha2!$U152,Base!152:152,0)+2))&gt;2,LEFT(INDEX(Base!152:152,0,MATCH(Planilha2!$U152,Base!152:152,0)+2),1),INDEX(Base!152:152,0,MATCH(Planilha2!$U152,Base!152:152,0)+2))</f>
+        <f t="array" ref="X152">IF(LEN(INDEX(Base!152:152,0,MATCH(Output!$U152,Base!152:152,0)+2))&gt;2,LEFT(INDEX(Base!152:152,0,MATCH(Output!$U152,Base!152:152,0)+2),1),INDEX(Base!152:152,0,MATCH(Output!$U152,Base!152:152,0)+2))</f>
         <v>#N/A</v>
       </c>
       <c r="Y152" t="e" cm="1">
-        <f t="array" ref="Y152">IF(LEN(INDEX(Base!152:152,0,MATCH(Planilha2!$U152,Base!152:152,0)+2))&gt;2,LEFT(INDEX(Base!152:152,0,MATCH(Planilha2!$U152,Base!152:152,0)+2),1),INDEX(Base!152:152,0,MATCH(Planilha2!$U152,Base!152:152,0)+2))</f>
+        <f t="array" ref="Y152">IF(LEN(INDEX(Base!152:152,0,MATCH(Output!$U152,Base!152:152,0)+2))&gt;2,LEFT(INDEX(Base!152:152,0,MATCH(Output!$U152,Base!152:152,0)+2),1),INDEX(Base!152:152,0,MATCH(Output!$U152,Base!152:152,0)+2))</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="153" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A153">
+        <f t="shared" si="1"/>
+        <v>151</v>
+      </c>
       <c r="B153">
         <f>IF(OR(ISNUMBER(FIND(Configurações!$B$4,Base!B153)),ISNUMBER(FIND(Configurações!$B$5,Base!B153)),ISNUMBER(FIND(Configurações!$B$6,Base!B153)),ISNUMBER(FIND(Configurações!$B$7,Base!B153)),ISNUMBER(FIND(Configurações!$B$8,Base!B153)))=TRUE,Base!B153,0)</f>
         <v>0</v>
@@ -18823,7 +19412,7 @@
         <f>IF(TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("IPTU",Base!C153)),ISNUMBER(FIND("iptu",Base!C153)))=TRUE,RIGHT(Base!C153,5),0),"R$",""),"$",""))="0",TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("IPTU",Base!D153)),ISNUMBER(FIND("iptu",Base!D153)))=TRUE,RIGHT(Base!D153,5),0),"R$",""),"$","")),TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("iptu",Base!C153)),ISNUMBER(FIND("IPTU",Base!C153)))=TRUE,RIGHT(Base!C153,5),0),"R$",""),"$","")))</f>
         <v>0</v>
       </c>
-      <c r="F153" s="5" cm="1">
+      <c r="F153" s="4" cm="1">
         <f t="array" ref="F153">INDEX(Base!153:153,MATCH(MAX(LEN(Base!153:153)),LEN(Base!153:153),0))</f>
         <v>0</v>
       </c>
@@ -18876,23 +19465,27 @@
         <v>0</v>
       </c>
       <c r="V153" t="e" cm="1">
-        <f t="array" ref="V153">TRIM(SUBSTITUTE(INDEX(Base!153:153,0,MATCH(Planilha2!$U153,Base!153:153,0)+1),"m²",""))</f>
+        <f t="array" ref="V153">TRIM(SUBSTITUTE(INDEX(Base!153:153,0,MATCH(Output!$U153,Base!153:153,0)+1),"m²",""))</f>
         <v>#N/A</v>
       </c>
       <c r="W153" t="e" cm="1">
-        <f t="array" ref="W153">IF(LEN(INDEX(Base!153:153,0,MATCH(Planilha2!$U153,Base!153:153,0)+2))&gt;2,LEFT(INDEX(Base!153:153,0,MATCH(Planilha2!$U153,Base!153:153,0)+2),1),INDEX(Base!153:153,0,MATCH(Planilha2!$U153,Base!153:153,0)+2))</f>
+        <f t="array" ref="W153">IF(LEN(INDEX(Base!153:153,0,MATCH(Output!$U153,Base!153:153,0)+2))&gt;2,LEFT(INDEX(Base!153:153,0,MATCH(Output!$U153,Base!153:153,0)+2),1),INDEX(Base!153:153,0,MATCH(Output!$U153,Base!153:153,0)+2))</f>
         <v>#N/A</v>
       </c>
       <c r="X153" t="e" cm="1">
-        <f t="array" ref="X153">IF(LEN(INDEX(Base!153:153,0,MATCH(Planilha2!$U153,Base!153:153,0)+2))&gt;2,LEFT(INDEX(Base!153:153,0,MATCH(Planilha2!$U153,Base!153:153,0)+2),1),INDEX(Base!153:153,0,MATCH(Planilha2!$U153,Base!153:153,0)+2))</f>
+        <f t="array" ref="X153">IF(LEN(INDEX(Base!153:153,0,MATCH(Output!$U153,Base!153:153,0)+2))&gt;2,LEFT(INDEX(Base!153:153,0,MATCH(Output!$U153,Base!153:153,0)+2),1),INDEX(Base!153:153,0,MATCH(Output!$U153,Base!153:153,0)+2))</f>
         <v>#N/A</v>
       </c>
       <c r="Y153" t="e" cm="1">
-        <f t="array" ref="Y153">IF(LEN(INDEX(Base!153:153,0,MATCH(Planilha2!$U153,Base!153:153,0)+2))&gt;2,LEFT(INDEX(Base!153:153,0,MATCH(Planilha2!$U153,Base!153:153,0)+2),1),INDEX(Base!153:153,0,MATCH(Planilha2!$U153,Base!153:153,0)+2))</f>
+        <f t="array" ref="Y153">IF(LEN(INDEX(Base!153:153,0,MATCH(Output!$U153,Base!153:153,0)+2))&gt;2,LEFT(INDEX(Base!153:153,0,MATCH(Output!$U153,Base!153:153,0)+2),1),INDEX(Base!153:153,0,MATCH(Output!$U153,Base!153:153,0)+2))</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="154" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A154">
+        <f t="shared" si="1"/>
+        <v>152</v>
+      </c>
       <c r="B154">
         <f>IF(OR(ISNUMBER(FIND(Configurações!$B$4,Base!B154)),ISNUMBER(FIND(Configurações!$B$5,Base!B154)),ISNUMBER(FIND(Configurações!$B$6,Base!B154)),ISNUMBER(FIND(Configurações!$B$7,Base!B154)),ISNUMBER(FIND(Configurações!$B$8,Base!B154)))=TRUE,Base!B154,0)</f>
         <v>0</v>
@@ -18909,7 +19502,7 @@
         <f>IF(TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("IPTU",Base!C154)),ISNUMBER(FIND("iptu",Base!C154)))=TRUE,RIGHT(Base!C154,5),0),"R$",""),"$",""))="0",TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("IPTU",Base!D154)),ISNUMBER(FIND("iptu",Base!D154)))=TRUE,RIGHT(Base!D154,5),0),"R$",""),"$","")),TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("iptu",Base!C154)),ISNUMBER(FIND("IPTU",Base!C154)))=TRUE,RIGHT(Base!C154,5),0),"R$",""),"$","")))</f>
         <v>0</v>
       </c>
-      <c r="F154" s="5" cm="1">
+      <c r="F154" s="4" cm="1">
         <f t="array" ref="F154">INDEX(Base!154:154,MATCH(MAX(LEN(Base!154:154)),LEN(Base!154:154),0))</f>
         <v>0</v>
       </c>
@@ -18962,23 +19555,27 @@
         <v>0</v>
       </c>
       <c r="V154" t="e" cm="1">
-        <f t="array" ref="V154">TRIM(SUBSTITUTE(INDEX(Base!154:154,0,MATCH(Planilha2!$U154,Base!154:154,0)+1),"m²",""))</f>
+        <f t="array" ref="V154">TRIM(SUBSTITUTE(INDEX(Base!154:154,0,MATCH(Output!$U154,Base!154:154,0)+1),"m²",""))</f>
         <v>#N/A</v>
       </c>
       <c r="W154" t="e" cm="1">
-        <f t="array" ref="W154">IF(LEN(INDEX(Base!154:154,0,MATCH(Planilha2!$U154,Base!154:154,0)+2))&gt;2,LEFT(INDEX(Base!154:154,0,MATCH(Planilha2!$U154,Base!154:154,0)+2),1),INDEX(Base!154:154,0,MATCH(Planilha2!$U154,Base!154:154,0)+2))</f>
+        <f t="array" ref="W154">IF(LEN(INDEX(Base!154:154,0,MATCH(Output!$U154,Base!154:154,0)+2))&gt;2,LEFT(INDEX(Base!154:154,0,MATCH(Output!$U154,Base!154:154,0)+2),1),INDEX(Base!154:154,0,MATCH(Output!$U154,Base!154:154,0)+2))</f>
         <v>#N/A</v>
       </c>
       <c r="X154" t="e" cm="1">
-        <f t="array" ref="X154">IF(LEN(INDEX(Base!154:154,0,MATCH(Planilha2!$U154,Base!154:154,0)+2))&gt;2,LEFT(INDEX(Base!154:154,0,MATCH(Planilha2!$U154,Base!154:154,0)+2),1),INDEX(Base!154:154,0,MATCH(Planilha2!$U154,Base!154:154,0)+2))</f>
+        <f t="array" ref="X154">IF(LEN(INDEX(Base!154:154,0,MATCH(Output!$U154,Base!154:154,0)+2))&gt;2,LEFT(INDEX(Base!154:154,0,MATCH(Output!$U154,Base!154:154,0)+2),1),INDEX(Base!154:154,0,MATCH(Output!$U154,Base!154:154,0)+2))</f>
         <v>#N/A</v>
       </c>
       <c r="Y154" t="e" cm="1">
-        <f t="array" ref="Y154">IF(LEN(INDEX(Base!154:154,0,MATCH(Planilha2!$U154,Base!154:154,0)+2))&gt;2,LEFT(INDEX(Base!154:154,0,MATCH(Planilha2!$U154,Base!154:154,0)+2),1),INDEX(Base!154:154,0,MATCH(Planilha2!$U154,Base!154:154,0)+2))</f>
+        <f t="array" ref="Y154">IF(LEN(INDEX(Base!154:154,0,MATCH(Output!$U154,Base!154:154,0)+2))&gt;2,LEFT(INDEX(Base!154:154,0,MATCH(Output!$U154,Base!154:154,0)+2),1),INDEX(Base!154:154,0,MATCH(Output!$U154,Base!154:154,0)+2))</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="155" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A155">
+        <f t="shared" ref="A155:A161" si="2">A154+1</f>
+        <v>153</v>
+      </c>
       <c r="B155">
         <f>IF(OR(ISNUMBER(FIND(Configurações!$B$4,Base!B155)),ISNUMBER(FIND(Configurações!$B$5,Base!B155)),ISNUMBER(FIND(Configurações!$B$6,Base!B155)),ISNUMBER(FIND(Configurações!$B$7,Base!B155)),ISNUMBER(FIND(Configurações!$B$8,Base!B155)))=TRUE,Base!B155,0)</f>
         <v>0</v>
@@ -18995,7 +19592,7 @@
         <f>IF(TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("IPTU",Base!C155)),ISNUMBER(FIND("iptu",Base!C155)))=TRUE,RIGHT(Base!C155,5),0),"R$",""),"$",""))="0",TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("IPTU",Base!D155)),ISNUMBER(FIND("iptu",Base!D155)))=TRUE,RIGHT(Base!D155,5),0),"R$",""),"$","")),TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("iptu",Base!C155)),ISNUMBER(FIND("IPTU",Base!C155)))=TRUE,RIGHT(Base!C155,5),0),"R$",""),"$","")))</f>
         <v>0</v>
       </c>
-      <c r="F155" s="5" cm="1">
+      <c r="F155" s="4" cm="1">
         <f t="array" ref="F155">INDEX(Base!155:155,MATCH(MAX(LEN(Base!155:155)),LEN(Base!155:155),0))</f>
         <v>0</v>
       </c>
@@ -19048,23 +19645,27 @@
         <v>0</v>
       </c>
       <c r="V155" t="e" cm="1">
-        <f t="array" ref="V155">TRIM(SUBSTITUTE(INDEX(Base!155:155,0,MATCH(Planilha2!$U155,Base!155:155,0)+1),"m²",""))</f>
+        <f t="array" ref="V155">TRIM(SUBSTITUTE(INDEX(Base!155:155,0,MATCH(Output!$U155,Base!155:155,0)+1),"m²",""))</f>
         <v>#N/A</v>
       </c>
       <c r="W155" t="e" cm="1">
-        <f t="array" ref="W155">IF(LEN(INDEX(Base!155:155,0,MATCH(Planilha2!$U155,Base!155:155,0)+2))&gt;2,LEFT(INDEX(Base!155:155,0,MATCH(Planilha2!$U155,Base!155:155,0)+2),1),INDEX(Base!155:155,0,MATCH(Planilha2!$U155,Base!155:155,0)+2))</f>
+        <f t="array" ref="W155">IF(LEN(INDEX(Base!155:155,0,MATCH(Output!$U155,Base!155:155,0)+2))&gt;2,LEFT(INDEX(Base!155:155,0,MATCH(Output!$U155,Base!155:155,0)+2),1),INDEX(Base!155:155,0,MATCH(Output!$U155,Base!155:155,0)+2))</f>
         <v>#N/A</v>
       </c>
       <c r="X155" t="e" cm="1">
-        <f t="array" ref="X155">IF(LEN(INDEX(Base!155:155,0,MATCH(Planilha2!$U155,Base!155:155,0)+2))&gt;2,LEFT(INDEX(Base!155:155,0,MATCH(Planilha2!$U155,Base!155:155,0)+2),1),INDEX(Base!155:155,0,MATCH(Planilha2!$U155,Base!155:155,0)+2))</f>
+        <f t="array" ref="X155">IF(LEN(INDEX(Base!155:155,0,MATCH(Output!$U155,Base!155:155,0)+2))&gt;2,LEFT(INDEX(Base!155:155,0,MATCH(Output!$U155,Base!155:155,0)+2),1),INDEX(Base!155:155,0,MATCH(Output!$U155,Base!155:155,0)+2))</f>
         <v>#N/A</v>
       </c>
       <c r="Y155" t="e" cm="1">
-        <f t="array" ref="Y155">IF(LEN(INDEX(Base!155:155,0,MATCH(Planilha2!$U155,Base!155:155,0)+2))&gt;2,LEFT(INDEX(Base!155:155,0,MATCH(Planilha2!$U155,Base!155:155,0)+2),1),INDEX(Base!155:155,0,MATCH(Planilha2!$U155,Base!155:155,0)+2))</f>
+        <f t="array" ref="Y155">IF(LEN(INDEX(Base!155:155,0,MATCH(Output!$U155,Base!155:155,0)+2))&gt;2,LEFT(INDEX(Base!155:155,0,MATCH(Output!$U155,Base!155:155,0)+2),1),INDEX(Base!155:155,0,MATCH(Output!$U155,Base!155:155,0)+2))</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="156" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A156">
+        <f t="shared" si="2"/>
+        <v>154</v>
+      </c>
       <c r="B156">
         <f>IF(OR(ISNUMBER(FIND(Configurações!$B$4,Base!B156)),ISNUMBER(FIND(Configurações!$B$5,Base!B156)),ISNUMBER(FIND(Configurações!$B$6,Base!B156)),ISNUMBER(FIND(Configurações!$B$7,Base!B156)),ISNUMBER(FIND(Configurações!$B$8,Base!B156)))=TRUE,Base!B156,0)</f>
         <v>0</v>
@@ -19081,7 +19682,7 @@
         <f>IF(TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("IPTU",Base!C156)),ISNUMBER(FIND("iptu",Base!C156)))=TRUE,RIGHT(Base!C156,5),0),"R$",""),"$",""))="0",TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("IPTU",Base!D156)),ISNUMBER(FIND("iptu",Base!D156)))=TRUE,RIGHT(Base!D156,5),0),"R$",""),"$","")),TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("iptu",Base!C156)),ISNUMBER(FIND("IPTU",Base!C156)))=TRUE,RIGHT(Base!C156,5),0),"R$",""),"$","")))</f>
         <v>0</v>
       </c>
-      <c r="F156" s="5" cm="1">
+      <c r="F156" s="4" cm="1">
         <f t="array" ref="F156">INDEX(Base!156:156,MATCH(MAX(LEN(Base!156:156)),LEN(Base!156:156),0))</f>
         <v>0</v>
       </c>
@@ -19134,23 +19735,27 @@
         <v>0</v>
       </c>
       <c r="V156" t="e" cm="1">
-        <f t="array" ref="V156">TRIM(SUBSTITUTE(INDEX(Base!156:156,0,MATCH(Planilha2!$U156,Base!156:156,0)+1),"m²",""))</f>
+        <f t="array" ref="V156">TRIM(SUBSTITUTE(INDEX(Base!156:156,0,MATCH(Output!$U156,Base!156:156,0)+1),"m²",""))</f>
         <v>#N/A</v>
       </c>
       <c r="W156" t="e" cm="1">
-        <f t="array" ref="W156">IF(LEN(INDEX(Base!156:156,0,MATCH(Planilha2!$U156,Base!156:156,0)+2))&gt;2,LEFT(INDEX(Base!156:156,0,MATCH(Planilha2!$U156,Base!156:156,0)+2),1),INDEX(Base!156:156,0,MATCH(Planilha2!$U156,Base!156:156,0)+2))</f>
+        <f t="array" ref="W156">IF(LEN(INDEX(Base!156:156,0,MATCH(Output!$U156,Base!156:156,0)+2))&gt;2,LEFT(INDEX(Base!156:156,0,MATCH(Output!$U156,Base!156:156,0)+2),1),INDEX(Base!156:156,0,MATCH(Output!$U156,Base!156:156,0)+2))</f>
         <v>#N/A</v>
       </c>
       <c r="X156" t="e" cm="1">
-        <f t="array" ref="X156">IF(LEN(INDEX(Base!156:156,0,MATCH(Planilha2!$U156,Base!156:156,0)+2))&gt;2,LEFT(INDEX(Base!156:156,0,MATCH(Planilha2!$U156,Base!156:156,0)+2),1),INDEX(Base!156:156,0,MATCH(Planilha2!$U156,Base!156:156,0)+2))</f>
+        <f t="array" ref="X156">IF(LEN(INDEX(Base!156:156,0,MATCH(Output!$U156,Base!156:156,0)+2))&gt;2,LEFT(INDEX(Base!156:156,0,MATCH(Output!$U156,Base!156:156,0)+2),1),INDEX(Base!156:156,0,MATCH(Output!$U156,Base!156:156,0)+2))</f>
         <v>#N/A</v>
       </c>
       <c r="Y156" t="e" cm="1">
-        <f t="array" ref="Y156">IF(LEN(INDEX(Base!156:156,0,MATCH(Planilha2!$U156,Base!156:156,0)+2))&gt;2,LEFT(INDEX(Base!156:156,0,MATCH(Planilha2!$U156,Base!156:156,0)+2),1),INDEX(Base!156:156,0,MATCH(Planilha2!$U156,Base!156:156,0)+2))</f>
+        <f t="array" ref="Y156">IF(LEN(INDEX(Base!156:156,0,MATCH(Output!$U156,Base!156:156,0)+2))&gt;2,LEFT(INDEX(Base!156:156,0,MATCH(Output!$U156,Base!156:156,0)+2),1),INDEX(Base!156:156,0,MATCH(Output!$U156,Base!156:156,0)+2))</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="157" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A157">
+        <f t="shared" si="2"/>
+        <v>155</v>
+      </c>
       <c r="B157">
         <f>IF(OR(ISNUMBER(FIND(Configurações!$B$4,Base!B157)),ISNUMBER(FIND(Configurações!$B$5,Base!B157)),ISNUMBER(FIND(Configurações!$B$6,Base!B157)),ISNUMBER(FIND(Configurações!$B$7,Base!B157)),ISNUMBER(FIND(Configurações!$B$8,Base!B157)))=TRUE,Base!B157,0)</f>
         <v>0</v>
@@ -19167,7 +19772,7 @@
         <f>IF(TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("IPTU",Base!C157)),ISNUMBER(FIND("iptu",Base!C157)))=TRUE,RIGHT(Base!C157,5),0),"R$",""),"$",""))="0",TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("IPTU",Base!D157)),ISNUMBER(FIND("iptu",Base!D157)))=TRUE,RIGHT(Base!D157,5),0),"R$",""),"$","")),TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("iptu",Base!C157)),ISNUMBER(FIND("IPTU",Base!C157)))=TRUE,RIGHT(Base!C157,5),0),"R$",""),"$","")))</f>
         <v>0</v>
       </c>
-      <c r="F157" s="5" cm="1">
+      <c r="F157" s="4" cm="1">
         <f t="array" ref="F157">INDEX(Base!157:157,MATCH(MAX(LEN(Base!157:157)),LEN(Base!157:157),0))</f>
         <v>0</v>
       </c>
@@ -19220,23 +19825,27 @@
         <v>0</v>
       </c>
       <c r="V157" t="e" cm="1">
-        <f t="array" ref="V157">TRIM(SUBSTITUTE(INDEX(Base!157:157,0,MATCH(Planilha2!$U157,Base!157:157,0)+1),"m²",""))</f>
+        <f t="array" ref="V157">TRIM(SUBSTITUTE(INDEX(Base!157:157,0,MATCH(Output!$U157,Base!157:157,0)+1),"m²",""))</f>
         <v>#N/A</v>
       </c>
       <c r="W157" t="e" cm="1">
-        <f t="array" ref="W157">IF(LEN(INDEX(Base!157:157,0,MATCH(Planilha2!$U157,Base!157:157,0)+2))&gt;2,LEFT(INDEX(Base!157:157,0,MATCH(Planilha2!$U157,Base!157:157,0)+2),1),INDEX(Base!157:157,0,MATCH(Planilha2!$U157,Base!157:157,0)+2))</f>
+        <f t="array" ref="W157">IF(LEN(INDEX(Base!157:157,0,MATCH(Output!$U157,Base!157:157,0)+2))&gt;2,LEFT(INDEX(Base!157:157,0,MATCH(Output!$U157,Base!157:157,0)+2),1),INDEX(Base!157:157,0,MATCH(Output!$U157,Base!157:157,0)+2))</f>
         <v>#N/A</v>
       </c>
       <c r="X157" t="e" cm="1">
-        <f t="array" ref="X157">IF(LEN(INDEX(Base!157:157,0,MATCH(Planilha2!$U157,Base!157:157,0)+2))&gt;2,LEFT(INDEX(Base!157:157,0,MATCH(Planilha2!$U157,Base!157:157,0)+2),1),INDEX(Base!157:157,0,MATCH(Planilha2!$U157,Base!157:157,0)+2))</f>
+        <f t="array" ref="X157">IF(LEN(INDEX(Base!157:157,0,MATCH(Output!$U157,Base!157:157,0)+2))&gt;2,LEFT(INDEX(Base!157:157,0,MATCH(Output!$U157,Base!157:157,0)+2),1),INDEX(Base!157:157,0,MATCH(Output!$U157,Base!157:157,0)+2))</f>
         <v>#N/A</v>
       </c>
       <c r="Y157" t="e" cm="1">
-        <f t="array" ref="Y157">IF(LEN(INDEX(Base!157:157,0,MATCH(Planilha2!$U157,Base!157:157,0)+2))&gt;2,LEFT(INDEX(Base!157:157,0,MATCH(Planilha2!$U157,Base!157:157,0)+2),1),INDEX(Base!157:157,0,MATCH(Planilha2!$U157,Base!157:157,0)+2))</f>
+        <f t="array" ref="Y157">IF(LEN(INDEX(Base!157:157,0,MATCH(Output!$U157,Base!157:157,0)+2))&gt;2,LEFT(INDEX(Base!157:157,0,MATCH(Output!$U157,Base!157:157,0)+2),1),INDEX(Base!157:157,0,MATCH(Output!$U157,Base!157:157,0)+2))</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="158" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A158">
+        <f t="shared" si="2"/>
+        <v>156</v>
+      </c>
       <c r="B158">
         <f>IF(OR(ISNUMBER(FIND(Configurações!$B$4,Base!B158)),ISNUMBER(FIND(Configurações!$B$5,Base!B158)),ISNUMBER(FIND(Configurações!$B$6,Base!B158)),ISNUMBER(FIND(Configurações!$B$7,Base!B158)),ISNUMBER(FIND(Configurações!$B$8,Base!B158)))=TRUE,Base!B158,0)</f>
         <v>0</v>
@@ -19253,7 +19862,7 @@
         <f>IF(TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("IPTU",Base!C158)),ISNUMBER(FIND("iptu",Base!C158)))=TRUE,RIGHT(Base!C158,5),0),"R$",""),"$",""))="0",TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("IPTU",Base!D158)),ISNUMBER(FIND("iptu",Base!D158)))=TRUE,RIGHT(Base!D158,5),0),"R$",""),"$","")),TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("iptu",Base!C158)),ISNUMBER(FIND("IPTU",Base!C158)))=TRUE,RIGHT(Base!C158,5),0),"R$",""),"$","")))</f>
         <v>0</v>
       </c>
-      <c r="F158" s="5" cm="1">
+      <c r="F158" s="4" cm="1">
         <f t="array" ref="F158">INDEX(Base!158:158,MATCH(MAX(LEN(Base!158:158)),LEN(Base!158:158),0))</f>
         <v>0</v>
       </c>
@@ -19306,23 +19915,27 @@
         <v>0</v>
       </c>
       <c r="V158" t="e" cm="1">
-        <f t="array" ref="V158">TRIM(SUBSTITUTE(INDEX(Base!158:158,0,MATCH(Planilha2!$U158,Base!158:158,0)+1),"m²",""))</f>
+        <f t="array" ref="V158">TRIM(SUBSTITUTE(INDEX(Base!158:158,0,MATCH(Output!$U158,Base!158:158,0)+1),"m²",""))</f>
         <v>#N/A</v>
       </c>
       <c r="W158" t="e" cm="1">
-        <f t="array" ref="W158">IF(LEN(INDEX(Base!158:158,0,MATCH(Planilha2!$U158,Base!158:158,0)+2))&gt;2,LEFT(INDEX(Base!158:158,0,MATCH(Planilha2!$U158,Base!158:158,0)+2),1),INDEX(Base!158:158,0,MATCH(Planilha2!$U158,Base!158:158,0)+2))</f>
+        <f t="array" ref="W158">IF(LEN(INDEX(Base!158:158,0,MATCH(Output!$U158,Base!158:158,0)+2))&gt;2,LEFT(INDEX(Base!158:158,0,MATCH(Output!$U158,Base!158:158,0)+2),1),INDEX(Base!158:158,0,MATCH(Output!$U158,Base!158:158,0)+2))</f>
         <v>#N/A</v>
       </c>
       <c r="X158" t="e" cm="1">
-        <f t="array" ref="X158">IF(LEN(INDEX(Base!158:158,0,MATCH(Planilha2!$U158,Base!158:158,0)+2))&gt;2,LEFT(INDEX(Base!158:158,0,MATCH(Planilha2!$U158,Base!158:158,0)+2),1),INDEX(Base!158:158,0,MATCH(Planilha2!$U158,Base!158:158,0)+2))</f>
+        <f t="array" ref="X158">IF(LEN(INDEX(Base!158:158,0,MATCH(Output!$U158,Base!158:158,0)+2))&gt;2,LEFT(INDEX(Base!158:158,0,MATCH(Output!$U158,Base!158:158,0)+2),1),INDEX(Base!158:158,0,MATCH(Output!$U158,Base!158:158,0)+2))</f>
         <v>#N/A</v>
       </c>
       <c r="Y158" t="e" cm="1">
-        <f t="array" ref="Y158">IF(LEN(INDEX(Base!158:158,0,MATCH(Planilha2!$U158,Base!158:158,0)+2))&gt;2,LEFT(INDEX(Base!158:158,0,MATCH(Planilha2!$U158,Base!158:158,0)+2),1),INDEX(Base!158:158,0,MATCH(Planilha2!$U158,Base!158:158,0)+2))</f>
+        <f t="array" ref="Y158">IF(LEN(INDEX(Base!158:158,0,MATCH(Output!$U158,Base!158:158,0)+2))&gt;2,LEFT(INDEX(Base!158:158,0,MATCH(Output!$U158,Base!158:158,0)+2),1),INDEX(Base!158:158,0,MATCH(Output!$U158,Base!158:158,0)+2))</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="159" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A159">
+        <f t="shared" si="2"/>
+        <v>157</v>
+      </c>
       <c r="B159">
         <f>IF(OR(ISNUMBER(FIND(Configurações!$B$4,Base!B159)),ISNUMBER(FIND(Configurações!$B$5,Base!B159)),ISNUMBER(FIND(Configurações!$B$6,Base!B159)),ISNUMBER(FIND(Configurações!$B$7,Base!B159)),ISNUMBER(FIND(Configurações!$B$8,Base!B159)))=TRUE,Base!B159,0)</f>
         <v>0</v>
@@ -19339,7 +19952,7 @@
         <f>IF(TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("IPTU",Base!C159)),ISNUMBER(FIND("iptu",Base!C159)))=TRUE,RIGHT(Base!C159,5),0),"R$",""),"$",""))="0",TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("IPTU",Base!D159)),ISNUMBER(FIND("iptu",Base!D159)))=TRUE,RIGHT(Base!D159,5),0),"R$",""),"$","")),TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("iptu",Base!C159)),ISNUMBER(FIND("IPTU",Base!C159)))=TRUE,RIGHT(Base!C159,5),0),"R$",""),"$","")))</f>
         <v>0</v>
       </c>
-      <c r="F159" s="5" cm="1">
+      <c r="F159" s="4" cm="1">
         <f t="array" ref="F159">INDEX(Base!159:159,MATCH(MAX(LEN(Base!159:159)),LEN(Base!159:159),0))</f>
         <v>0</v>
       </c>
@@ -19392,23 +20005,27 @@
         <v>0</v>
       </c>
       <c r="V159" t="e" cm="1">
-        <f t="array" ref="V159">TRIM(SUBSTITUTE(INDEX(Base!159:159,0,MATCH(Planilha2!$U159,Base!159:159,0)+1),"m²",""))</f>
+        <f t="array" ref="V159">TRIM(SUBSTITUTE(INDEX(Base!159:159,0,MATCH(Output!$U159,Base!159:159,0)+1),"m²",""))</f>
         <v>#N/A</v>
       </c>
       <c r="W159" t="e" cm="1">
-        <f t="array" ref="W159">IF(LEN(INDEX(Base!159:159,0,MATCH(Planilha2!$U159,Base!159:159,0)+2))&gt;2,LEFT(INDEX(Base!159:159,0,MATCH(Planilha2!$U159,Base!159:159,0)+2),1),INDEX(Base!159:159,0,MATCH(Planilha2!$U159,Base!159:159,0)+2))</f>
+        <f t="array" ref="W159">IF(LEN(INDEX(Base!159:159,0,MATCH(Output!$U159,Base!159:159,0)+2))&gt;2,LEFT(INDEX(Base!159:159,0,MATCH(Output!$U159,Base!159:159,0)+2),1),INDEX(Base!159:159,0,MATCH(Output!$U159,Base!159:159,0)+2))</f>
         <v>#N/A</v>
       </c>
       <c r="X159" t="e" cm="1">
-        <f t="array" ref="X159">IF(LEN(INDEX(Base!159:159,0,MATCH(Planilha2!$U159,Base!159:159,0)+2))&gt;2,LEFT(INDEX(Base!159:159,0,MATCH(Planilha2!$U159,Base!159:159,0)+2),1),INDEX(Base!159:159,0,MATCH(Planilha2!$U159,Base!159:159,0)+2))</f>
+        <f t="array" ref="X159">IF(LEN(INDEX(Base!159:159,0,MATCH(Output!$U159,Base!159:159,0)+2))&gt;2,LEFT(INDEX(Base!159:159,0,MATCH(Output!$U159,Base!159:159,0)+2),1),INDEX(Base!159:159,0,MATCH(Output!$U159,Base!159:159,0)+2))</f>
         <v>#N/A</v>
       </c>
       <c r="Y159" t="e" cm="1">
-        <f t="array" ref="Y159">IF(LEN(INDEX(Base!159:159,0,MATCH(Planilha2!$U159,Base!159:159,0)+2))&gt;2,LEFT(INDEX(Base!159:159,0,MATCH(Planilha2!$U159,Base!159:159,0)+2),1),INDEX(Base!159:159,0,MATCH(Planilha2!$U159,Base!159:159,0)+2))</f>
+        <f t="array" ref="Y159">IF(LEN(INDEX(Base!159:159,0,MATCH(Output!$U159,Base!159:159,0)+2))&gt;2,LEFT(INDEX(Base!159:159,0,MATCH(Output!$U159,Base!159:159,0)+2),1),INDEX(Base!159:159,0,MATCH(Output!$U159,Base!159:159,0)+2))</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="160" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A160">
+        <f t="shared" si="2"/>
+        <v>158</v>
+      </c>
       <c r="B160">
         <f>IF(OR(ISNUMBER(FIND(Configurações!$B$4,Base!B160)),ISNUMBER(FIND(Configurações!$B$5,Base!B160)),ISNUMBER(FIND(Configurações!$B$6,Base!B160)),ISNUMBER(FIND(Configurações!$B$7,Base!B160)),ISNUMBER(FIND(Configurações!$B$8,Base!B160)))=TRUE,Base!B160,0)</f>
         <v>0</v>
@@ -19425,7 +20042,7 @@
         <f>IF(TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("IPTU",Base!C160)),ISNUMBER(FIND("iptu",Base!C160)))=TRUE,RIGHT(Base!C160,5),0),"R$",""),"$",""))="0",TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("IPTU",Base!D160)),ISNUMBER(FIND("iptu",Base!D160)))=TRUE,RIGHT(Base!D160,5),0),"R$",""),"$","")),TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("iptu",Base!C160)),ISNUMBER(FIND("IPTU",Base!C160)))=TRUE,RIGHT(Base!C160,5),0),"R$",""),"$","")))</f>
         <v>0</v>
       </c>
-      <c r="F160" s="5" cm="1">
+      <c r="F160" s="4" cm="1">
         <f t="array" ref="F160">INDEX(Base!160:160,MATCH(MAX(LEN(Base!160:160)),LEN(Base!160:160),0))</f>
         <v>0</v>
       </c>
@@ -19478,23 +20095,27 @@
         <v>0</v>
       </c>
       <c r="V160" t="e" cm="1">
-        <f t="array" ref="V160">TRIM(SUBSTITUTE(INDEX(Base!160:160,0,MATCH(Planilha2!$U160,Base!160:160,0)+1),"m²",""))</f>
+        <f t="array" ref="V160">TRIM(SUBSTITUTE(INDEX(Base!160:160,0,MATCH(Output!$U160,Base!160:160,0)+1),"m²",""))</f>
         <v>#N/A</v>
       </c>
       <c r="W160" t="e" cm="1">
-        <f t="array" ref="W160">IF(LEN(INDEX(Base!160:160,0,MATCH(Planilha2!$U160,Base!160:160,0)+2))&gt;2,LEFT(INDEX(Base!160:160,0,MATCH(Planilha2!$U160,Base!160:160,0)+2),1),INDEX(Base!160:160,0,MATCH(Planilha2!$U160,Base!160:160,0)+2))</f>
+        <f t="array" ref="W160">IF(LEN(INDEX(Base!160:160,0,MATCH(Output!$U160,Base!160:160,0)+2))&gt;2,LEFT(INDEX(Base!160:160,0,MATCH(Output!$U160,Base!160:160,0)+2),1),INDEX(Base!160:160,0,MATCH(Output!$U160,Base!160:160,0)+2))</f>
         <v>#N/A</v>
       </c>
       <c r="X160" t="e" cm="1">
-        <f t="array" ref="X160">IF(LEN(INDEX(Base!160:160,0,MATCH(Planilha2!$U160,Base!160:160,0)+2))&gt;2,LEFT(INDEX(Base!160:160,0,MATCH(Planilha2!$U160,Base!160:160,0)+2),1),INDEX(Base!160:160,0,MATCH(Planilha2!$U160,Base!160:160,0)+2))</f>
+        <f t="array" ref="X160">IF(LEN(INDEX(Base!160:160,0,MATCH(Output!$U160,Base!160:160,0)+2))&gt;2,LEFT(INDEX(Base!160:160,0,MATCH(Output!$U160,Base!160:160,0)+2),1),INDEX(Base!160:160,0,MATCH(Output!$U160,Base!160:160,0)+2))</f>
         <v>#N/A</v>
       </c>
       <c r="Y160" t="e" cm="1">
-        <f t="array" ref="Y160">IF(LEN(INDEX(Base!160:160,0,MATCH(Planilha2!$U160,Base!160:160,0)+2))&gt;2,LEFT(INDEX(Base!160:160,0,MATCH(Planilha2!$U160,Base!160:160,0)+2),1),INDEX(Base!160:160,0,MATCH(Planilha2!$U160,Base!160:160,0)+2))</f>
+        <f t="array" ref="Y160">IF(LEN(INDEX(Base!160:160,0,MATCH(Output!$U160,Base!160:160,0)+2))&gt;2,LEFT(INDEX(Base!160:160,0,MATCH(Output!$U160,Base!160:160,0)+2),1),INDEX(Base!160:160,0,MATCH(Output!$U160,Base!160:160,0)+2))</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="161" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A161">
+        <f t="shared" si="2"/>
+        <v>159</v>
+      </c>
       <c r="B161">
         <f>IF(OR(ISNUMBER(FIND(Configurações!$B$4,Base!B161)),ISNUMBER(FIND(Configurações!$B$5,Base!B161)),ISNUMBER(FIND(Configurações!$B$6,Base!B161)),ISNUMBER(FIND(Configurações!$B$7,Base!B161)),ISNUMBER(FIND(Configurações!$B$8,Base!B161)))=TRUE,Base!B161,0)</f>
         <v>0</v>
@@ -19511,7 +20132,7 @@
         <f>IF(TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("IPTU",Base!C161)),ISNUMBER(FIND("iptu",Base!C161)))=TRUE,RIGHT(Base!C161,5),0),"R$",""),"$",""))="0",TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("IPTU",Base!D161)),ISNUMBER(FIND("iptu",Base!D161)))=TRUE,RIGHT(Base!D161,5),0),"R$",""),"$","")),TRIM(SUBSTITUTE(SUBSTITUTE(IF(OR(ISNUMBER(FIND("iptu",Base!C161)),ISNUMBER(FIND("IPTU",Base!C161)))=TRUE,RIGHT(Base!C161,5),0),"R$",""),"$","")))</f>
         <v>0</v>
       </c>
-      <c r="F161" s="5" cm="1">
+      <c r="F161" s="4" cm="1">
         <f t="array" ref="F161">INDEX(Base!161:161,MATCH(MAX(LEN(Base!161:161)),LEN(Base!161:161),0))</f>
         <v>0</v>
       </c>
@@ -19564,24 +20185,25 @@
         <v>0</v>
       </c>
       <c r="V161" t="e" cm="1">
-        <f t="array" ref="V161">TRIM(SUBSTITUTE(INDEX(Base!161:161,0,MATCH(Planilha2!$U161,Base!161:161,0)+1),"m²",""))</f>
+        <f t="array" ref="V161">TRIM(SUBSTITUTE(INDEX(Base!161:161,0,MATCH(Output!$U161,Base!161:161,0)+1),"m²",""))</f>
         <v>#N/A</v>
       </c>
       <c r="W161" t="e" cm="1">
-        <f t="array" ref="W161">IF(LEN(INDEX(Base!161:161,0,MATCH(Planilha2!$U161,Base!161:161,0)+2))&gt;2,LEFT(INDEX(Base!161:161,0,MATCH(Planilha2!$U161,Base!161:161,0)+2),1),INDEX(Base!161:161,0,MATCH(Planilha2!$U161,Base!161:161,0)+2))</f>
+        <f t="array" ref="W161">IF(LEN(INDEX(Base!161:161,0,MATCH(Output!$U161,Base!161:161,0)+2))&gt;2,LEFT(INDEX(Base!161:161,0,MATCH(Output!$U161,Base!161:161,0)+2),1),INDEX(Base!161:161,0,MATCH(Output!$U161,Base!161:161,0)+2))</f>
         <v>#N/A</v>
       </c>
       <c r="X161" t="e" cm="1">
-        <f t="array" ref="X161">IF(LEN(INDEX(Base!161:161,0,MATCH(Planilha2!$U161,Base!161:161,0)+2))&gt;2,LEFT(INDEX(Base!161:161,0,MATCH(Planilha2!$U161,Base!161:161,0)+2),1),INDEX(Base!161:161,0,MATCH(Planilha2!$U161,Base!161:161,0)+2))</f>
+        <f t="array" ref="X161">IF(LEN(INDEX(Base!161:161,0,MATCH(Output!$U161,Base!161:161,0)+2))&gt;2,LEFT(INDEX(Base!161:161,0,MATCH(Output!$U161,Base!161:161,0)+2),1),INDEX(Base!161:161,0,MATCH(Output!$U161,Base!161:161,0)+2))</f>
         <v>#N/A</v>
       </c>
       <c r="Y161" t="e" cm="1">
-        <f t="array" ref="Y161">IF(LEN(INDEX(Base!161:161,0,MATCH(Planilha2!$U161,Base!161:161,0)+2))&gt;2,LEFT(INDEX(Base!161:161,0,MATCH(Planilha2!$U161,Base!161:161,0)+2),1),INDEX(Base!161:161,0,MATCH(Planilha2!$U161,Base!161:161,0)+2))</f>
+        <f t="array" ref="Y161">IF(LEN(INDEX(Base!161:161,0,MATCH(Output!$U161,Base!161:161,0)+2))&gt;2,LEFT(INDEX(Base!161:161,0,MATCH(Output!$U161,Base!161:161,0)+2),1),INDEX(Base!161:161,0,MATCH(Output!$U161,Base!161:161,0)+2))</f>
         <v>#N/A</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:AA62" xr:uid="{A5409845-4C22-456B-92A8-711158DF084A}"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
